--- a/ontology/dataset-voc.xlsx
+++ b/ontology/dataset-voc.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/niva/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/niva/Desktop/generic-dataset-metadata-template/ontology/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FDE4AD4-D227-A840-A44E-CF6BA34D1F70}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F28B472-BA64-AF40-B23C-C271C53C788B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="68800" windowHeight="28340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="21820" yWindow="4080" windowWidth="32160" windowHeight="23220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="controlled-termilogy" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="D17" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="D16" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="86">
   <si>
     <t>ConceptScheme URI</t>
   </si>
@@ -122,9 +122,6 @@
     <t>2020-10-23T08:00:00+01:00</t>
   </si>
   <si>
-    <t>skos:hasTopConcept</t>
-  </si>
-  <si>
     <t>Identifier</t>
   </si>
   <si>
@@ -156,9 +153,6 @@
   </si>
   <si>
     <t>This is a set of controlled terms for the category of reseource being described.</t>
-  </si>
-  <si>
-    <t>dsvoc:</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
@@ -430,7 +424,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -442,7 +436,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -690,17 +683,17 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:T1001"/>
+  <dimension ref="A1:T1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+    <sheetView tabSelected="1" zoomScale="215" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="22.42578125" customWidth="1"/>
     <col min="2" max="2" width="50.7109375" customWidth="1"/>
-    <col min="4" max="4" width="45.28515625" customWidth="1"/>
+    <col min="4" max="4" width="63.7109375" customWidth="1"/>
     <col min="5" max="5" width="27.5703125" customWidth="1"/>
     <col min="6" max="6" width="40.7109375" customWidth="1"/>
     <col min="7" max="7" width="32.28515625" customWidth="1"/>
@@ -1001,12 +994,8 @@
       <c r="T11" s="3"/>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A12" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>1</v>
-      </c>
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
@@ -1093,15 +1082,33 @@
       <c r="T15" s="3"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
+      <c r="A16" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="H16" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I16" s="11" t="s">
+        <v>28</v>
+      </c>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
@@ -1115,33 +1122,24 @@
       <c r="T16" s="3"/>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A17" s="10" t="s">
-        <v>21</v>
+      <c r="A17" s="12" t="str">
+        <f t="shared" ref="A17:A35" si="0">"dsvoc:"&amp;B17</f>
+        <v>dsvoc:ResourceTypeCategory</v>
       </c>
-      <c r="B17" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="D17" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="E17" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="F17" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="G17" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="H17" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="I17" s="12" t="s">
+      <c r="B17" s="13" t="s">
         <v>29</v>
       </c>
+      <c r="C17" s="12"/>
+      <c r="D17" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17" s="15"/>
+      <c r="F17" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
@@ -1155,26 +1153,24 @@
       <c r="T17" s="3"/>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A18" s="13" t="str">
-        <f t="shared" ref="A18:A36" si="0">"dsvoc:"&amp;B18</f>
-        <v>dsvoc:ResourceTypeCategory</v>
+      <c r="A18" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>dsvoc:SecondTopConcept</v>
       </c>
-      <c r="B18" s="14" t="s">
-        <v>30</v>
+      <c r="B18" s="12" t="s">
+        <v>32</v>
       </c>
-      <c r="C18" s="13"/>
-      <c r="D18" s="15" t="s">
+      <c r="C18" s="12"/>
+      <c r="D18" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="E18" s="15"/>
+      <c r="F18" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="E18" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="F18" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="G18" s="17"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="17"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="16"/>
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
@@ -1188,26 +1184,26 @@
       <c r="T18" s="3"/>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A19" s="13" t="str">
+      <c r="A19" s="17" t="str">
         <f t="shared" si="0"/>
-        <v>dsvoc:SecondTopConcept</v>
+        <v>dsvoc:Audiovisual</v>
       </c>
-      <c r="B19" s="13" t="s">
+      <c r="B19" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="C19" s="13"/>
-      <c r="D19" s="15" t="s">
+      <c r="C19" s="19"/>
+      <c r="D19" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="E19" s="16" t="s">
-        <v>32</v>
+      <c r="E19" s="20" t="s">
+        <v>36</v>
       </c>
-      <c r="F19" s="13" t="s">
-        <v>33</v>
+      <c r="F19" s="19"/>
+      <c r="G19" s="21" t="s">
+        <v>37</v>
       </c>
-      <c r="G19" s="17"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="17"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="19"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
@@ -1221,26 +1217,26 @@
       <c r="T19" s="3"/>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A20" s="18" t="str">
+      <c r="A20" s="17" t="str">
         <f t="shared" si="0"/>
-        <v>dsvoc:Audiovisual</v>
+        <v>dsvoc:Collection</v>
       </c>
-      <c r="B20" s="19" t="s">
+      <c r="B20" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" s="22"/>
+      <c r="D20" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="E20" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="C20" s="20"/>
-      <c r="D20" s="19" t="s">
-        <v>37</v>
+      <c r="F20" s="22"/>
+      <c r="G20" s="21" t="s">
+        <v>14</v>
       </c>
-      <c r="E20" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="F20" s="20"/>
-      <c r="G20" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="H20" s="20"/>
-      <c r="I20" s="20"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="19"/>
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
       <c r="L20" s="3"/>
@@ -1254,26 +1250,26 @@
       <c r="T20" s="3"/>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A21" s="18" t="str">
+      <c r="A21" s="17" t="str">
         <f t="shared" si="0"/>
-        <v>dsvoc:Collection</v>
+        <v>dsvoc:DataPaper</v>
       </c>
-      <c r="B21" s="18" t="s">
+      <c r="B21" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="C21" s="23"/>
-      <c r="D21" s="19" t="s">
+      <c r="C21" s="22"/>
+      <c r="D21" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="E21" s="21" t="s">
-        <v>38</v>
+      <c r="E21" s="20" t="s">
+        <v>36</v>
       </c>
-      <c r="F21" s="23"/>
-      <c r="G21" s="22" t="s">
-        <v>14</v>
+      <c r="F21" s="19"/>
+      <c r="G21" s="21" t="s">
+        <v>42</v>
       </c>
-      <c r="H21" s="20"/>
-      <c r="I21" s="20"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="22"/>
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
       <c r="L21" s="3"/>
@@ -1287,26 +1283,26 @@
       <c r="T21" s="3"/>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A22" s="18" t="str">
+      <c r="A22" s="17" t="str">
         <f t="shared" si="0"/>
-        <v>dsvoc:DataPaper</v>
+        <v>dsvoc:DataCatalog</v>
       </c>
-      <c r="B22" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="C22" s="23"/>
-      <c r="D22" s="18" t="s">
+      <c r="B22" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="E22" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="F22" s="20"/>
-      <c r="G22" s="22" t="s">
+      <c r="C22" s="22"/>
+      <c r="D22" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="H22" s="23"/>
-      <c r="I22" s="23"/>
+      <c r="E22" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="F22" s="22"/>
+      <c r="G22" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="H22" s="19"/>
+      <c r="I22" s="19"/>
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
       <c r="L22" s="3"/>
@@ -1320,26 +1316,26 @@
       <c r="T22" s="3"/>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A23" s="18" t="str">
+      <c r="A23" s="17" t="str">
         <f t="shared" si="0"/>
-        <v>dsvoc:DataCatalog</v>
+        <v>dsvoc:Dataset</v>
       </c>
-      <c r="B23" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="C23" s="23"/>
-      <c r="D23" s="19" t="s">
+      <c r="B23" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="E23" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="F23" s="23"/>
-      <c r="G23" s="22" t="s">
+      <c r="C23" s="22"/>
+      <c r="D23" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
+      <c r="E23" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="F23" s="22"/>
+      <c r="G23" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="H23" s="22"/>
+      <c r="I23" s="22"/>
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
@@ -1353,26 +1349,26 @@
       <c r="T23" s="3"/>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A24" s="18" t="str">
+      <c r="A24" s="17" t="str">
         <f t="shared" si="0"/>
-        <v>dsvoc:Dataset</v>
+        <v>dsvoc:DataStream</v>
       </c>
-      <c r="B24" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="C24" s="23"/>
-      <c r="D24" s="18" t="s">
+      <c r="B24" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="E24" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="F24" s="23"/>
-      <c r="G24" s="22" t="s">
+      <c r="C24" s="22"/>
+      <c r="D24" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="H24" s="23"/>
-      <c r="I24" s="23"/>
+      <c r="E24" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="F24" s="22"/>
+      <c r="G24" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="H24" s="22"/>
+      <c r="I24" s="22"/>
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
       <c r="L24" s="3"/>
@@ -1386,26 +1382,26 @@
       <c r="T24" s="3"/>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A25" s="18" t="str">
+      <c r="A25" s="17" t="str">
         <f t="shared" si="0"/>
-        <v>dsvoc:DataStream</v>
+        <v>dsvoc:Event</v>
       </c>
-      <c r="B25" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="C25" s="23"/>
-      <c r="D25" s="18" t="s">
+      <c r="B25" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="E25" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="F25" s="23"/>
-      <c r="G25" s="22" t="s">
+      <c r="C25" s="22"/>
+      <c r="D25" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="H25" s="23"/>
-      <c r="I25" s="23"/>
+      <c r="E25" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="F25" s="22"/>
+      <c r="G25" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="H25" s="22"/>
+      <c r="I25" s="22"/>
       <c r="J25" s="3"/>
       <c r="K25" s="3"/>
       <c r="L25" s="3"/>
@@ -1419,26 +1415,26 @@
       <c r="T25" s="3"/>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A26" s="18" t="str">
+      <c r="A26" s="17" t="str">
         <f t="shared" si="0"/>
-        <v>dsvoc:Event</v>
+        <v>dsvoc:Image</v>
       </c>
-      <c r="B26" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="C26" s="23"/>
-      <c r="D26" s="18" t="s">
+      <c r="B26" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="E26" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="F26" s="23"/>
-      <c r="G26" s="22" t="s">
+      <c r="C26" s="22"/>
+      <c r="D26" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="H26" s="23"/>
-      <c r="I26" s="23"/>
+      <c r="E26" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="F26" s="22"/>
+      <c r="G26" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="H26" s="22"/>
+      <c r="I26" s="22"/>
       <c r="J26" s="3"/>
       <c r="K26" s="3"/>
       <c r="L26" s="3"/>
@@ -1452,26 +1448,26 @@
       <c r="T26" s="3"/>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A27" s="18" t="str">
+      <c r="A27" s="17" t="str">
         <f t="shared" si="0"/>
-        <v>dsvoc:Image</v>
+        <v>dsvoc:InteractiveResource</v>
       </c>
-      <c r="B27" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="C27" s="23"/>
-      <c r="D27" s="18" t="s">
+      <c r="B27" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="E27" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="F27" s="23"/>
-      <c r="G27" s="22" t="s">
+      <c r="C27" s="22"/>
+      <c r="D27" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="H27" s="23"/>
-      <c r="I27" s="23"/>
+      <c r="E27" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="F27" s="22"/>
+      <c r="G27" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="H27" s="22"/>
+      <c r="I27" s="22"/>
       <c r="J27" s="3"/>
       <c r="K27" s="3"/>
       <c r="L27" s="3"/>
@@ -1485,26 +1481,26 @@
       <c r="T27" s="3"/>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A28" s="18" t="str">
+      <c r="A28" s="17" t="str">
         <f t="shared" si="0"/>
-        <v>dsvoc:InteractiveResource</v>
+        <v>dsvoc:Model</v>
       </c>
-      <c r="B28" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="C28" s="23"/>
-      <c r="D28" s="18" t="s">
+      <c r="B28" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="E28" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="F28" s="23"/>
-      <c r="G28" s="22" t="s">
+      <c r="C28" s="22"/>
+      <c r="D28" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="H28" s="23"/>
-      <c r="I28" s="23"/>
+      <c r="E28" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="F28" s="22"/>
+      <c r="G28" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="H28" s="22"/>
+      <c r="I28" s="22"/>
       <c r="J28" s="3"/>
       <c r="K28" s="3"/>
       <c r="L28" s="3"/>
@@ -1518,26 +1514,26 @@
       <c r="T28" s="3"/>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A29" s="18" t="str">
+      <c r="A29" s="17" t="str">
         <f t="shared" si="0"/>
-        <v>dsvoc:Model</v>
+        <v>dsvoc:PhysicalObject</v>
       </c>
-      <c r="B29" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="C29" s="23"/>
-      <c r="D29" s="18" t="s">
+      <c r="B29" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="E29" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="F29" s="23"/>
-      <c r="G29" s="22" t="s">
+      <c r="C29" s="22"/>
+      <c r="D29" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="H29" s="23"/>
-      <c r="I29" s="23"/>
+      <c r="E29" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="F29" s="22"/>
+      <c r="G29" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="H29" s="22"/>
+      <c r="I29" s="22"/>
       <c r="J29" s="3"/>
       <c r="K29" s="3"/>
       <c r="L29" s="3"/>
@@ -1551,26 +1547,26 @@
       <c r="T29" s="3"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A30" s="18" t="str">
+      <c r="A30" s="17" t="str">
         <f t="shared" si="0"/>
-        <v>dsvoc:PhysicalObject</v>
+        <v>dsvoc:Service</v>
       </c>
-      <c r="B30" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="C30" s="23"/>
-      <c r="D30" s="18" t="s">
+      <c r="B30" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="E30" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="F30" s="23"/>
-      <c r="G30" s="22" t="s">
+      <c r="C30" s="22"/>
+      <c r="D30" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="H30" s="23"/>
-      <c r="I30" s="23"/>
+      <c r="E30" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="F30" s="22"/>
+      <c r="G30" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="H30" s="22"/>
+      <c r="I30" s="22"/>
       <c r="J30" s="3"/>
       <c r="K30" s="3"/>
       <c r="L30" s="3"/>
@@ -1584,26 +1580,26 @@
       <c r="T30" s="3"/>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A31" s="18" t="str">
+      <c r="A31" s="17" t="str">
         <f t="shared" si="0"/>
-        <v>dsvoc:Service</v>
+        <v>dsvoc:Software</v>
       </c>
-      <c r="B31" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="C31" s="23"/>
-      <c r="D31" s="18" t="s">
+      <c r="B31" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="E31" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="F31" s="23"/>
-      <c r="G31" s="22" t="s">
+      <c r="C31" s="22"/>
+      <c r="D31" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="H31" s="23"/>
-      <c r="I31" s="23"/>
+      <c r="E31" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="F31" s="22"/>
+      <c r="G31" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="H31" s="22"/>
+      <c r="I31" s="22"/>
       <c r="J31" s="3"/>
       <c r="K31" s="3"/>
       <c r="L31" s="3"/>
@@ -1617,26 +1613,26 @@
       <c r="T31" s="3"/>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A32" s="18" t="str">
+      <c r="A32" s="17" t="str">
         <f t="shared" si="0"/>
-        <v>dsvoc:Software</v>
+        <v>dsvoc:Sound</v>
       </c>
-      <c r="B32" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="C32" s="23"/>
-      <c r="D32" s="18" t="s">
+      <c r="B32" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="E32" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="F32" s="23"/>
-      <c r="G32" s="22" t="s">
+      <c r="C32" s="22"/>
+      <c r="D32" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="H32" s="23"/>
-      <c r="I32" s="23"/>
+      <c r="E32" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="F32" s="22"/>
+      <c r="G32" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="H32" s="22"/>
+      <c r="I32" s="22"/>
       <c r="J32" s="3"/>
       <c r="K32" s="3"/>
       <c r="L32" s="3"/>
@@ -1650,26 +1646,26 @@
       <c r="T32" s="3"/>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A33" s="18" t="str">
+      <c r="A33" s="17" t="str">
         <f t="shared" si="0"/>
-        <v>dsvoc:Sound</v>
+        <v>dsvoc:Text</v>
       </c>
-      <c r="B33" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="C33" s="23"/>
-      <c r="D33" s="18" t="s">
+      <c r="B33" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="E33" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="F33" s="23"/>
-      <c r="G33" s="22" t="s">
+      <c r="C33" s="22"/>
+      <c r="D33" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="H33" s="23"/>
-      <c r="I33" s="23"/>
+      <c r="E33" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="F33" s="22"/>
+      <c r="G33" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="H33" s="22"/>
+      <c r="I33" s="22"/>
       <c r="J33" s="3"/>
       <c r="K33" s="3"/>
       <c r="L33" s="3"/>
@@ -1683,26 +1679,28 @@
       <c r="T33" s="3"/>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A34" s="18" t="str">
+      <c r="A34" s="17" t="str">
         <f t="shared" si="0"/>
-        <v>dsvoc:Text</v>
+        <v>dsvoc:Workflow</v>
       </c>
-      <c r="B34" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="C34" s="23"/>
-      <c r="D34" s="18" t="s">
+      <c r="B34" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="E34" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="F34" s="23"/>
-      <c r="G34" s="22" t="s">
+      <c r="C34" s="22"/>
+      <c r="D34" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="H34" s="23"/>
-      <c r="I34" s="23"/>
+      <c r="E34" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="F34" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="G34" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="H34" s="22"/>
+      <c r="I34" s="22"/>
       <c r="J34" s="3"/>
       <c r="K34" s="3"/>
       <c r="L34" s="3"/>
@@ -1716,28 +1714,26 @@
       <c r="T34" s="3"/>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A35" s="18" t="str">
+      <c r="A35" s="17" t="str">
         <f t="shared" si="0"/>
-        <v>dsvoc:Workflow</v>
+        <v>dsvoc:Other</v>
       </c>
-      <c r="B35" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="C35" s="23"/>
-      <c r="D35" s="18" t="s">
-        <v>82</v>
-      </c>
-      <c r="E35" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="F35" s="24" t="s">
+      <c r="B35" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="G35" s="22" t="s">
+      <c r="C35" s="22"/>
+      <c r="D35" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="H35" s="23"/>
-      <c r="I35" s="23"/>
+      <c r="E35" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="F35" s="22"/>
+      <c r="G35" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="H35" s="22"/>
+      <c r="I35" s="22"/>
       <c r="J35" s="3"/>
       <c r="K35" s="3"/>
       <c r="L35" s="3"/>
@@ -1751,26 +1747,15 @@
       <c r="T35" s="3"/>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A36" s="18" t="str">
-        <f t="shared" si="0"/>
-        <v>dsvoc:Other</v>
-      </c>
-      <c r="B36" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="C36" s="23"/>
-      <c r="D36" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="E36" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="F36" s="23"/>
-      <c r="G36" s="22" t="s">
-        <v>87</v>
-      </c>
-      <c r="H36" s="23"/>
-      <c r="I36" s="23"/>
+      <c r="A36" s="3"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3"/>
       <c r="J36" s="3"/>
       <c r="K36" s="3"/>
       <c r="L36" s="3"/>
@@ -22991,38 +22976,15 @@
       <c r="S1000" s="3"/>
       <c r="T1000" s="3"/>
     </row>
-    <row r="1001" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A1001" s="3"/>
-      <c r="B1001" s="3"/>
-      <c r="C1001" s="3"/>
-      <c r="D1001" s="3"/>
-      <c r="E1001" s="3"/>
-      <c r="F1001" s="3"/>
-      <c r="G1001" s="3"/>
-      <c r="H1001" s="3"/>
-      <c r="I1001" s="3"/>
-      <c r="J1001" s="3"/>
-      <c r="K1001" s="3"/>
-      <c r="L1001" s="3"/>
-      <c r="M1001" s="3"/>
-      <c r="N1001" s="3"/>
-      <c r="O1001" s="3"/>
-      <c r="P1001" s="3"/>
-      <c r="Q1001" s="3"/>
-      <c r="R1001" s="3"/>
-      <c r="S1001" s="3"/>
-      <c r="T1001" s="3"/>
-    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B1" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="C2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
     <hyperlink ref="B8" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="B12" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="G20" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="F35" r:id="rId6" location="Workflow" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="G19" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="F34" r:id="rId5" location="Workflow" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId7"/>
+  <legacyDrawing r:id="rId6"/>
 </worksheet>
 </file>
--- a/ontology/dataset-voc.xlsx
+++ b/ontology/dataset-voc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Secondary_Drive/work/repos/FAIR-data/generic-dataset-metadata-template/ontology/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CA11D8A-ACD9-FF45-A5F1-704710E5179F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DCD456F-A3D2-BD44-921C-0641EAE66306}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="34400" yWindow="460" windowWidth="34400" windowHeight="28340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="wind-energy-parameters" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'wind-energy-parameters'!$A$18:$L$190</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'wind-energy-parameters'!$A$17:$L$189</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="894" uniqueCount="517">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="891" uniqueCount="515">
   <si>
     <t>ConceptScheme URI</t>
   </si>
@@ -385,12 +385,6 @@
   </si>
   <si>
     <t>Information about the award funder.</t>
-  </si>
-  <si>
-    <t>gdmt-property</t>
-  </si>
-  <si>
-    <t>http://vocab.fairdatacollective.org/gdmt/property/</t>
   </si>
   <si>
     <t>Ontology for Generic Dataset Metadata Template</t>
@@ -2195,13 +2189,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>151</xdr:row>
+      <xdr:row>150</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>151</xdr:row>
+      <xdr:row>150</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2256,13 +2250,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>151</xdr:row>
+      <xdr:row>150</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>151</xdr:row>
+      <xdr:row>150</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2317,7 +2311,7 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>151</xdr:row>
+      <xdr:row>150</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="12700" cy="12700"/>
@@ -2373,7 +2367,7 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>151</xdr:row>
+      <xdr:row>150</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="12700" cy="12700"/>
@@ -2429,7 +2423,7 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>151</xdr:row>
+      <xdr:row>150</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="12700" cy="12700"/>
@@ -2485,7 +2479,7 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>151</xdr:row>
+      <xdr:row>150</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="12700" cy="12700"/>
@@ -2541,7 +2535,7 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>151</xdr:row>
+      <xdr:row>150</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="12700" cy="12700"/>
@@ -2597,7 +2591,7 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>151</xdr:row>
+      <xdr:row>150</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="12700" cy="12700"/>
@@ -2653,7 +2647,7 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>169</xdr:row>
+      <xdr:row>168</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="12700" cy="12700"/>
@@ -2709,7 +2703,7 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>169</xdr:row>
+      <xdr:row>168</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="12700" cy="12700"/>
@@ -2765,7 +2759,7 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>169</xdr:row>
+      <xdr:row>168</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="12700" cy="12700"/>
@@ -2821,7 +2815,7 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>169</xdr:row>
+      <xdr:row>168</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="12700" cy="12700"/>
@@ -2877,7 +2871,7 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>169</xdr:row>
+      <xdr:row>168</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="12700" cy="12700"/>
@@ -2933,7 +2927,7 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>169</xdr:row>
+      <xdr:row>168</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="12700" cy="12700"/>
@@ -2989,7 +2983,7 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>169</xdr:row>
+      <xdr:row>168</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="12700" cy="12700"/>
@@ -3045,7 +3039,7 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>169</xdr:row>
+      <xdr:row>168</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="12700" cy="12700"/>
@@ -3101,7 +3095,7 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>191</xdr:row>
+      <xdr:row>190</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="12700" cy="12700"/>
@@ -3157,7 +3151,7 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>191</xdr:row>
+      <xdr:row>190</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="12700" cy="12700"/>
@@ -3213,7 +3207,7 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>191</xdr:row>
+      <xdr:row>190</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="12700" cy="12700"/>
@@ -3269,7 +3263,7 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>191</xdr:row>
+      <xdr:row>190</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="12700" cy="12700"/>
@@ -3325,7 +3319,7 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>191</xdr:row>
+      <xdr:row>190</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="12700" cy="12700"/>
@@ -3381,7 +3375,7 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>191</xdr:row>
+      <xdr:row>190</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="12700" cy="12700"/>
@@ -3437,7 +3431,7 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>191</xdr:row>
+      <xdr:row>190</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="12700" cy="12700"/>
@@ -3493,7 +3487,7 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>191</xdr:row>
+      <xdr:row>190</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="12700" cy="12700"/>
@@ -3746,10 +3740,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W948"/>
+  <dimension ref="A1:W947"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A124" zoomScale="180" zoomScaleNormal="187" workbookViewId="0">
-      <selection activeCell="D135" sqref="D135"/>
+    <sheetView tabSelected="1" topLeftCell="A126" zoomScale="180" zoomScaleNormal="187" workbookViewId="0">
+      <selection activeCell="B145" sqref="B145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
@@ -3832,10 +3826,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>117</v>
+        <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>118</v>
+        <v>3</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="5"/>
@@ -3863,10 +3857,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="5"/>
@@ -3890,14 +3884,14 @@
       <c r="W4" s="2"/>
     </row>
     <row r="5" spans="1:23" ht="16">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>4</v>
+      <c r="B5" s="7" t="s">
+        <v>21</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="5"/>
@@ -3925,10 +3919,10 @@
         <v>1</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="5"/>
@@ -3952,15 +3946,13 @@
       <c r="W6" s="2"/>
     </row>
     <row r="7" spans="1:23" ht="16">
-      <c r="A7" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>24</v>
-      </c>
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="5"/>
       <c r="F7" s="3"/>
@@ -3984,10 +3976,10 @@
     </row>
     <row r="8" spans="1:23" ht="16">
       <c r="A8" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -4013,10 +4005,10 @@
     </row>
     <row r="9" spans="1:23" ht="16">
       <c r="A9" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
@@ -4042,10 +4034,10 @@
     </row>
     <row r="10" spans="1:23" ht="16">
       <c r="A10" s="1" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>120</v>
+        <v>28</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
@@ -4074,7 +4066,7 @@
         <v>30</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
@@ -4100,11 +4092,9 @@
     </row>
     <row r="12" spans="1:23" ht="16">
       <c r="A12" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>31</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="5"/>
@@ -4129,9 +4119,11 @@
     </row>
     <row r="13" spans="1:23" ht="16">
       <c r="A13" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B13" s="2"/>
+        <v>9</v>
+      </c>
+      <c r="B13" s="2">
+        <v>0.1</v>
+      </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="5"/>
@@ -4156,13 +4148,13 @@
     </row>
     <row r="14" spans="1:23" ht="16">
       <c r="A14" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B14" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
+        <v>10</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
       <c r="E14" s="5"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
@@ -4185,7 +4177,7 @@
     </row>
     <row r="15" spans="1:23" ht="16">
       <c r="A15" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>27</v>
@@ -4212,101 +4204,97 @@
       <c r="V15" s="2"/>
       <c r="W15" s="2"/>
     </row>
-    <row r="16" spans="1:23" ht="16">
-      <c r="A16" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
-      <c r="P16" s="2"/>
-      <c r="Q16" s="2"/>
-      <c r="R16" s="2"/>
-      <c r="S16" s="2"/>
-      <c r="T16" s="2"/>
-      <c r="U16" s="2"/>
-      <c r="V16" s="2"/>
-      <c r="W16" s="2"/>
-    </row>
-    <row r="17" spans="1:23" s="8" customFormat="1" ht="14"/>
-    <row r="18" spans="1:23" ht="17">
-      <c r="A18" s="10" t="s">
+    <row r="16" spans="1:23" s="8" customFormat="1" ht="14"/>
+    <row r="17" spans="1:23" ht="17">
+      <c r="A17" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="B17" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C18" s="11" t="s">
+      <c r="C17" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D18" s="11" t="s">
+      <c r="D17" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="E18" s="12" t="s">
+      <c r="E17" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="F18" s="13" t="s">
+      <c r="F17" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="G18" s="13" t="s">
+      <c r="G17" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="H18" s="13" t="s">
+      <c r="H17" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="I18" s="13" t="s">
+      <c r="I17" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="J18" s="13" t="s">
+      <c r="J17" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="K18" s="13" t="s">
+      <c r="K17" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="L18" s="13" t="s">
+      <c r="L17" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
-      <c r="O18" s="2"/>
-      <c r="P18" s="2"/>
-      <c r="Q18" s="2"/>
-      <c r="R18" s="2"/>
-      <c r="S18" s="2"/>
-      <c r="T18" s="2"/>
-      <c r="U18" s="2"/>
-      <c r="V18" s="2"/>
-      <c r="W18" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="2"/>
+      <c r="S17" s="2"/>
+      <c r="T17" s="2"/>
+      <c r="U17" s="2"/>
+      <c r="V17" s="2"/>
+      <c r="W17" s="2"/>
+    </row>
+    <row r="18" spans="1:23" s="9" customFormat="1" ht="16">
+      <c r="A18" s="14" t="str">
+        <f t="shared" ref="A18:A81" si="0">"gdmt:"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B18," ",""),"-",""),"&amp;","")</f>
+        <v>gdmt:ResourceType</v>
+      </c>
+      <c r="B18" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="E18" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="F18" s="36"/>
+      <c r="G18" s="36"/>
+      <c r="H18" s="36"/>
+      <c r="I18" s="36"/>
+      <c r="J18" s="36"/>
+      <c r="K18" s="36"/>
+      <c r="L18" s="36"/>
     </row>
     <row r="19" spans="1:23" s="9" customFormat="1" ht="16">
       <c r="A19" s="14" t="str">
-        <f t="shared" ref="A19:A50" si="0">"gdmt-property:"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B19," ",""),"-",""),"&amp;","")</f>
-        <v>gdmt-property:ResourceType</v>
+        <f t="shared" si="0"/>
+        <v>gdmt:DatasetIdentifier</v>
       </c>
       <c r="B19" s="36" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C19" s="15" t="s">
         <v>25</v>
       </c>
       <c r="D19" s="36" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E19" s="36" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F19" s="36"/>
       <c r="G19" s="36"/>
@@ -4319,19 +4307,19 @@
     <row r="20" spans="1:23" s="9" customFormat="1" ht="16">
       <c r="A20" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>gdmt-property:DatasetIdentifier</v>
+        <v>gdmt:RelatedResources</v>
       </c>
       <c r="B20" s="36" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C20" s="15" t="s">
         <v>25</v>
       </c>
       <c r="D20" s="36" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E20" s="36" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F20" s="36"/>
       <c r="G20" s="36"/>
@@ -4344,19 +4332,19 @@
     <row r="21" spans="1:23" s="9" customFormat="1" ht="16">
       <c r="A21" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>gdmt-property:RelatedResources</v>
+        <v>gdmt:Version</v>
       </c>
       <c r="B21" s="36" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C21" s="15" t="s">
         <v>25</v>
       </c>
       <c r="D21" s="36" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E21" s="36" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F21" s="36"/>
       <c r="G21" s="36"/>
@@ -4369,19 +4357,19 @@
     <row r="22" spans="1:23" s="9" customFormat="1" ht="16">
       <c r="A22" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>gdmt-property:Version</v>
+        <v>gdmt:Language</v>
       </c>
       <c r="B22" s="36" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C22" s="15" t="s">
         <v>25</v>
       </c>
       <c r="D22" s="36" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E22" s="36" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F22" s="36"/>
       <c r="G22" s="36"/>
@@ -4394,19 +4382,19 @@
     <row r="23" spans="1:23" s="9" customFormat="1" ht="16">
       <c r="A23" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>gdmt-property:Language</v>
+        <v>gdmt:Title</v>
       </c>
       <c r="B23" s="36" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C23" s="15" t="s">
         <v>25</v>
       </c>
       <c r="D23" s="36" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E23" s="36" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F23" s="36"/>
       <c r="G23" s="36"/>
@@ -4419,19 +4407,19 @@
     <row r="24" spans="1:23" s="9" customFormat="1" ht="16">
       <c r="A24" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>gdmt-property:Title</v>
+        <v>gdmt:Description</v>
       </c>
       <c r="B24" s="36" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C24" s="15" t="s">
         <v>25</v>
       </c>
       <c r="D24" s="36" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E24" s="36" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F24" s="36"/>
       <c r="G24" s="36"/>
@@ -4444,19 +4432,19 @@
     <row r="25" spans="1:23" s="9" customFormat="1" ht="16">
       <c r="A25" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>gdmt-property:Description</v>
+        <v>gdmt:Subject</v>
       </c>
       <c r="B25" s="36" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C25" s="15" t="s">
         <v>25</v>
       </c>
       <c r="D25" s="36" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E25" s="36" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F25" s="36"/>
       <c r="G25" s="36"/>
@@ -4469,19 +4457,19 @@
     <row r="26" spans="1:23" s="9" customFormat="1" ht="16">
       <c r="A26" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>gdmt-property:Subject</v>
+        <v>gdmt:ControlledTerms</v>
       </c>
       <c r="B26" s="36" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C26" s="15" t="s">
         <v>25</v>
       </c>
       <c r="D26" s="36" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E26" s="36" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F26" s="36"/>
       <c r="G26" s="36"/>
@@ -4494,19 +4482,19 @@
     <row r="27" spans="1:23" s="9" customFormat="1" ht="16">
       <c r="A27" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>gdmt-property:ControlledTerms</v>
+        <v>gdmt:Creator</v>
       </c>
       <c r="B27" s="36" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C27" s="15" t="s">
         <v>25</v>
       </c>
       <c r="D27" s="36" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E27" s="36" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F27" s="36"/>
       <c r="G27" s="36"/>
@@ -4519,19 +4507,19 @@
     <row r="28" spans="1:23" s="9" customFormat="1" ht="16">
       <c r="A28" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>gdmt-property:Creator</v>
+        <v>gdmt:CreatorName</v>
       </c>
       <c r="B28" s="36" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C28" s="15" t="s">
         <v>25</v>
       </c>
       <c r="D28" s="36" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E28" s="36" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F28" s="36"/>
       <c r="G28" s="36"/>
@@ -4544,19 +4532,19 @@
     <row r="29" spans="1:23" s="9" customFormat="1" ht="16">
       <c r="A29" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>gdmt-property:CreatorName</v>
+        <v>gdmt:CreatorIdentifier</v>
       </c>
       <c r="B29" s="36" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C29" s="15" t="s">
         <v>25</v>
       </c>
       <c r="D29" s="36" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E29" s="36" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F29" s="36"/>
       <c r="G29" s="36"/>
@@ -4569,19 +4557,19 @@
     <row r="30" spans="1:23" s="9" customFormat="1" ht="16">
       <c r="A30" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>gdmt-property:CreatorIdentifier</v>
+        <v>gdmt:CreatorAffiliation</v>
       </c>
       <c r="B30" s="36" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C30" s="15" t="s">
         <v>25</v>
       </c>
       <c r="D30" s="36" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E30" s="36" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F30" s="36"/>
       <c r="G30" s="36"/>
@@ -4594,19 +4582,19 @@
     <row r="31" spans="1:23" s="9" customFormat="1" ht="16">
       <c r="A31" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>gdmt-property:CreatorAffiliation</v>
+        <v>gdmt:Contributor</v>
       </c>
       <c r="B31" s="36" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C31" s="15" t="s">
         <v>25</v>
       </c>
       <c r="D31" s="36" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E31" s="36" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F31" s="36"/>
       <c r="G31" s="36"/>
@@ -4619,19 +4607,19 @@
     <row r="32" spans="1:23" s="9" customFormat="1" ht="16">
       <c r="A32" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>gdmt-property:Contributor</v>
+        <v>gdmt:ContributorName</v>
       </c>
       <c r="B32" s="36" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C32" s="15" t="s">
         <v>25</v>
       </c>
       <c r="D32" s="36" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E32" s="36" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F32" s="36"/>
       <c r="G32" s="36"/>
@@ -4644,19 +4632,19 @@
     <row r="33" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A33" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>gdmt-property:ContributorName</v>
+        <v>gdmt:ContributorIdentifier</v>
       </c>
       <c r="B33" s="36" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C33" s="15" t="s">
         <v>25</v>
       </c>
       <c r="D33" s="36" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E33" s="36" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F33" s="36"/>
       <c r="G33" s="36"/>
@@ -4669,19 +4657,19 @@
     <row r="34" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A34" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>gdmt-property:ContributorIdentifier</v>
+        <v>gdmt:ContributorAffiliation</v>
       </c>
       <c r="B34" s="36" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C34" s="15" t="s">
         <v>25</v>
       </c>
       <c r="D34" s="36" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E34" s="36" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F34" s="36"/>
       <c r="G34" s="36"/>
@@ -4694,19 +4682,19 @@
     <row r="35" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A35" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>gdmt-property:ContributorAffiliation</v>
+        <v>gdmt:Publisher</v>
       </c>
       <c r="B35" s="36" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C35" s="15" t="s">
         <v>25</v>
       </c>
       <c r="D35" s="36" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E35" s="36" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F35" s="36"/>
       <c r="G35" s="36"/>
@@ -4719,19 +4707,19 @@
     <row r="36" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A36" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>gdmt-property:Publisher</v>
+        <v>gdmt:PublisherIdentifier</v>
       </c>
       <c r="B36" s="36" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C36" s="15" t="s">
         <v>25</v>
       </c>
       <c r="D36" s="36" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E36" s="36" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F36" s="36"/>
       <c r="G36" s="36"/>
@@ -4744,19 +4732,19 @@
     <row r="37" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A37" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>gdmt-property:PublisherIdentifier</v>
+        <v>gdmt:Rights</v>
       </c>
       <c r="B37" s="36" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C37" s="15" t="s">
         <v>25</v>
       </c>
       <c r="D37" s="36" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E37" s="36" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F37" s="36"/>
       <c r="G37" s="36"/>
@@ -4769,19 +4757,19 @@
     <row r="38" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A38" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>gdmt-property:Rights</v>
+        <v>gdmt:LicenseIdentifier</v>
       </c>
       <c r="B38" s="36" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C38" s="15" t="s">
         <v>25</v>
       </c>
       <c r="D38" s="36" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E38" s="36" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F38" s="36"/>
       <c r="G38" s="36"/>
@@ -4794,19 +4782,19 @@
     <row r="39" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A39" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>gdmt-property:LicenseIdentifier</v>
+        <v>gdmt:Date</v>
       </c>
       <c r="B39" s="36" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C39" s="15" t="s">
         <v>25</v>
       </c>
       <c r="D39" s="36" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E39" s="36" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F39" s="36"/>
       <c r="G39" s="36"/>
@@ -4819,19 +4807,19 @@
     <row r="40" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A40" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>gdmt-property:Date</v>
+        <v>gdmt:Distribution</v>
       </c>
       <c r="B40" s="36" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C40" s="15" t="s">
         <v>25</v>
       </c>
       <c r="D40" s="36" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E40" s="36" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F40" s="36"/>
       <c r="G40" s="36"/>
@@ -4844,19 +4832,19 @@
     <row r="41" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A41" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>gdmt-property:Distribution</v>
+        <v>gdmt:DistributionAccess</v>
       </c>
       <c r="B41" s="36" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C41" s="15" t="s">
         <v>25</v>
       </c>
       <c r="D41" s="36" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E41" s="36" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F41" s="36"/>
       <c r="G41" s="36"/>
@@ -4869,19 +4857,19 @@
     <row r="42" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A42" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>gdmt-property:DistributionAccess</v>
+        <v>gdmt:Distributor</v>
       </c>
       <c r="B42" s="36" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C42" s="15" t="s">
         <v>25</v>
       </c>
       <c r="D42" s="36" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E42" s="36" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F42" s="36"/>
       <c r="G42" s="36"/>
@@ -4894,19 +4882,19 @@
     <row r="43" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A43" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>gdmt-property:Distributor</v>
+        <v>gdmt:DistributorName</v>
       </c>
       <c r="B43" s="36" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C43" s="15" t="s">
         <v>25</v>
       </c>
       <c r="D43" s="36" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E43" s="36" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F43" s="36"/>
       <c r="G43" s="36"/>
@@ -4919,19 +4907,19 @@
     <row r="44" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A44" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>gdmt-property:DistributorName</v>
+        <v>gdmt:DistributorIdentifier</v>
       </c>
       <c r="B44" s="36" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C44" s="15" t="s">
         <v>25</v>
       </c>
       <c r="D44" s="36" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E44" s="36" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F44" s="36"/>
       <c r="G44" s="36"/>
@@ -4944,19 +4932,19 @@
     <row r="45" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A45" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>gdmt-property:DistributorIdentifier</v>
+        <v>gdmt:DistributorAffiliation</v>
       </c>
       <c r="B45" s="36" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C45" s="15" t="s">
         <v>25</v>
       </c>
       <c r="D45" s="36" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E45" s="36" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F45" s="36"/>
       <c r="G45" s="36"/>
@@ -4969,19 +4957,19 @@
     <row r="46" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A46" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>gdmt-property:DistributorAffiliation</v>
+        <v>gdmt:Content</v>
       </c>
       <c r="B46" s="36" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C46" s="15" t="s">
         <v>25</v>
       </c>
       <c r="D46" s="36" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E46" s="36" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F46" s="36"/>
       <c r="G46" s="36"/>
@@ -4994,19 +4982,19 @@
     <row r="47" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A47" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>gdmt-property:Content</v>
+        <v>gdmt:DataStream</v>
       </c>
       <c r="B47" s="36" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C47" s="15" t="s">
         <v>25</v>
       </c>
       <c r="D47" s="36" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E47" s="36" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F47" s="36"/>
       <c r="G47" s="36"/>
@@ -5019,19 +5007,19 @@
     <row r="48" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A48" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>gdmt-property:DataStream</v>
+        <v>gdmt:DataSource</v>
       </c>
       <c r="B48" s="36" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C48" s="15" t="s">
         <v>25</v>
       </c>
       <c r="D48" s="36" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E48" s="36" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F48" s="36"/>
       <c r="G48" s="36"/>
@@ -5044,19 +5032,19 @@
     <row r="49" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A49" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>gdmt-property:DataSource</v>
+        <v>gdmt:Variable</v>
       </c>
       <c r="B49" s="36" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C49" s="15" t="s">
         <v>25</v>
       </c>
       <c r="D49" s="36" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E49" s="36" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F49" s="36"/>
       <c r="G49" s="36"/>
@@ -5069,19 +5057,19 @@
     <row r="50" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A50" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>gdmt-property:Variable</v>
+        <v>gdmt:SpatialCoverage</v>
       </c>
       <c r="B50" s="36" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C50" s="15" t="s">
         <v>25</v>
       </c>
       <c r="D50" s="36" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E50" s="36" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F50" s="36"/>
       <c r="G50" s="36"/>
@@ -5093,20 +5081,20 @@
     </row>
     <row r="51" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A51" s="14" t="str">
-        <f t="shared" ref="A51:A82" si="1">"gdmt-property:"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B51," ",""),"-",""),"&amp;","")</f>
-        <v>gdmt-property:SpatialCoverage</v>
+        <f t="shared" si="0"/>
+        <v>gdmt:SpatialCoveragePoint</v>
       </c>
       <c r="B51" s="36" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C51" s="15" t="s">
         <v>25</v>
       </c>
       <c r="D51" s="36" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E51" s="36" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F51" s="36"/>
       <c r="G51" s="36"/>
@@ -5118,20 +5106,20 @@
     </row>
     <row r="52" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A52" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v>gdmt-property:SpatialCoveragePoint</v>
+        <f t="shared" si="0"/>
+        <v>gdmt:SpatialCoverageBoundingBox</v>
       </c>
       <c r="B52" s="36" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C52" s="15" t="s">
         <v>25</v>
       </c>
       <c r="D52" s="36" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E52" s="36" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F52" s="36"/>
       <c r="G52" s="36"/>
@@ -5143,20 +5131,20 @@
     </row>
     <row r="53" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A53" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v>gdmt-property:SpatialCoverageBoundingBox</v>
+        <f t="shared" si="0"/>
+        <v>gdmt:SpatialCoveragePolygon</v>
       </c>
       <c r="B53" s="36" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C53" s="15" t="s">
         <v>25</v>
       </c>
       <c r="D53" s="36" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E53" s="36" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F53" s="36"/>
       <c r="G53" s="36"/>
@@ -5168,20 +5156,20 @@
     </row>
     <row r="54" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A54" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v>gdmt-property:SpatialCoveragePolygon</v>
+        <f t="shared" si="0"/>
+        <v>gdmt:VerticalCoverage</v>
       </c>
       <c r="B54" s="36" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C54" s="15" t="s">
         <v>25</v>
       </c>
       <c r="D54" s="36" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E54" s="36" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F54" s="36"/>
       <c r="G54" s="36"/>
@@ -5193,20 +5181,20 @@
     </row>
     <row r="55" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A55" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v>gdmt-property:VerticalCoverage</v>
+        <f t="shared" si="0"/>
+        <v>gdmt:TemporalCoverage</v>
       </c>
       <c r="B55" s="36" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C55" s="15" t="s">
         <v>25</v>
       </c>
       <c r="D55" s="36" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E55" s="36" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F55" s="36"/>
       <c r="G55" s="36"/>
@@ -5218,20 +5206,20 @@
     </row>
     <row r="56" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A56" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v>gdmt-property:TemporalCoverage</v>
+        <f t="shared" si="0"/>
+        <v>gdmt:Funding</v>
       </c>
       <c r="B56" s="36" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C56" s="15" t="s">
         <v>25</v>
       </c>
       <c r="D56" s="36" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E56" s="36" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F56" s="36"/>
       <c r="G56" s="36"/>
@@ -5243,20 +5231,20 @@
     </row>
     <row r="57" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A57" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v>gdmt-property:Funding</v>
+        <f t="shared" si="0"/>
+        <v>gdmt:Award</v>
       </c>
       <c r="B57" s="36" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C57" s="15" t="s">
         <v>25</v>
       </c>
       <c r="D57" s="36" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E57" s="36" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F57" s="36"/>
       <c r="G57" s="36"/>
@@ -5268,20 +5256,20 @@
     </row>
     <row r="58" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A58" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v>gdmt-property:Award</v>
+        <f t="shared" si="0"/>
+        <v>gdmt:Funder</v>
       </c>
       <c r="B58" s="36" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C58" s="15" t="s">
         <v>25</v>
       </c>
       <c r="D58" s="36" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E58" s="36" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F58" s="36"/>
       <c r="G58" s="36"/>
@@ -5293,20 +5281,20 @@
     </row>
     <row r="59" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A59" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v>gdmt-property:Funder</v>
-      </c>
-      <c r="B59" s="36" t="s">
-        <v>115</v>
+        <f t="shared" si="0"/>
+        <v>gdmt:datasetIdentifierSubType</v>
+      </c>
+      <c r="B59" s="16" t="s">
+        <v>119</v>
       </c>
       <c r="C59" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="D59" s="36" t="s">
-        <v>115</v>
-      </c>
-      <c r="E59" s="36" t="s">
-        <v>116</v>
+      <c r="D59" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="E59" s="16" t="s">
+        <v>120</v>
       </c>
       <c r="F59" s="36"/>
       <c r="G59" s="36"/>
@@ -5318,20 +5306,20 @@
     </row>
     <row r="60" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A60" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v>gdmt-property:datasetIdentifierSubType</v>
-      </c>
-      <c r="B60" s="16" t="s">
+        <f t="shared" si="0"/>
+        <v>gdmt:relatedResourceIdentifierSubType</v>
+      </c>
+      <c r="B60" s="17" t="s">
         <v>121</v>
       </c>
       <c r="C60" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="D60" s="16" t="s">
+      <c r="D60" s="17" t="s">
         <v>121</v>
       </c>
-      <c r="E60" s="16" t="s">
-        <v>122</v>
+      <c r="E60" s="17" t="s">
+        <v>120</v>
       </c>
       <c r="F60" s="36"/>
       <c r="G60" s="36"/>
@@ -5343,20 +5331,20 @@
     </row>
     <row r="61" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A61" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v>gdmt-property:relatedResourceIdentifierSubType</v>
-      </c>
-      <c r="B61" s="17" t="s">
-        <v>123</v>
+        <f t="shared" si="0"/>
+        <v>gdmt:primaryLanguage</v>
+      </c>
+      <c r="B61" s="18" t="s">
+        <v>122</v>
       </c>
       <c r="C61" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="D61" s="17" t="s">
+      <c r="D61" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="E61" s="19" t="s">
         <v>123</v>
-      </c>
-      <c r="E61" s="17" t="s">
-        <v>122</v>
       </c>
       <c r="F61" s="36"/>
       <c r="G61" s="36"/>
@@ -5368,19 +5356,19 @@
     </row>
     <row r="62" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A62" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v>gdmt-property:primaryLanguage</v>
-      </c>
-      <c r="B62" s="18" t="s">
+        <f t="shared" si="0"/>
+        <v>gdmt:subjectIRI</v>
+      </c>
+      <c r="B62" s="20" t="s">
         <v>124</v>
       </c>
       <c r="C62" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="D62" s="18" t="s">
+      <c r="D62" s="20" t="s">
         <v>124</v>
       </c>
-      <c r="E62" s="19" t="s">
+      <c r="E62" s="20" t="s">
         <v>125</v>
       </c>
       <c r="F62" s="36"/>
@@ -5393,8 +5381,8 @@
     </row>
     <row r="63" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A63" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v>gdmt-property:subjectIRI</v>
+        <f t="shared" si="0"/>
+        <v>gdmt:subjectScheme</v>
       </c>
       <c r="B63" s="20" t="s">
         <v>126</v>
@@ -5418,8 +5406,8 @@
     </row>
     <row r="64" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A64" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v>gdmt-property:subjectScheme</v>
+        <f t="shared" si="0"/>
+        <v>gdmt:subjectSchemeIRI</v>
       </c>
       <c r="B64" s="20" t="s">
         <v>128</v>
@@ -5443,8 +5431,8 @@
     </row>
     <row r="65" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A65" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v>gdmt-property:subjectSchemeIRI</v>
+        <f t="shared" si="0"/>
+        <v>gdmt:keyword</v>
       </c>
       <c r="B65" s="20" t="s">
         <v>130</v>
@@ -5468,19 +5456,19 @@
     </row>
     <row r="66" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A66" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v>gdmt-property:keyword</v>
-      </c>
-      <c r="B66" s="20" t="s">
+        <f t="shared" si="0"/>
+        <v>gdmt:creatorIdentifier</v>
+      </c>
+      <c r="B66" s="21" t="s">
         <v>132</v>
       </c>
       <c r="C66" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="D66" s="20" t="s">
+      <c r="D66" s="21" t="s">
         <v>132</v>
       </c>
-      <c r="E66" s="20" t="s">
+      <c r="E66" s="21" t="s">
         <v>133</v>
       </c>
       <c r="F66" s="36"/>
@@ -5493,8 +5481,8 @@
     </row>
     <row r="67" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A67" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v>gdmt-property:creatorIdentifier</v>
+        <f t="shared" si="0"/>
+        <v>gdmt:creatorIdentifierScheme</v>
       </c>
       <c r="B67" s="21" t="s">
         <v>134</v>
@@ -5518,8 +5506,8 @@
     </row>
     <row r="68" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A68" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v>gdmt-property:creatorIdentifierScheme</v>
+        <f t="shared" si="0"/>
+        <v>gdmt:creatorIdentifierSchemeIRI</v>
       </c>
       <c r="B68" s="21" t="s">
         <v>136</v>
@@ -5543,8 +5531,8 @@
     </row>
     <row r="69" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A69" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v>gdmt-property:creatorIdentifierSchemeIRI</v>
+        <f t="shared" si="0"/>
+        <v>gdmt:creatorAffiliation</v>
       </c>
       <c r="B69" s="21" t="s">
         <v>138</v>
@@ -5568,8 +5556,8 @@
     </row>
     <row r="70" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A70" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v>gdmt-property:creatorAffiliation</v>
+        <f t="shared" si="0"/>
+        <v>gdmt:creatorAffiliationIdentifier</v>
       </c>
       <c r="B70" s="21" t="s">
         <v>140</v>
@@ -5593,8 +5581,8 @@
     </row>
     <row r="71" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A71" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v>gdmt-property:creatorAffiliationIdentifier</v>
+        <f t="shared" si="0"/>
+        <v>gdmt:creatorAffiliationIdentifierScheme</v>
       </c>
       <c r="B71" s="21" t="s">
         <v>142</v>
@@ -5618,8 +5606,8 @@
     </row>
     <row r="72" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A72" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v>gdmt-property:creatorAffiliationIdentifierScheme</v>
+        <f t="shared" si="0"/>
+        <v>gdmt:creatorAffiliationIdentifierSchemeIRI</v>
       </c>
       <c r="B72" s="21" t="s">
         <v>144</v>
@@ -5643,8 +5631,8 @@
     </row>
     <row r="73" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A73" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v>gdmt-property:creatorAffiliationIdentifierSchemeIRI</v>
+        <f t="shared" si="0"/>
+        <v>gdmt:creatorRole</v>
       </c>
       <c r="B73" s="21" t="s">
         <v>146</v>
@@ -5668,8 +5656,8 @@
     </row>
     <row r="74" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A74" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v>gdmt-property:creatorRole</v>
+        <f t="shared" si="0"/>
+        <v>gdmt:creatorType</v>
       </c>
       <c r="B74" s="21" t="s">
         <v>148</v>
@@ -5693,8 +5681,8 @@
     </row>
     <row r="75" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A75" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v>gdmt-property:creatorType</v>
+        <f t="shared" si="0"/>
+        <v>gdmt:contributorIdentifier</v>
       </c>
       <c r="B75" s="21" t="s">
         <v>150</v>
@@ -5718,8 +5706,8 @@
     </row>
     <row r="76" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A76" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v>gdmt-property:contributorIdentifier</v>
+        <f t="shared" si="0"/>
+        <v>gdmt:contributorIdentifierScheme</v>
       </c>
       <c r="B76" s="21" t="s">
         <v>152</v>
@@ -5743,8 +5731,8 @@
     </row>
     <row r="77" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A77" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v>gdmt-property:contributorIdentifierScheme</v>
+        <f t="shared" si="0"/>
+        <v>gdmt:contributorIdentifierSchemeIRI</v>
       </c>
       <c r="B77" s="21" t="s">
         <v>154</v>
@@ -5768,8 +5756,8 @@
     </row>
     <row r="78" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A78" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v>gdmt-property:contributorIdentifierSchemeIRI</v>
+        <f t="shared" si="0"/>
+        <v>gdmt:contributorAffiliation</v>
       </c>
       <c r="B78" s="21" t="s">
         <v>156</v>
@@ -5793,8 +5781,8 @@
     </row>
     <row r="79" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A79" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v>gdmt-property:contributorAffiliation</v>
+        <f t="shared" si="0"/>
+        <v>gdmt:contributorAffiliationIdentifier</v>
       </c>
       <c r="B79" s="21" t="s">
         <v>158</v>
@@ -5818,8 +5806,8 @@
     </row>
     <row r="80" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A80" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v>gdmt-property:contributorAffiliationIdentifier</v>
+        <f t="shared" si="0"/>
+        <v>gdmt:contributorAffiliationIdentifierScheme</v>
       </c>
       <c r="B80" s="21" t="s">
         <v>160</v>
@@ -5843,8 +5831,8 @@
     </row>
     <row r="81" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A81" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v>gdmt-property:contributorAffiliationIdentifierScheme</v>
+        <f t="shared" si="0"/>
+        <v>gdmt:contributorAffiliationIdentifierSchemeIRI</v>
       </c>
       <c r="B81" s="21" t="s">
         <v>162</v>
@@ -5868,8 +5856,8 @@
     </row>
     <row r="82" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A82" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v>gdmt-property:contributorAffiliationIdentifierSchemeIRI</v>
+        <f t="shared" ref="A82:A145" si="1">"gdmt:"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B82," ",""),"-",""),"&amp;","")</f>
+        <v>gdmt:contributorRole</v>
       </c>
       <c r="B82" s="21" t="s">
         <v>164</v>
@@ -5893,8 +5881,8 @@
     </row>
     <row r="83" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A83" s="14" t="str">
-        <f t="shared" ref="A83:A114" si="2">"gdmt-property:"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B83," ",""),"-",""),"&amp;","")</f>
-        <v>gdmt-property:contributorRole</v>
+        <f t="shared" si="1"/>
+        <v>gdmt:contributorType</v>
       </c>
       <c r="B83" s="21" t="s">
         <v>166</v>
@@ -5918,19 +5906,19 @@
     </row>
     <row r="84" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A84" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v>gdmt-property:contributorType</v>
-      </c>
-      <c r="B84" s="21" t="s">
+        <f t="shared" si="1"/>
+        <v>gdmt:publisherIdentifier</v>
+      </c>
+      <c r="B84" s="22" t="s">
         <v>168</v>
       </c>
       <c r="C84" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="D84" s="21" t="s">
+      <c r="D84" s="22" t="s">
         <v>168</v>
       </c>
-      <c r="E84" s="21" t="s">
+      <c r="E84" s="22" t="s">
         <v>169</v>
       </c>
       <c r="F84" s="36"/>
@@ -5943,8 +5931,8 @@
     </row>
     <row r="85" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A85" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v>gdmt-property:publisherIdentifier</v>
+        <f t="shared" si="1"/>
+        <v>gdmt:publisherIdentifierScheme</v>
       </c>
       <c r="B85" s="22" t="s">
         <v>170</v>
@@ -5968,8 +5956,8 @@
     </row>
     <row r="86" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A86" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v>gdmt-property:publisherIdentifierScheme</v>
+        <f t="shared" si="1"/>
+        <v>gdmt:publisherIdentifierSchemeIRI</v>
       </c>
       <c r="B86" s="22" t="s">
         <v>172</v>
@@ -5993,8 +5981,8 @@
     </row>
     <row r="87" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A87" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v>gdmt-property:publisherIdentifierSchemeIRI</v>
+        <f t="shared" si="1"/>
+        <v>gdmt:publisherAddress</v>
       </c>
       <c r="B87" s="22" t="s">
         <v>174</v>
@@ -6018,19 +6006,19 @@
     </row>
     <row r="88" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A88" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v>gdmt-property:publisherAddress</v>
-      </c>
-      <c r="B88" s="22" t="s">
+        <f t="shared" si="1"/>
+        <v>gdmt:licenseName</v>
+      </c>
+      <c r="B88" s="23" t="s">
         <v>176</v>
       </c>
       <c r="C88" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="D88" s="22" t="s">
+      <c r="D88" s="23" t="s">
         <v>176</v>
       </c>
-      <c r="E88" s="22" t="s">
+      <c r="E88" s="23" t="s">
         <v>177</v>
       </c>
       <c r="F88" s="36"/>
@@ -6043,8 +6031,8 @@
     </row>
     <row r="89" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A89" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v>gdmt-property:licenseName</v>
+        <f t="shared" si="1"/>
+        <v>gdmt:licenseIdentifier</v>
       </c>
       <c r="B89" s="23" t="s">
         <v>178</v>
@@ -6068,8 +6056,8 @@
     </row>
     <row r="90" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A90" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v>gdmt-property:licenseIdentifier</v>
+        <f t="shared" si="1"/>
+        <v>gdmt:licenseIdentifierScheme</v>
       </c>
       <c r="B90" s="23" t="s">
         <v>180</v>
@@ -6093,8 +6081,8 @@
     </row>
     <row r="91" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A91" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v>gdmt-property:licenseIdentifierScheme</v>
+        <f t="shared" si="1"/>
+        <v>gdmt:licenseIdentifierSchemeIRI</v>
       </c>
       <c r="B91" s="23" t="s">
         <v>182</v>
@@ -6118,19 +6106,19 @@
     </row>
     <row r="92" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A92" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v>gdmt-property:licenseIdentifierSchemeIRI</v>
-      </c>
-      <c r="B92" s="23" t="s">
+        <f t="shared" si="1"/>
+        <v>gdmt:datasetDate</v>
+      </c>
+      <c r="B92" s="24" t="s">
         <v>184</v>
       </c>
       <c r="C92" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="D92" s="23" t="s">
+      <c r="D92" s="24" t="s">
         <v>184</v>
       </c>
-      <c r="E92" s="23" t="s">
+      <c r="E92" s="24" t="s">
         <v>185</v>
       </c>
       <c r="F92" s="36"/>
@@ -6143,8 +6131,8 @@
     </row>
     <row r="93" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A93" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v>gdmt-property:datasetDate</v>
+        <f t="shared" si="1"/>
+        <v>gdmt:datasetDateType</v>
       </c>
       <c r="B93" s="24" t="s">
         <v>186</v>
@@ -6168,19 +6156,19 @@
     </row>
     <row r="94" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A94" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v>gdmt-property:datasetDateType</v>
-      </c>
-      <c r="B94" s="24" t="s">
+        <f t="shared" si="1"/>
+        <v>gdmt:distributionIdentifier</v>
+      </c>
+      <c r="B94" s="25" t="s">
         <v>188</v>
       </c>
       <c r="C94" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="D94" s="24" t="s">
+      <c r="D94" s="25" t="s">
         <v>188</v>
       </c>
-      <c r="E94" s="24" t="s">
+      <c r="E94" s="25" t="s">
         <v>189</v>
       </c>
       <c r="F94" s="36"/>
@@ -6193,8 +6181,8 @@
     </row>
     <row r="95" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A95" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v>gdmt-property:distributionIdentifier</v>
+        <f t="shared" si="1"/>
+        <v>gdmt:distributionIdentifierType</v>
       </c>
       <c r="B95" s="25" t="s">
         <v>190</v>
@@ -6218,19 +6206,19 @@
     </row>
     <row r="96" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A96" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v>gdmt-property:distributionIdentifierType</v>
-      </c>
-      <c r="B96" s="25" t="s">
+        <f t="shared" si="1"/>
+        <v>gdmt:distributionMediaType</v>
+      </c>
+      <c r="B96" s="26" t="s">
         <v>192</v>
       </c>
       <c r="C96" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="D96" s="25" t="s">
+      <c r="D96" s="26" t="s">
         <v>192</v>
       </c>
-      <c r="E96" s="25" t="s">
+      <c r="E96" s="26" t="s">
         <v>193</v>
       </c>
       <c r="F96" s="36"/>
@@ -6243,8 +6231,8 @@
     </row>
     <row r="97" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A97" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v>gdmt-property:distributionMediaType</v>
+        <f t="shared" si="1"/>
+        <v>gdmt:distributionSize</v>
       </c>
       <c r="B97" s="26" t="s">
         <v>194</v>
@@ -6268,8 +6256,8 @@
     </row>
     <row r="98" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A98" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v>gdmt-property:distributionSize</v>
+        <f t="shared" si="1"/>
+        <v>gdmt:distributionAccessProtocol</v>
       </c>
       <c r="B98" s="26" t="s">
         <v>196</v>
@@ -6293,8 +6281,8 @@
     </row>
     <row r="99" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A99" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v>gdmt-property:distributionAccessProtocol</v>
+        <f t="shared" si="1"/>
+        <v>gdmt:distributionAccessConfiguration</v>
       </c>
       <c r="B99" s="26" t="s">
         <v>198</v>
@@ -6318,8 +6306,8 @@
     </row>
     <row r="100" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A100" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v>gdmt-property:distributionAccessConfiguration</v>
+        <f t="shared" si="1"/>
+        <v>gdmt:distributionQueryStatement</v>
       </c>
       <c r="B100" s="26" t="s">
         <v>200</v>
@@ -6343,16 +6331,16 @@
     </row>
     <row r="101" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A101" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v>gdmt-property:distributionQueryStatement</v>
-      </c>
-      <c r="B101" s="26" t="s">
+        <f t="shared" si="1"/>
+        <v>gdmt:distributionDate</v>
+      </c>
+      <c r="B101" s="27" t="s">
         <v>202</v>
       </c>
       <c r="C101" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="D101" s="26" t="s">
+      <c r="D101" s="27" t="s">
         <v>202</v>
       </c>
       <c r="E101" s="26" t="s">
@@ -6368,19 +6356,19 @@
     </row>
     <row r="102" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A102" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v>gdmt-property:distributionDate</v>
-      </c>
-      <c r="B102" s="27" t="s">
+        <f t="shared" si="1"/>
+        <v>gdmt:distributorIdentifier</v>
+      </c>
+      <c r="B102" s="21" t="s">
         <v>204</v>
       </c>
       <c r="C102" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="D102" s="27" t="s">
+      <c r="D102" s="21" t="s">
         <v>204</v>
       </c>
-      <c r="E102" s="26" t="s">
+      <c r="E102" s="21" t="s">
         <v>205</v>
       </c>
       <c r="F102" s="36"/>
@@ -6393,8 +6381,8 @@
     </row>
     <row r="103" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A103" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v>gdmt-property:distributorIdentifier</v>
+        <f t="shared" si="1"/>
+        <v>gdmt:distributorIdentifierScheme</v>
       </c>
       <c r="B103" s="21" t="s">
         <v>206</v>
@@ -6418,8 +6406,8 @@
     </row>
     <row r="104" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A104" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v>gdmt-property:distributorIdentifierScheme</v>
+        <f t="shared" si="1"/>
+        <v>gdmt:distributorIdentifierSchemeIRI</v>
       </c>
       <c r="B104" s="21" t="s">
         <v>208</v>
@@ -6443,8 +6431,8 @@
     </row>
     <row r="105" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A105" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v>gdmt-property:distributorIdentifierSchemeIRI</v>
+        <f t="shared" si="1"/>
+        <v>gdmt:distributorAffiliation</v>
       </c>
       <c r="B105" s="21" t="s">
         <v>210</v>
@@ -6468,8 +6456,8 @@
     </row>
     <row r="106" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A106" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v>gdmt-property:distributorAffiliation</v>
+        <f t="shared" si="1"/>
+        <v>gdmt:distributorAffiliationIdentifier</v>
       </c>
       <c r="B106" s="21" t="s">
         <v>212</v>
@@ -6493,8 +6481,8 @@
     </row>
     <row r="107" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A107" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v>gdmt-property:distributorAffiliationIdentifier</v>
+        <f t="shared" si="1"/>
+        <v>gdmt:distributorAffiliationIdentifierScheme</v>
       </c>
       <c r="B107" s="21" t="s">
         <v>214</v>
@@ -6518,8 +6506,8 @@
     </row>
     <row r="108" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A108" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v>gdmt-property:distributorAffiliationIdentifierScheme</v>
+        <f t="shared" si="1"/>
+        <v>gdmt:distributorAffiliationIdentifierSchemeIRI</v>
       </c>
       <c r="B108" s="21" t="s">
         <v>216</v>
@@ -6543,8 +6531,8 @@
     </row>
     <row r="109" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A109" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v>gdmt-property:distributorAffiliationIdentifierSchemeIRI</v>
+        <f t="shared" si="1"/>
+        <v>gdmt:distributorRole</v>
       </c>
       <c r="B109" s="21" t="s">
         <v>218</v>
@@ -6568,8 +6556,8 @@
     </row>
     <row r="110" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A110" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v>gdmt-property:distributorRole</v>
+        <f t="shared" si="1"/>
+        <v>gdmt:distributorType</v>
       </c>
       <c r="B110" s="21" t="s">
         <v>220</v>
@@ -6593,19 +6581,19 @@
     </row>
     <row r="111" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A111" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v>gdmt-property:distributorType</v>
-      </c>
-      <c r="B111" s="21" t="s">
+        <f t="shared" si="1"/>
+        <v>gdmt:dataStream</v>
+      </c>
+      <c r="B111" s="28" t="s">
         <v>222</v>
       </c>
       <c r="C111" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="D111" s="21" t="s">
+      <c r="D111" s="28" t="s">
         <v>222</v>
       </c>
-      <c r="E111" s="21" t="s">
+      <c r="E111" s="28" t="s">
         <v>223</v>
       </c>
       <c r="F111" s="36"/>
@@ -6618,8 +6606,8 @@
     </row>
     <row r="112" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A112" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v>gdmt-property:dataStream</v>
+        <f t="shared" si="1"/>
+        <v>gdmt:dataStreamIRI</v>
       </c>
       <c r="B112" s="28" t="s">
         <v>224</v>
@@ -6643,8 +6631,8 @@
     </row>
     <row r="113" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A113" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v>gdmt-property:dataStreamIRI</v>
+        <f t="shared" si="1"/>
+        <v>gdmt:datastreamScheme</v>
       </c>
       <c r="B113" s="28" t="s">
         <v>226</v>
@@ -6668,8 +6656,8 @@
     </row>
     <row r="114" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A114" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v>gdmt-property:datastreamScheme</v>
+        <f t="shared" si="1"/>
+        <v>gdmt:dataStreamSchemeIRI</v>
       </c>
       <c r="B114" s="28" t="s">
         <v>228</v>
@@ -6693,8 +6681,8 @@
     </row>
     <row r="115" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A115" s="14" t="str">
-        <f t="shared" ref="A115:A146" si="3">"gdmt-property:"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B115," ",""),"-",""),"&amp;","")</f>
-        <v>gdmt-property:dataStreamSchemeIRI</v>
+        <f t="shared" si="1"/>
+        <v>gdmt:dataSource</v>
       </c>
       <c r="B115" s="28" t="s">
         <v>230</v>
@@ -6718,8 +6706,8 @@
     </row>
     <row r="116" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A116" s="14" t="str">
-        <f t="shared" si="3"/>
-        <v>gdmt-property:dataSource</v>
+        <f t="shared" si="1"/>
+        <v>gdmt:dataSourceIRI</v>
       </c>
       <c r="B116" s="28" t="s">
         <v>232</v>
@@ -6743,8 +6731,8 @@
     </row>
     <row r="117" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A117" s="14" t="str">
-        <f t="shared" si="3"/>
-        <v>gdmt-property:dataSourceIRI</v>
+        <f t="shared" si="1"/>
+        <v>gdmt:dataSourceScheme</v>
       </c>
       <c r="B117" s="28" t="s">
         <v>234</v>
@@ -6768,8 +6756,8 @@
     </row>
     <row r="118" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A118" s="14" t="str">
-        <f t="shared" si="3"/>
-        <v>gdmt-property:dataSourceScheme</v>
+        <f t="shared" si="1"/>
+        <v>gdmt:dataSourceSchemeIRI</v>
       </c>
       <c r="B118" s="28" t="s">
         <v>236</v>
@@ -6793,8 +6781,8 @@
     </row>
     <row r="119" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A119" s="14" t="str">
-        <f t="shared" si="3"/>
-        <v>gdmt-property:dataSourceSchemeIRI</v>
+        <f t="shared" si="1"/>
+        <v>gdmt:variable</v>
       </c>
       <c r="B119" s="28" t="s">
         <v>238</v>
@@ -6818,8 +6806,8 @@
     </row>
     <row r="120" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A120" s="14" t="str">
-        <f t="shared" si="3"/>
-        <v>gdmt-property:variable</v>
+        <f t="shared" si="1"/>
+        <v>gdmt:variableIRI</v>
       </c>
       <c r="B120" s="28" t="s">
         <v>240</v>
@@ -6843,8 +6831,8 @@
     </row>
     <row r="121" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A121" s="14" t="str">
-        <f t="shared" si="3"/>
-        <v>gdmt-property:variableIRI</v>
+        <f t="shared" si="1"/>
+        <v>gdmt:variableScheme</v>
       </c>
       <c r="B121" s="28" t="s">
         <v>242</v>
@@ -6868,8 +6856,8 @@
     </row>
     <row r="122" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A122" s="14" t="str">
-        <f t="shared" si="3"/>
-        <v>gdmt-property:variableScheme</v>
+        <f t="shared" si="1"/>
+        <v>gdmt:variableSchemeIRI</v>
       </c>
       <c r="B122" s="28" t="s">
         <v>244</v>
@@ -6893,19 +6881,19 @@
     </row>
     <row r="123" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A123" s="14" t="str">
-        <f t="shared" si="3"/>
-        <v>gdmt-property:variableSchemeIRI</v>
-      </c>
-      <c r="B123" s="28" t="s">
+        <f t="shared" si="1"/>
+        <v>gdmt:pointLatitude</v>
+      </c>
+      <c r="B123" s="29" t="s">
         <v>246</v>
       </c>
       <c r="C123" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="D123" s="28" t="s">
+      <c r="D123" s="29" t="s">
         <v>246</v>
       </c>
-      <c r="E123" s="28" t="s">
+      <c r="E123" s="29" t="s">
         <v>247</v>
       </c>
       <c r="F123" s="36"/>
@@ -6918,8 +6906,8 @@
     </row>
     <row r="124" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A124" s="14" t="str">
-        <f t="shared" si="3"/>
-        <v>gdmt-property:pointLatitude</v>
+        <f t="shared" si="1"/>
+        <v>gdmt:pointLongitude</v>
       </c>
       <c r="B124" s="29" t="s">
         <v>248</v>
@@ -6943,19 +6931,19 @@
     </row>
     <row r="125" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A125" s="14" t="str">
-        <f t="shared" si="3"/>
-        <v>gdmt-property:pointLongitude</v>
-      </c>
-      <c r="B125" s="29" t="s">
+        <f t="shared" si="1"/>
+        <v>gdmt:westBoundLongitude</v>
+      </c>
+      <c r="B125" s="25" t="s">
         <v>250</v>
       </c>
       <c r="C125" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="D125" s="29" t="s">
+      <c r="D125" s="25" t="s">
         <v>250</v>
       </c>
-      <c r="E125" s="29" t="s">
+      <c r="E125" s="25" t="s">
         <v>251</v>
       </c>
       <c r="F125" s="36"/>
@@ -6968,8 +6956,8 @@
     </row>
     <row r="126" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A126" s="14" t="str">
-        <f t="shared" si="3"/>
-        <v>gdmt-property:westBoundLongitude</v>
+        <f t="shared" si="1"/>
+        <v>gdmt:eastBoundLongitude</v>
       </c>
       <c r="B126" s="25" t="s">
         <v>252</v>
@@ -6993,8 +6981,8 @@
     </row>
     <row r="127" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A127" s="14" t="str">
-        <f t="shared" si="3"/>
-        <v>gdmt-property:eastBoundLongitude</v>
+        <f t="shared" si="1"/>
+        <v>gdmt:southBoundLatitude</v>
       </c>
       <c r="B127" s="25" t="s">
         <v>254</v>
@@ -7018,8 +7006,8 @@
     </row>
     <row r="128" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A128" s="14" t="str">
-        <f t="shared" si="3"/>
-        <v>gdmt-property:southBoundLatitude</v>
+        <f t="shared" si="1"/>
+        <v>gdmt:northBoundLatitude</v>
       </c>
       <c r="B128" s="25" t="s">
         <v>256</v>
@@ -7043,16 +7031,16 @@
     </row>
     <row r="129" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A129" s="14" t="str">
-        <f t="shared" si="3"/>
-        <v>gdmt-property:northBoundLatitude</v>
-      </c>
-      <c r="B129" s="25" t="s">
+        <f t="shared" si="1"/>
+        <v>gdmt:polygonPointLatitude</v>
+      </c>
+      <c r="B129" s="29" t="s">
         <v>258</v>
       </c>
       <c r="C129" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="D129" s="25" t="s">
+      <c r="D129" s="29" t="s">
         <v>258</v>
       </c>
       <c r="E129" s="25" t="s">
@@ -7068,8 +7056,8 @@
     </row>
     <row r="130" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A130" s="14" t="str">
-        <f t="shared" si="3"/>
-        <v>gdmt-property:polygonPointLatitude</v>
+        <f t="shared" si="1"/>
+        <v>gdmt:polygonPointLongitude</v>
       </c>
       <c r="B130" s="29" t="s">
         <v>260</v>
@@ -7093,16 +7081,16 @@
     </row>
     <row r="131" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A131" s="14" t="str">
-        <f t="shared" si="3"/>
-        <v>gdmt-property:polygonPointLongitude</v>
-      </c>
-      <c r="B131" s="29" t="s">
+        <f t="shared" si="1"/>
+        <v>gdmt:geoLocationDescription</v>
+      </c>
+      <c r="B131" s="25" t="s">
         <v>262</v>
       </c>
       <c r="C131" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="D131" s="29" t="s">
+      <c r="D131" s="25" t="s">
         <v>262</v>
       </c>
       <c r="E131" s="25" t="s">
@@ -7118,19 +7106,19 @@
     </row>
     <row r="132" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A132" s="14" t="str">
-        <f t="shared" si="3"/>
-        <v>gdmt-property:geoLocationDescription</v>
-      </c>
-      <c r="B132" s="25" t="s">
+        <f t="shared" si="1"/>
+        <v>gdmt:verticalExtentMaximumValue</v>
+      </c>
+      <c r="B132" s="30" t="s">
         <v>264</v>
       </c>
       <c r="C132" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="D132" s="25" t="s">
+      <c r="D132" s="30" t="s">
         <v>264</v>
       </c>
-      <c r="E132" s="25" t="s">
+      <c r="E132" s="30" t="s">
         <v>265</v>
       </c>
       <c r="F132" s="36"/>
@@ -7143,8 +7131,8 @@
     </row>
     <row r="133" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A133" s="14" t="str">
-        <f t="shared" si="3"/>
-        <v>gdmt-property:verticalExtentMaximumValue</v>
+        <f t="shared" si="1"/>
+        <v>gdmt:verticalExtentMinimumValue</v>
       </c>
       <c r="B133" s="30" t="s">
         <v>266</v>
@@ -7168,8 +7156,8 @@
     </row>
     <row r="134" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A134" s="14" t="str">
-        <f t="shared" si="3"/>
-        <v>gdmt-property:verticalExtentMinimumValue</v>
+        <f t="shared" si="1"/>
+        <v>gdmt:verticalExtentUnit</v>
       </c>
       <c r="B134" s="30" t="s">
         <v>268</v>
@@ -7193,8 +7181,8 @@
     </row>
     <row r="135" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A135" s="14" t="str">
-        <f t="shared" si="3"/>
-        <v>gdmt-property:verticalExtentUnit</v>
+        <f t="shared" si="1"/>
+        <v>gdmt:verticalExtentUnitIRI</v>
       </c>
       <c r="B135" s="30" t="s">
         <v>270</v>
@@ -7218,8 +7206,8 @@
     </row>
     <row r="136" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A136" s="14" t="str">
-        <f t="shared" si="3"/>
-        <v>gdmt-property:verticalExtentUnitIRI</v>
+        <f t="shared" si="1"/>
+        <v>gdmt:verticalExtentUnitScheme</v>
       </c>
       <c r="B136" s="30" t="s">
         <v>272</v>
@@ -7243,8 +7231,8 @@
     </row>
     <row r="137" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A137" s="14" t="str">
-        <f t="shared" si="3"/>
-        <v>gdmt-property:verticalExtentUnitScheme</v>
+        <f t="shared" si="1"/>
+        <v>gdmt:verticalExtentUnitSchemeIRI</v>
       </c>
       <c r="B137" s="30" t="s">
         <v>274</v>
@@ -7268,8 +7256,8 @@
     </row>
     <row r="138" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A138" s="14" t="str">
-        <f t="shared" si="3"/>
-        <v>gdmt-property:verticalExtentUnitSchemeIRI</v>
+        <f t="shared" si="1"/>
+        <v>gdmt:verticalExtentDatum</v>
       </c>
       <c r="B138" s="30" t="s">
         <v>276</v>
@@ -7293,8 +7281,8 @@
     </row>
     <row r="139" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A139" s="14" t="str">
-        <f t="shared" si="3"/>
-        <v>gdmt-property:verticalExtentDatum</v>
+        <f t="shared" si="1"/>
+        <v>gdmt:verticalExtentDatumIRI</v>
       </c>
       <c r="B139" s="30" t="s">
         <v>278</v>
@@ -7318,19 +7306,19 @@
     </row>
     <row r="140" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A140" s="14" t="str">
-        <f t="shared" si="3"/>
-        <v>gdmt-property:verticalExtentDatumIRI</v>
-      </c>
-      <c r="B140" s="30" t="s">
+        <f t="shared" si="1"/>
+        <v>gdmt:temporalExtentMinimumValue</v>
+      </c>
+      <c r="B140" s="31" t="s">
         <v>280</v>
       </c>
       <c r="C140" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="D140" s="30" t="s">
+      <c r="D140" s="31" t="s">
         <v>280</v>
       </c>
-      <c r="E140" s="30" t="s">
+      <c r="E140" s="31" t="s">
         <v>281</v>
       </c>
       <c r="F140" s="36"/>
@@ -7343,8 +7331,8 @@
     </row>
     <row r="141" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A141" s="14" t="str">
-        <f t="shared" si="3"/>
-        <v>gdmt-property:temporalExtentMinimumValue</v>
+        <f t="shared" si="1"/>
+        <v>gdmt:temporalExtentMaximumValue</v>
       </c>
       <c r="B141" s="31" t="s">
         <v>282</v>
@@ -7368,8 +7356,8 @@
     </row>
     <row r="142" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A142" s="14" t="str">
-        <f t="shared" si="3"/>
-        <v>gdmt-property:temporalExtentMaximumValue</v>
+        <f t="shared" si="1"/>
+        <v>gdmt:temporalResolution</v>
       </c>
       <c r="B142" s="31" t="s">
         <v>284</v>
@@ -7393,8 +7381,8 @@
     </row>
     <row r="143" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A143" s="14" t="str">
-        <f t="shared" si="3"/>
-        <v>gdmt-property:temporalResolution</v>
+        <f t="shared" si="1"/>
+        <v>gdmt:duration</v>
       </c>
       <c r="B143" s="31" t="s">
         <v>286</v>
@@ -7418,19 +7406,19 @@
     </row>
     <row r="144" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A144" s="14" t="str">
-        <f t="shared" si="3"/>
-        <v>gdmt-property:duration</v>
-      </c>
-      <c r="B144" s="31" t="s">
+        <f t="shared" si="1"/>
+        <v>gdmt:awardTitle</v>
+      </c>
+      <c r="B144" s="32" t="s">
         <v>288</v>
       </c>
       <c r="C144" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="D144" s="31" t="s">
+      <c r="D144" s="32" t="s">
         <v>288</v>
       </c>
-      <c r="E144" s="31" t="s">
+      <c r="E144" s="32" t="s">
         <v>289</v>
       </c>
       <c r="F144" s="36"/>
@@ -7443,8 +7431,8 @@
     </row>
     <row r="145" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A145" s="14" t="str">
-        <f t="shared" si="3"/>
-        <v>gdmt-property:awardTitle</v>
+        <f t="shared" si="1"/>
+        <v>gdmt:awardPageIRI</v>
       </c>
       <c r="B145" s="32" t="s">
         <v>290</v>
@@ -7468,8 +7456,8 @@
     </row>
     <row r="146" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A146" s="14" t="str">
-        <f t="shared" si="3"/>
-        <v>gdmt-property:awardPageIRI</v>
+        <f t="shared" ref="A146:A150" si="2">"gdmt:"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B146," ",""),"-",""),"&amp;","")</f>
+        <v>gdmt:awardLocalIdentifier</v>
       </c>
       <c r="B146" s="32" t="s">
         <v>292</v>
@@ -7493,8 +7481,8 @@
     </row>
     <row r="147" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A147" s="14" t="str">
-        <f t="shared" ref="A147:A151" si="4">"gdmt-property:"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B147," ",""),"-",""),"&amp;","")</f>
-        <v>gdmt-property:awardLocalIdentifier</v>
+        <f t="shared" si="2"/>
+        <v>gdmt:funderName</v>
       </c>
       <c r="B147" s="32" t="s">
         <v>294</v>
@@ -7518,8 +7506,8 @@
     </row>
     <row r="148" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A148" s="14" t="str">
-        <f t="shared" si="4"/>
-        <v>gdmt-property:funderName</v>
+        <f t="shared" si="2"/>
+        <v>gdmt:funderIdentifier</v>
       </c>
       <c r="B148" s="32" t="s">
         <v>296</v>
@@ -7543,8 +7531,8 @@
     </row>
     <row r="149" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A149" s="14" t="str">
-        <f t="shared" si="4"/>
-        <v>gdmt-property:funderIdentifier</v>
+        <f t="shared" si="2"/>
+        <v>gdmt:funderIdentifierScheme</v>
       </c>
       <c r="B149" s="32" t="s">
         <v>298</v>
@@ -7568,8 +7556,8 @@
     </row>
     <row r="150" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A150" s="14" t="str">
-        <f t="shared" si="4"/>
-        <v>gdmt-property:funderIdentifierScheme</v>
+        <f t="shared" si="2"/>
+        <v>gdmt:funderIdentifierSchemeIRI</v>
       </c>
       <c r="B150" s="32" t="s">
         <v>300</v>
@@ -7591,68 +7579,66 @@
       <c r="K150" s="36"/>
       <c r="L150" s="36"/>
     </row>
-    <row r="151" spans="1:12" s="9" customFormat="1" ht="16">
-      <c r="A151" s="14" t="str">
-        <f t="shared" si="4"/>
-        <v>gdmt-property:funderIdentifierSchemeIRI</v>
-      </c>
-      <c r="B151" s="32" t="s">
+    <row r="151" spans="1:12" ht="15" customHeight="1">
+      <c r="A151" s="40" t="str">
+        <f>"gdmt:"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B151," ",""),"-",""),"&amp;","")</f>
+        <v>gdmt:ResourceTypeCategories</v>
+      </c>
+      <c r="B151" s="41" t="s">
+        <v>383</v>
+      </c>
+      <c r="C151" s="42"/>
+      <c r="D151" s="42"/>
+      <c r="E151" s="41" t="s">
+        <v>333</v>
+      </c>
+      <c r="F151" s="42"/>
+      <c r="G151" s="42"/>
+      <c r="H151" s="42"/>
+      <c r="I151" s="42"/>
+      <c r="J151" s="42"/>
+      <c r="K151" s="42"/>
+      <c r="L151" s="42"/>
+    </row>
+    <row r="152" spans="1:12" ht="15" customHeight="1">
+      <c r="A152" s="33" t="str">
+        <f t="shared" ref="A152:A190" si="3">"gdmt:"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B152," ",""),"-",""),"&amp;","")</f>
+        <v>gdmt:Audiovisual</v>
+      </c>
+      <c r="B152" s="34" t="s">
         <v>302</v>
       </c>
-      <c r="C151" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D151" s="32" t="s">
-        <v>302</v>
-      </c>
-      <c r="E151" s="32" t="s">
-        <v>303</v>
-      </c>
-      <c r="F151" s="36"/>
-      <c r="G151" s="36"/>
-      <c r="H151" s="36"/>
-      <c r="I151" s="36"/>
-      <c r="J151" s="36"/>
-      <c r="K151" s="36"/>
-      <c r="L151" s="36"/>
-    </row>
-    <row r="152" spans="1:12" ht="15" customHeight="1">
-      <c r="A152" s="40" t="str">
-        <f>"gdmt:"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B152," ",""),"-",""),"&amp;","")</f>
-        <v>gdmt:ResourceTypeCategories</v>
-      </c>
-      <c r="B152" s="41" t="s">
-        <v>385</v>
-      </c>
-      <c r="C152" s="42"/>
-      <c r="D152" s="42"/>
-      <c r="E152" s="41" t="s">
-        <v>335</v>
-      </c>
-      <c r="F152" s="42"/>
-      <c r="G152" s="42"/>
-      <c r="H152" s="42"/>
-      <c r="I152" s="42"/>
-      <c r="J152" s="42"/>
-      <c r="K152" s="42"/>
-      <c r="L152" s="42"/>
+      <c r="C152" s="37"/>
+      <c r="D152" s="37"/>
+      <c r="E152" s="34" t="s">
+        <v>317</v>
+      </c>
+      <c r="F152" s="37"/>
+      <c r="G152" s="37" t="s">
+        <v>384</v>
+      </c>
+      <c r="H152" s="37"/>
+      <c r="I152" s="37"/>
+      <c r="J152" s="37"/>
+      <c r="K152" s="37"/>
+      <c r="L152" s="37"/>
     </row>
     <row r="153" spans="1:12" ht="15" customHeight="1">
       <c r="A153" s="33" t="str">
-        <f t="shared" ref="A153:A191" si="5">"gdmt:"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B153," ",""),"-",""),"&amp;","")</f>
-        <v>gdmt:Audiovisual</v>
-      </c>
-      <c r="B153" s="34" t="s">
-        <v>304</v>
+        <f t="shared" si="3"/>
+        <v>gdmt:Collection</v>
+      </c>
+      <c r="B153" s="35" t="s">
+        <v>303</v>
       </c>
       <c r="C153" s="37"/>
       <c r="D153" s="37"/>
       <c r="E153" s="34" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F153" s="37"/>
       <c r="G153" s="37" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="H153" s="37"/>
       <c r="I153" s="37"/>
@@ -7662,20 +7648,20 @@
     </row>
     <row r="154" spans="1:12" ht="15" customHeight="1">
       <c r="A154" s="33" t="str">
-        <f t="shared" si="5"/>
-        <v>gdmt:Collection</v>
+        <f t="shared" si="3"/>
+        <v>gdmt:DataPaper</v>
       </c>
       <c r="B154" s="35" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C154" s="37"/>
       <c r="D154" s="37"/>
-      <c r="E154" s="34" t="s">
-        <v>320</v>
+      <c r="E154" s="35" t="s">
+        <v>319</v>
       </c>
       <c r="F154" s="37"/>
       <c r="G154" s="37" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="H154" s="37"/>
       <c r="I154" s="37"/>
@@ -7685,20 +7671,20 @@
     </row>
     <row r="155" spans="1:12" ht="15" customHeight="1">
       <c r="A155" s="33" t="str">
-        <f t="shared" si="5"/>
-        <v>gdmt:DataPaper</v>
+        <f t="shared" si="3"/>
+        <v>gdmt:DataCatalog</v>
       </c>
       <c r="B155" s="35" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C155" s="37"/>
       <c r="D155" s="37"/>
-      <c r="E155" s="35" t="s">
-        <v>321</v>
+      <c r="E155" s="34" t="s">
+        <v>320</v>
       </c>
       <c r="F155" s="37"/>
       <c r="G155" s="37" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="H155" s="37"/>
       <c r="I155" s="37"/>
@@ -7708,20 +7694,20 @@
     </row>
     <row r="156" spans="1:12" ht="15" customHeight="1">
       <c r="A156" s="33" t="str">
-        <f t="shared" si="5"/>
-        <v>gdmt:DataCatalog</v>
+        <f t="shared" si="3"/>
+        <v>gdmt:Dataset</v>
       </c>
       <c r="B156" s="35" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C156" s="37"/>
       <c r="D156" s="37"/>
-      <c r="E156" s="34" t="s">
-        <v>322</v>
+      <c r="E156" s="35" t="s">
+        <v>321</v>
       </c>
       <c r="F156" s="37"/>
       <c r="G156" s="37" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="H156" s="37"/>
       <c r="I156" s="37"/>
@@ -7731,20 +7717,20 @@
     </row>
     <row r="157" spans="1:12" ht="15" customHeight="1">
       <c r="A157" s="33" t="str">
-        <f t="shared" si="5"/>
-        <v>gdmt:Dataset</v>
+        <f t="shared" si="3"/>
+        <v>gdmt:DataStream</v>
       </c>
       <c r="B157" s="35" t="s">
-        <v>308</v>
+        <v>93</v>
       </c>
       <c r="C157" s="37"/>
       <c r="D157" s="37"/>
       <c r="E157" s="35" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F157" s="37"/>
       <c r="G157" s="37" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="H157" s="37"/>
       <c r="I157" s="37"/>
@@ -7754,20 +7740,20 @@
     </row>
     <row r="158" spans="1:12" ht="15" customHeight="1">
       <c r="A158" s="33" t="str">
-        <f t="shared" si="5"/>
-        <v>gdmt:DataStream</v>
+        <f t="shared" si="3"/>
+        <v>gdmt:Event</v>
       </c>
       <c r="B158" s="35" t="s">
-        <v>93</v>
+        <v>307</v>
       </c>
       <c r="C158" s="37"/>
       <c r="D158" s="37"/>
       <c r="E158" s="35" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F158" s="37"/>
       <c r="G158" s="37" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="H158" s="37"/>
       <c r="I158" s="37"/>
@@ -7777,20 +7763,20 @@
     </row>
     <row r="159" spans="1:12" ht="15" customHeight="1">
       <c r="A159" s="33" t="str">
-        <f t="shared" si="5"/>
-        <v>gdmt:Event</v>
+        <f t="shared" si="3"/>
+        <v>gdmt:Image</v>
       </c>
       <c r="B159" s="35" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C159" s="37"/>
       <c r="D159" s="37"/>
       <c r="E159" s="35" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F159" s="37"/>
       <c r="G159" s="37" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="H159" s="37"/>
       <c r="I159" s="37"/>
@@ -7800,20 +7786,20 @@
     </row>
     <row r="160" spans="1:12" ht="15" customHeight="1">
       <c r="A160" s="33" t="str">
-        <f t="shared" si="5"/>
-        <v>gdmt:Image</v>
+        <f t="shared" si="3"/>
+        <v>gdmt:InteractiveResource</v>
       </c>
       <c r="B160" s="35" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C160" s="37"/>
       <c r="D160" s="37"/>
       <c r="E160" s="35" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F160" s="37"/>
       <c r="G160" s="37" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="H160" s="37"/>
       <c r="I160" s="37"/>
@@ -7823,20 +7809,20 @@
     </row>
     <row r="161" spans="1:23" ht="15" customHeight="1">
       <c r="A161" s="33" t="str">
-        <f t="shared" si="5"/>
-        <v>gdmt:InteractiveResource</v>
+        <f t="shared" si="3"/>
+        <v>gdmt:Model</v>
       </c>
       <c r="B161" s="35" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C161" s="37"/>
       <c r="D161" s="37"/>
       <c r="E161" s="35" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F161" s="37"/>
       <c r="G161" s="37" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="H161" s="37"/>
       <c r="I161" s="37"/>
@@ -7846,20 +7832,20 @@
     </row>
     <row r="162" spans="1:23" ht="15" customHeight="1">
       <c r="A162" s="33" t="str">
-        <f t="shared" si="5"/>
-        <v>gdmt:Model</v>
+        <f t="shared" si="3"/>
+        <v>gdmt:PhysicalObject</v>
       </c>
       <c r="B162" s="35" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C162" s="37"/>
       <c r="D162" s="37"/>
       <c r="E162" s="35" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F162" s="37"/>
       <c r="G162" s="37" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="H162" s="37"/>
       <c r="I162" s="37"/>
@@ -7869,20 +7855,20 @@
     </row>
     <row r="163" spans="1:23" ht="15" customHeight="1">
       <c r="A163" s="33" t="str">
-        <f t="shared" si="5"/>
-        <v>gdmt:PhysicalObject</v>
+        <f t="shared" si="3"/>
+        <v>gdmt:Service</v>
       </c>
       <c r="B163" s="35" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C163" s="37"/>
       <c r="D163" s="37"/>
       <c r="E163" s="35" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F163" s="37"/>
       <c r="G163" s="37" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="H163" s="37"/>
       <c r="I163" s="37"/>
@@ -7892,20 +7878,20 @@
     </row>
     <row r="164" spans="1:23" ht="15" customHeight="1">
       <c r="A164" s="33" t="str">
-        <f t="shared" si="5"/>
-        <v>gdmt:Service</v>
+        <f t="shared" si="3"/>
+        <v>gdmt:Software</v>
       </c>
       <c r="B164" s="35" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C164" s="37"/>
       <c r="D164" s="37"/>
       <c r="E164" s="35" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F164" s="37"/>
       <c r="G164" s="37" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="H164" s="37"/>
       <c r="I164" s="37"/>
@@ -7915,20 +7901,20 @@
     </row>
     <row r="165" spans="1:23" ht="15" customHeight="1">
       <c r="A165" s="33" t="str">
-        <f t="shared" si="5"/>
-        <v>gdmt:Software</v>
+        <f t="shared" si="3"/>
+        <v>gdmt:Sound</v>
       </c>
       <c r="B165" s="35" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C165" s="37"/>
       <c r="D165" s="37"/>
       <c r="E165" s="35" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F165" s="37"/>
       <c r="G165" s="37" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="H165" s="37"/>
       <c r="I165" s="37"/>
@@ -7938,20 +7924,20 @@
     </row>
     <row r="166" spans="1:23" ht="15" customHeight="1">
       <c r="A166" s="33" t="str">
-        <f t="shared" si="5"/>
-        <v>gdmt:Sound</v>
+        <f t="shared" si="3"/>
+        <v>gdmt:Text</v>
       </c>
       <c r="B166" s="35" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C166" s="37"/>
       <c r="D166" s="37"/>
       <c r="E166" s="35" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="F166" s="37"/>
       <c r="G166" s="37" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="H166" s="37"/>
       <c r="I166" s="37"/>
@@ -7961,20 +7947,20 @@
     </row>
     <row r="167" spans="1:23" ht="15" customHeight="1">
       <c r="A167" s="33" t="str">
-        <f t="shared" si="5"/>
-        <v>gdmt:Text</v>
+        <f t="shared" si="3"/>
+        <v>gdmt:Workflow</v>
       </c>
       <c r="B167" s="35" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C167" s="37"/>
       <c r="D167" s="37"/>
       <c r="E167" s="35" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="F167" s="37"/>
       <c r="G167" s="37" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="H167" s="37"/>
       <c r="I167" s="37"/>
@@ -7984,11 +7970,11 @@
     </row>
     <row r="168" spans="1:23" ht="15" customHeight="1">
       <c r="A168" s="33" t="str">
-        <f t="shared" si="5"/>
-        <v>gdmt:Workflow</v>
+        <f t="shared" si="3"/>
+        <v>gdmt:OtherResource</v>
       </c>
       <c r="B168" s="35" t="s">
-        <v>318</v>
+        <v>340</v>
       </c>
       <c r="C168" s="37"/>
       <c r="D168" s="37"/>
@@ -7997,7 +7983,7 @@
       </c>
       <c r="F168" s="37"/>
       <c r="G168" s="37" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="H168" s="37"/>
       <c r="I168" s="37"/>
@@ -8006,65 +7992,65 @@
       <c r="L168" s="37"/>
     </row>
     <row r="169" spans="1:23" ht="15" customHeight="1">
-      <c r="A169" s="33" t="str">
-        <f t="shared" si="5"/>
-        <v>gdmt:OtherResource</v>
-      </c>
-      <c r="B169" s="35" t="s">
-        <v>342</v>
-      </c>
-      <c r="C169" s="37"/>
-      <c r="D169" s="37"/>
-      <c r="E169" s="35" t="s">
-        <v>336</v>
-      </c>
-      <c r="F169" s="37"/>
-      <c r="G169" s="37" t="s">
-        <v>386</v>
-      </c>
-      <c r="H169" s="37"/>
-      <c r="I169" s="37"/>
-      <c r="J169" s="37"/>
-      <c r="K169" s="37"/>
-      <c r="L169" s="37"/>
+      <c r="A169" s="40" t="str">
+        <f>"gdmt:"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B169," ",""),"-",""),"&amp;","")</f>
+        <v>gdmt:ContributorRoles</v>
+      </c>
+      <c r="B169" s="41" t="s">
+        <v>380</v>
+      </c>
+      <c r="C169" s="42"/>
+      <c r="D169" s="42"/>
+      <c r="E169" s="41" t="s">
+        <v>333</v>
+      </c>
+      <c r="F169" s="42"/>
+      <c r="G169" s="42"/>
+      <c r="H169" s="42"/>
+      <c r="I169" s="42"/>
+      <c r="J169" s="42"/>
+      <c r="K169" s="42"/>
+      <c r="L169" s="42"/>
     </row>
     <row r="170" spans="1:23" ht="15" customHeight="1">
-      <c r="A170" s="40" t="str">
-        <f>"gdmt:"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B170," ",""),"-",""),"&amp;","")</f>
-        <v>gdmt:ContributorRoles</v>
-      </c>
-      <c r="B170" s="41" t="s">
+      <c r="A170" s="33" t="str">
+        <f t="shared" si="3"/>
+        <v>gdmt:ContactPerson</v>
+      </c>
+      <c r="B170" s="37" t="s">
+        <v>335</v>
+      </c>
+      <c r="C170" s="37"/>
+      <c r="D170" s="37"/>
+      <c r="E170" s="37" t="s">
+        <v>337</v>
+      </c>
+      <c r="F170" s="37"/>
+      <c r="G170" s="39" t="s">
         <v>382</v>
       </c>
-      <c r="C170" s="42"/>
-      <c r="D170" s="42"/>
-      <c r="E170" s="41" t="s">
-        <v>335</v>
-      </c>
-      <c r="F170" s="42"/>
-      <c r="G170" s="42"/>
-      <c r="H170" s="42"/>
-      <c r="I170" s="42"/>
-      <c r="J170" s="42"/>
-      <c r="K170" s="42"/>
-      <c r="L170" s="42"/>
+      <c r="H170" s="37"/>
+      <c r="I170" s="37"/>
+      <c r="J170" s="37"/>
+      <c r="K170" s="37"/>
+      <c r="L170" s="37"/>
     </row>
     <row r="171" spans="1:23" ht="15" customHeight="1">
       <c r="A171" s="33" t="str">
-        <f t="shared" si="5"/>
-        <v>gdmt:ContactPerson</v>
+        <f t="shared" si="3"/>
+        <v>gdmt:DataCollector</v>
       </c>
       <c r="B171" s="37" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="C171" s="37"/>
       <c r="D171" s="37"/>
       <c r="E171" s="37" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F171" s="37"/>
       <c r="G171" s="39" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="H171" s="37"/>
       <c r="I171" s="37"/>
@@ -8074,20 +8060,20 @@
     </row>
     <row r="172" spans="1:23" ht="15" customHeight="1">
       <c r="A172" s="33" t="str">
-        <f t="shared" si="5"/>
-        <v>gdmt:DataCollector</v>
+        <f t="shared" si="3"/>
+        <v>gdmt:DataCurator</v>
       </c>
       <c r="B172" s="37" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="C172" s="37"/>
       <c r="D172" s="37"/>
       <c r="E172" s="37" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="F172" s="37"/>
       <c r="G172" s="39" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="H172" s="37"/>
       <c r="I172" s="37"/>
@@ -8097,20 +8083,20 @@
     </row>
     <row r="173" spans="1:23" ht="15" customHeight="1">
       <c r="A173" s="33" t="str">
-        <f t="shared" si="5"/>
-        <v>gdmt:DataCurator</v>
+        <f t="shared" si="3"/>
+        <v>gdmt:DataManager</v>
       </c>
       <c r="B173" s="37" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="C173" s="37"/>
       <c r="D173" s="37"/>
       <c r="E173" s="37" t="s">
-        <v>341</v>
+        <v>359</v>
       </c>
       <c r="F173" s="37"/>
       <c r="G173" s="39" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="H173" s="37"/>
       <c r="I173" s="37"/>
@@ -8120,20 +8106,20 @@
     </row>
     <row r="174" spans="1:23" ht="15" customHeight="1">
       <c r="A174" s="33" t="str">
-        <f t="shared" si="5"/>
-        <v>gdmt:DataManager</v>
+        <f t="shared" si="3"/>
+        <v>gdmt:Distributor</v>
       </c>
       <c r="B174" s="37" t="s">
-        <v>344</v>
+        <v>83</v>
       </c>
       <c r="C174" s="37"/>
       <c r="D174" s="37"/>
       <c r="E174" s="37" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="F174" s="37"/>
       <c r="G174" s="39" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="H174" s="37"/>
       <c r="I174" s="37"/>
@@ -8141,45 +8127,56 @@
       <c r="K174" s="37"/>
       <c r="L174" s="37"/>
     </row>
-    <row r="175" spans="1:23" ht="15" customHeight="1">
+    <row r="175" spans="1:23" ht="15.75" customHeight="1">
       <c r="A175" s="33" t="str">
-        <f t="shared" si="5"/>
-        <v>gdmt:Distributor</v>
-      </c>
-      <c r="B175" s="37" t="s">
-        <v>83</v>
-      </c>
-      <c r="C175" s="37"/>
-      <c r="D175" s="37"/>
+        <f t="shared" si="3"/>
+        <v>gdmt:Editor</v>
+      </c>
+      <c r="B175" s="38" t="s">
+        <v>343</v>
+      </c>
+      <c r="C175" s="38"/>
+      <c r="D175" s="38"/>
       <c r="E175" s="37" t="s">
-        <v>362</v>
-      </c>
-      <c r="F175" s="37"/>
+        <v>361</v>
+      </c>
+      <c r="F175" s="39"/>
       <c r="G175" s="39" t="s">
-        <v>384</v>
-      </c>
-      <c r="H175" s="37"/>
-      <c r="I175" s="37"/>
-      <c r="J175" s="37"/>
-      <c r="K175" s="37"/>
-      <c r="L175" s="37"/>
+        <v>382</v>
+      </c>
+      <c r="H175" s="39"/>
+      <c r="I175" s="39"/>
+      <c r="J175" s="39"/>
+      <c r="K175" s="39"/>
+      <c r="L175" s="39"/>
+      <c r="M175" s="2"/>
+      <c r="N175" s="2"/>
+      <c r="O175" s="2"/>
+      <c r="P175" s="2"/>
+      <c r="Q175" s="2"/>
+      <c r="R175" s="2"/>
+      <c r="S175" s="2"/>
+      <c r="T175" s="2"/>
+      <c r="U175" s="2"/>
+      <c r="V175" s="2"/>
+      <c r="W175" s="2"/>
     </row>
     <row r="176" spans="1:23" ht="15.75" customHeight="1">
       <c r="A176" s="33" t="str">
-        <f t="shared" si="5"/>
-        <v>gdmt:Editor</v>
+        <f t="shared" si="3"/>
+        <v>gdmt:HostingInstitution</v>
       </c>
       <c r="B176" s="38" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C176" s="38"/>
       <c r="D176" s="38"/>
       <c r="E176" s="37" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F176" s="39"/>
       <c r="G176" s="39" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="H176" s="39"/>
       <c r="I176" s="39"/>
@@ -8200,20 +8197,20 @@
     </row>
     <row r="177" spans="1:23" ht="15.75" customHeight="1">
       <c r="A177" s="33" t="str">
-        <f t="shared" si="5"/>
-        <v>gdmt:HostingInstitution</v>
+        <f t="shared" si="3"/>
+        <v>gdmt:Producer</v>
       </c>
       <c r="B177" s="38" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C177" s="38"/>
       <c r="D177" s="38"/>
       <c r="E177" s="37" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="F177" s="39"/>
       <c r="G177" s="39" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="H177" s="39"/>
       <c r="I177" s="39"/>
@@ -8234,20 +8231,20 @@
     </row>
     <row r="178" spans="1:23" ht="15.75" customHeight="1">
       <c r="A178" s="33" t="str">
-        <f t="shared" si="5"/>
-        <v>gdmt:Producer</v>
+        <f t="shared" si="3"/>
+        <v>gdmt:ProjectLeader</v>
       </c>
       <c r="B178" s="38" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C178" s="38"/>
       <c r="D178" s="38"/>
       <c r="E178" s="37" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F178" s="39"/>
       <c r="G178" s="39" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="H178" s="39"/>
       <c r="I178" s="39"/>
@@ -8266,56 +8263,45 @@
       <c r="V178" s="2"/>
       <c r="W178" s="2"/>
     </row>
-    <row r="179" spans="1:23" ht="15.75" customHeight="1">
+    <row r="179" spans="1:23" ht="15" customHeight="1">
       <c r="A179" s="33" t="str">
-        <f t="shared" si="5"/>
-        <v>gdmt:ProjectLeader</v>
-      </c>
-      <c r="B179" s="38" t="s">
-        <v>348</v>
-      </c>
-      <c r="C179" s="38"/>
-      <c r="D179" s="38"/>
+        <f t="shared" si="3"/>
+        <v>gdmt:ProjectManager</v>
+      </c>
+      <c r="B179" s="37" t="s">
+        <v>347</v>
+      </c>
+      <c r="C179" s="37"/>
+      <c r="D179" s="37"/>
       <c r="E179" s="37" t="s">
-        <v>366</v>
-      </c>
-      <c r="F179" s="39"/>
+        <v>365</v>
+      </c>
+      <c r="F179" s="37"/>
       <c r="G179" s="39" t="s">
-        <v>384</v>
-      </c>
-      <c r="H179" s="39"/>
-      <c r="I179" s="39"/>
-      <c r="J179" s="39"/>
-      <c r="K179" s="39"/>
-      <c r="L179" s="39"/>
-      <c r="M179" s="2"/>
-      <c r="N179" s="2"/>
-      <c r="O179" s="2"/>
-      <c r="P179" s="2"/>
-      <c r="Q179" s="2"/>
-      <c r="R179" s="2"/>
-      <c r="S179" s="2"/>
-      <c r="T179" s="2"/>
-      <c r="U179" s="2"/>
-      <c r="V179" s="2"/>
-      <c r="W179" s="2"/>
+        <v>382</v>
+      </c>
+      <c r="H179" s="37"/>
+      <c r="I179" s="37"/>
+      <c r="J179" s="37"/>
+      <c r="K179" s="37"/>
+      <c r="L179" s="37"/>
     </row>
     <row r="180" spans="1:23" ht="15" customHeight="1">
       <c r="A180" s="33" t="str">
-        <f t="shared" si="5"/>
-        <v>gdmt:ProjectManager</v>
+        <f t="shared" si="3"/>
+        <v>gdmt:ProjectMember</v>
       </c>
       <c r="B180" s="37" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C180" s="37"/>
       <c r="D180" s="37"/>
       <c r="E180" s="37" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F180" s="37"/>
       <c r="G180" s="39" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="H180" s="37"/>
       <c r="I180" s="37"/>
@@ -8325,20 +8311,20 @@
     </row>
     <row r="181" spans="1:23" ht="15" customHeight="1">
       <c r="A181" s="33" t="str">
-        <f t="shared" si="5"/>
-        <v>gdmt:ProjectMember</v>
+        <f t="shared" si="3"/>
+        <v>gdmt:RegistrationAgency</v>
       </c>
       <c r="B181" s="37" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C181" s="37"/>
       <c r="D181" s="37"/>
       <c r="E181" s="37" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F181" s="37"/>
       <c r="G181" s="39" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="H181" s="37"/>
       <c r="I181" s="37"/>
@@ -8348,20 +8334,20 @@
     </row>
     <row r="182" spans="1:23" ht="15" customHeight="1">
       <c r="A182" s="33" t="str">
-        <f t="shared" si="5"/>
-        <v>gdmt:RegistrationAgency</v>
+        <f t="shared" si="3"/>
+        <v>gdmt:RegistrationAuthority</v>
       </c>
       <c r="B182" s="37" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C182" s="37"/>
       <c r="D182" s="37"/>
       <c r="E182" s="37" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F182" s="37"/>
       <c r="G182" s="39" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="H182" s="37"/>
       <c r="I182" s="37"/>
@@ -8371,20 +8357,20 @@
     </row>
     <row r="183" spans="1:23" ht="15" customHeight="1">
       <c r="A183" s="33" t="str">
-        <f t="shared" si="5"/>
-        <v>gdmt:RegistrationAuthority</v>
+        <f t="shared" si="3"/>
+        <v>gdmt:RelatedPerson</v>
       </c>
       <c r="B183" s="37" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C183" s="37"/>
       <c r="D183" s="37"/>
       <c r="E183" s="37" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F183" s="37"/>
       <c r="G183" s="39" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="H183" s="37"/>
       <c r="I183" s="37"/>
@@ -8392,45 +8378,56 @@
       <c r="K183" s="37"/>
       <c r="L183" s="37"/>
     </row>
-    <row r="184" spans="1:23" ht="15" customHeight="1">
+    <row r="184" spans="1:23" ht="15.75" customHeight="1">
       <c r="A184" s="33" t="str">
-        <f t="shared" si="5"/>
-        <v>gdmt:RelatedPerson</v>
-      </c>
-      <c r="B184" s="37" t="s">
-        <v>353</v>
-      </c>
-      <c r="C184" s="37"/>
-      <c r="D184" s="37"/>
+        <f t="shared" si="3"/>
+        <v>gdmt:Researcher</v>
+      </c>
+      <c r="B184" s="38" t="s">
+        <v>352</v>
+      </c>
+      <c r="C184" s="38"/>
+      <c r="D184" s="38"/>
       <c r="E184" s="37" t="s">
-        <v>371</v>
-      </c>
-      <c r="F184" s="37"/>
+        <v>370</v>
+      </c>
+      <c r="F184" s="39"/>
       <c r="G184" s="39" t="s">
-        <v>384</v>
-      </c>
-      <c r="H184" s="37"/>
-      <c r="I184" s="37"/>
-      <c r="J184" s="37"/>
-      <c r="K184" s="37"/>
-      <c r="L184" s="37"/>
+        <v>382</v>
+      </c>
+      <c r="H184" s="39"/>
+      <c r="I184" s="39"/>
+      <c r="J184" s="39"/>
+      <c r="K184" s="39"/>
+      <c r="L184" s="39"/>
+      <c r="M184" s="2"/>
+      <c r="N184" s="2"/>
+      <c r="O184" s="2"/>
+      <c r="P184" s="2"/>
+      <c r="Q184" s="2"/>
+      <c r="R184" s="2"/>
+      <c r="S184" s="2"/>
+      <c r="T184" s="2"/>
+      <c r="U184" s="2"/>
+      <c r="V184" s="2"/>
+      <c r="W184" s="2"/>
     </row>
     <row r="185" spans="1:23" ht="15.75" customHeight="1">
       <c r="A185" s="33" t="str">
-        <f t="shared" si="5"/>
-        <v>gdmt:Researcher</v>
+        <f t="shared" si="3"/>
+        <v>gdmt:ResearchGroup</v>
       </c>
       <c r="B185" s="38" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C185" s="38"/>
       <c r="D185" s="38"/>
       <c r="E185" s="37" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="F185" s="39"/>
       <c r="G185" s="39" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="H185" s="39"/>
       <c r="I185" s="39"/>
@@ -8451,20 +8448,20 @@
     </row>
     <row r="186" spans="1:23" ht="15.75" customHeight="1">
       <c r="A186" s="33" t="str">
-        <f t="shared" si="5"/>
-        <v>gdmt:ResearchGroup</v>
+        <f t="shared" si="3"/>
+        <v>gdmt:RightsHolder</v>
       </c>
       <c r="B186" s="38" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C186" s="38"/>
       <c r="D186" s="38"/>
       <c r="E186" s="37" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F186" s="39"/>
       <c r="G186" s="39" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="H186" s="39"/>
       <c r="I186" s="39"/>
@@ -8485,20 +8482,20 @@
     </row>
     <row r="187" spans="1:23" ht="15.75" customHeight="1">
       <c r="A187" s="33" t="str">
-        <f t="shared" si="5"/>
-        <v>gdmt:RightsHolder</v>
+        <f t="shared" si="3"/>
+        <v>gdmt:Sponsor</v>
       </c>
       <c r="B187" s="38" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C187" s="38"/>
       <c r="D187" s="38"/>
       <c r="E187" s="37" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F187" s="39"/>
       <c r="G187" s="39" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="H187" s="39"/>
       <c r="I187" s="39"/>
@@ -8519,20 +8516,20 @@
     </row>
     <row r="188" spans="1:23" ht="15.75" customHeight="1">
       <c r="A188" s="33" t="str">
-        <f t="shared" si="5"/>
-        <v>gdmt:Sponsor</v>
+        <f t="shared" si="3"/>
+        <v>gdmt:Supervisor</v>
       </c>
       <c r="B188" s="38" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C188" s="38"/>
       <c r="D188" s="38"/>
       <c r="E188" s="37" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F188" s="39"/>
       <c r="G188" s="39" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="H188" s="39"/>
       <c r="I188" s="39"/>
@@ -8553,20 +8550,20 @@
     </row>
     <row r="189" spans="1:23" ht="15.75" customHeight="1">
       <c r="A189" s="33" t="str">
-        <f t="shared" si="5"/>
-        <v>gdmt:Supervisor</v>
+        <f t="shared" si="3"/>
+        <v>gdmt:WorkPackageLeader</v>
       </c>
       <c r="B189" s="38" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C189" s="38"/>
       <c r="D189" s="38"/>
       <c r="E189" s="37" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F189" s="39"/>
       <c r="G189" s="39" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="H189" s="39"/>
       <c r="I189" s="39"/>
@@ -8587,20 +8584,20 @@
     </row>
     <row r="190" spans="1:23" ht="15.75" customHeight="1">
       <c r="A190" s="33" t="str">
-        <f t="shared" si="5"/>
-        <v>gdmt:WorkPackageLeader</v>
+        <f t="shared" si="3"/>
+        <v>gdmt:OtherRole</v>
       </c>
       <c r="B190" s="38" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C190" s="38"/>
       <c r="D190" s="38"/>
       <c r="E190" s="37" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F190" s="39"/>
       <c r="G190" s="39" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="H190" s="39"/>
       <c r="I190" s="39"/>
@@ -8619,88 +8616,88 @@
       <c r="V190" s="2"/>
       <c r="W190" s="2"/>
     </row>
-    <row r="191" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A191" s="33" t="str">
-        <f t="shared" si="5"/>
-        <v>gdmt:OtherRole</v>
-      </c>
-      <c r="B191" s="38" t="s">
-        <v>360</v>
-      </c>
-      <c r="C191" s="38"/>
-      <c r="D191" s="38"/>
-      <c r="E191" s="37" t="s">
+    <row r="191" spans="1:23" ht="15" customHeight="1">
+      <c r="A191" s="40" t="str">
+        <f>"gdmt:"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B191," ",""),"-",""),"&amp;","")</f>
+        <v>gdmt:DateTypes</v>
+      </c>
+      <c r="B191" s="41" t="s">
+        <v>379</v>
+      </c>
+      <c r="C191" s="42"/>
+      <c r="D191" s="42"/>
+      <c r="E191" s="41" t="s">
+        <v>333</v>
+      </c>
+      <c r="F191" s="42"/>
+      <c r="G191" s="42"/>
+      <c r="H191" s="42"/>
+      <c r="I191" s="42"/>
+      <c r="J191" s="42"/>
+      <c r="K191" s="42"/>
+      <c r="L191" s="42"/>
+    </row>
+    <row r="192" spans="1:23" ht="15" customHeight="1">
+      <c r="A192" s="33" t="str">
+        <f>"gdmt:"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B192," ",""),"-",""),"&amp;","")</f>
+        <v>gdmt:Published</v>
+      </c>
+      <c r="B192" s="43" t="s">
+        <v>377</v>
+      </c>
+      <c r="C192" s="37"/>
+      <c r="D192" s="37"/>
+      <c r="E192" s="43" t="s">
         <v>378</v>
       </c>
-      <c r="F191" s="39"/>
-      <c r="G191" s="39" t="s">
-        <v>384</v>
-      </c>
-      <c r="H191" s="39"/>
-      <c r="I191" s="39"/>
-      <c r="J191" s="39"/>
-      <c r="K191" s="39"/>
-      <c r="L191" s="39"/>
-      <c r="M191" s="2"/>
-      <c r="N191" s="2"/>
-      <c r="O191" s="2"/>
-      <c r="P191" s="2"/>
-      <c r="Q191" s="2"/>
-      <c r="R191" s="2"/>
-      <c r="S191" s="2"/>
-      <c r="T191" s="2"/>
-      <c r="U191" s="2"/>
-      <c r="V191" s="2"/>
-      <c r="W191" s="2"/>
-    </row>
-    <row r="192" spans="1:23" ht="15" customHeight="1">
-      <c r="A192" s="40" t="str">
-        <f>"gdmt:"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B192," ",""),"-",""),"&amp;","")</f>
-        <v>gdmt:DateTypes</v>
-      </c>
-      <c r="B192" s="41" t="s">
-        <v>381</v>
-      </c>
-      <c r="C192" s="42"/>
-      <c r="D192" s="42"/>
-      <c r="E192" s="41" t="s">
-        <v>335</v>
-      </c>
-      <c r="F192" s="42"/>
-      <c r="G192" s="42"/>
-      <c r="H192" s="42"/>
-      <c r="I192" s="42"/>
-      <c r="J192" s="42"/>
-      <c r="K192" s="42"/>
-      <c r="L192" s="42"/>
-    </row>
-    <row r="193" spans="1:23" ht="15" customHeight="1">
+      <c r="F192" s="37"/>
+      <c r="G192" s="37" t="s">
+        <v>405</v>
+      </c>
+      <c r="H192" s="37"/>
+      <c r="I192" s="37"/>
+      <c r="J192" s="37"/>
+      <c r="K192" s="37"/>
+      <c r="L192" s="37"/>
+    </row>
+    <row r="193" spans="1:23" ht="15.75" customHeight="1">
       <c r="A193" s="33" t="str">
-        <f>"gdmt:"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B193," ",""),"-",""),"&amp;","")</f>
-        <v>gdmt:Published</v>
-      </c>
-      <c r="B193" s="43" t="s">
-        <v>379</v>
-      </c>
-      <c r="C193" s="37"/>
-      <c r="D193" s="37"/>
-      <c r="E193" s="43" t="s">
-        <v>380</v>
-      </c>
-      <c r="F193" s="37"/>
-      <c r="G193" s="37" t="s">
-        <v>407</v>
-      </c>
-      <c r="H193" s="37"/>
-      <c r="I193" s="37"/>
-      <c r="J193" s="37"/>
-      <c r="K193" s="37"/>
-      <c r="L193" s="37"/>
+        <f t="shared" ref="A193:A256" si="4">"gdmt:"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B193," ",""),"-",""),"&amp;","")</f>
+        <v>gdmt:Accepted</v>
+      </c>
+      <c r="B193" s="44" t="s">
+        <v>385</v>
+      </c>
+      <c r="C193" s="44"/>
+      <c r="D193" s="44"/>
+      <c r="E193" s="44" t="s">
+        <v>386</v>
+      </c>
+      <c r="F193" s="44"/>
+      <c r="G193" s="44" t="s">
+        <v>405</v>
+      </c>
+      <c r="H193" s="44"/>
+      <c r="I193" s="44"/>
+      <c r="J193" s="44"/>
+      <c r="K193" s="44"/>
+      <c r="L193" s="44"/>
+      <c r="M193" s="2"/>
+      <c r="N193" s="2"/>
+      <c r="O193" s="2"/>
+      <c r="P193" s="2"/>
+      <c r="Q193" s="2"/>
+      <c r="R193" s="2"/>
+      <c r="S193" s="2"/>
+      <c r="T193" s="2"/>
+      <c r="U193" s="2"/>
+      <c r="V193" s="2"/>
+      <c r="W193" s="2"/>
     </row>
     <row r="194" spans="1:23" ht="15.75" customHeight="1">
       <c r="A194" s="33" t="str">
-        <f t="shared" ref="A194:A257" si="6">"gdmt:"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B194," ",""),"-",""),"&amp;","")</f>
-        <v>gdmt:Accepted</v>
+        <f t="shared" si="4"/>
+        <v>gdmt:Available</v>
       </c>
       <c r="B194" s="44" t="s">
         <v>387</v>
@@ -8712,7 +8709,7 @@
       </c>
       <c r="F194" s="44"/>
       <c r="G194" s="44" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="H194" s="44"/>
       <c r="I194" s="44"/>
@@ -8733,8 +8730,8 @@
     </row>
     <row r="195" spans="1:23" ht="15.75" customHeight="1">
       <c r="A195" s="33" t="str">
-        <f t="shared" si="6"/>
-        <v>gdmt:Available</v>
+        <f t="shared" si="4"/>
+        <v>gdmt:Copyrighted</v>
       </c>
       <c r="B195" s="44" t="s">
         <v>389</v>
@@ -8746,7 +8743,7 @@
       </c>
       <c r="F195" s="44"/>
       <c r="G195" s="44" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="H195" s="44"/>
       <c r="I195" s="44"/>
@@ -8767,8 +8764,8 @@
     </row>
     <row r="196" spans="1:23" ht="15.75" customHeight="1">
       <c r="A196" s="33" t="str">
-        <f t="shared" si="6"/>
-        <v>gdmt:Copyrighted</v>
+        <f t="shared" si="4"/>
+        <v>gdmt:Collected</v>
       </c>
       <c r="B196" s="44" t="s">
         <v>391</v>
@@ -8780,7 +8777,7 @@
       </c>
       <c r="F196" s="44"/>
       <c r="G196" s="44" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="H196" s="44"/>
       <c r="I196" s="44"/>
@@ -8801,26 +8798,26 @@
     </row>
     <row r="197" spans="1:23" ht="15.75" customHeight="1">
       <c r="A197" s="33" t="str">
-        <f t="shared" si="6"/>
-        <v>gdmt:Collected</v>
-      </c>
-      <c r="B197" s="44" t="s">
+        <f t="shared" si="4"/>
+        <v>gdmt:Created</v>
+      </c>
+      <c r="B197" s="45" t="s">
         <v>393</v>
       </c>
-      <c r="C197" s="44"/>
-      <c r="D197" s="44"/>
-      <c r="E197" s="44" t="s">
+      <c r="C197" s="45"/>
+      <c r="D197" s="45"/>
+      <c r="E197" s="45" t="s">
         <v>394</v>
       </c>
-      <c r="F197" s="44"/>
-      <c r="G197" s="44" t="s">
-        <v>407</v>
-      </c>
-      <c r="H197" s="44"/>
-      <c r="I197" s="44"/>
-      <c r="J197" s="44"/>
-      <c r="K197" s="44"/>
-      <c r="L197" s="44"/>
+      <c r="F197" s="45"/>
+      <c r="G197" s="45" t="s">
+        <v>405</v>
+      </c>
+      <c r="H197" s="45"/>
+      <c r="I197" s="45"/>
+      <c r="J197" s="45"/>
+      <c r="K197" s="45"/>
+      <c r="L197" s="45"/>
       <c r="M197" s="2"/>
       <c r="N197" s="2"/>
       <c r="O197" s="2"/>
@@ -8835,26 +8832,26 @@
     </row>
     <row r="198" spans="1:23" ht="15.75" customHeight="1">
       <c r="A198" s="33" t="str">
-        <f t="shared" si="6"/>
-        <v>gdmt:Created</v>
-      </c>
-      <c r="B198" s="45" t="s">
+        <f t="shared" si="4"/>
+        <v>gdmt:Issued</v>
+      </c>
+      <c r="B198" s="44" t="s">
         <v>395</v>
       </c>
-      <c r="C198" s="45"/>
-      <c r="D198" s="45"/>
-      <c r="E198" s="45" t="s">
+      <c r="C198" s="44"/>
+      <c r="D198" s="44"/>
+      <c r="E198" s="44" t="s">
         <v>396</v>
       </c>
-      <c r="F198" s="45"/>
-      <c r="G198" s="45" t="s">
-        <v>407</v>
-      </c>
-      <c r="H198" s="45"/>
-      <c r="I198" s="45"/>
-      <c r="J198" s="45"/>
-      <c r="K198" s="45"/>
-      <c r="L198" s="45"/>
+      <c r="F198" s="44"/>
+      <c r="G198" s="44" t="s">
+        <v>405</v>
+      </c>
+      <c r="H198" s="44"/>
+      <c r="I198" s="44"/>
+      <c r="J198" s="44"/>
+      <c r="K198" s="44"/>
+      <c r="L198" s="44"/>
       <c r="M198" s="2"/>
       <c r="N198" s="2"/>
       <c r="O198" s="2"/>
@@ -8869,26 +8866,26 @@
     </row>
     <row r="199" spans="1:23" ht="15.75" customHeight="1">
       <c r="A199" s="33" t="str">
-        <f t="shared" si="6"/>
-        <v>gdmt:Issued</v>
-      </c>
-      <c r="B199" s="44" t="s">
+        <f t="shared" si="4"/>
+        <v>gdmt:Submitted</v>
+      </c>
+      <c r="B199" s="45" t="s">
         <v>397</v>
       </c>
-      <c r="C199" s="44"/>
-      <c r="D199" s="44"/>
-      <c r="E199" s="44" t="s">
+      <c r="C199" s="45"/>
+      <c r="D199" s="45"/>
+      <c r="E199" s="45" t="s">
         <v>398</v>
       </c>
-      <c r="F199" s="44"/>
-      <c r="G199" s="44" t="s">
-        <v>407</v>
-      </c>
-      <c r="H199" s="44"/>
-      <c r="I199" s="44"/>
-      <c r="J199" s="44"/>
-      <c r="K199" s="44"/>
-      <c r="L199" s="44"/>
+      <c r="F199" s="45"/>
+      <c r="G199" s="45" t="s">
+        <v>405</v>
+      </c>
+      <c r="H199" s="45"/>
+      <c r="I199" s="45"/>
+      <c r="J199" s="45"/>
+      <c r="K199" s="45"/>
+      <c r="L199" s="45"/>
       <c r="M199" s="2"/>
       <c r="N199" s="2"/>
       <c r="O199" s="2"/>
@@ -8903,26 +8900,26 @@
     </row>
     <row r="200" spans="1:23" ht="15.75" customHeight="1">
       <c r="A200" s="33" t="str">
-        <f t="shared" si="6"/>
-        <v>gdmt:Submitted</v>
-      </c>
-      <c r="B200" s="45" t="s">
+        <f t="shared" si="4"/>
+        <v>gdmt:Updated</v>
+      </c>
+      <c r="B200" s="44" t="s">
         <v>399</v>
       </c>
-      <c r="C200" s="45"/>
-      <c r="D200" s="45"/>
-      <c r="E200" s="45" t="s">
+      <c r="C200" s="44"/>
+      <c r="D200" s="44"/>
+      <c r="E200" s="44" t="s">
         <v>400</v>
       </c>
-      <c r="F200" s="45"/>
-      <c r="G200" s="45" t="s">
-        <v>407</v>
-      </c>
-      <c r="H200" s="45"/>
-      <c r="I200" s="45"/>
-      <c r="J200" s="45"/>
-      <c r="K200" s="45"/>
-      <c r="L200" s="45"/>
+      <c r="F200" s="44"/>
+      <c r="G200" s="44" t="s">
+        <v>405</v>
+      </c>
+      <c r="H200" s="44"/>
+      <c r="I200" s="44"/>
+      <c r="J200" s="44"/>
+      <c r="K200" s="44"/>
+      <c r="L200" s="44"/>
       <c r="M200" s="2"/>
       <c r="N200" s="2"/>
       <c r="O200" s="2"/>
@@ -8937,8 +8934,8 @@
     </row>
     <row r="201" spans="1:23" ht="15.75" customHeight="1">
       <c r="A201" s="33" t="str">
-        <f t="shared" si="6"/>
-        <v>gdmt:Updated</v>
+        <f t="shared" si="4"/>
+        <v>gdmt:Valid</v>
       </c>
       <c r="B201" s="44" t="s">
         <v>401</v>
@@ -8950,7 +8947,7 @@
       </c>
       <c r="F201" s="44"/>
       <c r="G201" s="44" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="H201" s="44"/>
       <c r="I201" s="44"/>
@@ -8971,8 +8968,8 @@
     </row>
     <row r="202" spans="1:23" ht="15.75" customHeight="1">
       <c r="A202" s="33" t="str">
-        <f t="shared" si="6"/>
-        <v>gdmt:Valid</v>
+        <f t="shared" si="4"/>
+        <v>gdmt:Withdrawn</v>
       </c>
       <c r="B202" s="44" t="s">
         <v>403</v>
@@ -8984,7 +8981,7 @@
       </c>
       <c r="F202" s="44"/>
       <c r="G202" s="44" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="H202" s="44"/>
       <c r="I202" s="44"/>
@@ -9004,27 +9001,23 @@
       <c r="W202" s="2"/>
     </row>
     <row r="203" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A203" s="33" t="str">
-        <f t="shared" si="6"/>
-        <v>gdmt:Withdrawn</v>
-      </c>
-      <c r="B203" s="44" t="s">
-        <v>405</v>
-      </c>
-      <c r="C203" s="44"/>
-      <c r="D203" s="44"/>
-      <c r="E203" s="44" t="s">
-        <v>406</v>
-      </c>
-      <c r="F203" s="44"/>
-      <c r="G203" s="44" t="s">
-        <v>407</v>
-      </c>
-      <c r="H203" s="44"/>
-      <c r="I203" s="44"/>
-      <c r="J203" s="44"/>
-      <c r="K203" s="44"/>
-      <c r="L203" s="44"/>
+      <c r="A203" s="47" t="str">
+        <f t="shared" si="4"/>
+        <v>gdmt:RelatedIdentifierTypes</v>
+      </c>
+      <c r="B203" s="47" t="s">
+        <v>381</v>
+      </c>
+      <c r="C203" s="47"/>
+      <c r="D203" s="47"/>
+      <c r="E203" s="48"/>
+      <c r="F203" s="49"/>
+      <c r="G203" s="49"/>
+      <c r="H203" s="49"/>
+      <c r="I203" s="49"/>
+      <c r="J203" s="49"/>
+      <c r="K203" s="49"/>
+      <c r="L203" s="49"/>
       <c r="M203" s="2"/>
       <c r="N203" s="2"/>
       <c r="O203" s="2"/>
@@ -9038,23 +9031,27 @@
       <c r="W203" s="2"/>
     </row>
     <row r="204" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A204" s="47" t="str">
-        <f t="shared" si="6"/>
-        <v>gdmt:RelatedIdentifierTypes</v>
-      </c>
-      <c r="B204" s="47" t="s">
-        <v>383</v>
-      </c>
-      <c r="C204" s="47"/>
-      <c r="D204" s="47"/>
-      <c r="E204" s="48"/>
-      <c r="F204" s="49"/>
-      <c r="G204" s="49"/>
-      <c r="H204" s="49"/>
-      <c r="I204" s="49"/>
-      <c r="J204" s="49"/>
-      <c r="K204" s="49"/>
-      <c r="L204" s="49"/>
+      <c r="A204" s="38" t="str">
+        <f t="shared" si="4"/>
+        <v>gdmt:ARK</v>
+      </c>
+      <c r="B204" s="44" t="s">
+        <v>409</v>
+      </c>
+      <c r="C204" s="44"/>
+      <c r="D204" s="44"/>
+      <c r="E204" s="46" t="s">
+        <v>441</v>
+      </c>
+      <c r="F204" s="46"/>
+      <c r="G204" s="46" t="s">
+        <v>408</v>
+      </c>
+      <c r="H204" s="46"/>
+      <c r="I204" s="46"/>
+      <c r="J204" s="46"/>
+      <c r="K204" s="46"/>
+      <c r="L204" s="46"/>
       <c r="M204" s="2"/>
       <c r="N204" s="2"/>
       <c r="O204" s="2"/>
@@ -9069,26 +9066,26 @@
     </row>
     <row r="205" spans="1:23" ht="15.75" customHeight="1">
       <c r="A205" s="38" t="str">
-        <f t="shared" si="6"/>
-        <v>gdmt:ARK</v>
+        <f t="shared" si="4"/>
+        <v>gdmt:arXiv</v>
       </c>
       <c r="B205" s="44" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C205" s="44"/>
       <c r="D205" s="44"/>
-      <c r="E205" s="46" t="s">
-        <v>443</v>
-      </c>
-      <c r="F205" s="46"/>
-      <c r="G205" s="46" t="s">
-        <v>410</v>
-      </c>
-      <c r="H205" s="46"/>
-      <c r="I205" s="46"/>
-      <c r="J205" s="46"/>
-      <c r="K205" s="46"/>
-      <c r="L205" s="46"/>
+      <c r="E205" s="44" t="s">
+        <v>411</v>
+      </c>
+      <c r="F205" s="44"/>
+      <c r="G205" s="44" t="s">
+        <v>408</v>
+      </c>
+      <c r="H205" s="44"/>
+      <c r="I205" s="44"/>
+      <c r="J205" s="44"/>
+      <c r="K205" s="44"/>
+      <c r="L205" s="44"/>
       <c r="M205" s="2"/>
       <c r="N205" s="2"/>
       <c r="O205" s="2"/>
@@ -9103,26 +9100,26 @@
     </row>
     <row r="206" spans="1:23" ht="15.75" customHeight="1">
       <c r="A206" s="38" t="str">
-        <f t="shared" si="6"/>
-        <v>gdmt:arXiv</v>
+        <f t="shared" si="4"/>
+        <v>gdmt:bibcode</v>
       </c>
       <c r="B206" s="44" t="s">
         <v>412</v>
       </c>
       <c r="C206" s="44"/>
       <c r="D206" s="44"/>
-      <c r="E206" s="44" t="s">
-        <v>413</v>
-      </c>
-      <c r="F206" s="44"/>
-      <c r="G206" s="44" t="s">
-        <v>410</v>
-      </c>
-      <c r="H206" s="44"/>
-      <c r="I206" s="44"/>
-      <c r="J206" s="44"/>
-      <c r="K206" s="44"/>
-      <c r="L206" s="44"/>
+      <c r="E206" s="46" t="s">
+        <v>442</v>
+      </c>
+      <c r="F206" s="46"/>
+      <c r="G206" s="46" t="s">
+        <v>408</v>
+      </c>
+      <c r="H206" s="46"/>
+      <c r="I206" s="46"/>
+      <c r="J206" s="46"/>
+      <c r="K206" s="46"/>
+      <c r="L206" s="46"/>
       <c r="M206" s="2"/>
       <c r="N206" s="2"/>
       <c r="O206" s="2"/>
@@ -9137,26 +9134,26 @@
     </row>
     <row r="207" spans="1:23" ht="15.75" customHeight="1">
       <c r="A207" s="38" t="str">
-        <f t="shared" si="6"/>
-        <v>gdmt:bibcode</v>
+        <f t="shared" si="4"/>
+        <v>gdmt:DOI</v>
       </c>
       <c r="B207" s="44" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C207" s="44"/>
       <c r="D207" s="44"/>
-      <c r="E207" s="46" t="s">
-        <v>444</v>
-      </c>
-      <c r="F207" s="46"/>
-      <c r="G207" s="46" t="s">
-        <v>410</v>
-      </c>
-      <c r="H207" s="46"/>
-      <c r="I207" s="46"/>
-      <c r="J207" s="46"/>
-      <c r="K207" s="46"/>
-      <c r="L207" s="46"/>
+      <c r="E207" s="44" t="s">
+        <v>414</v>
+      </c>
+      <c r="F207" s="44"/>
+      <c r="G207" s="44" t="s">
+        <v>408</v>
+      </c>
+      <c r="H207" s="44"/>
+      <c r="I207" s="44"/>
+      <c r="J207" s="44"/>
+      <c r="K207" s="44"/>
+      <c r="L207" s="44"/>
       <c r="M207" s="2"/>
       <c r="N207" s="2"/>
       <c r="O207" s="2"/>
@@ -9171,8 +9168,8 @@
     </row>
     <row r="208" spans="1:23" ht="15.75" customHeight="1">
       <c r="A208" s="38" t="str">
-        <f t="shared" si="6"/>
-        <v>gdmt:DOI</v>
+        <f t="shared" si="4"/>
+        <v>gdmt:EAN13</v>
       </c>
       <c r="B208" s="44" t="s">
         <v>415</v>
@@ -9180,11 +9177,11 @@
       <c r="C208" s="44"/>
       <c r="D208" s="44"/>
       <c r="E208" s="44" t="s">
-        <v>416</v>
+        <v>406</v>
       </c>
       <c r="F208" s="44"/>
       <c r="G208" s="44" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="H208" s="44"/>
       <c r="I208" s="44"/>
@@ -9205,20 +9202,20 @@
     </row>
     <row r="209" spans="1:23" ht="15.75" customHeight="1">
       <c r="A209" s="38" t="str">
-        <f t="shared" si="6"/>
-        <v>gdmt:EAN13</v>
+        <f t="shared" si="4"/>
+        <v>gdmt:EISSN</v>
       </c>
       <c r="B209" s="44" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C209" s="44"/>
       <c r="D209" s="44"/>
       <c r="E209" s="44" t="s">
-        <v>408</v>
+        <v>417</v>
       </c>
       <c r="F209" s="44"/>
       <c r="G209" s="44" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="H209" s="44"/>
       <c r="I209" s="44"/>
@@ -9239,8 +9236,8 @@
     </row>
     <row r="210" spans="1:23" ht="15.75" customHeight="1">
       <c r="A210" s="38" t="str">
-        <f t="shared" si="6"/>
-        <v>gdmt:EISSN</v>
+        <f t="shared" si="4"/>
+        <v>gdmt:Handle</v>
       </c>
       <c r="B210" s="44" t="s">
         <v>418</v>
@@ -9252,7 +9249,7 @@
       </c>
       <c r="F210" s="44"/>
       <c r="G210" s="44" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="H210" s="44"/>
       <c r="I210" s="44"/>
@@ -9273,8 +9270,8 @@
     </row>
     <row r="211" spans="1:23" ht="15.75" customHeight="1">
       <c r="A211" s="38" t="str">
-        <f t="shared" si="6"/>
-        <v>gdmt:Handle</v>
+        <f t="shared" si="4"/>
+        <v>gdmt:IGSN</v>
       </c>
       <c r="B211" s="44" t="s">
         <v>420</v>
@@ -9286,7 +9283,7 @@
       </c>
       <c r="F211" s="44"/>
       <c r="G211" s="44" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="H211" s="44"/>
       <c r="I211" s="44"/>
@@ -9307,8 +9304,8 @@
     </row>
     <row r="212" spans="1:23" ht="15.75" customHeight="1">
       <c r="A212" s="38" t="str">
-        <f t="shared" si="6"/>
-        <v>gdmt:IGSN</v>
+        <f t="shared" si="4"/>
+        <v>gdmt:ISBN</v>
       </c>
       <c r="B212" s="44" t="s">
         <v>422</v>
@@ -9320,7 +9317,7 @@
       </c>
       <c r="F212" s="44"/>
       <c r="G212" s="44" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="H212" s="44"/>
       <c r="I212" s="44"/>
@@ -9341,8 +9338,8 @@
     </row>
     <row r="213" spans="1:23" ht="15.75" customHeight="1">
       <c r="A213" s="38" t="str">
-        <f t="shared" si="6"/>
-        <v>gdmt:ISBN</v>
+        <f t="shared" si="4"/>
+        <v>gdmt:ISSN</v>
       </c>
       <c r="B213" s="44" t="s">
         <v>424</v>
@@ -9354,7 +9351,7 @@
       </c>
       <c r="F213" s="44"/>
       <c r="G213" s="44" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="H213" s="44"/>
       <c r="I213" s="44"/>
@@ -9375,8 +9372,8 @@
     </row>
     <row r="214" spans="1:23" ht="15.75" customHeight="1">
       <c r="A214" s="38" t="str">
-        <f t="shared" si="6"/>
-        <v>gdmt:ISSN</v>
+        <f t="shared" si="4"/>
+        <v>gdmt:ISTC</v>
       </c>
       <c r="B214" s="44" t="s">
         <v>426</v>
@@ -9388,7 +9385,7 @@
       </c>
       <c r="F214" s="44"/>
       <c r="G214" s="44" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="H214" s="44"/>
       <c r="I214" s="44"/>
@@ -9409,8 +9406,8 @@
     </row>
     <row r="215" spans="1:23" ht="15.75" customHeight="1">
       <c r="A215" s="38" t="str">
-        <f t="shared" si="6"/>
-        <v>gdmt:ISTC</v>
+        <f t="shared" si="4"/>
+        <v>gdmt:LISSN</v>
       </c>
       <c r="B215" s="44" t="s">
         <v>428</v>
@@ -9422,7 +9419,7 @@
       </c>
       <c r="F215" s="44"/>
       <c r="G215" s="44" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="H215" s="44"/>
       <c r="I215" s="44"/>
@@ -9443,8 +9440,8 @@
     </row>
     <row r="216" spans="1:23" ht="15.75" customHeight="1">
       <c r="A216" s="38" t="str">
-        <f t="shared" si="6"/>
-        <v>gdmt:LISSN</v>
+        <f t="shared" si="4"/>
+        <v>gdmt:LSID</v>
       </c>
       <c r="B216" s="44" t="s">
         <v>430</v>
@@ -9456,7 +9453,7 @@
       </c>
       <c r="F216" s="44"/>
       <c r="G216" s="44" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="H216" s="44"/>
       <c r="I216" s="44"/>
@@ -9477,8 +9474,8 @@
     </row>
     <row r="217" spans="1:23" ht="15.75" customHeight="1">
       <c r="A217" s="38" t="str">
-        <f t="shared" si="6"/>
-        <v>gdmt:LSID</v>
+        <f t="shared" si="4"/>
+        <v>gdmt:PMID</v>
       </c>
       <c r="B217" s="44" t="s">
         <v>432</v>
@@ -9490,7 +9487,7 @@
       </c>
       <c r="F217" s="44"/>
       <c r="G217" s="44" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="H217" s="44"/>
       <c r="I217" s="44"/>
@@ -9511,26 +9508,26 @@
     </row>
     <row r="218" spans="1:23" ht="15.75" customHeight="1">
       <c r="A218" s="38" t="str">
-        <f t="shared" si="6"/>
-        <v>gdmt:PMID</v>
+        <f t="shared" si="4"/>
+        <v>gdmt:PURL</v>
       </c>
       <c r="B218" s="44" t="s">
         <v>434</v>
       </c>
       <c r="C218" s="44"/>
       <c r="D218" s="44"/>
-      <c r="E218" s="44" t="s">
-        <v>435</v>
-      </c>
-      <c r="F218" s="44"/>
-      <c r="G218" s="44" t="s">
-        <v>410</v>
-      </c>
-      <c r="H218" s="44"/>
-      <c r="I218" s="44"/>
-      <c r="J218" s="44"/>
-      <c r="K218" s="44"/>
-      <c r="L218" s="44"/>
+      <c r="E218" s="46" t="s">
+        <v>443</v>
+      </c>
+      <c r="F218" s="46"/>
+      <c r="G218" s="46" t="s">
+        <v>408</v>
+      </c>
+      <c r="H218" s="46"/>
+      <c r="I218" s="46"/>
+      <c r="J218" s="46"/>
+      <c r="K218" s="46"/>
+      <c r="L218" s="46"/>
       <c r="M218" s="2"/>
       <c r="N218" s="2"/>
       <c r="O218" s="2"/>
@@ -9545,26 +9542,26 @@
     </row>
     <row r="219" spans="1:23" ht="15.75" customHeight="1">
       <c r="A219" s="38" t="str">
-        <f t="shared" si="6"/>
-        <v>gdmt:PURL</v>
+        <f t="shared" si="4"/>
+        <v>gdmt:UPC</v>
       </c>
       <c r="B219" s="44" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C219" s="44"/>
       <c r="D219" s="44"/>
-      <c r="E219" s="46" t="s">
-        <v>445</v>
-      </c>
-      <c r="F219" s="46"/>
-      <c r="G219" s="46" t="s">
-        <v>410</v>
-      </c>
-      <c r="H219" s="46"/>
-      <c r="I219" s="46"/>
-      <c r="J219" s="46"/>
-      <c r="K219" s="46"/>
-      <c r="L219" s="46"/>
+      <c r="E219" s="44" t="s">
+        <v>436</v>
+      </c>
+      <c r="F219" s="44"/>
+      <c r="G219" s="44" t="s">
+        <v>408</v>
+      </c>
+      <c r="H219" s="44"/>
+      <c r="I219" s="44"/>
+      <c r="J219" s="44"/>
+      <c r="K219" s="44"/>
+      <c r="L219" s="44"/>
       <c r="M219" s="2"/>
       <c r="N219" s="2"/>
       <c r="O219" s="2"/>
@@ -9579,8 +9576,8 @@
     </row>
     <row r="220" spans="1:23" ht="15.75" customHeight="1">
       <c r="A220" s="38" t="str">
-        <f t="shared" si="6"/>
-        <v>gdmt:UPC</v>
+        <f t="shared" si="4"/>
+        <v>gdmt:URL</v>
       </c>
       <c r="B220" s="44" t="s">
         <v>437</v>
@@ -9592,7 +9589,7 @@
       </c>
       <c r="F220" s="44"/>
       <c r="G220" s="44" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="H220" s="44"/>
       <c r="I220" s="44"/>
@@ -9613,26 +9610,26 @@
     </row>
     <row r="221" spans="1:23" ht="15.75" customHeight="1">
       <c r="A221" s="38" t="str">
-        <f t="shared" si="6"/>
-        <v>gdmt:URL</v>
+        <f t="shared" si="4"/>
+        <v>gdmt:URN</v>
       </c>
       <c r="B221" s="44" t="s">
         <v>439</v>
       </c>
       <c r="C221" s="44"/>
       <c r="D221" s="44"/>
-      <c r="E221" s="44" t="s">
-        <v>440</v>
-      </c>
-      <c r="F221" s="44"/>
-      <c r="G221" s="44" t="s">
-        <v>410</v>
-      </c>
-      <c r="H221" s="44"/>
-      <c r="I221" s="44"/>
-      <c r="J221" s="44"/>
-      <c r="K221" s="44"/>
-      <c r="L221" s="44"/>
+      <c r="E221" s="46" t="s">
+        <v>444</v>
+      </c>
+      <c r="F221" s="46"/>
+      <c r="G221" s="46" t="s">
+        <v>408</v>
+      </c>
+      <c r="H221" s="46"/>
+      <c r="I221" s="46"/>
+      <c r="J221" s="46"/>
+      <c r="K221" s="46"/>
+      <c r="L221" s="46"/>
       <c r="M221" s="2"/>
       <c r="N221" s="2"/>
       <c r="O221" s="2"/>
@@ -9647,26 +9644,26 @@
     </row>
     <row r="222" spans="1:23" ht="15.75" customHeight="1">
       <c r="A222" s="38" t="str">
-        <f t="shared" si="6"/>
-        <v>gdmt:URN</v>
+        <f t="shared" si="4"/>
+        <v>gdmt:w3id</v>
       </c>
       <c r="B222" s="44" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C222" s="44"/>
       <c r="D222" s="44"/>
-      <c r="E222" s="46" t="s">
-        <v>446</v>
-      </c>
-      <c r="F222" s="46"/>
-      <c r="G222" s="46" t="s">
-        <v>410</v>
-      </c>
-      <c r="H222" s="46"/>
-      <c r="I222" s="46"/>
-      <c r="J222" s="46"/>
-      <c r="K222" s="46"/>
-      <c r="L222" s="46"/>
+      <c r="E222" s="44" t="s">
+        <v>407</v>
+      </c>
+      <c r="F222" s="44"/>
+      <c r="G222" s="44" t="s">
+        <v>408</v>
+      </c>
+      <c r="H222" s="44"/>
+      <c r="I222" s="44"/>
+      <c r="J222" s="44"/>
+      <c r="K222" s="44"/>
+      <c r="L222" s="44"/>
       <c r="M222" s="2"/>
       <c r="N222" s="2"/>
       <c r="O222" s="2"/>
@@ -9680,27 +9677,27 @@
       <c r="W222" s="2"/>
     </row>
     <row r="223" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A223" s="38" t="str">
-        <f t="shared" si="6"/>
-        <v>gdmt:w3id</v>
-      </c>
-      <c r="B223" s="44" t="s">
-        <v>442</v>
-      </c>
-      <c r="C223" s="44"/>
-      <c r="D223" s="44"/>
-      <c r="E223" s="44" t="s">
-        <v>409</v>
-      </c>
-      <c r="F223" s="44"/>
+      <c r="A223" s="50" t="str">
+        <f t="shared" si="4"/>
+        <v>gdmt:IRI</v>
+      </c>
+      <c r="B223" s="50" t="s">
+        <v>445</v>
+      </c>
+      <c r="C223" s="50"/>
+      <c r="D223" s="50"/>
+      <c r="E223" s="51" t="s">
+        <v>446</v>
+      </c>
+      <c r="F223" s="51"/>
       <c r="G223" s="44" t="s">
-        <v>410</v>
-      </c>
-      <c r="H223" s="44"/>
-      <c r="I223" s="44"/>
-      <c r="J223" s="44"/>
-      <c r="K223" s="44"/>
-      <c r="L223" s="44"/>
+        <v>408</v>
+      </c>
+      <c r="H223" s="51"/>
+      <c r="I223" s="51"/>
+      <c r="J223" s="51"/>
+      <c r="K223" s="51"/>
+      <c r="L223" s="51"/>
       <c r="M223" s="2"/>
       <c r="N223" s="2"/>
       <c r="O223" s="2"/>
@@ -9714,27 +9711,23 @@
       <c r="W223" s="2"/>
     </row>
     <row r="224" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A224" s="50" t="str">
-        <f t="shared" si="6"/>
-        <v>gdmt:IRI</v>
-      </c>
-      <c r="B224" s="50" t="s">
+      <c r="A224" s="47" t="str">
+        <f t="shared" si="4"/>
+        <v>gdmt:RelationTypes</v>
+      </c>
+      <c r="B224" s="47" t="s">
         <v>447</v>
       </c>
-      <c r="C224" s="50"/>
-      <c r="D224" s="50"/>
-      <c r="E224" s="51" t="s">
-        <v>448</v>
-      </c>
-      <c r="F224" s="51"/>
-      <c r="G224" s="44" t="s">
-        <v>410</v>
-      </c>
-      <c r="H224" s="51"/>
-      <c r="I224" s="51"/>
-      <c r="J224" s="51"/>
-      <c r="K224" s="51"/>
-      <c r="L224" s="51"/>
+      <c r="C224" s="47"/>
+      <c r="D224" s="47"/>
+      <c r="E224" s="48"/>
+      <c r="F224" s="49"/>
+      <c r="G224" s="49"/>
+      <c r="H224" s="49"/>
+      <c r="I224" s="49"/>
+      <c r="J224" s="49"/>
+      <c r="K224" s="49"/>
+      <c r="L224" s="49"/>
       <c r="M224" s="2"/>
       <c r="N224" s="2"/>
       <c r="O224" s="2"/>
@@ -9748,23 +9741,27 @@
       <c r="W224" s="2"/>
     </row>
     <row r="225" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A225" s="47" t="str">
-        <f t="shared" si="6"/>
-        <v>gdmt:RelationTypes</v>
-      </c>
-      <c r="B225" s="47" t="s">
+      <c r="A225" s="50" t="str">
+        <f t="shared" si="4"/>
+        <v>gdmt:IsCitedBy</v>
+      </c>
+      <c r="B225" s="51" t="s">
         <v>449</v>
       </c>
-      <c r="C225" s="47"/>
-      <c r="D225" s="47"/>
-      <c r="E225" s="48"/>
-      <c r="F225" s="49"/>
-      <c r="G225" s="49"/>
-      <c r="H225" s="49"/>
-      <c r="I225" s="49"/>
-      <c r="J225" s="49"/>
-      <c r="K225" s="49"/>
-      <c r="L225" s="49"/>
+      <c r="C225" s="51"/>
+      <c r="D225" s="51"/>
+      <c r="E225" s="51" t="s">
+        <v>450</v>
+      </c>
+      <c r="F225" s="51"/>
+      <c r="G225" s="51" t="s">
+        <v>448</v>
+      </c>
+      <c r="H225" s="51"/>
+      <c r="I225" s="51"/>
+      <c r="J225" s="51"/>
+      <c r="K225" s="51"/>
+      <c r="L225" s="52"/>
       <c r="M225" s="2"/>
       <c r="N225" s="2"/>
       <c r="O225" s="2"/>
@@ -9779,8 +9776,8 @@
     </row>
     <row r="226" spans="1:23" ht="15.75" customHeight="1">
       <c r="A226" s="50" t="str">
-        <f t="shared" si="6"/>
-        <v>gdmt:IsCitedBy</v>
+        <f t="shared" si="4"/>
+        <v>gdmt:Cites</v>
       </c>
       <c r="B226" s="51" t="s">
         <v>451</v>
@@ -9792,7 +9789,7 @@
       </c>
       <c r="F226" s="51"/>
       <c r="G226" s="51" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="H226" s="51"/>
       <c r="I226" s="51"/>
@@ -9813,8 +9810,8 @@
     </row>
     <row r="227" spans="1:23" ht="15.75" customHeight="1">
       <c r="A227" s="50" t="str">
-        <f t="shared" si="6"/>
-        <v>gdmt:Cites</v>
+        <f t="shared" si="4"/>
+        <v>gdmt:IsSupplementTo</v>
       </c>
       <c r="B227" s="51" t="s">
         <v>453</v>
@@ -9826,7 +9823,7 @@
       </c>
       <c r="F227" s="51"/>
       <c r="G227" s="51" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="H227" s="51"/>
       <c r="I227" s="51"/>
@@ -9847,8 +9844,8 @@
     </row>
     <row r="228" spans="1:23" ht="15.75" customHeight="1">
       <c r="A228" s="50" t="str">
-        <f t="shared" si="6"/>
-        <v>gdmt:IsSupplementTo</v>
+        <f t="shared" si="4"/>
+        <v>gdmt:IsSupplementedBy</v>
       </c>
       <c r="B228" s="51" t="s">
         <v>455</v>
@@ -9860,7 +9857,7 @@
       </c>
       <c r="F228" s="51"/>
       <c r="G228" s="51" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="H228" s="51"/>
       <c r="I228" s="51"/>
@@ -9881,8 +9878,8 @@
     </row>
     <row r="229" spans="1:23" ht="15.75" customHeight="1">
       <c r="A229" s="50" t="str">
-        <f t="shared" si="6"/>
-        <v>gdmt:IsSupplementedBy</v>
+        <f t="shared" si="4"/>
+        <v>gdmt:IsContinuedBy</v>
       </c>
       <c r="B229" s="51" t="s">
         <v>457</v>
@@ -9894,7 +9891,7 @@
       </c>
       <c r="F229" s="51"/>
       <c r="G229" s="51" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="H229" s="51"/>
       <c r="I229" s="51"/>
@@ -9915,8 +9912,8 @@
     </row>
     <row r="230" spans="1:23" ht="15.75" customHeight="1">
       <c r="A230" s="50" t="str">
-        <f t="shared" si="6"/>
-        <v>gdmt:IsContinuedBy</v>
+        <f t="shared" si="4"/>
+        <v>gdmt:Continues</v>
       </c>
       <c r="B230" s="51" t="s">
         <v>459</v>
@@ -9928,7 +9925,7 @@
       </c>
       <c r="F230" s="51"/>
       <c r="G230" s="51" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="H230" s="51"/>
       <c r="I230" s="51"/>
@@ -9949,8 +9946,8 @@
     </row>
     <row r="231" spans="1:23" ht="15.75" customHeight="1">
       <c r="A231" s="50" t="str">
-        <f t="shared" si="6"/>
-        <v>gdmt:Continues</v>
+        <f t="shared" si="4"/>
+        <v>gdmt:Describes</v>
       </c>
       <c r="B231" s="51" t="s">
         <v>461</v>
@@ -9962,7 +9959,7 @@
       </c>
       <c r="F231" s="51"/>
       <c r="G231" s="51" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="H231" s="51"/>
       <c r="I231" s="51"/>
@@ -9983,8 +9980,8 @@
     </row>
     <row r="232" spans="1:23" ht="15.75" customHeight="1">
       <c r="A232" s="50" t="str">
-        <f t="shared" si="6"/>
-        <v>gdmt:Describes</v>
+        <f t="shared" si="4"/>
+        <v>gdmt:IsDescribedBy</v>
       </c>
       <c r="B232" s="51" t="s">
         <v>463</v>
@@ -9996,7 +9993,7 @@
       </c>
       <c r="F232" s="51"/>
       <c r="G232" s="51" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="H232" s="51"/>
       <c r="I232" s="51"/>
@@ -10017,8 +10014,8 @@
     </row>
     <row r="233" spans="1:23" ht="15.75" customHeight="1">
       <c r="A233" s="50" t="str">
-        <f t="shared" si="6"/>
-        <v>gdmt:IsDescribedBy</v>
+        <f t="shared" si="4"/>
+        <v>gdmt:HasMetadata</v>
       </c>
       <c r="B233" s="51" t="s">
         <v>465</v>
@@ -10030,7 +10027,7 @@
       </c>
       <c r="F233" s="51"/>
       <c r="G233" s="51" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="H233" s="51"/>
       <c r="I233" s="51"/>
@@ -10051,8 +10048,8 @@
     </row>
     <row r="234" spans="1:23" ht="15.75" customHeight="1">
       <c r="A234" s="50" t="str">
-        <f t="shared" si="6"/>
-        <v>gdmt:HasMetadata</v>
+        <f t="shared" si="4"/>
+        <v>gdmt:IsMetadataFor</v>
       </c>
       <c r="B234" s="51" t="s">
         <v>467</v>
@@ -10064,7 +10061,7 @@
       </c>
       <c r="F234" s="51"/>
       <c r="G234" s="51" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="H234" s="51"/>
       <c r="I234" s="51"/>
@@ -10085,8 +10082,8 @@
     </row>
     <row r="235" spans="1:23" ht="15.75" customHeight="1">
       <c r="A235" s="50" t="str">
-        <f t="shared" si="6"/>
-        <v>gdmt:IsMetadataFor</v>
+        <f t="shared" si="4"/>
+        <v>gdmt:HasVersion</v>
       </c>
       <c r="B235" s="51" t="s">
         <v>469</v>
@@ -10098,7 +10095,7 @@
       </c>
       <c r="F235" s="51"/>
       <c r="G235" s="51" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="H235" s="51"/>
       <c r="I235" s="51"/>
@@ -10119,8 +10116,8 @@
     </row>
     <row r="236" spans="1:23" ht="15.75" customHeight="1">
       <c r="A236" s="50" t="str">
-        <f t="shared" si="6"/>
-        <v>gdmt:HasVersion</v>
+        <f t="shared" si="4"/>
+        <v>gdmt:IsVersionOf</v>
       </c>
       <c r="B236" s="51" t="s">
         <v>471</v>
@@ -10132,7 +10129,7 @@
       </c>
       <c r="F236" s="51"/>
       <c r="G236" s="51" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="H236" s="51"/>
       <c r="I236" s="51"/>
@@ -10153,8 +10150,8 @@
     </row>
     <row r="237" spans="1:23" ht="15.75" customHeight="1">
       <c r="A237" s="50" t="str">
-        <f t="shared" si="6"/>
-        <v>gdmt:IsVersionOf</v>
+        <f t="shared" si="4"/>
+        <v>gdmt:IsNewVersionOf</v>
       </c>
       <c r="B237" s="51" t="s">
         <v>473</v>
@@ -10166,7 +10163,7 @@
       </c>
       <c r="F237" s="51"/>
       <c r="G237" s="51" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="H237" s="51"/>
       <c r="I237" s="51"/>
@@ -10187,8 +10184,8 @@
     </row>
     <row r="238" spans="1:23" ht="15.75" customHeight="1">
       <c r="A238" s="50" t="str">
-        <f t="shared" si="6"/>
-        <v>gdmt:IsNewVersionOf</v>
+        <f t="shared" si="4"/>
+        <v>gdmt:IsPreviousVersionOf</v>
       </c>
       <c r="B238" s="51" t="s">
         <v>475</v>
@@ -10200,7 +10197,7 @@
       </c>
       <c r="F238" s="51"/>
       <c r="G238" s="51" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="H238" s="51"/>
       <c r="I238" s="51"/>
@@ -10221,8 +10218,8 @@
     </row>
     <row r="239" spans="1:23" ht="15.75" customHeight="1">
       <c r="A239" s="50" t="str">
-        <f t="shared" si="6"/>
-        <v>gdmt:IsPreviousVersionOf</v>
+        <f t="shared" si="4"/>
+        <v>gdmt:IsPartOf</v>
       </c>
       <c r="B239" s="51" t="s">
         <v>477</v>
@@ -10234,7 +10231,7 @@
       </c>
       <c r="F239" s="51"/>
       <c r="G239" s="51" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="H239" s="51"/>
       <c r="I239" s="51"/>
@@ -10255,8 +10252,8 @@
     </row>
     <row r="240" spans="1:23" ht="15.75" customHeight="1">
       <c r="A240" s="50" t="str">
-        <f t="shared" si="6"/>
-        <v>gdmt:IsPartOf</v>
+        <f t="shared" si="4"/>
+        <v>gdmt:HasPart</v>
       </c>
       <c r="B240" s="51" t="s">
         <v>479</v>
@@ -10268,7 +10265,7 @@
       </c>
       <c r="F240" s="51"/>
       <c r="G240" s="51" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="H240" s="51"/>
       <c r="I240" s="51"/>
@@ -10289,8 +10286,8 @@
     </row>
     <row r="241" spans="1:23" ht="15.75" customHeight="1">
       <c r="A241" s="50" t="str">
-        <f t="shared" si="6"/>
-        <v>gdmt:HasPart</v>
+        <f t="shared" si="4"/>
+        <v>gdmt:IsReferencedBy</v>
       </c>
       <c r="B241" s="51" t="s">
         <v>481</v>
@@ -10302,7 +10299,7 @@
       </c>
       <c r="F241" s="51"/>
       <c r="G241" s="51" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="H241" s="51"/>
       <c r="I241" s="51"/>
@@ -10323,8 +10320,8 @@
     </row>
     <row r="242" spans="1:23" ht="15.75" customHeight="1">
       <c r="A242" s="50" t="str">
-        <f t="shared" si="6"/>
-        <v>gdmt:IsReferencedBy</v>
+        <f t="shared" si="4"/>
+        <v>gdmt:References</v>
       </c>
       <c r="B242" s="51" t="s">
         <v>483</v>
@@ -10336,7 +10333,7 @@
       </c>
       <c r="F242" s="51"/>
       <c r="G242" s="51" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="H242" s="51"/>
       <c r="I242" s="51"/>
@@ -10357,25 +10354,25 @@
     </row>
     <row r="243" spans="1:23" ht="15.75" customHeight="1">
       <c r="A243" s="50" t="str">
-        <f t="shared" si="6"/>
-        <v>gdmt:References</v>
+        <f t="shared" si="4"/>
+        <v>gdmt:IsDocumentedBy</v>
       </c>
       <c r="B243" s="51" t="s">
         <v>485</v>
       </c>
       <c r="C243" s="51"/>
       <c r="D243" s="51"/>
-      <c r="E243" s="51" t="s">
-        <v>486</v>
-      </c>
-      <c r="F243" s="51"/>
-      <c r="G243" s="51" t="s">
-        <v>450</v>
-      </c>
-      <c r="H243" s="51"/>
-      <c r="I243" s="51"/>
-      <c r="J243" s="51"/>
-      <c r="K243" s="51"/>
+      <c r="E243" s="53" t="s">
+        <v>513</v>
+      </c>
+      <c r="F243" s="53"/>
+      <c r="G243" s="53" t="s">
+        <v>448</v>
+      </c>
+      <c r="H243" s="53"/>
+      <c r="I243" s="53"/>
+      <c r="J243" s="53"/>
+      <c r="K243" s="53"/>
       <c r="L243" s="52"/>
       <c r="M243" s="2"/>
       <c r="N243" s="2"/>
@@ -10391,20 +10388,20 @@
     </row>
     <row r="244" spans="1:23" ht="15.75" customHeight="1">
       <c r="A244" s="50" t="str">
-        <f t="shared" si="6"/>
-        <v>gdmt:IsDocumentedBy</v>
+        <f t="shared" si="4"/>
+        <v>gdmt:Documents</v>
       </c>
       <c r="B244" s="51" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C244" s="51"/>
       <c r="D244" s="51"/>
       <c r="E244" s="53" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="F244" s="53"/>
       <c r="G244" s="53" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="H244" s="53"/>
       <c r="I244" s="53"/>
@@ -10425,25 +10422,25 @@
     </row>
     <row r="245" spans="1:23" ht="15.75" customHeight="1">
       <c r="A245" s="50" t="str">
-        <f t="shared" si="6"/>
-        <v>gdmt:Documents</v>
+        <f t="shared" si="4"/>
+        <v>gdmt:IsCompiledBy</v>
       </c>
       <c r="B245" s="51" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C245" s="51"/>
       <c r="D245" s="51"/>
-      <c r="E245" s="53" t="s">
-        <v>516</v>
-      </c>
-      <c r="F245" s="53"/>
-      <c r="G245" s="53" t="s">
-        <v>450</v>
-      </c>
-      <c r="H245" s="53"/>
-      <c r="I245" s="53"/>
-      <c r="J245" s="53"/>
-      <c r="K245" s="53"/>
+      <c r="E245" s="51" t="s">
+        <v>488</v>
+      </c>
+      <c r="F245" s="51"/>
+      <c r="G245" s="51" t="s">
+        <v>448</v>
+      </c>
+      <c r="H245" s="51"/>
+      <c r="I245" s="51"/>
+      <c r="J245" s="51"/>
+      <c r="K245" s="51"/>
       <c r="L245" s="52"/>
       <c r="M245" s="2"/>
       <c r="N245" s="2"/>
@@ -10459,8 +10456,8 @@
     </row>
     <row r="246" spans="1:23" ht="15.75" customHeight="1">
       <c r="A246" s="50" t="str">
-        <f t="shared" si="6"/>
-        <v>gdmt:IsCompiledBy</v>
+        <f t="shared" si="4"/>
+        <v>gdmt:Compiles</v>
       </c>
       <c r="B246" s="51" t="s">
         <v>489</v>
@@ -10472,7 +10469,7 @@
       </c>
       <c r="F246" s="51"/>
       <c r="G246" s="51" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="H246" s="51"/>
       <c r="I246" s="51"/>
@@ -10493,8 +10490,8 @@
     </row>
     <row r="247" spans="1:23" ht="15.75" customHeight="1">
       <c r="A247" s="50" t="str">
-        <f t="shared" si="6"/>
-        <v>gdmt:Compiles</v>
+        <f t="shared" si="4"/>
+        <v>gdmt:IsVariantFormOf</v>
       </c>
       <c r="B247" s="51" t="s">
         <v>491</v>
@@ -10506,7 +10503,7 @@
       </c>
       <c r="F247" s="51"/>
       <c r="G247" s="51" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="H247" s="51"/>
       <c r="I247" s="51"/>
@@ -10527,8 +10524,8 @@
     </row>
     <row r="248" spans="1:23" ht="15.75" customHeight="1">
       <c r="A248" s="50" t="str">
-        <f t="shared" si="6"/>
-        <v>gdmt:IsVariantFormOf</v>
+        <f t="shared" si="4"/>
+        <v>gdmt:IsOriginalFormOf</v>
       </c>
       <c r="B248" s="51" t="s">
         <v>493</v>
@@ -10540,7 +10537,7 @@
       </c>
       <c r="F248" s="51"/>
       <c r="G248" s="51" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="H248" s="51"/>
       <c r="I248" s="51"/>
@@ -10561,8 +10558,8 @@
     </row>
     <row r="249" spans="1:23" ht="15.75" customHeight="1">
       <c r="A249" s="50" t="str">
-        <f t="shared" si="6"/>
-        <v>gdmt:IsOriginalFormOf</v>
+        <f t="shared" si="4"/>
+        <v>gdmt:IsIdenticalTo</v>
       </c>
       <c r="B249" s="51" t="s">
         <v>495</v>
@@ -10574,7 +10571,7 @@
       </c>
       <c r="F249" s="51"/>
       <c r="G249" s="51" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="H249" s="51"/>
       <c r="I249" s="51"/>
@@ -10595,8 +10592,8 @@
     </row>
     <row r="250" spans="1:23" ht="15.75" customHeight="1">
       <c r="A250" s="50" t="str">
-        <f t="shared" si="6"/>
-        <v>gdmt:IsIdenticalTo</v>
+        <f t="shared" si="4"/>
+        <v>gdmt:IsReviewedBy</v>
       </c>
       <c r="B250" s="51" t="s">
         <v>497</v>
@@ -10608,7 +10605,7 @@
       </c>
       <c r="F250" s="51"/>
       <c r="G250" s="51" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="H250" s="51"/>
       <c r="I250" s="51"/>
@@ -10629,8 +10626,8 @@
     </row>
     <row r="251" spans="1:23" ht="15.75" customHeight="1">
       <c r="A251" s="50" t="str">
-        <f t="shared" si="6"/>
-        <v>gdmt:IsReviewedBy</v>
+        <f t="shared" si="4"/>
+        <v>gdmt:Reviews</v>
       </c>
       <c r="B251" s="51" t="s">
         <v>499</v>
@@ -10642,7 +10639,7 @@
       </c>
       <c r="F251" s="51"/>
       <c r="G251" s="51" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="H251" s="51"/>
       <c r="I251" s="51"/>
@@ -10663,8 +10660,8 @@
     </row>
     <row r="252" spans="1:23" ht="15.75" customHeight="1">
       <c r="A252" s="50" t="str">
-        <f t="shared" si="6"/>
-        <v>gdmt:Reviews</v>
+        <f t="shared" si="4"/>
+        <v>gdmt:IsDerivedFrom</v>
       </c>
       <c r="B252" s="51" t="s">
         <v>501</v>
@@ -10676,7 +10673,7 @@
       </c>
       <c r="F252" s="51"/>
       <c r="G252" s="51" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="H252" s="51"/>
       <c r="I252" s="51"/>
@@ -10697,8 +10694,8 @@
     </row>
     <row r="253" spans="1:23" ht="15.75" customHeight="1">
       <c r="A253" s="50" t="str">
-        <f t="shared" si="6"/>
-        <v>gdmt:IsDerivedFrom</v>
+        <f t="shared" si="4"/>
+        <v>gdmt:IsSourceOf</v>
       </c>
       <c r="B253" s="51" t="s">
         <v>503</v>
@@ -10710,7 +10707,7 @@
       </c>
       <c r="F253" s="51"/>
       <c r="G253" s="51" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="H253" s="51"/>
       <c r="I253" s="51"/>
@@ -10731,8 +10728,8 @@
     </row>
     <row r="254" spans="1:23" ht="15.75" customHeight="1">
       <c r="A254" s="50" t="str">
-        <f t="shared" si="6"/>
-        <v>gdmt:IsSourceOf</v>
+        <f t="shared" si="4"/>
+        <v>gdmt:IsRequiredBy</v>
       </c>
       <c r="B254" s="51" t="s">
         <v>505</v>
@@ -10744,7 +10741,7 @@
       </c>
       <c r="F254" s="51"/>
       <c r="G254" s="51" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="H254" s="51"/>
       <c r="I254" s="51"/>
@@ -10765,8 +10762,8 @@
     </row>
     <row r="255" spans="1:23" ht="15.75" customHeight="1">
       <c r="A255" s="50" t="str">
-        <f t="shared" si="6"/>
-        <v>gdmt:IsRequiredBy</v>
+        <f t="shared" si="4"/>
+        <v>gdmt:Requires</v>
       </c>
       <c r="B255" s="51" t="s">
         <v>507</v>
@@ -10778,7 +10775,7 @@
       </c>
       <c r="F255" s="51"/>
       <c r="G255" s="51" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="H255" s="51"/>
       <c r="I255" s="51"/>
@@ -10799,8 +10796,8 @@
     </row>
     <row r="256" spans="1:23" ht="15.75" customHeight="1">
       <c r="A256" s="50" t="str">
-        <f t="shared" si="6"/>
-        <v>gdmt:Requires</v>
+        <f t="shared" si="4"/>
+        <v>gdmt:Obsoletes</v>
       </c>
       <c r="B256" s="51" t="s">
         <v>509</v>
@@ -10812,7 +10809,7 @@
       </c>
       <c r="F256" s="51"/>
       <c r="G256" s="51" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="H256" s="51"/>
       <c r="I256" s="51"/>
@@ -10833,8 +10830,8 @@
     </row>
     <row r="257" spans="1:23" ht="15.75" customHeight="1">
       <c r="A257" s="50" t="str">
-        <f t="shared" si="6"/>
-        <v>gdmt:Obsoletes</v>
+        <f t="shared" ref="A257" si="5">"gdmt:"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B257," ",""),"-",""),"&amp;","")</f>
+        <v>gdmt:IsObsoletedBy</v>
       </c>
       <c r="B257" s="51" t="s">
         <v>511</v>
@@ -10846,7 +10843,7 @@
       </c>
       <c r="F257" s="51"/>
       <c r="G257" s="51" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="H257" s="51"/>
       <c r="I257" s="51"/>
@@ -10866,27 +10863,18 @@
       <c r="W257" s="2"/>
     </row>
     <row r="258" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A258" s="50" t="str">
-        <f t="shared" ref="A258" si="7">"gdmt:"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B258," ",""),"-",""),"&amp;","")</f>
-        <v>gdmt:IsObsoletedBy</v>
-      </c>
-      <c r="B258" s="51" t="s">
-        <v>513</v>
-      </c>
-      <c r="C258" s="51"/>
-      <c r="D258" s="51"/>
-      <c r="E258" s="51" t="s">
-        <v>514</v>
-      </c>
-      <c r="F258" s="51"/>
-      <c r="G258" s="51" t="s">
-        <v>450</v>
-      </c>
-      <c r="H258" s="51"/>
-      <c r="I258" s="51"/>
-      <c r="J258" s="51"/>
-      <c r="K258" s="51"/>
-      <c r="L258" s="52"/>
+      <c r="A258" s="2"/>
+      <c r="B258" s="2"/>
+      <c r="C258" s="2"/>
+      <c r="D258" s="2"/>
+      <c r="E258" s="5"/>
+      <c r="F258" s="3"/>
+      <c r="G258" s="3"/>
+      <c r="H258" s="3"/>
+      <c r="I258" s="3"/>
+      <c r="J258" s="3"/>
+      <c r="K258" s="3"/>
+      <c r="L258" s="3"/>
       <c r="M258" s="2"/>
       <c r="N258" s="2"/>
       <c r="O258" s="2"/>
@@ -28124,36 +28112,11 @@
       <c r="V947" s="2"/>
       <c r="W947" s="2"/>
     </row>
-    <row r="948" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A948" s="2"/>
-      <c r="B948" s="2"/>
-      <c r="C948" s="2"/>
-      <c r="D948" s="2"/>
-      <c r="E948" s="5"/>
-      <c r="F948" s="3"/>
-      <c r="G948" s="3"/>
-      <c r="H948" s="3"/>
-      <c r="I948" s="3"/>
-      <c r="J948" s="3"/>
-      <c r="K948" s="3"/>
-      <c r="L948" s="3"/>
-      <c r="M948" s="2"/>
-      <c r="N948" s="2"/>
-      <c r="O948" s="2"/>
-      <c r="P948" s="2"/>
-      <c r="Q948" s="2"/>
-      <c r="R948" s="2"/>
-      <c r="S948" s="2"/>
-      <c r="T948" s="2"/>
-      <c r="U948" s="2"/>
-      <c r="V948" s="2"/>
-      <c r="W948" s="2"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E205" r:id="rId1" display="http://NMA/" xr:uid="{BD639FC9-D4C1-E04C-B11D-3B2AEF0C5FB8}"/>
-    <hyperlink ref="E207" r:id="rId2" display="http://info-/" xr:uid="{08552074-2893-1242-B464-693731D70AEB}"/>
+    <hyperlink ref="E204" r:id="rId1" display="http://NMA/" xr:uid="{BD639FC9-D4C1-E04C-B11D-3B2AEF0C5FB8}"/>
+    <hyperlink ref="E206" r:id="rId2" display="http://info-/" xr:uid="{08552074-2893-1242-B464-693731D70AEB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>

--- a/ontology/dataset-voc.xlsx
+++ b/ontology/dataset-voc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Secondary_Drive/work/repos/FAIR-data/generic-dataset-metadata-template/ontology/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DCD456F-A3D2-BD44-921C-0641EAE66306}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21F295DD-8682-F843-AC86-EFC7D3BF812D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="34400" yWindow="460" windowWidth="34400" windowHeight="28340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="wind-energy-parameters" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'wind-energy-parameters'!$A$17:$L$189</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'wind-energy-parameters'!$A$16:$L$188</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="891" uniqueCount="515">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="890" uniqueCount="514">
   <si>
     <t>ConceptScheme URI</t>
   </si>
@@ -130,9 +130,6 @@
   </si>
   <si>
     <t>http://orcid.org/0000-0002-9381-9693</t>
-  </si>
-  <si>
-    <t>dct:contributor</t>
   </si>
   <si>
     <t>gdmt</t>
@@ -2189,13 +2186,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>150</xdr:row>
+      <xdr:row>149</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>150</xdr:row>
+      <xdr:row>149</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2250,13 +2247,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>150</xdr:row>
+      <xdr:row>149</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>150</xdr:row>
+      <xdr:row>149</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2311,7 +2308,7 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>150</xdr:row>
+      <xdr:row>149</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="12700" cy="12700"/>
@@ -2367,7 +2364,7 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>150</xdr:row>
+      <xdr:row>149</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="12700" cy="12700"/>
@@ -2423,7 +2420,7 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>150</xdr:row>
+      <xdr:row>149</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="12700" cy="12700"/>
@@ -2479,7 +2476,7 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>150</xdr:row>
+      <xdr:row>149</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="12700" cy="12700"/>
@@ -2535,7 +2532,7 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>150</xdr:row>
+      <xdr:row>149</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="12700" cy="12700"/>
@@ -2591,7 +2588,7 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>150</xdr:row>
+      <xdr:row>149</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="12700" cy="12700"/>
@@ -2647,7 +2644,7 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>168</xdr:row>
+      <xdr:row>167</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="12700" cy="12700"/>
@@ -2703,7 +2700,7 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>168</xdr:row>
+      <xdr:row>167</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="12700" cy="12700"/>
@@ -2759,7 +2756,7 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>168</xdr:row>
+      <xdr:row>167</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="12700" cy="12700"/>
@@ -2815,7 +2812,7 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>168</xdr:row>
+      <xdr:row>167</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="12700" cy="12700"/>
@@ -2871,7 +2868,7 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>168</xdr:row>
+      <xdr:row>167</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="12700" cy="12700"/>
@@ -2927,7 +2924,7 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>168</xdr:row>
+      <xdr:row>167</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="12700" cy="12700"/>
@@ -2983,7 +2980,7 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>168</xdr:row>
+      <xdr:row>167</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="12700" cy="12700"/>
@@ -3039,7 +3036,7 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>168</xdr:row>
+      <xdr:row>167</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="12700" cy="12700"/>
@@ -3095,7 +3092,7 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>190</xdr:row>
+      <xdr:row>189</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="12700" cy="12700"/>
@@ -3151,7 +3148,7 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>190</xdr:row>
+      <xdr:row>189</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="12700" cy="12700"/>
@@ -3207,7 +3204,7 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>190</xdr:row>
+      <xdr:row>189</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="12700" cy="12700"/>
@@ -3263,7 +3260,7 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>190</xdr:row>
+      <xdr:row>189</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="12700" cy="12700"/>
@@ -3319,7 +3316,7 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>190</xdr:row>
+      <xdr:row>189</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="12700" cy="12700"/>
@@ -3375,7 +3372,7 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>190</xdr:row>
+      <xdr:row>189</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="12700" cy="12700"/>
@@ -3431,7 +3428,7 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>190</xdr:row>
+      <xdr:row>189</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="12700" cy="12700"/>
@@ -3487,7 +3484,7 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>190</xdr:row>
+      <xdr:row>189</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="12700" cy="12700"/>
@@ -3740,10 +3737,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W947"/>
+  <dimension ref="A1:W946"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A126" zoomScale="180" zoomScaleNormal="187" workbookViewId="0">
-      <selection activeCell="B145" sqref="B145"/>
+    <sheetView tabSelected="1" zoomScale="180" zoomScaleNormal="187" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
@@ -3766,7 +3763,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -3795,10 +3792,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>34</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="5"/>
@@ -3950,7 +3947,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -3979,7 +3976,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -4008,7 +4005,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
@@ -4092,9 +4089,11 @@
     </row>
     <row r="12" spans="1:23" ht="16">
       <c r="A12" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B12" s="2"/>
+        <v>9</v>
+      </c>
+      <c r="B12" s="2">
+        <v>0.1</v>
+      </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="5"/>
@@ -4119,13 +4118,13 @@
     </row>
     <row r="13" spans="1:23" ht="16">
       <c r="A13" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
+        <v>10</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
       <c r="E13" s="5"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
@@ -4148,7 +4147,7 @@
     </row>
     <row r="14" spans="1:23" ht="16">
       <c r="A14" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>27</v>
@@ -4175,101 +4174,97 @@
       <c r="V14" s="2"/>
       <c r="W14" s="2"/>
     </row>
-    <row r="15" spans="1:23" ht="16">
-      <c r="A15" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
-      <c r="P15" s="2"/>
-      <c r="Q15" s="2"/>
-      <c r="R15" s="2"/>
-      <c r="S15" s="2"/>
-      <c r="T15" s="2"/>
-      <c r="U15" s="2"/>
-      <c r="V15" s="2"/>
-      <c r="W15" s="2"/>
-    </row>
-    <row r="16" spans="1:23" s="8" customFormat="1" ht="14"/>
-    <row r="17" spans="1:23" ht="17">
-      <c r="A17" s="10" t="s">
+    <row r="15" spans="1:23" s="8" customFormat="1" ht="14"/>
+    <row r="16" spans="1:23" ht="17">
+      <c r="A16" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="B16" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="C16" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="11" t="s">
+      <c r="D16" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="E17" s="12" t="s">
+      <c r="E16" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="F17" s="13" t="s">
+      <c r="F16" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="G17" s="13" t="s">
+      <c r="G16" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="H17" s="13" t="s">
+      <c r="H16" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="I17" s="13" t="s">
+      <c r="I16" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="J17" s="13" t="s">
+      <c r="J16" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="K17" s="13" t="s">
+      <c r="K16" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="L17" s="13" t="s">
+      <c r="L16" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
-      <c r="O17" s="2"/>
-      <c r="P17" s="2"/>
-      <c r="Q17" s="2"/>
-      <c r="R17" s="2"/>
-      <c r="S17" s="2"/>
-      <c r="T17" s="2"/>
-      <c r="U17" s="2"/>
-      <c r="V17" s="2"/>
-      <c r="W17" s="2"/>
-    </row>
-    <row r="18" spans="1:23" s="9" customFormat="1" ht="16">
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="2"/>
+      <c r="S16" s="2"/>
+      <c r="T16" s="2"/>
+      <c r="U16" s="2"/>
+      <c r="V16" s="2"/>
+      <c r="W16" s="2"/>
+    </row>
+    <row r="17" spans="1:12" s="9" customFormat="1" ht="16">
+      <c r="A17" s="14" t="str">
+        <f t="shared" ref="A17:A80" si="0">"gdmt:"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B17," ",""),"-",""),"&amp;","")</f>
+        <v>gdmt:ResourceType</v>
+      </c>
+      <c r="B17" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="E17" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="F17" s="36"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="36"/>
+      <c r="I17" s="36"/>
+      <c r="J17" s="36"/>
+      <c r="K17" s="36"/>
+      <c r="L17" s="36"/>
+    </row>
+    <row r="18" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A18" s="14" t="str">
-        <f t="shared" ref="A18:A81" si="0">"gdmt:"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B18," ",""),"-",""),"&amp;","")</f>
-        <v>gdmt:ResourceType</v>
+        <f t="shared" si="0"/>
+        <v>gdmt:DatasetIdentifier</v>
       </c>
       <c r="B18" s="36" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C18" s="15" t="s">
         <v>25</v>
       </c>
       <c r="D18" s="36" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E18" s="36" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F18" s="36"/>
       <c r="G18" s="36"/>
@@ -4279,22 +4274,22 @@
       <c r="K18" s="36"/>
       <c r="L18" s="36"/>
     </row>
-    <row r="19" spans="1:23" s="9" customFormat="1" ht="16">
+    <row r="19" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A19" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>gdmt:DatasetIdentifier</v>
+        <v>gdmt:RelatedResources</v>
       </c>
       <c r="B19" s="36" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C19" s="15" t="s">
         <v>25</v>
       </c>
       <c r="D19" s="36" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E19" s="36" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F19" s="36"/>
       <c r="G19" s="36"/>
@@ -4304,22 +4299,22 @@
       <c r="K19" s="36"/>
       <c r="L19" s="36"/>
     </row>
-    <row r="20" spans="1:23" s="9" customFormat="1" ht="16">
+    <row r="20" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A20" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>gdmt:RelatedResources</v>
+        <v>gdmt:Version</v>
       </c>
       <c r="B20" s="36" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C20" s="15" t="s">
         <v>25</v>
       </c>
       <c r="D20" s="36" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E20" s="36" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F20" s="36"/>
       <c r="G20" s="36"/>
@@ -4329,22 +4324,22 @@
       <c r="K20" s="36"/>
       <c r="L20" s="36"/>
     </row>
-    <row r="21" spans="1:23" s="9" customFormat="1" ht="16">
+    <row r="21" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A21" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>gdmt:Version</v>
+        <v>gdmt:Language</v>
       </c>
       <c r="B21" s="36" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C21" s="15" t="s">
         <v>25</v>
       </c>
       <c r="D21" s="36" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E21" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F21" s="36"/>
       <c r="G21" s="36"/>
@@ -4354,22 +4349,22 @@
       <c r="K21" s="36"/>
       <c r="L21" s="36"/>
     </row>
-    <row r="22" spans="1:23" s="9" customFormat="1" ht="16">
+    <row r="22" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A22" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>gdmt:Language</v>
+        <v>gdmt:Title</v>
       </c>
       <c r="B22" s="36" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C22" s="15" t="s">
         <v>25</v>
       </c>
       <c r="D22" s="36" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E22" s="36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" s="36"/>
       <c r="G22" s="36"/>
@@ -4379,22 +4374,22 @@
       <c r="K22" s="36"/>
       <c r="L22" s="36"/>
     </row>
-    <row r="23" spans="1:23" s="9" customFormat="1" ht="16">
+    <row r="23" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A23" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>gdmt:Title</v>
+        <v>gdmt:Description</v>
       </c>
       <c r="B23" s="36" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C23" s="15" t="s">
         <v>25</v>
       </c>
       <c r="D23" s="36" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E23" s="36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F23" s="36"/>
       <c r="G23" s="36"/>
@@ -4404,22 +4399,22 @@
       <c r="K23" s="36"/>
       <c r="L23" s="36"/>
     </row>
-    <row r="24" spans="1:23" s="9" customFormat="1" ht="16">
+    <row r="24" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A24" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>gdmt:Description</v>
+        <v>gdmt:Subject</v>
       </c>
       <c r="B24" s="36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C24" s="15" t="s">
         <v>25</v>
       </c>
       <c r="D24" s="36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E24" s="36" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F24" s="36"/>
       <c r="G24" s="36"/>
@@ -4429,22 +4424,22 @@
       <c r="K24" s="36"/>
       <c r="L24" s="36"/>
     </row>
-    <row r="25" spans="1:23" s="9" customFormat="1" ht="16">
+    <row r="25" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A25" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>gdmt:Subject</v>
+        <v>gdmt:ControlledTerms</v>
       </c>
       <c r="B25" s="36" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C25" s="15" t="s">
         <v>25</v>
       </c>
       <c r="D25" s="36" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E25" s="36" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F25" s="36"/>
       <c r="G25" s="36"/>
@@ -4454,22 +4449,22 @@
       <c r="K25" s="36"/>
       <c r="L25" s="36"/>
     </row>
-    <row r="26" spans="1:23" s="9" customFormat="1" ht="16">
+    <row r="26" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A26" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>gdmt:ControlledTerms</v>
+        <v>gdmt:Creator</v>
       </c>
       <c r="B26" s="36" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C26" s="15" t="s">
         <v>25</v>
       </c>
       <c r="D26" s="36" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E26" s="36" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F26" s="36"/>
       <c r="G26" s="36"/>
@@ -4479,22 +4474,22 @@
       <c r="K26" s="36"/>
       <c r="L26" s="36"/>
     </row>
-    <row r="27" spans="1:23" s="9" customFormat="1" ht="16">
+    <row r="27" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A27" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>gdmt:Creator</v>
+        <v>gdmt:CreatorName</v>
       </c>
       <c r="B27" s="36" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C27" s="15" t="s">
         <v>25</v>
       </c>
       <c r="D27" s="36" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E27" s="36" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F27" s="36"/>
       <c r="G27" s="36"/>
@@ -4504,22 +4499,22 @@
       <c r="K27" s="36"/>
       <c r="L27" s="36"/>
     </row>
-    <row r="28" spans="1:23" s="9" customFormat="1" ht="16">
+    <row r="28" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A28" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>gdmt:CreatorName</v>
+        <v>gdmt:CreatorIdentifier</v>
       </c>
       <c r="B28" s="36" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C28" s="15" t="s">
         <v>25</v>
       </c>
       <c r="D28" s="36" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E28" s="36" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F28" s="36"/>
       <c r="G28" s="36"/>
@@ -4529,22 +4524,22 @@
       <c r="K28" s="36"/>
       <c r="L28" s="36"/>
     </row>
-    <row r="29" spans="1:23" s="9" customFormat="1" ht="16">
+    <row r="29" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A29" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>gdmt:CreatorIdentifier</v>
+        <v>gdmt:CreatorAffiliation</v>
       </c>
       <c r="B29" s="36" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C29" s="15" t="s">
         <v>25</v>
       </c>
       <c r="D29" s="36" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E29" s="36" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F29" s="36"/>
       <c r="G29" s="36"/>
@@ -4554,22 +4549,22 @@
       <c r="K29" s="36"/>
       <c r="L29" s="36"/>
     </row>
-    <row r="30" spans="1:23" s="9" customFormat="1" ht="16">
+    <row r="30" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A30" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>gdmt:CreatorAffiliation</v>
+        <v>gdmt:Contributor</v>
       </c>
       <c r="B30" s="36" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C30" s="15" t="s">
         <v>25</v>
       </c>
       <c r="D30" s="36" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E30" s="36" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F30" s="36"/>
       <c r="G30" s="36"/>
@@ -4579,22 +4574,22 @@
       <c r="K30" s="36"/>
       <c r="L30" s="36"/>
     </row>
-    <row r="31" spans="1:23" s="9" customFormat="1" ht="16">
+    <row r="31" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A31" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>gdmt:Contributor</v>
+        <v>gdmt:ContributorName</v>
       </c>
       <c r="B31" s="36" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C31" s="15" t="s">
         <v>25</v>
       </c>
       <c r="D31" s="36" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E31" s="36" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F31" s="36"/>
       <c r="G31" s="36"/>
@@ -4604,22 +4599,22 @@
       <c r="K31" s="36"/>
       <c r="L31" s="36"/>
     </row>
-    <row r="32" spans="1:23" s="9" customFormat="1" ht="16">
+    <row r="32" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A32" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>gdmt:ContributorName</v>
+        <v>gdmt:ContributorIdentifier</v>
       </c>
       <c r="B32" s="36" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C32" s="15" t="s">
         <v>25</v>
       </c>
       <c r="D32" s="36" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E32" s="36" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F32" s="36"/>
       <c r="G32" s="36"/>
@@ -4632,19 +4627,19 @@
     <row r="33" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A33" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>gdmt:ContributorIdentifier</v>
+        <v>gdmt:ContributorAffiliation</v>
       </c>
       <c r="B33" s="36" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C33" s="15" t="s">
         <v>25</v>
       </c>
       <c r="D33" s="36" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E33" s="36" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F33" s="36"/>
       <c r="G33" s="36"/>
@@ -4657,19 +4652,19 @@
     <row r="34" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A34" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>gdmt:ContributorAffiliation</v>
+        <v>gdmt:Publisher</v>
       </c>
       <c r="B34" s="36" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C34" s="15" t="s">
         <v>25</v>
       </c>
       <c r="D34" s="36" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E34" s="36" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F34" s="36"/>
       <c r="G34" s="36"/>
@@ -4682,19 +4677,19 @@
     <row r="35" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A35" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>gdmt:Publisher</v>
+        <v>gdmt:PublisherIdentifier</v>
       </c>
       <c r="B35" s="36" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C35" s="15" t="s">
         <v>25</v>
       </c>
       <c r="D35" s="36" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E35" s="36" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F35" s="36"/>
       <c r="G35" s="36"/>
@@ -4707,19 +4702,19 @@
     <row r="36" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A36" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>gdmt:PublisherIdentifier</v>
+        <v>gdmt:Rights</v>
       </c>
       <c r="B36" s="36" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C36" s="15" t="s">
         <v>25</v>
       </c>
       <c r="D36" s="36" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E36" s="36" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F36" s="36"/>
       <c r="G36" s="36"/>
@@ -4732,19 +4727,19 @@
     <row r="37" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A37" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>gdmt:Rights</v>
+        <v>gdmt:LicenseIdentifier</v>
       </c>
       <c r="B37" s="36" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C37" s="15" t="s">
         <v>25</v>
       </c>
       <c r="D37" s="36" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E37" s="36" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F37" s="36"/>
       <c r="G37" s="36"/>
@@ -4757,19 +4752,19 @@
     <row r="38" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A38" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>gdmt:LicenseIdentifier</v>
+        <v>gdmt:Date</v>
       </c>
       <c r="B38" s="36" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C38" s="15" t="s">
         <v>25</v>
       </c>
       <c r="D38" s="36" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E38" s="36" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F38" s="36"/>
       <c r="G38" s="36"/>
@@ -4782,19 +4777,19 @@
     <row r="39" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A39" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>gdmt:Date</v>
+        <v>gdmt:Distribution</v>
       </c>
       <c r="B39" s="36" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C39" s="15" t="s">
         <v>25</v>
       </c>
       <c r="D39" s="36" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E39" s="36" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F39" s="36"/>
       <c r="G39" s="36"/>
@@ -4807,19 +4802,19 @@
     <row r="40" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A40" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>gdmt:Distribution</v>
+        <v>gdmt:DistributionAccess</v>
       </c>
       <c r="B40" s="36" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C40" s="15" t="s">
         <v>25</v>
       </c>
       <c r="D40" s="36" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E40" s="36" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F40" s="36"/>
       <c r="G40" s="36"/>
@@ -4832,19 +4827,19 @@
     <row r="41" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A41" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>gdmt:DistributionAccess</v>
+        <v>gdmt:Distributor</v>
       </c>
       <c r="B41" s="36" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C41" s="15" t="s">
         <v>25</v>
       </c>
       <c r="D41" s="36" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E41" s="36" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F41" s="36"/>
       <c r="G41" s="36"/>
@@ -4857,19 +4852,19 @@
     <row r="42" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A42" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>gdmt:Distributor</v>
+        <v>gdmt:DistributorName</v>
       </c>
       <c r="B42" s="36" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C42" s="15" t="s">
         <v>25</v>
       </c>
       <c r="D42" s="36" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E42" s="36" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F42" s="36"/>
       <c r="G42" s="36"/>
@@ -4882,19 +4877,19 @@
     <row r="43" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A43" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>gdmt:DistributorName</v>
+        <v>gdmt:DistributorIdentifier</v>
       </c>
       <c r="B43" s="36" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C43" s="15" t="s">
         <v>25</v>
       </c>
       <c r="D43" s="36" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E43" s="36" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F43" s="36"/>
       <c r="G43" s="36"/>
@@ -4907,19 +4902,19 @@
     <row r="44" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A44" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>gdmt:DistributorIdentifier</v>
+        <v>gdmt:DistributorAffiliation</v>
       </c>
       <c r="B44" s="36" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C44" s="15" t="s">
         <v>25</v>
       </c>
       <c r="D44" s="36" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E44" s="36" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F44" s="36"/>
       <c r="G44" s="36"/>
@@ -4932,19 +4927,19 @@
     <row r="45" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A45" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>gdmt:DistributorAffiliation</v>
+        <v>gdmt:Content</v>
       </c>
       <c r="B45" s="36" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C45" s="15" t="s">
         <v>25</v>
       </c>
       <c r="D45" s="36" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E45" s="36" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F45" s="36"/>
       <c r="G45" s="36"/>
@@ -4957,19 +4952,19 @@
     <row r="46" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A46" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>gdmt:Content</v>
+        <v>gdmt:DataStream</v>
       </c>
       <c r="B46" s="36" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C46" s="15" t="s">
         <v>25</v>
       </c>
       <c r="D46" s="36" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E46" s="36" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F46" s="36"/>
       <c r="G46" s="36"/>
@@ -4982,19 +4977,19 @@
     <row r="47" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A47" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>gdmt:DataStream</v>
+        <v>gdmt:DataSource</v>
       </c>
       <c r="B47" s="36" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C47" s="15" t="s">
         <v>25</v>
       </c>
       <c r="D47" s="36" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E47" s="36" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F47" s="36"/>
       <c r="G47" s="36"/>
@@ -5007,19 +5002,19 @@
     <row r="48" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A48" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>gdmt:DataSource</v>
+        <v>gdmt:Variable</v>
       </c>
       <c r="B48" s="36" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C48" s="15" t="s">
         <v>25</v>
       </c>
       <c r="D48" s="36" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E48" s="36" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F48" s="36"/>
       <c r="G48" s="36"/>
@@ -5032,19 +5027,19 @@
     <row r="49" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A49" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>gdmt:Variable</v>
+        <v>gdmt:SpatialCoverage</v>
       </c>
       <c r="B49" s="36" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C49" s="15" t="s">
         <v>25</v>
       </c>
       <c r="D49" s="36" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E49" s="36" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F49" s="36"/>
       <c r="G49" s="36"/>
@@ -5057,19 +5052,19 @@
     <row r="50" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A50" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>gdmt:SpatialCoverage</v>
+        <v>gdmt:SpatialCoveragePoint</v>
       </c>
       <c r="B50" s="36" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C50" s="15" t="s">
         <v>25</v>
       </c>
       <c r="D50" s="36" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E50" s="36" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F50" s="36"/>
       <c r="G50" s="36"/>
@@ -5082,19 +5077,19 @@
     <row r="51" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A51" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>gdmt:SpatialCoveragePoint</v>
+        <v>gdmt:SpatialCoverageBoundingBox</v>
       </c>
       <c r="B51" s="36" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C51" s="15" t="s">
         <v>25</v>
       </c>
       <c r="D51" s="36" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E51" s="36" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F51" s="36"/>
       <c r="G51" s="36"/>
@@ -5107,19 +5102,19 @@
     <row r="52" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A52" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>gdmt:SpatialCoverageBoundingBox</v>
+        <v>gdmt:SpatialCoveragePolygon</v>
       </c>
       <c r="B52" s="36" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C52" s="15" t="s">
         <v>25</v>
       </c>
       <c r="D52" s="36" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E52" s="36" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F52" s="36"/>
       <c r="G52" s="36"/>
@@ -5132,19 +5127,19 @@
     <row r="53" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A53" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>gdmt:SpatialCoveragePolygon</v>
+        <v>gdmt:VerticalCoverage</v>
       </c>
       <c r="B53" s="36" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C53" s="15" t="s">
         <v>25</v>
       </c>
       <c r="D53" s="36" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E53" s="36" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F53" s="36"/>
       <c r="G53" s="36"/>
@@ -5157,19 +5152,19 @@
     <row r="54" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A54" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>gdmt:VerticalCoverage</v>
+        <v>gdmt:TemporalCoverage</v>
       </c>
       <c r="B54" s="36" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C54" s="15" t="s">
         <v>25</v>
       </c>
       <c r="D54" s="36" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E54" s="36" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F54" s="36"/>
       <c r="G54" s="36"/>
@@ -5182,19 +5177,19 @@
     <row r="55" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A55" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>gdmt:TemporalCoverage</v>
+        <v>gdmt:Funding</v>
       </c>
       <c r="B55" s="36" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C55" s="15" t="s">
         <v>25</v>
       </c>
       <c r="D55" s="36" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E55" s="36" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F55" s="36"/>
       <c r="G55" s="36"/>
@@ -5207,19 +5202,19 @@
     <row r="56" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A56" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>gdmt:Funding</v>
+        <v>gdmt:Award</v>
       </c>
       <c r="B56" s="36" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C56" s="15" t="s">
         <v>25</v>
       </c>
       <c r="D56" s="36" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E56" s="36" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F56" s="36"/>
       <c r="G56" s="36"/>
@@ -5232,19 +5227,19 @@
     <row r="57" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A57" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>gdmt:Award</v>
+        <v>gdmt:Funder</v>
       </c>
       <c r="B57" s="36" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C57" s="15" t="s">
         <v>25</v>
       </c>
       <c r="D57" s="36" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E57" s="36" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F57" s="36"/>
       <c r="G57" s="36"/>
@@ -5257,19 +5252,19 @@
     <row r="58" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A58" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>gdmt:Funder</v>
-      </c>
-      <c r="B58" s="36" t="s">
-        <v>115</v>
+        <v>gdmt:datasetIdentifierSubType</v>
+      </c>
+      <c r="B58" s="16" t="s">
+        <v>118</v>
       </c>
       <c r="C58" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="D58" s="36" t="s">
-        <v>115</v>
-      </c>
-      <c r="E58" s="36" t="s">
-        <v>116</v>
+      <c r="D58" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="E58" s="16" t="s">
+        <v>119</v>
       </c>
       <c r="F58" s="36"/>
       <c r="G58" s="36"/>
@@ -5282,19 +5277,19 @@
     <row r="59" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A59" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>gdmt:datasetIdentifierSubType</v>
-      </c>
-      <c r="B59" s="16" t="s">
-        <v>119</v>
+        <v>gdmt:relatedResourceIdentifierSubType</v>
+      </c>
+      <c r="B59" s="17" t="s">
+        <v>120</v>
       </c>
       <c r="C59" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="D59" s="16" t="s">
+      <c r="D59" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="E59" s="17" t="s">
         <v>119</v>
-      </c>
-      <c r="E59" s="16" t="s">
-        <v>120</v>
       </c>
       <c r="F59" s="36"/>
       <c r="G59" s="36"/>
@@ -5307,19 +5302,19 @@
     <row r="60" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A60" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>gdmt:relatedResourceIdentifierSubType</v>
-      </c>
-      <c r="B60" s="17" t="s">
+        <v>gdmt:primaryLanguage</v>
+      </c>
+      <c r="B60" s="18" t="s">
         <v>121</v>
       </c>
       <c r="C60" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="D60" s="17" t="s">
+      <c r="D60" s="18" t="s">
         <v>121</v>
       </c>
-      <c r="E60" s="17" t="s">
-        <v>120</v>
+      <c r="E60" s="19" t="s">
+        <v>122</v>
       </c>
       <c r="F60" s="36"/>
       <c r="G60" s="36"/>
@@ -5332,19 +5327,19 @@
     <row r="61" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A61" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>gdmt:primaryLanguage</v>
-      </c>
-      <c r="B61" s="18" t="s">
-        <v>122</v>
+        <v>gdmt:subjectIRI</v>
+      </c>
+      <c r="B61" s="20" t="s">
+        <v>123</v>
       </c>
       <c r="C61" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="D61" s="18" t="s">
-        <v>122</v>
-      </c>
-      <c r="E61" s="19" t="s">
+      <c r="D61" s="20" t="s">
         <v>123</v>
+      </c>
+      <c r="E61" s="20" t="s">
+        <v>124</v>
       </c>
       <c r="F61" s="36"/>
       <c r="G61" s="36"/>
@@ -5357,19 +5352,19 @@
     <row r="62" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A62" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>gdmt:subjectIRI</v>
+        <v>gdmt:subjectScheme</v>
       </c>
       <c r="B62" s="20" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C62" s="15" t="s">
         <v>25</v>
       </c>
       <c r="D62" s="20" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E62" s="20" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F62" s="36"/>
       <c r="G62" s="36"/>
@@ -5382,19 +5377,19 @@
     <row r="63" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A63" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>gdmt:subjectScheme</v>
+        <v>gdmt:subjectSchemeIRI</v>
       </c>
       <c r="B63" s="20" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C63" s="15" t="s">
         <v>25</v>
       </c>
       <c r="D63" s="20" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E63" s="20" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F63" s="36"/>
       <c r="G63" s="36"/>
@@ -5407,19 +5402,19 @@
     <row r="64" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A64" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>gdmt:subjectSchemeIRI</v>
+        <v>gdmt:keyword</v>
       </c>
       <c r="B64" s="20" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C64" s="15" t="s">
         <v>25</v>
       </c>
       <c r="D64" s="20" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E64" s="20" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F64" s="36"/>
       <c r="G64" s="36"/>
@@ -5432,19 +5427,19 @@
     <row r="65" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A65" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>gdmt:keyword</v>
-      </c>
-      <c r="B65" s="20" t="s">
-        <v>130</v>
+        <v>gdmt:creatorIdentifier</v>
+      </c>
+      <c r="B65" s="21" t="s">
+        <v>131</v>
       </c>
       <c r="C65" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="D65" s="20" t="s">
-        <v>130</v>
-      </c>
-      <c r="E65" s="20" t="s">
+      <c r="D65" s="21" t="s">
         <v>131</v>
+      </c>
+      <c r="E65" s="21" t="s">
+        <v>132</v>
       </c>
       <c r="F65" s="36"/>
       <c r="G65" s="36"/>
@@ -5457,19 +5452,19 @@
     <row r="66" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A66" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>gdmt:creatorIdentifier</v>
+        <v>gdmt:creatorIdentifierScheme</v>
       </c>
       <c r="B66" s="21" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C66" s="15" t="s">
         <v>25</v>
       </c>
       <c r="D66" s="21" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E66" s="21" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F66" s="36"/>
       <c r="G66" s="36"/>
@@ -5482,19 +5477,19 @@
     <row r="67" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A67" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>gdmt:creatorIdentifierScheme</v>
+        <v>gdmt:creatorIdentifierSchemeIRI</v>
       </c>
       <c r="B67" s="21" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C67" s="15" t="s">
         <v>25</v>
       </c>
       <c r="D67" s="21" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E67" s="21" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F67" s="36"/>
       <c r="G67" s="36"/>
@@ -5507,19 +5502,19 @@
     <row r="68" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A68" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>gdmt:creatorIdentifierSchemeIRI</v>
+        <v>gdmt:creatorAffiliation</v>
       </c>
       <c r="B68" s="21" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C68" s="15" t="s">
         <v>25</v>
       </c>
       <c r="D68" s="21" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E68" s="21" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F68" s="36"/>
       <c r="G68" s="36"/>
@@ -5532,19 +5527,19 @@
     <row r="69" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A69" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>gdmt:creatorAffiliation</v>
+        <v>gdmt:creatorAffiliationIdentifier</v>
       </c>
       <c r="B69" s="21" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C69" s="15" t="s">
         <v>25</v>
       </c>
       <c r="D69" s="21" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E69" s="21" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F69" s="36"/>
       <c r="G69" s="36"/>
@@ -5557,19 +5552,19 @@
     <row r="70" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A70" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>gdmt:creatorAffiliationIdentifier</v>
+        <v>gdmt:creatorAffiliationIdentifierScheme</v>
       </c>
       <c r="B70" s="21" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C70" s="15" t="s">
         <v>25</v>
       </c>
       <c r="D70" s="21" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E70" s="21" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F70" s="36"/>
       <c r="G70" s="36"/>
@@ -5582,19 +5577,19 @@
     <row r="71" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A71" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>gdmt:creatorAffiliationIdentifierScheme</v>
+        <v>gdmt:creatorAffiliationIdentifierSchemeIRI</v>
       </c>
       <c r="B71" s="21" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C71" s="15" t="s">
         <v>25</v>
       </c>
       <c r="D71" s="21" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E71" s="21" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F71" s="36"/>
       <c r="G71" s="36"/>
@@ -5607,19 +5602,19 @@
     <row r="72" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A72" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>gdmt:creatorAffiliationIdentifierSchemeIRI</v>
+        <v>gdmt:creatorRole</v>
       </c>
       <c r="B72" s="21" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C72" s="15" t="s">
         <v>25</v>
       </c>
       <c r="D72" s="21" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E72" s="21" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F72" s="36"/>
       <c r="G72" s="36"/>
@@ -5632,19 +5627,19 @@
     <row r="73" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A73" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>gdmt:creatorRole</v>
+        <v>gdmt:creatorType</v>
       </c>
       <c r="B73" s="21" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C73" s="15" t="s">
         <v>25</v>
       </c>
       <c r="D73" s="21" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E73" s="21" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F73" s="36"/>
       <c r="G73" s="36"/>
@@ -5657,19 +5652,19 @@
     <row r="74" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A74" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>gdmt:creatorType</v>
+        <v>gdmt:contributorIdentifier</v>
       </c>
       <c r="B74" s="21" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C74" s="15" t="s">
         <v>25</v>
       </c>
       <c r="D74" s="21" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E74" s="21" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F74" s="36"/>
       <c r="G74" s="36"/>
@@ -5682,19 +5677,19 @@
     <row r="75" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A75" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>gdmt:contributorIdentifier</v>
+        <v>gdmt:contributorIdentifierScheme</v>
       </c>
       <c r="B75" s="21" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C75" s="15" t="s">
         <v>25</v>
       </c>
       <c r="D75" s="21" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E75" s="21" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F75" s="36"/>
       <c r="G75" s="36"/>
@@ -5707,19 +5702,19 @@
     <row r="76" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A76" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>gdmt:contributorIdentifierScheme</v>
+        <v>gdmt:contributorIdentifierSchemeIRI</v>
       </c>
       <c r="B76" s="21" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C76" s="15" t="s">
         <v>25</v>
       </c>
       <c r="D76" s="21" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E76" s="21" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F76" s="36"/>
       <c r="G76" s="36"/>
@@ -5732,19 +5727,19 @@
     <row r="77" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A77" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>gdmt:contributorIdentifierSchemeIRI</v>
+        <v>gdmt:contributorAffiliation</v>
       </c>
       <c r="B77" s="21" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C77" s="15" t="s">
         <v>25</v>
       </c>
       <c r="D77" s="21" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E77" s="21" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F77" s="36"/>
       <c r="G77" s="36"/>
@@ -5757,19 +5752,19 @@
     <row r="78" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A78" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>gdmt:contributorAffiliation</v>
+        <v>gdmt:contributorAffiliationIdentifier</v>
       </c>
       <c r="B78" s="21" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C78" s="15" t="s">
         <v>25</v>
       </c>
       <c r="D78" s="21" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E78" s="21" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F78" s="36"/>
       <c r="G78" s="36"/>
@@ -5782,19 +5777,19 @@
     <row r="79" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A79" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>gdmt:contributorAffiliationIdentifier</v>
+        <v>gdmt:contributorAffiliationIdentifierScheme</v>
       </c>
       <c r="B79" s="21" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C79" s="15" t="s">
         <v>25</v>
       </c>
       <c r="D79" s="21" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E79" s="21" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F79" s="36"/>
       <c r="G79" s="36"/>
@@ -5807,19 +5802,19 @@
     <row r="80" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A80" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>gdmt:contributorAffiliationIdentifierScheme</v>
+        <v>gdmt:contributorAffiliationIdentifierSchemeIRI</v>
       </c>
       <c r="B80" s="21" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C80" s="15" t="s">
         <v>25</v>
       </c>
       <c r="D80" s="21" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E80" s="21" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F80" s="36"/>
       <c r="G80" s="36"/>
@@ -5831,20 +5826,20 @@
     </row>
     <row r="81" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A81" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v>gdmt:contributorAffiliationIdentifierSchemeIRI</v>
+        <f t="shared" ref="A81:A144" si="1">"gdmt:"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B81," ",""),"-",""),"&amp;","")</f>
+        <v>gdmt:contributorRole</v>
       </c>
       <c r="B81" s="21" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C81" s="15" t="s">
         <v>25</v>
       </c>
       <c r="D81" s="21" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E81" s="21" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F81" s="36"/>
       <c r="G81" s="36"/>
@@ -5856,20 +5851,20 @@
     </row>
     <row r="82" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A82" s="14" t="str">
-        <f t="shared" ref="A82:A145" si="1">"gdmt:"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B82," ",""),"-",""),"&amp;","")</f>
-        <v>gdmt:contributorRole</v>
+        <f t="shared" si="1"/>
+        <v>gdmt:contributorType</v>
       </c>
       <c r="B82" s="21" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C82" s="15" t="s">
         <v>25</v>
       </c>
       <c r="D82" s="21" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E82" s="21" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F82" s="36"/>
       <c r="G82" s="36"/>
@@ -5882,19 +5877,19 @@
     <row r="83" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A83" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>gdmt:contributorType</v>
-      </c>
-      <c r="B83" s="21" t="s">
-        <v>166</v>
+        <v>gdmt:publisherIdentifier</v>
+      </c>
+      <c r="B83" s="22" t="s">
+        <v>167</v>
       </c>
       <c r="C83" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="D83" s="21" t="s">
-        <v>166</v>
-      </c>
-      <c r="E83" s="21" t="s">
+      <c r="D83" s="22" t="s">
         <v>167</v>
+      </c>
+      <c r="E83" s="22" t="s">
+        <v>168</v>
       </c>
       <c r="F83" s="36"/>
       <c r="G83" s="36"/>
@@ -5907,19 +5902,19 @@
     <row r="84" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A84" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>gdmt:publisherIdentifier</v>
+        <v>gdmt:publisherIdentifierScheme</v>
       </c>
       <c r="B84" s="22" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C84" s="15" t="s">
         <v>25</v>
       </c>
       <c r="D84" s="22" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E84" s="22" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F84" s="36"/>
       <c r="G84" s="36"/>
@@ -5932,19 +5927,19 @@
     <row r="85" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A85" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>gdmt:publisherIdentifierScheme</v>
+        <v>gdmt:publisherIdentifierSchemeIRI</v>
       </c>
       <c r="B85" s="22" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C85" s="15" t="s">
         <v>25</v>
       </c>
       <c r="D85" s="22" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E85" s="22" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F85" s="36"/>
       <c r="G85" s="36"/>
@@ -5957,19 +5952,19 @@
     <row r="86" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A86" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>gdmt:publisherIdentifierSchemeIRI</v>
+        <v>gdmt:publisherAddress</v>
       </c>
       <c r="B86" s="22" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C86" s="15" t="s">
         <v>25</v>
       </c>
       <c r="D86" s="22" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E86" s="22" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F86" s="36"/>
       <c r="G86" s="36"/>
@@ -5982,19 +5977,19 @@
     <row r="87" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A87" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>gdmt:publisherAddress</v>
-      </c>
-      <c r="B87" s="22" t="s">
-        <v>174</v>
+        <v>gdmt:licenseName</v>
+      </c>
+      <c r="B87" s="23" t="s">
+        <v>175</v>
       </c>
       <c r="C87" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="D87" s="22" t="s">
-        <v>174</v>
-      </c>
-      <c r="E87" s="22" t="s">
+      <c r="D87" s="23" t="s">
         <v>175</v>
+      </c>
+      <c r="E87" s="23" t="s">
+        <v>176</v>
       </c>
       <c r="F87" s="36"/>
       <c r="G87" s="36"/>
@@ -6007,19 +6002,19 @@
     <row r="88" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A88" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>gdmt:licenseName</v>
+        <v>gdmt:licenseIdentifier</v>
       </c>
       <c r="B88" s="23" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C88" s="15" t="s">
         <v>25</v>
       </c>
       <c r="D88" s="23" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E88" s="23" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F88" s="36"/>
       <c r="G88" s="36"/>
@@ -6032,19 +6027,19 @@
     <row r="89" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A89" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>gdmt:licenseIdentifier</v>
+        <v>gdmt:licenseIdentifierScheme</v>
       </c>
       <c r="B89" s="23" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C89" s="15" t="s">
         <v>25</v>
       </c>
       <c r="D89" s="23" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E89" s="23" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F89" s="36"/>
       <c r="G89" s="36"/>
@@ -6057,19 +6052,19 @@
     <row r="90" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A90" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>gdmt:licenseIdentifierScheme</v>
+        <v>gdmt:licenseIdentifierSchemeIRI</v>
       </c>
       <c r="B90" s="23" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C90" s="15" t="s">
         <v>25</v>
       </c>
       <c r="D90" s="23" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E90" s="23" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F90" s="36"/>
       <c r="G90" s="36"/>
@@ -6082,19 +6077,19 @@
     <row r="91" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A91" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>gdmt:licenseIdentifierSchemeIRI</v>
-      </c>
-      <c r="B91" s="23" t="s">
-        <v>182</v>
+        <v>gdmt:datasetDate</v>
+      </c>
+      <c r="B91" s="24" t="s">
+        <v>183</v>
       </c>
       <c r="C91" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="D91" s="23" t="s">
-        <v>182</v>
-      </c>
-      <c r="E91" s="23" t="s">
+      <c r="D91" s="24" t="s">
         <v>183</v>
+      </c>
+      <c r="E91" s="24" t="s">
+        <v>184</v>
       </c>
       <c r="F91" s="36"/>
       <c r="G91" s="36"/>
@@ -6107,19 +6102,19 @@
     <row r="92" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A92" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>gdmt:datasetDate</v>
+        <v>gdmt:datasetDateType</v>
       </c>
       <c r="B92" s="24" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C92" s="15" t="s">
         <v>25</v>
       </c>
       <c r="D92" s="24" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E92" s="24" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F92" s="36"/>
       <c r="G92" s="36"/>
@@ -6132,19 +6127,19 @@
     <row r="93" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A93" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>gdmt:datasetDateType</v>
-      </c>
-      <c r="B93" s="24" t="s">
-        <v>186</v>
+        <v>gdmt:distributionIdentifier</v>
+      </c>
+      <c r="B93" s="25" t="s">
+        <v>187</v>
       </c>
       <c r="C93" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="D93" s="24" t="s">
-        <v>186</v>
-      </c>
-      <c r="E93" s="24" t="s">
+      <c r="D93" s="25" t="s">
         <v>187</v>
+      </c>
+      <c r="E93" s="25" t="s">
+        <v>188</v>
       </c>
       <c r="F93" s="36"/>
       <c r="G93" s="36"/>
@@ -6157,19 +6152,19 @@
     <row r="94" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A94" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>gdmt:distributionIdentifier</v>
+        <v>gdmt:distributionIdentifierType</v>
       </c>
       <c r="B94" s="25" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C94" s="15" t="s">
         <v>25</v>
       </c>
       <c r="D94" s="25" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E94" s="25" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F94" s="36"/>
       <c r="G94" s="36"/>
@@ -6182,19 +6177,19 @@
     <row r="95" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A95" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>gdmt:distributionIdentifierType</v>
-      </c>
-      <c r="B95" s="25" t="s">
-        <v>190</v>
+        <v>gdmt:distributionMediaType</v>
+      </c>
+      <c r="B95" s="26" t="s">
+        <v>191</v>
       </c>
       <c r="C95" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="D95" s="25" t="s">
-        <v>190</v>
-      </c>
-      <c r="E95" s="25" t="s">
+      <c r="D95" s="26" t="s">
         <v>191</v>
+      </c>
+      <c r="E95" s="26" t="s">
+        <v>192</v>
       </c>
       <c r="F95" s="36"/>
       <c r="G95" s="36"/>
@@ -6207,19 +6202,19 @@
     <row r="96" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A96" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>gdmt:distributionMediaType</v>
+        <v>gdmt:distributionSize</v>
       </c>
       <c r="B96" s="26" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C96" s="15" t="s">
         <v>25</v>
       </c>
       <c r="D96" s="26" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E96" s="26" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F96" s="36"/>
       <c r="G96" s="36"/>
@@ -6232,19 +6227,19 @@
     <row r="97" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A97" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>gdmt:distributionSize</v>
+        <v>gdmt:distributionAccessProtocol</v>
       </c>
       <c r="B97" s="26" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C97" s="15" t="s">
         <v>25</v>
       </c>
       <c r="D97" s="26" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E97" s="26" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F97" s="36"/>
       <c r="G97" s="36"/>
@@ -6257,19 +6252,19 @@
     <row r="98" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A98" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>gdmt:distributionAccessProtocol</v>
+        <v>gdmt:distributionAccessConfiguration</v>
       </c>
       <c r="B98" s="26" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C98" s="15" t="s">
         <v>25</v>
       </c>
       <c r="D98" s="26" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E98" s="26" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F98" s="36"/>
       <c r="G98" s="36"/>
@@ -6282,19 +6277,19 @@
     <row r="99" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A99" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>gdmt:distributionAccessConfiguration</v>
+        <v>gdmt:distributionQueryStatement</v>
       </c>
       <c r="B99" s="26" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C99" s="15" t="s">
         <v>25</v>
       </c>
       <c r="D99" s="26" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E99" s="26" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F99" s="36"/>
       <c r="G99" s="36"/>
@@ -6307,19 +6302,19 @@
     <row r="100" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A100" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>gdmt:distributionQueryStatement</v>
-      </c>
-      <c r="B100" s="26" t="s">
-        <v>200</v>
+        <v>gdmt:distributionDate</v>
+      </c>
+      <c r="B100" s="27" t="s">
+        <v>201</v>
       </c>
       <c r="C100" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="D100" s="26" t="s">
-        <v>200</v>
+      <c r="D100" s="27" t="s">
+        <v>201</v>
       </c>
       <c r="E100" s="26" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F100" s="36"/>
       <c r="G100" s="36"/>
@@ -6332,19 +6327,19 @@
     <row r="101" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A101" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>gdmt:distributionDate</v>
-      </c>
-      <c r="B101" s="27" t="s">
-        <v>202</v>
+        <v>gdmt:distributorIdentifier</v>
+      </c>
+      <c r="B101" s="21" t="s">
+        <v>203</v>
       </c>
       <c r="C101" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="D101" s="27" t="s">
-        <v>202</v>
-      </c>
-      <c r="E101" s="26" t="s">
+      <c r="D101" s="21" t="s">
         <v>203</v>
+      </c>
+      <c r="E101" s="21" t="s">
+        <v>204</v>
       </c>
       <c r="F101" s="36"/>
       <c r="G101" s="36"/>
@@ -6357,19 +6352,19 @@
     <row r="102" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A102" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>gdmt:distributorIdentifier</v>
+        <v>gdmt:distributorIdentifierScheme</v>
       </c>
       <c r="B102" s="21" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C102" s="15" t="s">
         <v>25</v>
       </c>
       <c r="D102" s="21" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E102" s="21" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F102" s="36"/>
       <c r="G102" s="36"/>
@@ -6382,19 +6377,19 @@
     <row r="103" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A103" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>gdmt:distributorIdentifierScheme</v>
+        <v>gdmt:distributorIdentifierSchemeIRI</v>
       </c>
       <c r="B103" s="21" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C103" s="15" t="s">
         <v>25</v>
       </c>
       <c r="D103" s="21" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E103" s="21" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F103" s="36"/>
       <c r="G103" s="36"/>
@@ -6407,19 +6402,19 @@
     <row r="104" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A104" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>gdmt:distributorIdentifierSchemeIRI</v>
+        <v>gdmt:distributorAffiliation</v>
       </c>
       <c r="B104" s="21" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C104" s="15" t="s">
         <v>25</v>
       </c>
       <c r="D104" s="21" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E104" s="21" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F104" s="36"/>
       <c r="G104" s="36"/>
@@ -6432,19 +6427,19 @@
     <row r="105" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A105" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>gdmt:distributorAffiliation</v>
+        <v>gdmt:distributorAffiliationIdentifier</v>
       </c>
       <c r="B105" s="21" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C105" s="15" t="s">
         <v>25</v>
       </c>
       <c r="D105" s="21" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E105" s="21" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F105" s="36"/>
       <c r="G105" s="36"/>
@@ -6457,19 +6452,19 @@
     <row r="106" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A106" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>gdmt:distributorAffiliationIdentifier</v>
+        <v>gdmt:distributorAffiliationIdentifierScheme</v>
       </c>
       <c r="B106" s="21" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C106" s="15" t="s">
         <v>25</v>
       </c>
       <c r="D106" s="21" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E106" s="21" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="F106" s="36"/>
       <c r="G106" s="36"/>
@@ -6482,19 +6477,19 @@
     <row r="107" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A107" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>gdmt:distributorAffiliationIdentifierScheme</v>
+        <v>gdmt:distributorAffiliationIdentifierSchemeIRI</v>
       </c>
       <c r="B107" s="21" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C107" s="15" t="s">
         <v>25</v>
       </c>
       <c r="D107" s="21" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E107" s="21" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F107" s="36"/>
       <c r="G107" s="36"/>
@@ -6507,19 +6502,19 @@
     <row r="108" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A108" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>gdmt:distributorAffiliationIdentifierSchemeIRI</v>
+        <v>gdmt:distributorRole</v>
       </c>
       <c r="B108" s="21" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C108" s="15" t="s">
         <v>25</v>
       </c>
       <c r="D108" s="21" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E108" s="21" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F108" s="36"/>
       <c r="G108" s="36"/>
@@ -6532,19 +6527,19 @@
     <row r="109" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A109" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>gdmt:distributorRole</v>
+        <v>gdmt:distributorType</v>
       </c>
       <c r="B109" s="21" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C109" s="15" t="s">
         <v>25</v>
       </c>
       <c r="D109" s="21" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E109" s="21" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="F109" s="36"/>
       <c r="G109" s="36"/>
@@ -6557,19 +6552,19 @@
     <row r="110" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A110" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>gdmt:distributorType</v>
-      </c>
-      <c r="B110" s="21" t="s">
-        <v>220</v>
+        <v>gdmt:dataStream</v>
+      </c>
+      <c r="B110" s="28" t="s">
+        <v>221</v>
       </c>
       <c r="C110" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="D110" s="21" t="s">
-        <v>220</v>
-      </c>
-      <c r="E110" s="21" t="s">
+      <c r="D110" s="28" t="s">
         <v>221</v>
+      </c>
+      <c r="E110" s="28" t="s">
+        <v>222</v>
       </c>
       <c r="F110" s="36"/>
       <c r="G110" s="36"/>
@@ -6582,19 +6577,19 @@
     <row r="111" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A111" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>gdmt:dataStream</v>
+        <v>gdmt:dataStreamIRI</v>
       </c>
       <c r="B111" s="28" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C111" s="15" t="s">
         <v>25</v>
       </c>
       <c r="D111" s="28" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E111" s="28" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="F111" s="36"/>
       <c r="G111" s="36"/>
@@ -6607,19 +6602,19 @@
     <row r="112" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A112" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>gdmt:dataStreamIRI</v>
+        <v>gdmt:datastreamScheme</v>
       </c>
       <c r="B112" s="28" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C112" s="15" t="s">
         <v>25</v>
       </c>
       <c r="D112" s="28" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E112" s="28" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="F112" s="36"/>
       <c r="G112" s="36"/>
@@ -6632,19 +6627,19 @@
     <row r="113" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A113" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>gdmt:datastreamScheme</v>
+        <v>gdmt:dataStreamSchemeIRI</v>
       </c>
       <c r="B113" s="28" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C113" s="15" t="s">
         <v>25</v>
       </c>
       <c r="D113" s="28" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E113" s="28" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F113" s="36"/>
       <c r="G113" s="36"/>
@@ -6657,19 +6652,19 @@
     <row r="114" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A114" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>gdmt:dataStreamSchemeIRI</v>
+        <v>gdmt:dataSource</v>
       </c>
       <c r="B114" s="28" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C114" s="15" t="s">
         <v>25</v>
       </c>
       <c r="D114" s="28" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E114" s="28" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="F114" s="36"/>
       <c r="G114" s="36"/>
@@ -6682,19 +6677,19 @@
     <row r="115" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A115" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>gdmt:dataSource</v>
+        <v>gdmt:dataSourceIRI</v>
       </c>
       <c r="B115" s="28" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C115" s="15" t="s">
         <v>25</v>
       </c>
       <c r="D115" s="28" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E115" s="28" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F115" s="36"/>
       <c r="G115" s="36"/>
@@ -6707,19 +6702,19 @@
     <row r="116" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A116" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>gdmt:dataSourceIRI</v>
+        <v>gdmt:dataSourceScheme</v>
       </c>
       <c r="B116" s="28" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C116" s="15" t="s">
         <v>25</v>
       </c>
       <c r="D116" s="28" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E116" s="28" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="F116" s="36"/>
       <c r="G116" s="36"/>
@@ -6732,19 +6727,19 @@
     <row r="117" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A117" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>gdmt:dataSourceScheme</v>
+        <v>gdmt:dataSourceSchemeIRI</v>
       </c>
       <c r="B117" s="28" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C117" s="15" t="s">
         <v>25</v>
       </c>
       <c r="D117" s="28" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E117" s="28" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="F117" s="36"/>
       <c r="G117" s="36"/>
@@ -6757,19 +6752,19 @@
     <row r="118" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A118" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>gdmt:dataSourceSchemeIRI</v>
+        <v>gdmt:variable</v>
       </c>
       <c r="B118" s="28" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C118" s="15" t="s">
         <v>25</v>
       </c>
       <c r="D118" s="28" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E118" s="28" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="F118" s="36"/>
       <c r="G118" s="36"/>
@@ -6782,19 +6777,19 @@
     <row r="119" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A119" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>gdmt:variable</v>
+        <v>gdmt:variableIRI</v>
       </c>
       <c r="B119" s="28" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C119" s="15" t="s">
         <v>25</v>
       </c>
       <c r="D119" s="28" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E119" s="28" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F119" s="36"/>
       <c r="G119" s="36"/>
@@ -6807,19 +6802,19 @@
     <row r="120" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A120" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>gdmt:variableIRI</v>
+        <v>gdmt:variableScheme</v>
       </c>
       <c r="B120" s="28" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C120" s="15" t="s">
         <v>25</v>
       </c>
       <c r="D120" s="28" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E120" s="28" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="F120" s="36"/>
       <c r="G120" s="36"/>
@@ -6832,19 +6827,19 @@
     <row r="121" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A121" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>gdmt:variableScheme</v>
+        <v>gdmt:variableSchemeIRI</v>
       </c>
       <c r="B121" s="28" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C121" s="15" t="s">
         <v>25</v>
       </c>
       <c r="D121" s="28" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E121" s="28" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="F121" s="36"/>
       <c r="G121" s="36"/>
@@ -6857,19 +6852,19 @@
     <row r="122" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A122" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>gdmt:variableSchemeIRI</v>
-      </c>
-      <c r="B122" s="28" t="s">
-        <v>244</v>
+        <v>gdmt:pointLatitude</v>
+      </c>
+      <c r="B122" s="29" t="s">
+        <v>245</v>
       </c>
       <c r="C122" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="D122" s="28" t="s">
-        <v>244</v>
-      </c>
-      <c r="E122" s="28" t="s">
+      <c r="D122" s="29" t="s">
         <v>245</v>
+      </c>
+      <c r="E122" s="29" t="s">
+        <v>246</v>
       </c>
       <c r="F122" s="36"/>
       <c r="G122" s="36"/>
@@ -6882,19 +6877,19 @@
     <row r="123" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A123" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>gdmt:pointLatitude</v>
+        <v>gdmt:pointLongitude</v>
       </c>
       <c r="B123" s="29" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C123" s="15" t="s">
         <v>25</v>
       </c>
       <c r="D123" s="29" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E123" s="29" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="F123" s="36"/>
       <c r="G123" s="36"/>
@@ -6907,19 +6902,19 @@
     <row r="124" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A124" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>gdmt:pointLongitude</v>
-      </c>
-      <c r="B124" s="29" t="s">
-        <v>248</v>
+        <v>gdmt:westBoundLongitude</v>
+      </c>
+      <c r="B124" s="25" t="s">
+        <v>249</v>
       </c>
       <c r="C124" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="D124" s="29" t="s">
-        <v>248</v>
-      </c>
-      <c r="E124" s="29" t="s">
+      <c r="D124" s="25" t="s">
         <v>249</v>
+      </c>
+      <c r="E124" s="25" t="s">
+        <v>250</v>
       </c>
       <c r="F124" s="36"/>
       <c r="G124" s="36"/>
@@ -6932,19 +6927,19 @@
     <row r="125" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A125" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>gdmt:westBoundLongitude</v>
+        <v>gdmt:eastBoundLongitude</v>
       </c>
       <c r="B125" s="25" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C125" s="15" t="s">
         <v>25</v>
       </c>
       <c r="D125" s="25" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E125" s="25" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="F125" s="36"/>
       <c r="G125" s="36"/>
@@ -6957,19 +6952,19 @@
     <row r="126" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A126" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>gdmt:eastBoundLongitude</v>
+        <v>gdmt:southBoundLatitude</v>
       </c>
       <c r="B126" s="25" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C126" s="15" t="s">
         <v>25</v>
       </c>
       <c r="D126" s="25" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E126" s="25" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="F126" s="36"/>
       <c r="G126" s="36"/>
@@ -6982,19 +6977,19 @@
     <row r="127" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A127" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>gdmt:southBoundLatitude</v>
+        <v>gdmt:northBoundLatitude</v>
       </c>
       <c r="B127" s="25" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C127" s="15" t="s">
         <v>25</v>
       </c>
       <c r="D127" s="25" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E127" s="25" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="F127" s="36"/>
       <c r="G127" s="36"/>
@@ -7007,19 +7002,19 @@
     <row r="128" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A128" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>gdmt:northBoundLatitude</v>
-      </c>
-      <c r="B128" s="25" t="s">
-        <v>256</v>
+        <v>gdmt:polygonPointLatitude</v>
+      </c>
+      <c r="B128" s="29" t="s">
+        <v>257</v>
       </c>
       <c r="C128" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="D128" s="25" t="s">
-        <v>256</v>
+      <c r="D128" s="29" t="s">
+        <v>257</v>
       </c>
       <c r="E128" s="25" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="F128" s="36"/>
       <c r="G128" s="36"/>
@@ -7032,19 +7027,19 @@
     <row r="129" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A129" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>gdmt:polygonPointLatitude</v>
+        <v>gdmt:polygonPointLongitude</v>
       </c>
       <c r="B129" s="29" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C129" s="15" t="s">
         <v>25</v>
       </c>
       <c r="D129" s="29" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="E129" s="25" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="F129" s="36"/>
       <c r="G129" s="36"/>
@@ -7057,19 +7052,19 @@
     <row r="130" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A130" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>gdmt:polygonPointLongitude</v>
-      </c>
-      <c r="B130" s="29" t="s">
-        <v>260</v>
+        <v>gdmt:geoLocationDescription</v>
+      </c>
+      <c r="B130" s="25" t="s">
+        <v>261</v>
       </c>
       <c r="C130" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="D130" s="29" t="s">
-        <v>260</v>
+      <c r="D130" s="25" t="s">
+        <v>261</v>
       </c>
       <c r="E130" s="25" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F130" s="36"/>
       <c r="G130" s="36"/>
@@ -7082,19 +7077,19 @@
     <row r="131" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A131" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>gdmt:geoLocationDescription</v>
-      </c>
-      <c r="B131" s="25" t="s">
-        <v>262</v>
+        <v>gdmt:verticalExtentMaximumValue</v>
+      </c>
+      <c r="B131" s="30" t="s">
+        <v>263</v>
       </c>
       <c r="C131" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="D131" s="25" t="s">
-        <v>262</v>
-      </c>
-      <c r="E131" s="25" t="s">
+      <c r="D131" s="30" t="s">
         <v>263</v>
+      </c>
+      <c r="E131" s="30" t="s">
+        <v>264</v>
       </c>
       <c r="F131" s="36"/>
       <c r="G131" s="36"/>
@@ -7107,19 +7102,19 @@
     <row r="132" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A132" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>gdmt:verticalExtentMaximumValue</v>
+        <v>gdmt:verticalExtentMinimumValue</v>
       </c>
       <c r="B132" s="30" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C132" s="15" t="s">
         <v>25</v>
       </c>
       <c r="D132" s="30" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E132" s="30" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F132" s="36"/>
       <c r="G132" s="36"/>
@@ -7132,19 +7127,19 @@
     <row r="133" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A133" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>gdmt:verticalExtentMinimumValue</v>
+        <v>gdmt:verticalExtentUnit</v>
       </c>
       <c r="B133" s="30" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C133" s="15" t="s">
         <v>25</v>
       </c>
       <c r="D133" s="30" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E133" s="30" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="F133" s="36"/>
       <c r="G133" s="36"/>
@@ -7157,19 +7152,19 @@
     <row r="134" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A134" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>gdmt:verticalExtentUnit</v>
+        <v>gdmt:verticalExtentUnitIRI</v>
       </c>
       <c r="B134" s="30" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C134" s="15" t="s">
         <v>25</v>
       </c>
       <c r="D134" s="30" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="E134" s="30" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F134" s="36"/>
       <c r="G134" s="36"/>
@@ -7182,19 +7177,19 @@
     <row r="135" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A135" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>gdmt:verticalExtentUnitIRI</v>
+        <v>gdmt:verticalExtentUnitScheme</v>
       </c>
       <c r="B135" s="30" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C135" s="15" t="s">
         <v>25</v>
       </c>
       <c r="D135" s="30" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E135" s="30" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="F135" s="36"/>
       <c r="G135" s="36"/>
@@ -7207,19 +7202,19 @@
     <row r="136" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A136" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>gdmt:verticalExtentUnitScheme</v>
+        <v>gdmt:verticalExtentUnitSchemeIRI</v>
       </c>
       <c r="B136" s="30" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C136" s="15" t="s">
         <v>25</v>
       </c>
       <c r="D136" s="30" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="E136" s="30" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="F136" s="36"/>
       <c r="G136" s="36"/>
@@ -7232,19 +7227,19 @@
     <row r="137" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A137" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>gdmt:verticalExtentUnitSchemeIRI</v>
+        <v>gdmt:verticalExtentDatum</v>
       </c>
       <c r="B137" s="30" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C137" s="15" t="s">
         <v>25</v>
       </c>
       <c r="D137" s="30" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="E137" s="30" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F137" s="36"/>
       <c r="G137" s="36"/>
@@ -7257,19 +7252,19 @@
     <row r="138" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A138" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>gdmt:verticalExtentDatum</v>
+        <v>gdmt:verticalExtentDatumIRI</v>
       </c>
       <c r="B138" s="30" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C138" s="15" t="s">
         <v>25</v>
       </c>
       <c r="D138" s="30" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E138" s="30" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F138" s="36"/>
       <c r="G138" s="36"/>
@@ -7282,19 +7277,19 @@
     <row r="139" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A139" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>gdmt:verticalExtentDatumIRI</v>
-      </c>
-      <c r="B139" s="30" t="s">
-        <v>278</v>
+        <v>gdmt:temporalExtentMinimumValue</v>
+      </c>
+      <c r="B139" s="31" t="s">
+        <v>279</v>
       </c>
       <c r="C139" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="D139" s="30" t="s">
-        <v>278</v>
-      </c>
-      <c r="E139" s="30" t="s">
+      <c r="D139" s="31" t="s">
         <v>279</v>
+      </c>
+      <c r="E139" s="31" t="s">
+        <v>280</v>
       </c>
       <c r="F139" s="36"/>
       <c r="G139" s="36"/>
@@ -7307,19 +7302,19 @@
     <row r="140" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A140" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>gdmt:temporalExtentMinimumValue</v>
+        <v>gdmt:temporalExtentMaximumValue</v>
       </c>
       <c r="B140" s="31" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C140" s="15" t="s">
         <v>25</v>
       </c>
       <c r="D140" s="31" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="E140" s="31" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="F140" s="36"/>
       <c r="G140" s="36"/>
@@ -7332,19 +7327,19 @@
     <row r="141" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A141" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>gdmt:temporalExtentMaximumValue</v>
+        <v>gdmt:temporalResolution</v>
       </c>
       <c r="B141" s="31" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C141" s="15" t="s">
         <v>25</v>
       </c>
       <c r="D141" s="31" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="E141" s="31" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="F141" s="36"/>
       <c r="G141" s="36"/>
@@ -7357,19 +7352,19 @@
     <row r="142" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A142" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>gdmt:temporalResolution</v>
+        <v>gdmt:duration</v>
       </c>
       <c r="B142" s="31" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C142" s="15" t="s">
         <v>25</v>
       </c>
       <c r="D142" s="31" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="E142" s="31" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="F142" s="36"/>
       <c r="G142" s="36"/>
@@ -7382,19 +7377,19 @@
     <row r="143" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A143" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>gdmt:duration</v>
-      </c>
-      <c r="B143" s="31" t="s">
-        <v>286</v>
+        <v>gdmt:awardTitle</v>
+      </c>
+      <c r="B143" s="32" t="s">
+        <v>287</v>
       </c>
       <c r="C143" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="D143" s="31" t="s">
-        <v>286</v>
-      </c>
-      <c r="E143" s="31" t="s">
+      <c r="D143" s="32" t="s">
         <v>287</v>
+      </c>
+      <c r="E143" s="32" t="s">
+        <v>288</v>
       </c>
       <c r="F143" s="36"/>
       <c r="G143" s="36"/>
@@ -7407,19 +7402,19 @@
     <row r="144" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A144" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>gdmt:awardTitle</v>
+        <v>gdmt:awardPageIRI</v>
       </c>
       <c r="B144" s="32" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C144" s="15" t="s">
         <v>25</v>
       </c>
       <c r="D144" s="32" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="E144" s="32" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="F144" s="36"/>
       <c r="G144" s="36"/>
@@ -7431,20 +7426,20 @@
     </row>
     <row r="145" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A145" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v>gdmt:awardPageIRI</v>
+        <f t="shared" ref="A145:A149" si="2">"gdmt:"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B145," ",""),"-",""),"&amp;","")</f>
+        <v>gdmt:awardLocalIdentifier</v>
       </c>
       <c r="B145" s="32" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C145" s="15" t="s">
         <v>25</v>
       </c>
       <c r="D145" s="32" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="E145" s="32" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="F145" s="36"/>
       <c r="G145" s="36"/>
@@ -7456,20 +7451,20 @@
     </row>
     <row r="146" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A146" s="14" t="str">
-        <f t="shared" ref="A146:A150" si="2">"gdmt:"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B146," ",""),"-",""),"&amp;","")</f>
-        <v>gdmt:awardLocalIdentifier</v>
+        <f t="shared" si="2"/>
+        <v>gdmt:funderName</v>
       </c>
       <c r="B146" s="32" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C146" s="15" t="s">
         <v>25</v>
       </c>
       <c r="D146" s="32" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="E146" s="32" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F146" s="36"/>
       <c r="G146" s="36"/>
@@ -7482,19 +7477,19 @@
     <row r="147" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A147" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>gdmt:funderName</v>
+        <v>gdmt:funderIdentifier</v>
       </c>
       <c r="B147" s="32" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C147" s="15" t="s">
         <v>25</v>
       </c>
       <c r="D147" s="32" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E147" s="32" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="F147" s="36"/>
       <c r="G147" s="36"/>
@@ -7507,19 +7502,19 @@
     <row r="148" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A148" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>gdmt:funderIdentifier</v>
+        <v>gdmt:funderIdentifierScheme</v>
       </c>
       <c r="B148" s="32" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C148" s="15" t="s">
         <v>25</v>
       </c>
       <c r="D148" s="32" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E148" s="32" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="F148" s="36"/>
       <c r="G148" s="36"/>
@@ -7532,19 +7527,19 @@
     <row r="149" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A149" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>gdmt:funderIdentifierScheme</v>
+        <v>gdmt:funderIdentifierSchemeIRI</v>
       </c>
       <c r="B149" s="32" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C149" s="15" t="s">
         <v>25</v>
       </c>
       <c r="D149" s="32" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="E149" s="32" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="F149" s="36"/>
       <c r="G149" s="36"/>
@@ -7554,58 +7549,56 @@
       <c r="K149" s="36"/>
       <c r="L149" s="36"/>
     </row>
-    <row r="150" spans="1:12" s="9" customFormat="1" ht="16">
-      <c r="A150" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v>gdmt:funderIdentifierSchemeIRI</v>
-      </c>
-      <c r="B150" s="32" t="s">
-        <v>300</v>
-      </c>
-      <c r="C150" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D150" s="32" t="s">
-        <v>300</v>
-      </c>
-      <c r="E150" s="32" t="s">
+    <row r="150" spans="1:12" ht="15" customHeight="1">
+      <c r="A150" s="40" t="str">
+        <f>"gdmt:"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B150," ",""),"-",""),"&amp;","")</f>
+        <v>gdmt:ResourceTypeCategories</v>
+      </c>
+      <c r="B150" s="41" t="s">
+        <v>382</v>
+      </c>
+      <c r="C150" s="42"/>
+      <c r="D150" s="42"/>
+      <c r="E150" s="41" t="s">
+        <v>332</v>
+      </c>
+      <c r="F150" s="42"/>
+      <c r="G150" s="42"/>
+      <c r="H150" s="42"/>
+      <c r="I150" s="42"/>
+      <c r="J150" s="42"/>
+      <c r="K150" s="42"/>
+      <c r="L150" s="42"/>
+    </row>
+    <row r="151" spans="1:12" ht="15" customHeight="1">
+      <c r="A151" s="33" t="str">
+        <f t="shared" ref="A151:A189" si="3">"gdmt:"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B151," ",""),"-",""),"&amp;","")</f>
+        <v>gdmt:Audiovisual</v>
+      </c>
+      <c r="B151" s="34" t="s">
         <v>301</v>
       </c>
-      <c r="F150" s="36"/>
-      <c r="G150" s="36"/>
-      <c r="H150" s="36"/>
-      <c r="I150" s="36"/>
-      <c r="J150" s="36"/>
-      <c r="K150" s="36"/>
-      <c r="L150" s="36"/>
-    </row>
-    <row r="151" spans="1:12" ht="15" customHeight="1">
-      <c r="A151" s="40" t="str">
-        <f>"gdmt:"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B151," ",""),"-",""),"&amp;","")</f>
-        <v>gdmt:ResourceTypeCategories</v>
-      </c>
-      <c r="B151" s="41" t="s">
+      <c r="C151" s="37"/>
+      <c r="D151" s="37"/>
+      <c r="E151" s="34" t="s">
+        <v>316</v>
+      </c>
+      <c r="F151" s="37"/>
+      <c r="G151" s="37" t="s">
         <v>383</v>
       </c>
-      <c r="C151" s="42"/>
-      <c r="D151" s="42"/>
-      <c r="E151" s="41" t="s">
-        <v>333</v>
-      </c>
-      <c r="F151" s="42"/>
-      <c r="G151" s="42"/>
-      <c r="H151" s="42"/>
-      <c r="I151" s="42"/>
-      <c r="J151" s="42"/>
-      <c r="K151" s="42"/>
-      <c r="L151" s="42"/>
+      <c r="H151" s="37"/>
+      <c r="I151" s="37"/>
+      <c r="J151" s="37"/>
+      <c r="K151" s="37"/>
+      <c r="L151" s="37"/>
     </row>
     <row r="152" spans="1:12" ht="15" customHeight="1">
       <c r="A152" s="33" t="str">
-        <f t="shared" ref="A152:A190" si="3">"gdmt:"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B152," ",""),"-",""),"&amp;","")</f>
-        <v>gdmt:Audiovisual</v>
-      </c>
-      <c r="B152" s="34" t="s">
+        <f t="shared" si="3"/>
+        <v>gdmt:Collection</v>
+      </c>
+      <c r="B152" s="35" t="s">
         <v>302</v>
       </c>
       <c r="C152" s="37"/>
@@ -7615,7 +7608,7 @@
       </c>
       <c r="F152" s="37"/>
       <c r="G152" s="37" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="H152" s="37"/>
       <c r="I152" s="37"/>
@@ -7626,19 +7619,19 @@
     <row r="153" spans="1:12" ht="15" customHeight="1">
       <c r="A153" s="33" t="str">
         <f t="shared" si="3"/>
-        <v>gdmt:Collection</v>
+        <v>gdmt:DataPaper</v>
       </c>
       <c r="B153" s="35" t="s">
         <v>303</v>
       </c>
       <c r="C153" s="37"/>
       <c r="D153" s="37"/>
-      <c r="E153" s="34" t="s">
+      <c r="E153" s="35" t="s">
         <v>318</v>
       </c>
       <c r="F153" s="37"/>
       <c r="G153" s="37" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="H153" s="37"/>
       <c r="I153" s="37"/>
@@ -7649,19 +7642,19 @@
     <row r="154" spans="1:12" ht="15" customHeight="1">
       <c r="A154" s="33" t="str">
         <f t="shared" si="3"/>
-        <v>gdmt:DataPaper</v>
+        <v>gdmt:DataCatalog</v>
       </c>
       <c r="B154" s="35" t="s">
         <v>304</v>
       </c>
       <c r="C154" s="37"/>
       <c r="D154" s="37"/>
-      <c r="E154" s="35" t="s">
+      <c r="E154" s="34" t="s">
         <v>319</v>
       </c>
       <c r="F154" s="37"/>
       <c r="G154" s="37" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="H154" s="37"/>
       <c r="I154" s="37"/>
@@ -7672,19 +7665,19 @@
     <row r="155" spans="1:12" ht="15" customHeight="1">
       <c r="A155" s="33" t="str">
         <f t="shared" si="3"/>
-        <v>gdmt:DataCatalog</v>
+        <v>gdmt:Dataset</v>
       </c>
       <c r="B155" s="35" t="s">
         <v>305</v>
       </c>
       <c r="C155" s="37"/>
       <c r="D155" s="37"/>
-      <c r="E155" s="34" t="s">
+      <c r="E155" s="35" t="s">
         <v>320</v>
       </c>
       <c r="F155" s="37"/>
       <c r="G155" s="37" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="H155" s="37"/>
       <c r="I155" s="37"/>
@@ -7695,10 +7688,10 @@
     <row r="156" spans="1:12" ht="15" customHeight="1">
       <c r="A156" s="33" t="str">
         <f t="shared" si="3"/>
-        <v>gdmt:Dataset</v>
+        <v>gdmt:DataStream</v>
       </c>
       <c r="B156" s="35" t="s">
-        <v>306</v>
+        <v>92</v>
       </c>
       <c r="C156" s="37"/>
       <c r="D156" s="37"/>
@@ -7707,7 +7700,7 @@
       </c>
       <c r="F156" s="37"/>
       <c r="G156" s="37" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="H156" s="37"/>
       <c r="I156" s="37"/>
@@ -7718,10 +7711,10 @@
     <row r="157" spans="1:12" ht="15" customHeight="1">
       <c r="A157" s="33" t="str">
         <f t="shared" si="3"/>
-        <v>gdmt:DataStream</v>
+        <v>gdmt:Event</v>
       </c>
       <c r="B157" s="35" t="s">
-        <v>93</v>
+        <v>306</v>
       </c>
       <c r="C157" s="37"/>
       <c r="D157" s="37"/>
@@ -7730,7 +7723,7 @@
       </c>
       <c r="F157" s="37"/>
       <c r="G157" s="37" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="H157" s="37"/>
       <c r="I157" s="37"/>
@@ -7741,7 +7734,7 @@
     <row r="158" spans="1:12" ht="15" customHeight="1">
       <c r="A158" s="33" t="str">
         <f t="shared" si="3"/>
-        <v>gdmt:Event</v>
+        <v>gdmt:Image</v>
       </c>
       <c r="B158" s="35" t="s">
         <v>307</v>
@@ -7753,7 +7746,7 @@
       </c>
       <c r="F158" s="37"/>
       <c r="G158" s="37" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="H158" s="37"/>
       <c r="I158" s="37"/>
@@ -7764,7 +7757,7 @@
     <row r="159" spans="1:12" ht="15" customHeight="1">
       <c r="A159" s="33" t="str">
         <f t="shared" si="3"/>
-        <v>gdmt:Image</v>
+        <v>gdmt:InteractiveResource</v>
       </c>
       <c r="B159" s="35" t="s">
         <v>308</v>
@@ -7776,7 +7769,7 @@
       </c>
       <c r="F159" s="37"/>
       <c r="G159" s="37" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="H159" s="37"/>
       <c r="I159" s="37"/>
@@ -7787,7 +7780,7 @@
     <row r="160" spans="1:12" ht="15" customHeight="1">
       <c r="A160" s="33" t="str">
         <f t="shared" si="3"/>
-        <v>gdmt:InteractiveResource</v>
+        <v>gdmt:Model</v>
       </c>
       <c r="B160" s="35" t="s">
         <v>309</v>
@@ -7799,7 +7792,7 @@
       </c>
       <c r="F160" s="37"/>
       <c r="G160" s="37" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="H160" s="37"/>
       <c r="I160" s="37"/>
@@ -7810,7 +7803,7 @@
     <row r="161" spans="1:23" ht="15" customHeight="1">
       <c r="A161" s="33" t="str">
         <f t="shared" si="3"/>
-        <v>gdmt:Model</v>
+        <v>gdmt:PhysicalObject</v>
       </c>
       <c r="B161" s="35" t="s">
         <v>310</v>
@@ -7822,7 +7815,7 @@
       </c>
       <c r="F161" s="37"/>
       <c r="G161" s="37" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="H161" s="37"/>
       <c r="I161" s="37"/>
@@ -7833,7 +7826,7 @@
     <row r="162" spans="1:23" ht="15" customHeight="1">
       <c r="A162" s="33" t="str">
         <f t="shared" si="3"/>
-        <v>gdmt:PhysicalObject</v>
+        <v>gdmt:Service</v>
       </c>
       <c r="B162" s="35" t="s">
         <v>311</v>
@@ -7845,7 +7838,7 @@
       </c>
       <c r="F162" s="37"/>
       <c r="G162" s="37" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="H162" s="37"/>
       <c r="I162" s="37"/>
@@ -7856,7 +7849,7 @@
     <row r="163" spans="1:23" ht="15" customHeight="1">
       <c r="A163" s="33" t="str">
         <f t="shared" si="3"/>
-        <v>gdmt:Service</v>
+        <v>gdmt:Software</v>
       </c>
       <c r="B163" s="35" t="s">
         <v>312</v>
@@ -7868,7 +7861,7 @@
       </c>
       <c r="F163" s="37"/>
       <c r="G163" s="37" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="H163" s="37"/>
       <c r="I163" s="37"/>
@@ -7879,7 +7872,7 @@
     <row r="164" spans="1:23" ht="15" customHeight="1">
       <c r="A164" s="33" t="str">
         <f t="shared" si="3"/>
-        <v>gdmt:Software</v>
+        <v>gdmt:Sound</v>
       </c>
       <c r="B164" s="35" t="s">
         <v>313</v>
@@ -7891,7 +7884,7 @@
       </c>
       <c r="F164" s="37"/>
       <c r="G164" s="37" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="H164" s="37"/>
       <c r="I164" s="37"/>
@@ -7902,7 +7895,7 @@
     <row r="165" spans="1:23" ht="15" customHeight="1">
       <c r="A165" s="33" t="str">
         <f t="shared" si="3"/>
-        <v>gdmt:Sound</v>
+        <v>gdmt:Text</v>
       </c>
       <c r="B165" s="35" t="s">
         <v>314</v>
@@ -7914,7 +7907,7 @@
       </c>
       <c r="F165" s="37"/>
       <c r="G165" s="37" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="H165" s="37"/>
       <c r="I165" s="37"/>
@@ -7925,7 +7918,7 @@
     <row r="166" spans="1:23" ht="15" customHeight="1">
       <c r="A166" s="33" t="str">
         <f t="shared" si="3"/>
-        <v>gdmt:Text</v>
+        <v>gdmt:Workflow</v>
       </c>
       <c r="B166" s="35" t="s">
         <v>315</v>
@@ -7937,7 +7930,7 @@
       </c>
       <c r="F166" s="37"/>
       <c r="G166" s="37" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="H166" s="37"/>
       <c r="I166" s="37"/>
@@ -7948,19 +7941,19 @@
     <row r="167" spans="1:23" ht="15" customHeight="1">
       <c r="A167" s="33" t="str">
         <f t="shared" si="3"/>
-        <v>gdmt:Workflow</v>
+        <v>gdmt:OtherResource</v>
       </c>
       <c r="B167" s="35" t="s">
-        <v>316</v>
+        <v>339</v>
       </c>
       <c r="C167" s="37"/>
       <c r="D167" s="37"/>
       <c r="E167" s="35" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="F167" s="37"/>
       <c r="G167" s="37" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="H167" s="37"/>
       <c r="I167" s="37"/>
@@ -7969,56 +7962,56 @@
       <c r="L167" s="37"/>
     </row>
     <row r="168" spans="1:23" ht="15" customHeight="1">
-      <c r="A168" s="33" t="str">
+      <c r="A168" s="40" t="str">
+        <f>"gdmt:"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B168," ",""),"-",""),"&amp;","")</f>
+        <v>gdmt:ContributorRoles</v>
+      </c>
+      <c r="B168" s="41" t="s">
+        <v>379</v>
+      </c>
+      <c r="C168" s="42"/>
+      <c r="D168" s="42"/>
+      <c r="E168" s="41" t="s">
+        <v>332</v>
+      </c>
+      <c r="F168" s="42"/>
+      <c r="G168" s="42"/>
+      <c r="H168" s="42"/>
+      <c r="I168" s="42"/>
+      <c r="J168" s="42"/>
+      <c r="K168" s="42"/>
+      <c r="L168" s="42"/>
+    </row>
+    <row r="169" spans="1:23" ht="15" customHeight="1">
+      <c r="A169" s="33" t="str">
         <f t="shared" si="3"/>
-        <v>gdmt:OtherResource</v>
-      </c>
-      <c r="B168" s="35" t="s">
-        <v>340</v>
-      </c>
-      <c r="C168" s="37"/>
-      <c r="D168" s="37"/>
-      <c r="E168" s="35" t="s">
+        <v>gdmt:ContactPerson</v>
+      </c>
+      <c r="B169" s="37" t="s">
         <v>334</v>
       </c>
-      <c r="F168" s="37"/>
-      <c r="G168" s="37" t="s">
-        <v>384</v>
-      </c>
-      <c r="H168" s="37"/>
-      <c r="I168" s="37"/>
-      <c r="J168" s="37"/>
-      <c r="K168" s="37"/>
-      <c r="L168" s="37"/>
-    </row>
-    <row r="169" spans="1:23" ht="15" customHeight="1">
-      <c r="A169" s="40" t="str">
-        <f>"gdmt:"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B169," ",""),"-",""),"&amp;","")</f>
-        <v>gdmt:ContributorRoles</v>
-      </c>
-      <c r="B169" s="41" t="s">
-        <v>380</v>
-      </c>
-      <c r="C169" s="42"/>
-      <c r="D169" s="42"/>
-      <c r="E169" s="41" t="s">
-        <v>333</v>
-      </c>
-      <c r="F169" s="42"/>
-      <c r="G169" s="42"/>
-      <c r="H169" s="42"/>
-      <c r="I169" s="42"/>
-      <c r="J169" s="42"/>
-      <c r="K169" s="42"/>
-      <c r="L169" s="42"/>
+      <c r="C169" s="37"/>
+      <c r="D169" s="37"/>
+      <c r="E169" s="37" t="s">
+        <v>336</v>
+      </c>
+      <c r="F169" s="37"/>
+      <c r="G169" s="39" t="s">
+        <v>381</v>
+      </c>
+      <c r="H169" s="37"/>
+      <c r="I169" s="37"/>
+      <c r="J169" s="37"/>
+      <c r="K169" s="37"/>
+      <c r="L169" s="37"/>
     </row>
     <row r="170" spans="1:23" ht="15" customHeight="1">
       <c r="A170" s="33" t="str">
         <f t="shared" si="3"/>
-        <v>gdmt:ContactPerson</v>
+        <v>gdmt:DataCollector</v>
       </c>
       <c r="B170" s="37" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="C170" s="37"/>
       <c r="D170" s="37"/>
@@ -8027,7 +8020,7 @@
       </c>
       <c r="F170" s="37"/>
       <c r="G170" s="39" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="H170" s="37"/>
       <c r="I170" s="37"/>
@@ -8038,10 +8031,10 @@
     <row r="171" spans="1:23" ht="15" customHeight="1">
       <c r="A171" s="33" t="str">
         <f t="shared" si="3"/>
-        <v>gdmt:DataCollector</v>
+        <v>gdmt:DataCurator</v>
       </c>
       <c r="B171" s="37" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="C171" s="37"/>
       <c r="D171" s="37"/>
@@ -8050,7 +8043,7 @@
       </c>
       <c r="F171" s="37"/>
       <c r="G171" s="39" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="H171" s="37"/>
       <c r="I171" s="37"/>
@@ -8061,19 +8054,19 @@
     <row r="172" spans="1:23" ht="15" customHeight="1">
       <c r="A172" s="33" t="str">
         <f t="shared" si="3"/>
-        <v>gdmt:DataCurator</v>
+        <v>gdmt:DataManager</v>
       </c>
       <c r="B172" s="37" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="C172" s="37"/>
       <c r="D172" s="37"/>
       <c r="E172" s="37" t="s">
-        <v>339</v>
+        <v>358</v>
       </c>
       <c r="F172" s="37"/>
       <c r="G172" s="39" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="H172" s="37"/>
       <c r="I172" s="37"/>
@@ -8084,10 +8077,10 @@
     <row r="173" spans="1:23" ht="15" customHeight="1">
       <c r="A173" s="33" t="str">
         <f t="shared" si="3"/>
-        <v>gdmt:DataManager</v>
+        <v>gdmt:Distributor</v>
       </c>
       <c r="B173" s="37" t="s">
-        <v>342</v>
+        <v>82</v>
       </c>
       <c r="C173" s="37"/>
       <c r="D173" s="37"/>
@@ -8096,7 +8089,7 @@
       </c>
       <c r="F173" s="37"/>
       <c r="G173" s="39" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="H173" s="37"/>
       <c r="I173" s="37"/>
@@ -8104,33 +8097,44 @@
       <c r="K173" s="37"/>
       <c r="L173" s="37"/>
     </row>
-    <row r="174" spans="1:23" ht="15" customHeight="1">
+    <row r="174" spans="1:23" ht="15.75" customHeight="1">
       <c r="A174" s="33" t="str">
         <f t="shared" si="3"/>
-        <v>gdmt:Distributor</v>
-      </c>
-      <c r="B174" s="37" t="s">
-        <v>83</v>
-      </c>
-      <c r="C174" s="37"/>
-      <c r="D174" s="37"/>
+        <v>gdmt:Editor</v>
+      </c>
+      <c r="B174" s="38" t="s">
+        <v>342</v>
+      </c>
+      <c r="C174" s="38"/>
+      <c r="D174" s="38"/>
       <c r="E174" s="37" t="s">
         <v>360</v>
       </c>
-      <c r="F174" s="37"/>
+      <c r="F174" s="39"/>
       <c r="G174" s="39" t="s">
-        <v>382</v>
-      </c>
-      <c r="H174" s="37"/>
-      <c r="I174" s="37"/>
-      <c r="J174" s="37"/>
-      <c r="K174" s="37"/>
-      <c r="L174" s="37"/>
+        <v>381</v>
+      </c>
+      <c r="H174" s="39"/>
+      <c r="I174" s="39"/>
+      <c r="J174" s="39"/>
+      <c r="K174" s="39"/>
+      <c r="L174" s="39"/>
+      <c r="M174" s="2"/>
+      <c r="N174" s="2"/>
+      <c r="O174" s="2"/>
+      <c r="P174" s="2"/>
+      <c r="Q174" s="2"/>
+      <c r="R174" s="2"/>
+      <c r="S174" s="2"/>
+      <c r="T174" s="2"/>
+      <c r="U174" s="2"/>
+      <c r="V174" s="2"/>
+      <c r="W174" s="2"/>
     </row>
     <row r="175" spans="1:23" ht="15.75" customHeight="1">
       <c r="A175" s="33" t="str">
         <f t="shared" si="3"/>
-        <v>gdmt:Editor</v>
+        <v>gdmt:HostingInstitution</v>
       </c>
       <c r="B175" s="38" t="s">
         <v>343</v>
@@ -8142,7 +8146,7 @@
       </c>
       <c r="F175" s="39"/>
       <c r="G175" s="39" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="H175" s="39"/>
       <c r="I175" s="39"/>
@@ -8164,7 +8168,7 @@
     <row r="176" spans="1:23" ht="15.75" customHeight="1">
       <c r="A176" s="33" t="str">
         <f t="shared" si="3"/>
-        <v>gdmt:HostingInstitution</v>
+        <v>gdmt:Producer</v>
       </c>
       <c r="B176" s="38" t="s">
         <v>344</v>
@@ -8176,7 +8180,7 @@
       </c>
       <c r="F176" s="39"/>
       <c r="G176" s="39" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="H176" s="39"/>
       <c r="I176" s="39"/>
@@ -8198,7 +8202,7 @@
     <row r="177" spans="1:23" ht="15.75" customHeight="1">
       <c r="A177" s="33" t="str">
         <f t="shared" si="3"/>
-        <v>gdmt:Producer</v>
+        <v>gdmt:ProjectLeader</v>
       </c>
       <c r="B177" s="38" t="s">
         <v>345</v>
@@ -8210,7 +8214,7 @@
       </c>
       <c r="F177" s="39"/>
       <c r="G177" s="39" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="H177" s="39"/>
       <c r="I177" s="39"/>
@@ -8229,44 +8233,33 @@
       <c r="V177" s="2"/>
       <c r="W177" s="2"/>
     </row>
-    <row r="178" spans="1:23" ht="15.75" customHeight="1">
+    <row r="178" spans="1:23" ht="15" customHeight="1">
       <c r="A178" s="33" t="str">
         <f t="shared" si="3"/>
-        <v>gdmt:ProjectLeader</v>
-      </c>
-      <c r="B178" s="38" t="s">
+        <v>gdmt:ProjectManager</v>
+      </c>
+      <c r="B178" s="37" t="s">
         <v>346</v>
       </c>
-      <c r="C178" s="38"/>
-      <c r="D178" s="38"/>
+      <c r="C178" s="37"/>
+      <c r="D178" s="37"/>
       <c r="E178" s="37" t="s">
         <v>364</v>
       </c>
-      <c r="F178" s="39"/>
+      <c r="F178" s="37"/>
       <c r="G178" s="39" t="s">
-        <v>382</v>
-      </c>
-      <c r="H178" s="39"/>
-      <c r="I178" s="39"/>
-      <c r="J178" s="39"/>
-      <c r="K178" s="39"/>
-      <c r="L178" s="39"/>
-      <c r="M178" s="2"/>
-      <c r="N178" s="2"/>
-      <c r="O178" s="2"/>
-      <c r="P178" s="2"/>
-      <c r="Q178" s="2"/>
-      <c r="R178" s="2"/>
-      <c r="S178" s="2"/>
-      <c r="T178" s="2"/>
-      <c r="U178" s="2"/>
-      <c r="V178" s="2"/>
-      <c r="W178" s="2"/>
+        <v>381</v>
+      </c>
+      <c r="H178" s="37"/>
+      <c r="I178" s="37"/>
+      <c r="J178" s="37"/>
+      <c r="K178" s="37"/>
+      <c r="L178" s="37"/>
     </row>
     <row r="179" spans="1:23" ht="15" customHeight="1">
       <c r="A179" s="33" t="str">
         <f t="shared" si="3"/>
-        <v>gdmt:ProjectManager</v>
+        <v>gdmt:ProjectMember</v>
       </c>
       <c r="B179" s="37" t="s">
         <v>347</v>
@@ -8278,7 +8271,7 @@
       </c>
       <c r="F179" s="37"/>
       <c r="G179" s="39" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="H179" s="37"/>
       <c r="I179" s="37"/>
@@ -8289,7 +8282,7 @@
     <row r="180" spans="1:23" ht="15" customHeight="1">
       <c r="A180" s="33" t="str">
         <f t="shared" si="3"/>
-        <v>gdmt:ProjectMember</v>
+        <v>gdmt:RegistrationAgency</v>
       </c>
       <c r="B180" s="37" t="s">
         <v>348</v>
@@ -8301,7 +8294,7 @@
       </c>
       <c r="F180" s="37"/>
       <c r="G180" s="39" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="H180" s="37"/>
       <c r="I180" s="37"/>
@@ -8312,7 +8305,7 @@
     <row r="181" spans="1:23" ht="15" customHeight="1">
       <c r="A181" s="33" t="str">
         <f t="shared" si="3"/>
-        <v>gdmt:RegistrationAgency</v>
+        <v>gdmt:RegistrationAuthority</v>
       </c>
       <c r="B181" s="37" t="s">
         <v>349</v>
@@ -8324,7 +8317,7 @@
       </c>
       <c r="F181" s="37"/>
       <c r="G181" s="39" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="H181" s="37"/>
       <c r="I181" s="37"/>
@@ -8335,7 +8328,7 @@
     <row r="182" spans="1:23" ht="15" customHeight="1">
       <c r="A182" s="33" t="str">
         <f t="shared" si="3"/>
-        <v>gdmt:RegistrationAuthority</v>
+        <v>gdmt:RelatedPerson</v>
       </c>
       <c r="B182" s="37" t="s">
         <v>350</v>
@@ -8347,7 +8340,7 @@
       </c>
       <c r="F182" s="37"/>
       <c r="G182" s="39" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="H182" s="37"/>
       <c r="I182" s="37"/>
@@ -8355,33 +8348,44 @@
       <c r="K182" s="37"/>
       <c r="L182" s="37"/>
     </row>
-    <row r="183" spans="1:23" ht="15" customHeight="1">
+    <row r="183" spans="1:23" ht="15.75" customHeight="1">
       <c r="A183" s="33" t="str">
         <f t="shared" si="3"/>
-        <v>gdmt:RelatedPerson</v>
-      </c>
-      <c r="B183" s="37" t="s">
+        <v>gdmt:Researcher</v>
+      </c>
+      <c r="B183" s="38" t="s">
         <v>351</v>
       </c>
-      <c r="C183" s="37"/>
-      <c r="D183" s="37"/>
+      <c r="C183" s="38"/>
+      <c r="D183" s="38"/>
       <c r="E183" s="37" t="s">
         <v>369</v>
       </c>
-      <c r="F183" s="37"/>
+      <c r="F183" s="39"/>
       <c r="G183" s="39" t="s">
-        <v>382</v>
-      </c>
-      <c r="H183" s="37"/>
-      <c r="I183" s="37"/>
-      <c r="J183" s="37"/>
-      <c r="K183" s="37"/>
-      <c r="L183" s="37"/>
+        <v>381</v>
+      </c>
+      <c r="H183" s="39"/>
+      <c r="I183" s="39"/>
+      <c r="J183" s="39"/>
+      <c r="K183" s="39"/>
+      <c r="L183" s="39"/>
+      <c r="M183" s="2"/>
+      <c r="N183" s="2"/>
+      <c r="O183" s="2"/>
+      <c r="P183" s="2"/>
+      <c r="Q183" s="2"/>
+      <c r="R183" s="2"/>
+      <c r="S183" s="2"/>
+      <c r="T183" s="2"/>
+      <c r="U183" s="2"/>
+      <c r="V183" s="2"/>
+      <c r="W183" s="2"/>
     </row>
     <row r="184" spans="1:23" ht="15.75" customHeight="1">
       <c r="A184" s="33" t="str">
         <f t="shared" si="3"/>
-        <v>gdmt:Researcher</v>
+        <v>gdmt:ResearchGroup</v>
       </c>
       <c r="B184" s="38" t="s">
         <v>352</v>
@@ -8393,7 +8397,7 @@
       </c>
       <c r="F184" s="39"/>
       <c r="G184" s="39" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="H184" s="39"/>
       <c r="I184" s="39"/>
@@ -8415,7 +8419,7 @@
     <row r="185" spans="1:23" ht="15.75" customHeight="1">
       <c r="A185" s="33" t="str">
         <f t="shared" si="3"/>
-        <v>gdmt:ResearchGroup</v>
+        <v>gdmt:RightsHolder</v>
       </c>
       <c r="B185" s="38" t="s">
         <v>353</v>
@@ -8427,7 +8431,7 @@
       </c>
       <c r="F185" s="39"/>
       <c r="G185" s="39" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="H185" s="39"/>
       <c r="I185" s="39"/>
@@ -8449,7 +8453,7 @@
     <row r="186" spans="1:23" ht="15.75" customHeight="1">
       <c r="A186" s="33" t="str">
         <f t="shared" si="3"/>
-        <v>gdmt:RightsHolder</v>
+        <v>gdmt:Sponsor</v>
       </c>
       <c r="B186" s="38" t="s">
         <v>354</v>
@@ -8461,7 +8465,7 @@
       </c>
       <c r="F186" s="39"/>
       <c r="G186" s="39" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="H186" s="39"/>
       <c r="I186" s="39"/>
@@ -8483,7 +8487,7 @@
     <row r="187" spans="1:23" ht="15.75" customHeight="1">
       <c r="A187" s="33" t="str">
         <f t="shared" si="3"/>
-        <v>gdmt:Sponsor</v>
+        <v>gdmt:Supervisor</v>
       </c>
       <c r="B187" s="38" t="s">
         <v>355</v>
@@ -8495,7 +8499,7 @@
       </c>
       <c r="F187" s="39"/>
       <c r="G187" s="39" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="H187" s="39"/>
       <c r="I187" s="39"/>
@@ -8517,7 +8521,7 @@
     <row r="188" spans="1:23" ht="15.75" customHeight="1">
       <c r="A188" s="33" t="str">
         <f t="shared" si="3"/>
-        <v>gdmt:Supervisor</v>
+        <v>gdmt:WorkPackageLeader</v>
       </c>
       <c r="B188" s="38" t="s">
         <v>356</v>
@@ -8529,7 +8533,7 @@
       </c>
       <c r="F188" s="39"/>
       <c r="G188" s="39" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="H188" s="39"/>
       <c r="I188" s="39"/>
@@ -8551,7 +8555,7 @@
     <row r="189" spans="1:23" ht="15.75" customHeight="1">
       <c r="A189" s="33" t="str">
         <f t="shared" si="3"/>
-        <v>gdmt:WorkPackageLeader</v>
+        <v>gdmt:OtherRole</v>
       </c>
       <c r="B189" s="38" t="s">
         <v>357</v>
@@ -8563,7 +8567,7 @@
       </c>
       <c r="F189" s="39"/>
       <c r="G189" s="39" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="H189" s="39"/>
       <c r="I189" s="39"/>
@@ -8582,100 +8586,100 @@
       <c r="V189" s="2"/>
       <c r="W189" s="2"/>
     </row>
-    <row r="190" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A190" s="33" t="str">
-        <f t="shared" si="3"/>
-        <v>gdmt:OtherRole</v>
-      </c>
-      <c r="B190" s="38" t="s">
-        <v>358</v>
-      </c>
-      <c r="C190" s="38"/>
-      <c r="D190" s="38"/>
-      <c r="E190" s="37" t="s">
+    <row r="190" spans="1:23" ht="15" customHeight="1">
+      <c r="A190" s="40" t="str">
+        <f>"gdmt:"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B190," ",""),"-",""),"&amp;","")</f>
+        <v>gdmt:DateTypes</v>
+      </c>
+      <c r="B190" s="41" t="s">
+        <v>378</v>
+      </c>
+      <c r="C190" s="42"/>
+      <c r="D190" s="42"/>
+      <c r="E190" s="41" t="s">
+        <v>332</v>
+      </c>
+      <c r="F190" s="42"/>
+      <c r="G190" s="42"/>
+      <c r="H190" s="42"/>
+      <c r="I190" s="42"/>
+      <c r="J190" s="42"/>
+      <c r="K190" s="42"/>
+      <c r="L190" s="42"/>
+    </row>
+    <row r="191" spans="1:23" ht="15" customHeight="1">
+      <c r="A191" s="33" t="str">
+        <f>"gdmt:"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B191," ",""),"-",""),"&amp;","")</f>
+        <v>gdmt:Published</v>
+      </c>
+      <c r="B191" s="43" t="s">
         <v>376</v>
       </c>
-      <c r="F190" s="39"/>
-      <c r="G190" s="39" t="s">
-        <v>382</v>
-      </c>
-      <c r="H190" s="39"/>
-      <c r="I190" s="39"/>
-      <c r="J190" s="39"/>
-      <c r="K190" s="39"/>
-      <c r="L190" s="39"/>
-      <c r="M190" s="2"/>
-      <c r="N190" s="2"/>
-      <c r="O190" s="2"/>
-      <c r="P190" s="2"/>
-      <c r="Q190" s="2"/>
-      <c r="R190" s="2"/>
-      <c r="S190" s="2"/>
-      <c r="T190" s="2"/>
-      <c r="U190" s="2"/>
-      <c r="V190" s="2"/>
-      <c r="W190" s="2"/>
-    </row>
-    <row r="191" spans="1:23" ht="15" customHeight="1">
-      <c r="A191" s="40" t="str">
-        <f>"gdmt:"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B191," ",""),"-",""),"&amp;","")</f>
-        <v>gdmt:DateTypes</v>
-      </c>
-      <c r="B191" s="41" t="s">
-        <v>379</v>
-      </c>
-      <c r="C191" s="42"/>
-      <c r="D191" s="42"/>
-      <c r="E191" s="41" t="s">
-        <v>333</v>
-      </c>
-      <c r="F191" s="42"/>
-      <c r="G191" s="42"/>
-      <c r="H191" s="42"/>
-      <c r="I191" s="42"/>
-      <c r="J191" s="42"/>
-      <c r="K191" s="42"/>
-      <c r="L191" s="42"/>
-    </row>
-    <row r="192" spans="1:23" ht="15" customHeight="1">
+      <c r="C191" s="37"/>
+      <c r="D191" s="37"/>
+      <c r="E191" s="43" t="s">
+        <v>377</v>
+      </c>
+      <c r="F191" s="37"/>
+      <c r="G191" s="37" t="s">
+        <v>404</v>
+      </c>
+      <c r="H191" s="37"/>
+      <c r="I191" s="37"/>
+      <c r="J191" s="37"/>
+      <c r="K191" s="37"/>
+      <c r="L191" s="37"/>
+    </row>
+    <row r="192" spans="1:23" ht="15.75" customHeight="1">
       <c r="A192" s="33" t="str">
-        <f>"gdmt:"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B192," ",""),"-",""),"&amp;","")</f>
-        <v>gdmt:Published</v>
-      </c>
-      <c r="B192" s="43" t="s">
-        <v>377</v>
-      </c>
-      <c r="C192" s="37"/>
-      <c r="D192" s="37"/>
-      <c r="E192" s="43" t="s">
-        <v>378</v>
-      </c>
-      <c r="F192" s="37"/>
-      <c r="G192" s="37" t="s">
-        <v>405</v>
-      </c>
-      <c r="H192" s="37"/>
-      <c r="I192" s="37"/>
-      <c r="J192" s="37"/>
-      <c r="K192" s="37"/>
-      <c r="L192" s="37"/>
+        <f t="shared" ref="A192:A255" si="4">"gdmt:"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B192," ",""),"-",""),"&amp;","")</f>
+        <v>gdmt:Accepted</v>
+      </c>
+      <c r="B192" s="44" t="s">
+        <v>384</v>
+      </c>
+      <c r="C192" s="44"/>
+      <c r="D192" s="44"/>
+      <c r="E192" s="44" t="s">
+        <v>385</v>
+      </c>
+      <c r="F192" s="44"/>
+      <c r="G192" s="44" t="s">
+        <v>404</v>
+      </c>
+      <c r="H192" s="44"/>
+      <c r="I192" s="44"/>
+      <c r="J192" s="44"/>
+      <c r="K192" s="44"/>
+      <c r="L192" s="44"/>
+      <c r="M192" s="2"/>
+      <c r="N192" s="2"/>
+      <c r="O192" s="2"/>
+      <c r="P192" s="2"/>
+      <c r="Q192" s="2"/>
+      <c r="R192" s="2"/>
+      <c r="S192" s="2"/>
+      <c r="T192" s="2"/>
+      <c r="U192" s="2"/>
+      <c r="V192" s="2"/>
+      <c r="W192" s="2"/>
     </row>
     <row r="193" spans="1:23" ht="15.75" customHeight="1">
       <c r="A193" s="33" t="str">
-        <f t="shared" ref="A193:A256" si="4">"gdmt:"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B193," ",""),"-",""),"&amp;","")</f>
-        <v>gdmt:Accepted</v>
+        <f t="shared" si="4"/>
+        <v>gdmt:Available</v>
       </c>
       <c r="B193" s="44" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C193" s="44"/>
       <c r="D193" s="44"/>
       <c r="E193" s="44" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="F193" s="44"/>
       <c r="G193" s="44" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H193" s="44"/>
       <c r="I193" s="44"/>
@@ -8697,19 +8701,19 @@
     <row r="194" spans="1:23" ht="15.75" customHeight="1">
       <c r="A194" s="33" t="str">
         <f t="shared" si="4"/>
-        <v>gdmt:Available</v>
+        <v>gdmt:Copyrighted</v>
       </c>
       <c r="B194" s="44" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C194" s="44"/>
       <c r="D194" s="44"/>
       <c r="E194" s="44" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="F194" s="44"/>
       <c r="G194" s="44" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H194" s="44"/>
       <c r="I194" s="44"/>
@@ -8731,19 +8735,19 @@
     <row r="195" spans="1:23" ht="15.75" customHeight="1">
       <c r="A195" s="33" t="str">
         <f t="shared" si="4"/>
-        <v>gdmt:Copyrighted</v>
+        <v>gdmt:Collected</v>
       </c>
       <c r="B195" s="44" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C195" s="44"/>
       <c r="D195" s="44"/>
       <c r="E195" s="44" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="F195" s="44"/>
       <c r="G195" s="44" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H195" s="44"/>
       <c r="I195" s="44"/>
@@ -8765,25 +8769,25 @@
     <row r="196" spans="1:23" ht="15.75" customHeight="1">
       <c r="A196" s="33" t="str">
         <f t="shared" si="4"/>
-        <v>gdmt:Collected</v>
-      </c>
-      <c r="B196" s="44" t="s">
-        <v>391</v>
-      </c>
-      <c r="C196" s="44"/>
-      <c r="D196" s="44"/>
-      <c r="E196" s="44" t="s">
+        <v>gdmt:Created</v>
+      </c>
+      <c r="B196" s="45" t="s">
         <v>392</v>
       </c>
-      <c r="F196" s="44"/>
-      <c r="G196" s="44" t="s">
-        <v>405</v>
-      </c>
-      <c r="H196" s="44"/>
-      <c r="I196" s="44"/>
-      <c r="J196" s="44"/>
-      <c r="K196" s="44"/>
-      <c r="L196" s="44"/>
+      <c r="C196" s="45"/>
+      <c r="D196" s="45"/>
+      <c r="E196" s="45" t="s">
+        <v>393</v>
+      </c>
+      <c r="F196" s="45"/>
+      <c r="G196" s="45" t="s">
+        <v>404</v>
+      </c>
+      <c r="H196" s="45"/>
+      <c r="I196" s="45"/>
+      <c r="J196" s="45"/>
+      <c r="K196" s="45"/>
+      <c r="L196" s="45"/>
       <c r="M196" s="2"/>
       <c r="N196" s="2"/>
       <c r="O196" s="2"/>
@@ -8799,25 +8803,25 @@
     <row r="197" spans="1:23" ht="15.75" customHeight="1">
       <c r="A197" s="33" t="str">
         <f t="shared" si="4"/>
-        <v>gdmt:Created</v>
-      </c>
-      <c r="B197" s="45" t="s">
-        <v>393</v>
-      </c>
-      <c r="C197" s="45"/>
-      <c r="D197" s="45"/>
-      <c r="E197" s="45" t="s">
+        <v>gdmt:Issued</v>
+      </c>
+      <c r="B197" s="44" t="s">
         <v>394</v>
       </c>
-      <c r="F197" s="45"/>
-      <c r="G197" s="45" t="s">
-        <v>405</v>
-      </c>
-      <c r="H197" s="45"/>
-      <c r="I197" s="45"/>
-      <c r="J197" s="45"/>
-      <c r="K197" s="45"/>
-      <c r="L197" s="45"/>
+      <c r="C197" s="44"/>
+      <c r="D197" s="44"/>
+      <c r="E197" s="44" t="s">
+        <v>395</v>
+      </c>
+      <c r="F197" s="44"/>
+      <c r="G197" s="44" t="s">
+        <v>404</v>
+      </c>
+      <c r="H197" s="44"/>
+      <c r="I197" s="44"/>
+      <c r="J197" s="44"/>
+      <c r="K197" s="44"/>
+      <c r="L197" s="44"/>
       <c r="M197" s="2"/>
       <c r="N197" s="2"/>
       <c r="O197" s="2"/>
@@ -8833,25 +8837,25 @@
     <row r="198" spans="1:23" ht="15.75" customHeight="1">
       <c r="A198" s="33" t="str">
         <f t="shared" si="4"/>
-        <v>gdmt:Issued</v>
-      </c>
-      <c r="B198" s="44" t="s">
-        <v>395</v>
-      </c>
-      <c r="C198" s="44"/>
-      <c r="D198" s="44"/>
-      <c r="E198" s="44" t="s">
+        <v>gdmt:Submitted</v>
+      </c>
+      <c r="B198" s="45" t="s">
         <v>396</v>
       </c>
-      <c r="F198" s="44"/>
-      <c r="G198" s="44" t="s">
-        <v>405</v>
-      </c>
-      <c r="H198" s="44"/>
-      <c r="I198" s="44"/>
-      <c r="J198" s="44"/>
-      <c r="K198" s="44"/>
-      <c r="L198" s="44"/>
+      <c r="C198" s="45"/>
+      <c r="D198" s="45"/>
+      <c r="E198" s="45" t="s">
+        <v>397</v>
+      </c>
+      <c r="F198" s="45"/>
+      <c r="G198" s="45" t="s">
+        <v>404</v>
+      </c>
+      <c r="H198" s="45"/>
+      <c r="I198" s="45"/>
+      <c r="J198" s="45"/>
+      <c r="K198" s="45"/>
+      <c r="L198" s="45"/>
       <c r="M198" s="2"/>
       <c r="N198" s="2"/>
       <c r="O198" s="2"/>
@@ -8867,25 +8871,25 @@
     <row r="199" spans="1:23" ht="15.75" customHeight="1">
       <c r="A199" s="33" t="str">
         <f t="shared" si="4"/>
-        <v>gdmt:Submitted</v>
-      </c>
-      <c r="B199" s="45" t="s">
-        <v>397</v>
-      </c>
-      <c r="C199" s="45"/>
-      <c r="D199" s="45"/>
-      <c r="E199" s="45" t="s">
+        <v>gdmt:Updated</v>
+      </c>
+      <c r="B199" s="44" t="s">
         <v>398</v>
       </c>
-      <c r="F199" s="45"/>
-      <c r="G199" s="45" t="s">
-        <v>405</v>
-      </c>
-      <c r="H199" s="45"/>
-      <c r="I199" s="45"/>
-      <c r="J199" s="45"/>
-      <c r="K199" s="45"/>
-      <c r="L199" s="45"/>
+      <c r="C199" s="44"/>
+      <c r="D199" s="44"/>
+      <c r="E199" s="44" t="s">
+        <v>399</v>
+      </c>
+      <c r="F199" s="44"/>
+      <c r="G199" s="44" t="s">
+        <v>404</v>
+      </c>
+      <c r="H199" s="44"/>
+      <c r="I199" s="44"/>
+      <c r="J199" s="44"/>
+      <c r="K199" s="44"/>
+      <c r="L199" s="44"/>
       <c r="M199" s="2"/>
       <c r="N199" s="2"/>
       <c r="O199" s="2"/>
@@ -8901,19 +8905,19 @@
     <row r="200" spans="1:23" ht="15.75" customHeight="1">
       <c r="A200" s="33" t="str">
         <f t="shared" si="4"/>
-        <v>gdmt:Updated</v>
+        <v>gdmt:Valid</v>
       </c>
       <c r="B200" s="44" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C200" s="44"/>
       <c r="D200" s="44"/>
       <c r="E200" s="44" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="F200" s="44"/>
       <c r="G200" s="44" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H200" s="44"/>
       <c r="I200" s="44"/>
@@ -8935,19 +8939,19 @@
     <row r="201" spans="1:23" ht="15.75" customHeight="1">
       <c r="A201" s="33" t="str">
         <f t="shared" si="4"/>
-        <v>gdmt:Valid</v>
+        <v>gdmt:Withdrawn</v>
       </c>
       <c r="B201" s="44" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C201" s="44"/>
       <c r="D201" s="44"/>
       <c r="E201" s="44" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="F201" s="44"/>
       <c r="G201" s="44" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H201" s="44"/>
       <c r="I201" s="44"/>
@@ -8967,27 +8971,23 @@
       <c r="W201" s="2"/>
     </row>
     <row r="202" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A202" s="33" t="str">
+      <c r="A202" s="47" t="str">
         <f t="shared" si="4"/>
-        <v>gdmt:Withdrawn</v>
-      </c>
-      <c r="B202" s="44" t="s">
-        <v>403</v>
-      </c>
-      <c r="C202" s="44"/>
-      <c r="D202" s="44"/>
-      <c r="E202" s="44" t="s">
-        <v>404</v>
-      </c>
-      <c r="F202" s="44"/>
-      <c r="G202" s="44" t="s">
-        <v>405</v>
-      </c>
-      <c r="H202" s="44"/>
-      <c r="I202" s="44"/>
-      <c r="J202" s="44"/>
-      <c r="K202" s="44"/>
-      <c r="L202" s="44"/>
+        <v>gdmt:RelatedIdentifierTypes</v>
+      </c>
+      <c r="B202" s="47" t="s">
+        <v>380</v>
+      </c>
+      <c r="C202" s="47"/>
+      <c r="D202" s="47"/>
+      <c r="E202" s="48"/>
+      <c r="F202" s="49"/>
+      <c r="G202" s="49"/>
+      <c r="H202" s="49"/>
+      <c r="I202" s="49"/>
+      <c r="J202" s="49"/>
+      <c r="K202" s="49"/>
+      <c r="L202" s="49"/>
       <c r="M202" s="2"/>
       <c r="N202" s="2"/>
       <c r="O202" s="2"/>
@@ -9001,23 +9001,27 @@
       <c r="W202" s="2"/>
     </row>
     <row r="203" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A203" s="47" t="str">
+      <c r="A203" s="38" t="str">
         <f t="shared" si="4"/>
-        <v>gdmt:RelatedIdentifierTypes</v>
-      </c>
-      <c r="B203" s="47" t="s">
-        <v>381</v>
-      </c>
-      <c r="C203" s="47"/>
-      <c r="D203" s="47"/>
-      <c r="E203" s="48"/>
-      <c r="F203" s="49"/>
-      <c r="G203" s="49"/>
-      <c r="H203" s="49"/>
-      <c r="I203" s="49"/>
-      <c r="J203" s="49"/>
-      <c r="K203" s="49"/>
-      <c r="L203" s="49"/>
+        <v>gdmt:ARK</v>
+      </c>
+      <c r="B203" s="44" t="s">
+        <v>408</v>
+      </c>
+      <c r="C203" s="44"/>
+      <c r="D203" s="44"/>
+      <c r="E203" s="46" t="s">
+        <v>440</v>
+      </c>
+      <c r="F203" s="46"/>
+      <c r="G203" s="46" t="s">
+        <v>407</v>
+      </c>
+      <c r="H203" s="46"/>
+      <c r="I203" s="46"/>
+      <c r="J203" s="46"/>
+      <c r="K203" s="46"/>
+      <c r="L203" s="46"/>
       <c r="M203" s="2"/>
       <c r="N203" s="2"/>
       <c r="O203" s="2"/>
@@ -9033,25 +9037,25 @@
     <row r="204" spans="1:23" ht="15.75" customHeight="1">
       <c r="A204" s="38" t="str">
         <f t="shared" si="4"/>
-        <v>gdmt:ARK</v>
+        <v>gdmt:arXiv</v>
       </c>
       <c r="B204" s="44" t="s">
         <v>409</v>
       </c>
       <c r="C204" s="44"/>
       <c r="D204" s="44"/>
-      <c r="E204" s="46" t="s">
-        <v>441</v>
-      </c>
-      <c r="F204" s="46"/>
-      <c r="G204" s="46" t="s">
-        <v>408</v>
-      </c>
-      <c r="H204" s="46"/>
-      <c r="I204" s="46"/>
-      <c r="J204" s="46"/>
-      <c r="K204" s="46"/>
-      <c r="L204" s="46"/>
+      <c r="E204" s="44" t="s">
+        <v>410</v>
+      </c>
+      <c r="F204" s="44"/>
+      <c r="G204" s="44" t="s">
+        <v>407</v>
+      </c>
+      <c r="H204" s="44"/>
+      <c r="I204" s="44"/>
+      <c r="J204" s="44"/>
+      <c r="K204" s="44"/>
+      <c r="L204" s="44"/>
       <c r="M204" s="2"/>
       <c r="N204" s="2"/>
       <c r="O204" s="2"/>
@@ -9067,25 +9071,25 @@
     <row r="205" spans="1:23" ht="15.75" customHeight="1">
       <c r="A205" s="38" t="str">
         <f t="shared" si="4"/>
-        <v>gdmt:arXiv</v>
+        <v>gdmt:bibcode</v>
       </c>
       <c r="B205" s="44" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C205" s="44"/>
       <c r="D205" s="44"/>
-      <c r="E205" s="44" t="s">
-        <v>411</v>
-      </c>
-      <c r="F205" s="44"/>
-      <c r="G205" s="44" t="s">
-        <v>408</v>
-      </c>
-      <c r="H205" s="44"/>
-      <c r="I205" s="44"/>
-      <c r="J205" s="44"/>
-      <c r="K205" s="44"/>
-      <c r="L205" s="44"/>
+      <c r="E205" s="46" t="s">
+        <v>441</v>
+      </c>
+      <c r="F205" s="46"/>
+      <c r="G205" s="46" t="s">
+        <v>407</v>
+      </c>
+      <c r="H205" s="46"/>
+      <c r="I205" s="46"/>
+      <c r="J205" s="46"/>
+      <c r="K205" s="46"/>
+      <c r="L205" s="46"/>
       <c r="M205" s="2"/>
       <c r="N205" s="2"/>
       <c r="O205" s="2"/>
@@ -9101,25 +9105,25 @@
     <row r="206" spans="1:23" ht="15.75" customHeight="1">
       <c r="A206" s="38" t="str">
         <f t="shared" si="4"/>
-        <v>gdmt:bibcode</v>
+        <v>gdmt:DOI</v>
       </c>
       <c r="B206" s="44" t="s">
         <v>412</v>
       </c>
       <c r="C206" s="44"/>
       <c r="D206" s="44"/>
-      <c r="E206" s="46" t="s">
-        <v>442</v>
-      </c>
-      <c r="F206" s="46"/>
-      <c r="G206" s="46" t="s">
-        <v>408</v>
-      </c>
-      <c r="H206" s="46"/>
-      <c r="I206" s="46"/>
-      <c r="J206" s="46"/>
-      <c r="K206" s="46"/>
-      <c r="L206" s="46"/>
+      <c r="E206" s="44" t="s">
+        <v>413</v>
+      </c>
+      <c r="F206" s="44"/>
+      <c r="G206" s="44" t="s">
+        <v>407</v>
+      </c>
+      <c r="H206" s="44"/>
+      <c r="I206" s="44"/>
+      <c r="J206" s="44"/>
+      <c r="K206" s="44"/>
+      <c r="L206" s="44"/>
       <c r="M206" s="2"/>
       <c r="N206" s="2"/>
       <c r="O206" s="2"/>
@@ -9135,19 +9139,19 @@
     <row r="207" spans="1:23" ht="15.75" customHeight="1">
       <c r="A207" s="38" t="str">
         <f t="shared" si="4"/>
-        <v>gdmt:DOI</v>
+        <v>gdmt:EAN13</v>
       </c>
       <c r="B207" s="44" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C207" s="44"/>
       <c r="D207" s="44"/>
       <c r="E207" s="44" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="F207" s="44"/>
       <c r="G207" s="44" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="H207" s="44"/>
       <c r="I207" s="44"/>
@@ -9169,7 +9173,7 @@
     <row r="208" spans="1:23" ht="15.75" customHeight="1">
       <c r="A208" s="38" t="str">
         <f t="shared" si="4"/>
-        <v>gdmt:EAN13</v>
+        <v>gdmt:EISSN</v>
       </c>
       <c r="B208" s="44" t="s">
         <v>415</v>
@@ -9177,11 +9181,11 @@
       <c r="C208" s="44"/>
       <c r="D208" s="44"/>
       <c r="E208" s="44" t="s">
-        <v>406</v>
+        <v>416</v>
       </c>
       <c r="F208" s="44"/>
       <c r="G208" s="44" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="H208" s="44"/>
       <c r="I208" s="44"/>
@@ -9203,19 +9207,19 @@
     <row r="209" spans="1:23" ht="15.75" customHeight="1">
       <c r="A209" s="38" t="str">
         <f t="shared" si="4"/>
-        <v>gdmt:EISSN</v>
+        <v>gdmt:Handle</v>
       </c>
       <c r="B209" s="44" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C209" s="44"/>
       <c r="D209" s="44"/>
       <c r="E209" s="44" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="F209" s="44"/>
       <c r="G209" s="44" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="H209" s="44"/>
       <c r="I209" s="44"/>
@@ -9237,19 +9241,19 @@
     <row r="210" spans="1:23" ht="15.75" customHeight="1">
       <c r="A210" s="38" t="str">
         <f t="shared" si="4"/>
-        <v>gdmt:Handle</v>
+        <v>gdmt:IGSN</v>
       </c>
       <c r="B210" s="44" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C210" s="44"/>
       <c r="D210" s="44"/>
       <c r="E210" s="44" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="F210" s="44"/>
       <c r="G210" s="44" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="H210" s="44"/>
       <c r="I210" s="44"/>
@@ -9271,19 +9275,19 @@
     <row r="211" spans="1:23" ht="15.75" customHeight="1">
       <c r="A211" s="38" t="str">
         <f t="shared" si="4"/>
-        <v>gdmt:IGSN</v>
+        <v>gdmt:ISBN</v>
       </c>
       <c r="B211" s="44" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C211" s="44"/>
       <c r="D211" s="44"/>
       <c r="E211" s="44" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="F211" s="44"/>
       <c r="G211" s="44" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="H211" s="44"/>
       <c r="I211" s="44"/>
@@ -9305,19 +9309,19 @@
     <row r="212" spans="1:23" ht="15.75" customHeight="1">
       <c r="A212" s="38" t="str">
         <f t="shared" si="4"/>
-        <v>gdmt:ISBN</v>
+        <v>gdmt:ISSN</v>
       </c>
       <c r="B212" s="44" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C212" s="44"/>
       <c r="D212" s="44"/>
       <c r="E212" s="44" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="F212" s="44"/>
       <c r="G212" s="44" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="H212" s="44"/>
       <c r="I212" s="44"/>
@@ -9339,19 +9343,19 @@
     <row r="213" spans="1:23" ht="15.75" customHeight="1">
       <c r="A213" s="38" t="str">
         <f t="shared" si="4"/>
-        <v>gdmt:ISSN</v>
+        <v>gdmt:ISTC</v>
       </c>
       <c r="B213" s="44" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C213" s="44"/>
       <c r="D213" s="44"/>
       <c r="E213" s="44" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="F213" s="44"/>
       <c r="G213" s="44" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="H213" s="44"/>
       <c r="I213" s="44"/>
@@ -9373,19 +9377,19 @@
     <row r="214" spans="1:23" ht="15.75" customHeight="1">
       <c r="A214" s="38" t="str">
         <f t="shared" si="4"/>
-        <v>gdmt:ISTC</v>
+        <v>gdmt:LISSN</v>
       </c>
       <c r="B214" s="44" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C214" s="44"/>
       <c r="D214" s="44"/>
       <c r="E214" s="44" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="F214" s="44"/>
       <c r="G214" s="44" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="H214" s="44"/>
       <c r="I214" s="44"/>
@@ -9407,19 +9411,19 @@
     <row r="215" spans="1:23" ht="15.75" customHeight="1">
       <c r="A215" s="38" t="str">
         <f t="shared" si="4"/>
-        <v>gdmt:LISSN</v>
+        <v>gdmt:LSID</v>
       </c>
       <c r="B215" s="44" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C215" s="44"/>
       <c r="D215" s="44"/>
       <c r="E215" s="44" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="F215" s="44"/>
       <c r="G215" s="44" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="H215" s="44"/>
       <c r="I215" s="44"/>
@@ -9441,19 +9445,19 @@
     <row r="216" spans="1:23" ht="15.75" customHeight="1">
       <c r="A216" s="38" t="str">
         <f t="shared" si="4"/>
-        <v>gdmt:LSID</v>
+        <v>gdmt:PMID</v>
       </c>
       <c r="B216" s="44" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C216" s="44"/>
       <c r="D216" s="44"/>
       <c r="E216" s="44" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="F216" s="44"/>
       <c r="G216" s="44" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="H216" s="44"/>
       <c r="I216" s="44"/>
@@ -9475,25 +9479,25 @@
     <row r="217" spans="1:23" ht="15.75" customHeight="1">
       <c r="A217" s="38" t="str">
         <f t="shared" si="4"/>
-        <v>gdmt:PMID</v>
+        <v>gdmt:PURL</v>
       </c>
       <c r="B217" s="44" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C217" s="44"/>
       <c r="D217" s="44"/>
-      <c r="E217" s="44" t="s">
-        <v>433</v>
-      </c>
-      <c r="F217" s="44"/>
-      <c r="G217" s="44" t="s">
-        <v>408</v>
-      </c>
-      <c r="H217" s="44"/>
-      <c r="I217" s="44"/>
-      <c r="J217" s="44"/>
-      <c r="K217" s="44"/>
-      <c r="L217" s="44"/>
+      <c r="E217" s="46" t="s">
+        <v>442</v>
+      </c>
+      <c r="F217" s="46"/>
+      <c r="G217" s="46" t="s">
+        <v>407</v>
+      </c>
+      <c r="H217" s="46"/>
+      <c r="I217" s="46"/>
+      <c r="J217" s="46"/>
+      <c r="K217" s="46"/>
+      <c r="L217" s="46"/>
       <c r="M217" s="2"/>
       <c r="N217" s="2"/>
       <c r="O217" s="2"/>
@@ -9509,25 +9513,25 @@
     <row r="218" spans="1:23" ht="15.75" customHeight="1">
       <c r="A218" s="38" t="str">
         <f t="shared" si="4"/>
-        <v>gdmt:PURL</v>
+        <v>gdmt:UPC</v>
       </c>
       <c r="B218" s="44" t="s">
         <v>434</v>
       </c>
       <c r="C218" s="44"/>
       <c r="D218" s="44"/>
-      <c r="E218" s="46" t="s">
-        <v>443</v>
-      </c>
-      <c r="F218" s="46"/>
-      <c r="G218" s="46" t="s">
-        <v>408</v>
-      </c>
-      <c r="H218" s="46"/>
-      <c r="I218" s="46"/>
-      <c r="J218" s="46"/>
-      <c r="K218" s="46"/>
-      <c r="L218" s="46"/>
+      <c r="E218" s="44" t="s">
+        <v>435</v>
+      </c>
+      <c r="F218" s="44"/>
+      <c r="G218" s="44" t="s">
+        <v>407</v>
+      </c>
+      <c r="H218" s="44"/>
+      <c r="I218" s="44"/>
+      <c r="J218" s="44"/>
+      <c r="K218" s="44"/>
+      <c r="L218" s="44"/>
       <c r="M218" s="2"/>
       <c r="N218" s="2"/>
       <c r="O218" s="2"/>
@@ -9543,19 +9547,19 @@
     <row r="219" spans="1:23" ht="15.75" customHeight="1">
       <c r="A219" s="38" t="str">
         <f t="shared" si="4"/>
-        <v>gdmt:UPC</v>
+        <v>gdmt:URL</v>
       </c>
       <c r="B219" s="44" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C219" s="44"/>
       <c r="D219" s="44"/>
       <c r="E219" s="44" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="F219" s="44"/>
       <c r="G219" s="44" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="H219" s="44"/>
       <c r="I219" s="44"/>
@@ -9577,25 +9581,25 @@
     <row r="220" spans="1:23" ht="15.75" customHeight="1">
       <c r="A220" s="38" t="str">
         <f t="shared" si="4"/>
-        <v>gdmt:URL</v>
+        <v>gdmt:URN</v>
       </c>
       <c r="B220" s="44" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C220" s="44"/>
       <c r="D220" s="44"/>
-      <c r="E220" s="44" t="s">
-        <v>438</v>
-      </c>
-      <c r="F220" s="44"/>
-      <c r="G220" s="44" t="s">
-        <v>408</v>
-      </c>
-      <c r="H220" s="44"/>
-      <c r="I220" s="44"/>
-      <c r="J220" s="44"/>
-      <c r="K220" s="44"/>
-      <c r="L220" s="44"/>
+      <c r="E220" s="46" t="s">
+        <v>443</v>
+      </c>
+      <c r="F220" s="46"/>
+      <c r="G220" s="46" t="s">
+        <v>407</v>
+      </c>
+      <c r="H220" s="46"/>
+      <c r="I220" s="46"/>
+      <c r="J220" s="46"/>
+      <c r="K220" s="46"/>
+      <c r="L220" s="46"/>
       <c r="M220" s="2"/>
       <c r="N220" s="2"/>
       <c r="O220" s="2"/>
@@ -9611,25 +9615,25 @@
     <row r="221" spans="1:23" ht="15.75" customHeight="1">
       <c r="A221" s="38" t="str">
         <f t="shared" si="4"/>
-        <v>gdmt:URN</v>
+        <v>gdmt:w3id</v>
       </c>
       <c r="B221" s="44" t="s">
         <v>439</v>
       </c>
       <c r="C221" s="44"/>
       <c r="D221" s="44"/>
-      <c r="E221" s="46" t="s">
-        <v>444</v>
-      </c>
-      <c r="F221" s="46"/>
-      <c r="G221" s="46" t="s">
-        <v>408</v>
-      </c>
-      <c r="H221" s="46"/>
-      <c r="I221" s="46"/>
-      <c r="J221" s="46"/>
-      <c r="K221" s="46"/>
-      <c r="L221" s="46"/>
+      <c r="E221" s="44" t="s">
+        <v>406</v>
+      </c>
+      <c r="F221" s="44"/>
+      <c r="G221" s="44" t="s">
+        <v>407</v>
+      </c>
+      <c r="H221" s="44"/>
+      <c r="I221" s="44"/>
+      <c r="J221" s="44"/>
+      <c r="K221" s="44"/>
+      <c r="L221" s="44"/>
       <c r="M221" s="2"/>
       <c r="N221" s="2"/>
       <c r="O221" s="2"/>
@@ -9643,27 +9647,27 @@
       <c r="W221" s="2"/>
     </row>
     <row r="222" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A222" s="38" t="str">
+      <c r="A222" s="50" t="str">
         <f t="shared" si="4"/>
-        <v>gdmt:w3id</v>
-      </c>
-      <c r="B222" s="44" t="s">
-        <v>440</v>
-      </c>
-      <c r="C222" s="44"/>
-      <c r="D222" s="44"/>
-      <c r="E222" s="44" t="s">
+        <v>gdmt:IRI</v>
+      </c>
+      <c r="B222" s="50" t="s">
+        <v>444</v>
+      </c>
+      <c r="C222" s="50"/>
+      <c r="D222" s="50"/>
+      <c r="E222" s="51" t="s">
+        <v>445</v>
+      </c>
+      <c r="F222" s="51"/>
+      <c r="G222" s="44" t="s">
         <v>407</v>
       </c>
-      <c r="F222" s="44"/>
-      <c r="G222" s="44" t="s">
-        <v>408</v>
-      </c>
-      <c r="H222" s="44"/>
-      <c r="I222" s="44"/>
-      <c r="J222" s="44"/>
-      <c r="K222" s="44"/>
-      <c r="L222" s="44"/>
+      <c r="H222" s="51"/>
+      <c r="I222" s="51"/>
+      <c r="J222" s="51"/>
+      <c r="K222" s="51"/>
+      <c r="L222" s="51"/>
       <c r="M222" s="2"/>
       <c r="N222" s="2"/>
       <c r="O222" s="2"/>
@@ -9677,27 +9681,23 @@
       <c r="W222" s="2"/>
     </row>
     <row r="223" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A223" s="50" t="str">
+      <c r="A223" s="47" t="str">
         <f t="shared" si="4"/>
-        <v>gdmt:IRI</v>
-      </c>
-      <c r="B223" s="50" t="s">
-        <v>445</v>
-      </c>
-      <c r="C223" s="50"/>
-      <c r="D223" s="50"/>
-      <c r="E223" s="51" t="s">
+        <v>gdmt:RelationTypes</v>
+      </c>
+      <c r="B223" s="47" t="s">
         <v>446</v>
       </c>
-      <c r="F223" s="51"/>
-      <c r="G223" s="44" t="s">
-        <v>408</v>
-      </c>
-      <c r="H223" s="51"/>
-      <c r="I223" s="51"/>
-      <c r="J223" s="51"/>
-      <c r="K223" s="51"/>
-      <c r="L223" s="51"/>
+      <c r="C223" s="47"/>
+      <c r="D223" s="47"/>
+      <c r="E223" s="48"/>
+      <c r="F223" s="49"/>
+      <c r="G223" s="49"/>
+      <c r="H223" s="49"/>
+      <c r="I223" s="49"/>
+      <c r="J223" s="49"/>
+      <c r="K223" s="49"/>
+      <c r="L223" s="49"/>
       <c r="M223" s="2"/>
       <c r="N223" s="2"/>
       <c r="O223" s="2"/>
@@ -9711,23 +9711,27 @@
       <c r="W223" s="2"/>
     </row>
     <row r="224" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A224" s="47" t="str">
+      <c r="A224" s="50" t="str">
         <f t="shared" si="4"/>
-        <v>gdmt:RelationTypes</v>
-      </c>
-      <c r="B224" s="47" t="s">
+        <v>gdmt:IsCitedBy</v>
+      </c>
+      <c r="B224" s="51" t="s">
+        <v>448</v>
+      </c>
+      <c r="C224" s="51"/>
+      <c r="D224" s="51"/>
+      <c r="E224" s="51" t="s">
+        <v>449</v>
+      </c>
+      <c r="F224" s="51"/>
+      <c r="G224" s="51" t="s">
         <v>447</v>
       </c>
-      <c r="C224" s="47"/>
-      <c r="D224" s="47"/>
-      <c r="E224" s="48"/>
-      <c r="F224" s="49"/>
-      <c r="G224" s="49"/>
-      <c r="H224" s="49"/>
-      <c r="I224" s="49"/>
-      <c r="J224" s="49"/>
-      <c r="K224" s="49"/>
-      <c r="L224" s="49"/>
+      <c r="H224" s="51"/>
+      <c r="I224" s="51"/>
+      <c r="J224" s="51"/>
+      <c r="K224" s="51"/>
+      <c r="L224" s="52"/>
       <c r="M224" s="2"/>
       <c r="N224" s="2"/>
       <c r="O224" s="2"/>
@@ -9743,19 +9747,19 @@
     <row r="225" spans="1:23" ht="15.75" customHeight="1">
       <c r="A225" s="50" t="str">
         <f t="shared" si="4"/>
-        <v>gdmt:IsCitedBy</v>
+        <v>gdmt:Cites</v>
       </c>
       <c r="B225" s="51" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C225" s="51"/>
       <c r="D225" s="51"/>
       <c r="E225" s="51" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="F225" s="51"/>
       <c r="G225" s="51" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H225" s="51"/>
       <c r="I225" s="51"/>
@@ -9777,19 +9781,19 @@
     <row r="226" spans="1:23" ht="15.75" customHeight="1">
       <c r="A226" s="50" t="str">
         <f t="shared" si="4"/>
-        <v>gdmt:Cites</v>
+        <v>gdmt:IsSupplementTo</v>
       </c>
       <c r="B226" s="51" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C226" s="51"/>
       <c r="D226" s="51"/>
       <c r="E226" s="51" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="F226" s="51"/>
       <c r="G226" s="51" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H226" s="51"/>
       <c r="I226" s="51"/>
@@ -9811,19 +9815,19 @@
     <row r="227" spans="1:23" ht="15.75" customHeight="1">
       <c r="A227" s="50" t="str">
         <f t="shared" si="4"/>
-        <v>gdmt:IsSupplementTo</v>
+        <v>gdmt:IsSupplementedBy</v>
       </c>
       <c r="B227" s="51" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C227" s="51"/>
       <c r="D227" s="51"/>
       <c r="E227" s="51" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="F227" s="51"/>
       <c r="G227" s="51" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H227" s="51"/>
       <c r="I227" s="51"/>
@@ -9845,19 +9849,19 @@
     <row r="228" spans="1:23" ht="15.75" customHeight="1">
       <c r="A228" s="50" t="str">
         <f t="shared" si="4"/>
-        <v>gdmt:IsSupplementedBy</v>
+        <v>gdmt:IsContinuedBy</v>
       </c>
       <c r="B228" s="51" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C228" s="51"/>
       <c r="D228" s="51"/>
       <c r="E228" s="51" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="F228" s="51"/>
       <c r="G228" s="51" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H228" s="51"/>
       <c r="I228" s="51"/>
@@ -9879,19 +9883,19 @@
     <row r="229" spans="1:23" ht="15.75" customHeight="1">
       <c r="A229" s="50" t="str">
         <f t="shared" si="4"/>
-        <v>gdmt:IsContinuedBy</v>
+        <v>gdmt:Continues</v>
       </c>
       <c r="B229" s="51" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C229" s="51"/>
       <c r="D229" s="51"/>
       <c r="E229" s="51" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="F229" s="51"/>
       <c r="G229" s="51" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H229" s="51"/>
       <c r="I229" s="51"/>
@@ -9913,19 +9917,19 @@
     <row r="230" spans="1:23" ht="15.75" customHeight="1">
       <c r="A230" s="50" t="str">
         <f t="shared" si="4"/>
-        <v>gdmt:Continues</v>
+        <v>gdmt:Describes</v>
       </c>
       <c r="B230" s="51" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C230" s="51"/>
       <c r="D230" s="51"/>
       <c r="E230" s="51" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="F230" s="51"/>
       <c r="G230" s="51" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H230" s="51"/>
       <c r="I230" s="51"/>
@@ -9947,19 +9951,19 @@
     <row r="231" spans="1:23" ht="15.75" customHeight="1">
       <c r="A231" s="50" t="str">
         <f t="shared" si="4"/>
-        <v>gdmt:Describes</v>
+        <v>gdmt:IsDescribedBy</v>
       </c>
       <c r="B231" s="51" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C231" s="51"/>
       <c r="D231" s="51"/>
       <c r="E231" s="51" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="F231" s="51"/>
       <c r="G231" s="51" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H231" s="51"/>
       <c r="I231" s="51"/>
@@ -9981,19 +9985,19 @@
     <row r="232" spans="1:23" ht="15.75" customHeight="1">
       <c r="A232" s="50" t="str">
         <f t="shared" si="4"/>
-        <v>gdmt:IsDescribedBy</v>
+        <v>gdmt:HasMetadata</v>
       </c>
       <c r="B232" s="51" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C232" s="51"/>
       <c r="D232" s="51"/>
       <c r="E232" s="51" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="F232" s="51"/>
       <c r="G232" s="51" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H232" s="51"/>
       <c r="I232" s="51"/>
@@ -10015,19 +10019,19 @@
     <row r="233" spans="1:23" ht="15.75" customHeight="1">
       <c r="A233" s="50" t="str">
         <f t="shared" si="4"/>
-        <v>gdmt:HasMetadata</v>
+        <v>gdmt:IsMetadataFor</v>
       </c>
       <c r="B233" s="51" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C233" s="51"/>
       <c r="D233" s="51"/>
       <c r="E233" s="51" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="F233" s="51"/>
       <c r="G233" s="51" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H233" s="51"/>
       <c r="I233" s="51"/>
@@ -10049,19 +10053,19 @@
     <row r="234" spans="1:23" ht="15.75" customHeight="1">
       <c r="A234" s="50" t="str">
         <f t="shared" si="4"/>
-        <v>gdmt:IsMetadataFor</v>
+        <v>gdmt:HasVersion</v>
       </c>
       <c r="B234" s="51" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C234" s="51"/>
       <c r="D234" s="51"/>
       <c r="E234" s="51" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="F234" s="51"/>
       <c r="G234" s="51" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H234" s="51"/>
       <c r="I234" s="51"/>
@@ -10083,19 +10087,19 @@
     <row r="235" spans="1:23" ht="15.75" customHeight="1">
       <c r="A235" s="50" t="str">
         <f t="shared" si="4"/>
-        <v>gdmt:HasVersion</v>
+        <v>gdmt:IsVersionOf</v>
       </c>
       <c r="B235" s="51" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C235" s="51"/>
       <c r="D235" s="51"/>
       <c r="E235" s="51" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="F235" s="51"/>
       <c r="G235" s="51" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H235" s="51"/>
       <c r="I235" s="51"/>
@@ -10117,19 +10121,19 @@
     <row r="236" spans="1:23" ht="15.75" customHeight="1">
       <c r="A236" s="50" t="str">
         <f t="shared" si="4"/>
-        <v>gdmt:IsVersionOf</v>
+        <v>gdmt:IsNewVersionOf</v>
       </c>
       <c r="B236" s="51" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C236" s="51"/>
       <c r="D236" s="51"/>
       <c r="E236" s="51" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="F236" s="51"/>
       <c r="G236" s="51" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H236" s="51"/>
       <c r="I236" s="51"/>
@@ -10151,19 +10155,19 @@
     <row r="237" spans="1:23" ht="15.75" customHeight="1">
       <c r="A237" s="50" t="str">
         <f t="shared" si="4"/>
-        <v>gdmt:IsNewVersionOf</v>
+        <v>gdmt:IsPreviousVersionOf</v>
       </c>
       <c r="B237" s="51" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="C237" s="51"/>
       <c r="D237" s="51"/>
       <c r="E237" s="51" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="F237" s="51"/>
       <c r="G237" s="51" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H237" s="51"/>
       <c r="I237" s="51"/>
@@ -10185,19 +10189,19 @@
     <row r="238" spans="1:23" ht="15.75" customHeight="1">
       <c r="A238" s="50" t="str">
         <f t="shared" si="4"/>
-        <v>gdmt:IsPreviousVersionOf</v>
+        <v>gdmt:IsPartOf</v>
       </c>
       <c r="B238" s="51" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C238" s="51"/>
       <c r="D238" s="51"/>
       <c r="E238" s="51" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="F238" s="51"/>
       <c r="G238" s="51" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H238" s="51"/>
       <c r="I238" s="51"/>
@@ -10219,19 +10223,19 @@
     <row r="239" spans="1:23" ht="15.75" customHeight="1">
       <c r="A239" s="50" t="str">
         <f t="shared" si="4"/>
-        <v>gdmt:IsPartOf</v>
+        <v>gdmt:HasPart</v>
       </c>
       <c r="B239" s="51" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C239" s="51"/>
       <c r="D239" s="51"/>
       <c r="E239" s="51" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="F239" s="51"/>
       <c r="G239" s="51" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H239" s="51"/>
       <c r="I239" s="51"/>
@@ -10253,19 +10257,19 @@
     <row r="240" spans="1:23" ht="15.75" customHeight="1">
       <c r="A240" s="50" t="str">
         <f t="shared" si="4"/>
-        <v>gdmt:HasPart</v>
+        <v>gdmt:IsReferencedBy</v>
       </c>
       <c r="B240" s="51" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C240" s="51"/>
       <c r="D240" s="51"/>
       <c r="E240" s="51" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="F240" s="51"/>
       <c r="G240" s="51" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H240" s="51"/>
       <c r="I240" s="51"/>
@@ -10287,19 +10291,19 @@
     <row r="241" spans="1:23" ht="15.75" customHeight="1">
       <c r="A241" s="50" t="str">
         <f t="shared" si="4"/>
-        <v>gdmt:IsReferencedBy</v>
+        <v>gdmt:References</v>
       </c>
       <c r="B241" s="51" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C241" s="51"/>
       <c r="D241" s="51"/>
       <c r="E241" s="51" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="F241" s="51"/>
       <c r="G241" s="51" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H241" s="51"/>
       <c r="I241" s="51"/>
@@ -10321,24 +10325,24 @@
     <row r="242" spans="1:23" ht="15.75" customHeight="1">
       <c r="A242" s="50" t="str">
         <f t="shared" si="4"/>
-        <v>gdmt:References</v>
+        <v>gdmt:IsDocumentedBy</v>
       </c>
       <c r="B242" s="51" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="C242" s="51"/>
       <c r="D242" s="51"/>
-      <c r="E242" s="51" t="s">
-        <v>484</v>
-      </c>
-      <c r="F242" s="51"/>
-      <c r="G242" s="51" t="s">
-        <v>448</v>
-      </c>
-      <c r="H242" s="51"/>
-      <c r="I242" s="51"/>
-      <c r="J242" s="51"/>
-      <c r="K242" s="51"/>
+      <c r="E242" s="53" t="s">
+        <v>512</v>
+      </c>
+      <c r="F242" s="53"/>
+      <c r="G242" s="53" t="s">
+        <v>447</v>
+      </c>
+      <c r="H242" s="53"/>
+      <c r="I242" s="53"/>
+      <c r="J242" s="53"/>
+      <c r="K242" s="53"/>
       <c r="L242" s="52"/>
       <c r="M242" s="2"/>
       <c r="N242" s="2"/>
@@ -10355,7 +10359,7 @@
     <row r="243" spans="1:23" ht="15.75" customHeight="1">
       <c r="A243" s="50" t="str">
         <f t="shared" si="4"/>
-        <v>gdmt:IsDocumentedBy</v>
+        <v>gdmt:Documents</v>
       </c>
       <c r="B243" s="51" t="s">
         <v>485</v>
@@ -10367,7 +10371,7 @@
       </c>
       <c r="F243" s="53"/>
       <c r="G243" s="53" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H243" s="53"/>
       <c r="I243" s="53"/>
@@ -10389,24 +10393,24 @@
     <row r="244" spans="1:23" ht="15.75" customHeight="1">
       <c r="A244" s="50" t="str">
         <f t="shared" si="4"/>
-        <v>gdmt:Documents</v>
+        <v>gdmt:IsCompiledBy</v>
       </c>
       <c r="B244" s="51" t="s">
         <v>486</v>
       </c>
       <c r="C244" s="51"/>
       <c r="D244" s="51"/>
-      <c r="E244" s="53" t="s">
-        <v>514</v>
-      </c>
-      <c r="F244" s="53"/>
-      <c r="G244" s="53" t="s">
-        <v>448</v>
-      </c>
-      <c r="H244" s="53"/>
-      <c r="I244" s="53"/>
-      <c r="J244" s="53"/>
-      <c r="K244" s="53"/>
+      <c r="E244" s="51" t="s">
+        <v>487</v>
+      </c>
+      <c r="F244" s="51"/>
+      <c r="G244" s="51" t="s">
+        <v>447</v>
+      </c>
+      <c r="H244" s="51"/>
+      <c r="I244" s="51"/>
+      <c r="J244" s="51"/>
+      <c r="K244" s="51"/>
       <c r="L244" s="52"/>
       <c r="M244" s="2"/>
       <c r="N244" s="2"/>
@@ -10423,19 +10427,19 @@
     <row r="245" spans="1:23" ht="15.75" customHeight="1">
       <c r="A245" s="50" t="str">
         <f t="shared" si="4"/>
-        <v>gdmt:IsCompiledBy</v>
+        <v>gdmt:Compiles</v>
       </c>
       <c r="B245" s="51" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="C245" s="51"/>
       <c r="D245" s="51"/>
       <c r="E245" s="51" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="F245" s="51"/>
       <c r="G245" s="51" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H245" s="51"/>
       <c r="I245" s="51"/>
@@ -10457,19 +10461,19 @@
     <row r="246" spans="1:23" ht="15.75" customHeight="1">
       <c r="A246" s="50" t="str">
         <f t="shared" si="4"/>
-        <v>gdmt:Compiles</v>
+        <v>gdmt:IsVariantFormOf</v>
       </c>
       <c r="B246" s="51" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="C246" s="51"/>
       <c r="D246" s="51"/>
       <c r="E246" s="51" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="F246" s="51"/>
       <c r="G246" s="51" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H246" s="51"/>
       <c r="I246" s="51"/>
@@ -10491,19 +10495,19 @@
     <row r="247" spans="1:23" ht="15.75" customHeight="1">
       <c r="A247" s="50" t="str">
         <f t="shared" si="4"/>
-        <v>gdmt:IsVariantFormOf</v>
+        <v>gdmt:IsOriginalFormOf</v>
       </c>
       <c r="B247" s="51" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="C247" s="51"/>
       <c r="D247" s="51"/>
       <c r="E247" s="51" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="F247" s="51"/>
       <c r="G247" s="51" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H247" s="51"/>
       <c r="I247" s="51"/>
@@ -10525,19 +10529,19 @@
     <row r="248" spans="1:23" ht="15.75" customHeight="1">
       <c r="A248" s="50" t="str">
         <f t="shared" si="4"/>
-        <v>gdmt:IsOriginalFormOf</v>
+        <v>gdmt:IsIdenticalTo</v>
       </c>
       <c r="B248" s="51" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="C248" s="51"/>
       <c r="D248" s="51"/>
       <c r="E248" s="51" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="F248" s="51"/>
       <c r="G248" s="51" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H248" s="51"/>
       <c r="I248" s="51"/>
@@ -10559,19 +10563,19 @@
     <row r="249" spans="1:23" ht="15.75" customHeight="1">
       <c r="A249" s="50" t="str">
         <f t="shared" si="4"/>
-        <v>gdmt:IsIdenticalTo</v>
+        <v>gdmt:IsReviewedBy</v>
       </c>
       <c r="B249" s="51" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C249" s="51"/>
       <c r="D249" s="51"/>
       <c r="E249" s="51" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="F249" s="51"/>
       <c r="G249" s="51" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H249" s="51"/>
       <c r="I249" s="51"/>
@@ -10593,19 +10597,19 @@
     <row r="250" spans="1:23" ht="15.75" customHeight="1">
       <c r="A250" s="50" t="str">
         <f t="shared" si="4"/>
-        <v>gdmt:IsReviewedBy</v>
+        <v>gdmt:Reviews</v>
       </c>
       <c r="B250" s="51" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="C250" s="51"/>
       <c r="D250" s="51"/>
       <c r="E250" s="51" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="F250" s="51"/>
       <c r="G250" s="51" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H250" s="51"/>
       <c r="I250" s="51"/>
@@ -10627,19 +10631,19 @@
     <row r="251" spans="1:23" ht="15.75" customHeight="1">
       <c r="A251" s="50" t="str">
         <f t="shared" si="4"/>
-        <v>gdmt:Reviews</v>
+        <v>gdmt:IsDerivedFrom</v>
       </c>
       <c r="B251" s="51" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C251" s="51"/>
       <c r="D251" s="51"/>
       <c r="E251" s="51" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="F251" s="51"/>
       <c r="G251" s="51" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H251" s="51"/>
       <c r="I251" s="51"/>
@@ -10661,19 +10665,19 @@
     <row r="252" spans="1:23" ht="15.75" customHeight="1">
       <c r="A252" s="50" t="str">
         <f t="shared" si="4"/>
-        <v>gdmt:IsDerivedFrom</v>
+        <v>gdmt:IsSourceOf</v>
       </c>
       <c r="B252" s="51" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C252" s="51"/>
       <c r="D252" s="51"/>
       <c r="E252" s="51" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="F252" s="51"/>
       <c r="G252" s="51" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H252" s="51"/>
       <c r="I252" s="51"/>
@@ -10695,19 +10699,19 @@
     <row r="253" spans="1:23" ht="15.75" customHeight="1">
       <c r="A253" s="50" t="str">
         <f t="shared" si="4"/>
-        <v>gdmt:IsSourceOf</v>
+        <v>gdmt:IsRequiredBy</v>
       </c>
       <c r="B253" s="51" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C253" s="51"/>
       <c r="D253" s="51"/>
       <c r="E253" s="51" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="F253" s="51"/>
       <c r="G253" s="51" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H253" s="51"/>
       <c r="I253" s="51"/>
@@ -10729,19 +10733,19 @@
     <row r="254" spans="1:23" ht="15.75" customHeight="1">
       <c r="A254" s="50" t="str">
         <f t="shared" si="4"/>
-        <v>gdmt:IsRequiredBy</v>
+        <v>gdmt:Requires</v>
       </c>
       <c r="B254" s="51" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="C254" s="51"/>
       <c r="D254" s="51"/>
       <c r="E254" s="51" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="F254" s="51"/>
       <c r="G254" s="51" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H254" s="51"/>
       <c r="I254" s="51"/>
@@ -10763,19 +10767,19 @@
     <row r="255" spans="1:23" ht="15.75" customHeight="1">
       <c r="A255" s="50" t="str">
         <f t="shared" si="4"/>
-        <v>gdmt:Requires</v>
+        <v>gdmt:Obsoletes</v>
       </c>
       <c r="B255" s="51" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="C255" s="51"/>
       <c r="D255" s="51"/>
       <c r="E255" s="51" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="F255" s="51"/>
       <c r="G255" s="51" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H255" s="51"/>
       <c r="I255" s="51"/>
@@ -10796,20 +10800,20 @@
     </row>
     <row r="256" spans="1:23" ht="15.75" customHeight="1">
       <c r="A256" s="50" t="str">
-        <f t="shared" si="4"/>
-        <v>gdmt:Obsoletes</v>
+        <f t="shared" ref="A256" si="5">"gdmt:"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B256," ",""),"-",""),"&amp;","")</f>
+        <v>gdmt:IsObsoletedBy</v>
       </c>
       <c r="B256" s="51" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C256" s="51"/>
       <c r="D256" s="51"/>
       <c r="E256" s="51" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="F256" s="51"/>
       <c r="G256" s="51" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H256" s="51"/>
       <c r="I256" s="51"/>
@@ -10829,27 +10833,18 @@
       <c r="W256" s="2"/>
     </row>
     <row r="257" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A257" s="50" t="str">
-        <f t="shared" ref="A257" si="5">"gdmt:"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B257," ",""),"-",""),"&amp;","")</f>
-        <v>gdmt:IsObsoletedBy</v>
-      </c>
-      <c r="B257" s="51" t="s">
-        <v>511</v>
-      </c>
-      <c r="C257" s="51"/>
-      <c r="D257" s="51"/>
-      <c r="E257" s="51" t="s">
-        <v>512</v>
-      </c>
-      <c r="F257" s="51"/>
-      <c r="G257" s="51" t="s">
-        <v>448</v>
-      </c>
-      <c r="H257" s="51"/>
-      <c r="I257" s="51"/>
-      <c r="J257" s="51"/>
-      <c r="K257" s="51"/>
-      <c r="L257" s="52"/>
+      <c r="A257" s="2"/>
+      <c r="B257" s="2"/>
+      <c r="C257" s="2"/>
+      <c r="D257" s="2"/>
+      <c r="E257" s="5"/>
+      <c r="F257" s="3"/>
+      <c r="G257" s="3"/>
+      <c r="H257" s="3"/>
+      <c r="I257" s="3"/>
+      <c r="J257" s="3"/>
+      <c r="K257" s="3"/>
+      <c r="L257" s="3"/>
       <c r="M257" s="2"/>
       <c r="N257" s="2"/>
       <c r="O257" s="2"/>
@@ -28087,36 +28082,11 @@
       <c r="V946" s="2"/>
       <c r="W946" s="2"/>
     </row>
-    <row r="947" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A947" s="2"/>
-      <c r="B947" s="2"/>
-      <c r="C947" s="2"/>
-      <c r="D947" s="2"/>
-      <c r="E947" s="5"/>
-      <c r="F947" s="3"/>
-      <c r="G947" s="3"/>
-      <c r="H947" s="3"/>
-      <c r="I947" s="3"/>
-      <c r="J947" s="3"/>
-      <c r="K947" s="3"/>
-      <c r="L947" s="3"/>
-      <c r="M947" s="2"/>
-      <c r="N947" s="2"/>
-      <c r="O947" s="2"/>
-      <c r="P947" s="2"/>
-      <c r="Q947" s="2"/>
-      <c r="R947" s="2"/>
-      <c r="S947" s="2"/>
-      <c r="T947" s="2"/>
-      <c r="U947" s="2"/>
-      <c r="V947" s="2"/>
-      <c r="W947" s="2"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E204" r:id="rId1" display="http://NMA/" xr:uid="{BD639FC9-D4C1-E04C-B11D-3B2AEF0C5FB8}"/>
-    <hyperlink ref="E206" r:id="rId2" display="http://info-/" xr:uid="{08552074-2893-1242-B464-693731D70AEB}"/>
+    <hyperlink ref="E203" r:id="rId1" display="http://NMA/" xr:uid="{BD639FC9-D4C1-E04C-B11D-3B2AEF0C5FB8}"/>
+    <hyperlink ref="E205" r:id="rId2" display="http://info-/" xr:uid="{08552074-2893-1242-B464-693731D70AEB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>

--- a/ontology/dataset-voc.xlsx
+++ b/ontology/dataset-voc.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Secondary_Drive/work/repos/FAIR-data/generic-dataset-metadata-template/ontology/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3D89A2E5-19F7-2C4A-8898-9EFC6DB15EB1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67F5489A-02EF-0C46-89E0-6B4E46215B25}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34400" yWindow="460" windowWidth="34400" windowHeight="28340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="68800" windowHeight="28340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="wind-energy-parameters" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,6 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'wind-energy-parameters'!$A$16:$L$188</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3546" uniqueCount="2282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3549" uniqueCount="2286">
   <si>
     <t>ConceptScheme URI</t>
   </si>
@@ -7067,6 +7066,18 @@
   </si>
   <si>
     <t>xgl/movie</t>
+  </si>
+  <si>
+    <t>gdmt:MIMETypes</t>
+  </si>
+  <si>
+    <t>gdmt:LicenseIdentifierSchemeIRIs</t>
+  </si>
+  <si>
+    <t>gdmt:IdentifierSchemeIRIs</t>
+  </si>
+  <si>
+    <t>gdmt:IdentifierSchemes</t>
   </si>
 </sst>
 </file>
@@ -9044,9 +9055,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W1156"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="180" zoomScaleNormal="187" workbookViewId="0">
-      <pane ySplit="16" topLeftCell="A630" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E636" sqref="E636"/>
+    <sheetView tabSelected="1" zoomScale="180" zoomScaleNormal="187" workbookViewId="0">
+      <pane ySplit="16" topLeftCell="A833" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E846" sqref="E846"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
@@ -16319,7 +16330,7 @@
       </c>
       <c r="F262" s="51"/>
       <c r="G262" s="51" t="s">
-        <v>447</v>
+        <v>2285</v>
       </c>
       <c r="H262" s="51"/>
       <c r="I262" s="51"/>
@@ -16353,7 +16364,7 @@
       </c>
       <c r="F263" s="51"/>
       <c r="G263" s="51" t="s">
-        <v>447</v>
+        <v>2285</v>
       </c>
       <c r="H263" s="51"/>
       <c r="I263" s="51"/>
@@ -16387,7 +16398,7 @@
       </c>
       <c r="F264" s="51"/>
       <c r="G264" s="51" t="s">
-        <v>447</v>
+        <v>2285</v>
       </c>
       <c r="H264" s="51"/>
       <c r="I264" s="51"/>
@@ -16421,7 +16432,7 @@
       </c>
       <c r="F265" s="51"/>
       <c r="G265" s="51" t="s">
-        <v>447</v>
+        <v>2285</v>
       </c>
       <c r="H265" s="51"/>
       <c r="I265" s="51"/>
@@ -16454,7 +16465,9 @@
         <v>554</v>
       </c>
       <c r="F266" s="51"/>
-      <c r="G266" s="51"/>
+      <c r="G266" s="51" t="s">
+        <v>2285</v>
+      </c>
       <c r="H266" s="51"/>
       <c r="I266" s="51"/>
       <c r="J266" s="51"/>
@@ -16486,7 +16499,9 @@
         <v>553</v>
       </c>
       <c r="F267" s="51"/>
-      <c r="G267" s="51"/>
+      <c r="G267" s="51" t="s">
+        <v>2285</v>
+      </c>
       <c r="H267" s="51"/>
       <c r="I267" s="51"/>
       <c r="J267" s="51"/>
@@ -16518,7 +16533,9 @@
         <v>544</v>
       </c>
       <c r="F268" s="51"/>
-      <c r="G268" s="51"/>
+      <c r="G268" s="51" t="s">
+        <v>2285</v>
+      </c>
       <c r="H268" s="51" t="s">
         <v>545</v>
       </c>
@@ -16582,7 +16599,7 @@
       </c>
       <c r="F270" s="51"/>
       <c r="G270" s="51" t="s">
-        <v>447</v>
+        <v>2284</v>
       </c>
       <c r="H270" s="51"/>
       <c r="I270" s="51"/>
@@ -16615,7 +16632,7 @@
       </c>
       <c r="F271" s="51"/>
       <c r="G271" s="51" t="s">
-        <v>447</v>
+        <v>2284</v>
       </c>
       <c r="H271" s="51"/>
       <c r="I271" s="51"/>
@@ -16648,7 +16665,7 @@
       </c>
       <c r="F272" s="51"/>
       <c r="G272" s="51" t="s">
-        <v>447</v>
+        <v>2284</v>
       </c>
       <c r="H272" s="51"/>
       <c r="I272" s="51"/>
@@ -16681,7 +16698,7 @@
       </c>
       <c r="F273" s="51"/>
       <c r="G273" s="51" t="s">
-        <v>447</v>
+        <v>2284</v>
       </c>
       <c r="H273" s="51"/>
       <c r="I273" s="51"/>
@@ -16714,7 +16731,7 @@
       </c>
       <c r="F274" s="51"/>
       <c r="G274" s="51" t="s">
-        <v>447</v>
+        <v>2284</v>
       </c>
       <c r="H274" s="51"/>
       <c r="I274" s="51"/>
@@ -16747,7 +16764,7 @@
       </c>
       <c r="F275" s="51"/>
       <c r="G275" s="51" t="s">
-        <v>447</v>
+        <v>2284</v>
       </c>
       <c r="H275" s="51"/>
       <c r="I275" s="51"/>
@@ -16780,7 +16797,7 @@
       </c>
       <c r="F276" s="51"/>
       <c r="G276" s="51" t="s">
-        <v>447</v>
+        <v>2284</v>
       </c>
       <c r="H276" s="51"/>
       <c r="I276" s="51"/>
@@ -31985,7 +32002,7 @@
       </c>
       <c r="F699" s="51"/>
       <c r="G699" s="51" t="s">
-        <v>1820</v>
+        <v>2283</v>
       </c>
       <c r="H699" s="51"/>
       <c r="I699" s="51"/>
@@ -32047,7 +32064,7 @@
       <c r="E701" s="51"/>
       <c r="F701" s="51"/>
       <c r="G701" s="51" t="s">
-        <v>1820</v>
+        <v>2282</v>
       </c>
       <c r="H701" s="51"/>
       <c r="I701" s="51"/>
@@ -32079,7 +32096,7 @@
       <c r="E702" s="51"/>
       <c r="F702" s="51"/>
       <c r="G702" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H702" s="51"/>
       <c r="I702" s="51"/>
@@ -32111,7 +32128,7 @@
       <c r="E703" s="51"/>
       <c r="F703" s="51"/>
       <c r="G703" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H703" s="51"/>
       <c r="I703" s="51"/>
@@ -32143,7 +32160,7 @@
       <c r="E704" s="51"/>
       <c r="F704" s="51"/>
       <c r="G704" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H704" s="51"/>
       <c r="I704" s="51"/>
@@ -32175,7 +32192,7 @@
       <c r="E705" s="51"/>
       <c r="F705" s="51"/>
       <c r="G705" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H705" s="51"/>
       <c r="I705" s="51"/>
@@ -32207,7 +32224,7 @@
       <c r="E706" s="51"/>
       <c r="F706" s="51"/>
       <c r="G706" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H706" s="51"/>
       <c r="I706" s="51"/>
@@ -32239,7 +32256,7 @@
       <c r="E707" s="51"/>
       <c r="F707" s="51"/>
       <c r="G707" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H707" s="51"/>
       <c r="I707" s="51"/>
@@ -32271,7 +32288,7 @@
       <c r="E708" s="51"/>
       <c r="F708" s="51"/>
       <c r="G708" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H708" s="51"/>
       <c r="I708" s="51"/>
@@ -32303,7 +32320,7 @@
       <c r="E709" s="51"/>
       <c r="F709" s="51"/>
       <c r="G709" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H709" s="51"/>
       <c r="I709" s="51"/>
@@ -32335,7 +32352,7 @@
       <c r="E710" s="51"/>
       <c r="F710" s="51"/>
       <c r="G710" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H710" s="51"/>
       <c r="I710" s="51"/>
@@ -32367,7 +32384,7 @@
       <c r="E711" s="51"/>
       <c r="F711" s="51"/>
       <c r="G711" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H711" s="51"/>
       <c r="I711" s="51"/>
@@ -32399,7 +32416,7 @@
       <c r="E712" s="51"/>
       <c r="F712" s="51"/>
       <c r="G712" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H712" s="51"/>
       <c r="I712" s="51"/>
@@ -32431,7 +32448,7 @@
       <c r="E713" s="51"/>
       <c r="F713" s="51"/>
       <c r="G713" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H713" s="51"/>
       <c r="I713" s="51"/>
@@ -32463,7 +32480,7 @@
       <c r="E714" s="51"/>
       <c r="F714" s="51"/>
       <c r="G714" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H714" s="51"/>
       <c r="I714" s="51"/>
@@ -32495,7 +32512,7 @@
       <c r="E715" s="51"/>
       <c r="F715" s="51"/>
       <c r="G715" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H715" s="51"/>
       <c r="I715" s="51"/>
@@ -32527,7 +32544,7 @@
       <c r="E716" s="51"/>
       <c r="F716" s="51"/>
       <c r="G716" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H716" s="51"/>
       <c r="I716" s="51"/>
@@ -32559,7 +32576,7 @@
       <c r="E717" s="51"/>
       <c r="F717" s="51"/>
       <c r="G717" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H717" s="51"/>
       <c r="I717" s="51"/>
@@ -32591,7 +32608,7 @@
       <c r="E718" s="51"/>
       <c r="F718" s="51"/>
       <c r="G718" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H718" s="51"/>
       <c r="I718" s="51"/>
@@ -32623,7 +32640,7 @@
       <c r="E719" s="51"/>
       <c r="F719" s="51"/>
       <c r="G719" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H719" s="51"/>
       <c r="I719" s="51"/>
@@ -32655,7 +32672,7 @@
       <c r="E720" s="51"/>
       <c r="F720" s="51"/>
       <c r="G720" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H720" s="51"/>
       <c r="I720" s="51"/>
@@ -32687,7 +32704,7 @@
       <c r="E721" s="51"/>
       <c r="F721" s="51"/>
       <c r="G721" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H721" s="51"/>
       <c r="I721" s="51"/>
@@ -32719,7 +32736,7 @@
       <c r="E722" s="51"/>
       <c r="F722" s="51"/>
       <c r="G722" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H722" s="51"/>
       <c r="I722" s="51"/>
@@ -32751,7 +32768,7 @@
       <c r="E723" s="51"/>
       <c r="F723" s="51"/>
       <c r="G723" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H723" s="51"/>
       <c r="I723" s="51"/>
@@ -32783,7 +32800,7 @@
       <c r="E724" s="51"/>
       <c r="F724" s="51"/>
       <c r="G724" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H724" s="51"/>
       <c r="I724" s="51"/>
@@ -32815,7 +32832,7 @@
       <c r="E725" s="51"/>
       <c r="F725" s="51"/>
       <c r="G725" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H725" s="51"/>
       <c r="I725" s="51"/>
@@ -32847,7 +32864,7 @@
       <c r="E726" s="51"/>
       <c r="F726" s="51"/>
       <c r="G726" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H726" s="51"/>
       <c r="I726" s="51"/>
@@ -32879,7 +32896,7 @@
       <c r="E727" s="51"/>
       <c r="F727" s="51"/>
       <c r="G727" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H727" s="51"/>
       <c r="I727" s="51"/>
@@ -32911,7 +32928,7 @@
       <c r="E728" s="51"/>
       <c r="F728" s="51"/>
       <c r="G728" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H728" s="51"/>
       <c r="I728" s="51"/>
@@ -32943,7 +32960,7 @@
       <c r="E729" s="51"/>
       <c r="F729" s="51"/>
       <c r="G729" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H729" s="51"/>
       <c r="I729" s="51"/>
@@ -32975,7 +32992,7 @@
       <c r="E730" s="51"/>
       <c r="F730" s="51"/>
       <c r="G730" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H730" s="51"/>
       <c r="I730" s="51"/>
@@ -33007,7 +33024,7 @@
       <c r="E731" s="51"/>
       <c r="F731" s="51"/>
       <c r="G731" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H731" s="51"/>
       <c r="I731" s="51"/>
@@ -33039,7 +33056,7 @@
       <c r="E732" s="51"/>
       <c r="F732" s="51"/>
       <c r="G732" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H732" s="51"/>
       <c r="I732" s="51"/>
@@ -33071,7 +33088,7 @@
       <c r="E733" s="51"/>
       <c r="F733" s="51"/>
       <c r="G733" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H733" s="51"/>
       <c r="I733" s="51"/>
@@ -33103,7 +33120,7 @@
       <c r="E734" s="51"/>
       <c r="F734" s="51"/>
       <c r="G734" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H734" s="51"/>
       <c r="I734" s="51"/>
@@ -33135,7 +33152,7 @@
       <c r="E735" s="51"/>
       <c r="F735" s="51"/>
       <c r="G735" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H735" s="51"/>
       <c r="I735" s="51"/>
@@ -33167,7 +33184,7 @@
       <c r="E736" s="51"/>
       <c r="F736" s="51"/>
       <c r="G736" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H736" s="51"/>
       <c r="I736" s="51"/>
@@ -33199,7 +33216,7 @@
       <c r="E737" s="51"/>
       <c r="F737" s="51"/>
       <c r="G737" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H737" s="51"/>
       <c r="I737" s="51"/>
@@ -33231,7 +33248,7 @@
       <c r="E738" s="51"/>
       <c r="F738" s="51"/>
       <c r="G738" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H738" s="51"/>
       <c r="I738" s="51"/>
@@ -33263,7 +33280,7 @@
       <c r="E739" s="51"/>
       <c r="F739" s="51"/>
       <c r="G739" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H739" s="51"/>
       <c r="I739" s="51"/>
@@ -33295,7 +33312,7 @@
       <c r="E740" s="51"/>
       <c r="F740" s="51"/>
       <c r="G740" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H740" s="51"/>
       <c r="I740" s="51"/>
@@ -33327,7 +33344,7 @@
       <c r="E741" s="51"/>
       <c r="F741" s="51"/>
       <c r="G741" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H741" s="51"/>
       <c r="I741" s="51"/>
@@ -33359,7 +33376,7 @@
       <c r="E742" s="51"/>
       <c r="F742" s="51"/>
       <c r="G742" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H742" s="51"/>
       <c r="I742" s="51"/>
@@ -33391,7 +33408,7 @@
       <c r="E743" s="51"/>
       <c r="F743" s="51"/>
       <c r="G743" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H743" s="51"/>
       <c r="I743" s="51"/>
@@ -33423,7 +33440,7 @@
       <c r="E744" s="51"/>
       <c r="F744" s="51"/>
       <c r="G744" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H744" s="51"/>
       <c r="I744" s="51"/>
@@ -33455,7 +33472,7 @@
       <c r="E745" s="51"/>
       <c r="F745" s="51"/>
       <c r="G745" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H745" s="51"/>
       <c r="I745" s="51"/>
@@ -33487,7 +33504,7 @@
       <c r="E746" s="51"/>
       <c r="F746" s="51"/>
       <c r="G746" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H746" s="51"/>
       <c r="I746" s="51"/>
@@ -33519,7 +33536,7 @@
       <c r="E747" s="51"/>
       <c r="F747" s="51"/>
       <c r="G747" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H747" s="51"/>
       <c r="I747" s="51"/>
@@ -33551,7 +33568,7 @@
       <c r="E748" s="51"/>
       <c r="F748" s="51"/>
       <c r="G748" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H748" s="51"/>
       <c r="I748" s="51"/>
@@ -33583,7 +33600,7 @@
       <c r="E749" s="51"/>
       <c r="F749" s="51"/>
       <c r="G749" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H749" s="51"/>
       <c r="I749" s="51"/>
@@ -33615,7 +33632,7 @@
       <c r="E750" s="51"/>
       <c r="F750" s="51"/>
       <c r="G750" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H750" s="51"/>
       <c r="I750" s="51"/>
@@ -33647,7 +33664,7 @@
       <c r="E751" s="51"/>
       <c r="F751" s="51"/>
       <c r="G751" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H751" s="51"/>
       <c r="I751" s="51"/>
@@ -33679,7 +33696,7 @@
       <c r="E752" s="51"/>
       <c r="F752" s="51"/>
       <c r="G752" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H752" s="51"/>
       <c r="I752" s="51"/>
@@ -33711,7 +33728,7 @@
       <c r="E753" s="51"/>
       <c r="F753" s="51"/>
       <c r="G753" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H753" s="51"/>
       <c r="I753" s="51"/>
@@ -33743,7 +33760,7 @@
       <c r="E754" s="51"/>
       <c r="F754" s="51"/>
       <c r="G754" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H754" s="51"/>
       <c r="I754" s="51"/>
@@ -33775,7 +33792,7 @@
       <c r="E755" s="51"/>
       <c r="F755" s="51"/>
       <c r="G755" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H755" s="51"/>
       <c r="I755" s="51"/>
@@ -33807,7 +33824,7 @@
       <c r="E756" s="51"/>
       <c r="F756" s="51"/>
       <c r="G756" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H756" s="51"/>
       <c r="I756" s="51"/>
@@ -33839,7 +33856,7 @@
       <c r="E757" s="51"/>
       <c r="F757" s="51"/>
       <c r="G757" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H757" s="51"/>
       <c r="I757" s="51"/>
@@ -33871,7 +33888,7 @@
       <c r="E758" s="51"/>
       <c r="F758" s="51"/>
       <c r="G758" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H758" s="51"/>
       <c r="I758" s="51"/>
@@ -33903,7 +33920,7 @@
       <c r="E759" s="51"/>
       <c r="F759" s="51"/>
       <c r="G759" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H759" s="51"/>
       <c r="I759" s="51"/>
@@ -33935,7 +33952,7 @@
       <c r="E760" s="51"/>
       <c r="F760" s="51"/>
       <c r="G760" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H760" s="51"/>
       <c r="I760" s="51"/>
@@ -33967,7 +33984,7 @@
       <c r="E761" s="51"/>
       <c r="F761" s="51"/>
       <c r="G761" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H761" s="51"/>
       <c r="I761" s="51"/>
@@ -33999,7 +34016,7 @@
       <c r="E762" s="51"/>
       <c r="F762" s="51"/>
       <c r="G762" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H762" s="51"/>
       <c r="I762" s="51"/>
@@ -34031,7 +34048,7 @@
       <c r="E763" s="51"/>
       <c r="F763" s="51"/>
       <c r="G763" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H763" s="51"/>
       <c r="I763" s="51"/>
@@ -34063,7 +34080,7 @@
       <c r="E764" s="51"/>
       <c r="F764" s="51"/>
       <c r="G764" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H764" s="51"/>
       <c r="I764" s="51"/>
@@ -34095,7 +34112,7 @@
       <c r="E765" s="51"/>
       <c r="F765" s="51"/>
       <c r="G765" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H765" s="51"/>
       <c r="I765" s="51"/>
@@ -34127,7 +34144,7 @@
       <c r="E766" s="51"/>
       <c r="F766" s="51"/>
       <c r="G766" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H766" s="51"/>
       <c r="I766" s="51"/>
@@ -34159,7 +34176,7 @@
       <c r="E767" s="51"/>
       <c r="F767" s="51"/>
       <c r="G767" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H767" s="51"/>
       <c r="I767" s="51"/>
@@ -34191,7 +34208,7 @@
       <c r="E768" s="51"/>
       <c r="F768" s="51"/>
       <c r="G768" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H768" s="51"/>
       <c r="I768" s="51"/>
@@ -34223,7 +34240,7 @@
       <c r="E769" s="51"/>
       <c r="F769" s="51"/>
       <c r="G769" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H769" s="51"/>
       <c r="I769" s="51"/>
@@ -34255,7 +34272,7 @@
       <c r="E770" s="51"/>
       <c r="F770" s="51"/>
       <c r="G770" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H770" s="51"/>
       <c r="I770" s="51"/>
@@ -34287,7 +34304,7 @@
       <c r="E771" s="51"/>
       <c r="F771" s="51"/>
       <c r="G771" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H771" s="51"/>
       <c r="I771" s="51"/>
@@ -34319,7 +34336,7 @@
       <c r="E772" s="51"/>
       <c r="F772" s="51"/>
       <c r="G772" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H772" s="51"/>
       <c r="I772" s="51"/>
@@ -34351,7 +34368,7 @@
       <c r="E773" s="51"/>
       <c r="F773" s="51"/>
       <c r="G773" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H773" s="51"/>
       <c r="I773" s="51"/>
@@ -34383,7 +34400,7 @@
       <c r="E774" s="51"/>
       <c r="F774" s="51"/>
       <c r="G774" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H774" s="51"/>
       <c r="I774" s="51"/>
@@ -34415,7 +34432,7 @@
       <c r="E775" s="51"/>
       <c r="F775" s="51"/>
       <c r="G775" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H775" s="51"/>
       <c r="I775" s="51"/>
@@ -34447,7 +34464,7 @@
       <c r="E776" s="51"/>
       <c r="F776" s="51"/>
       <c r="G776" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H776" s="51"/>
       <c r="I776" s="51"/>
@@ -34479,7 +34496,7 @@
       <c r="E777" s="51"/>
       <c r="F777" s="51"/>
       <c r="G777" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H777" s="51"/>
       <c r="I777" s="51"/>
@@ -34511,7 +34528,7 @@
       <c r="E778" s="51"/>
       <c r="F778" s="51"/>
       <c r="G778" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H778" s="51"/>
       <c r="I778" s="51"/>
@@ -34543,7 +34560,7 @@
       <c r="E779" s="51"/>
       <c r="F779" s="51"/>
       <c r="G779" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H779" s="51"/>
       <c r="I779" s="51"/>
@@ -34575,7 +34592,7 @@
       <c r="E780" s="51"/>
       <c r="F780" s="51"/>
       <c r="G780" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H780" s="51"/>
       <c r="I780" s="51"/>
@@ -34607,7 +34624,7 @@
       <c r="E781" s="51"/>
       <c r="F781" s="51"/>
       <c r="G781" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H781" s="51"/>
       <c r="I781" s="51"/>
@@ -34639,7 +34656,7 @@
       <c r="E782" s="51"/>
       <c r="F782" s="51"/>
       <c r="G782" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H782" s="51"/>
       <c r="I782" s="51"/>
@@ -34671,7 +34688,7 @@
       <c r="E783" s="51"/>
       <c r="F783" s="51"/>
       <c r="G783" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H783" s="51"/>
       <c r="I783" s="51"/>
@@ -34703,7 +34720,7 @@
       <c r="E784" s="51"/>
       <c r="F784" s="51"/>
       <c r="G784" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H784" s="51"/>
       <c r="I784" s="51"/>
@@ -34735,7 +34752,7 @@
       <c r="E785" s="51"/>
       <c r="F785" s="51"/>
       <c r="G785" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H785" s="51"/>
       <c r="I785" s="51"/>
@@ -34767,7 +34784,7 @@
       <c r="E786" s="51"/>
       <c r="F786" s="51"/>
       <c r="G786" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H786" s="51"/>
       <c r="I786" s="51"/>
@@ -34799,7 +34816,7 @@
       <c r="E787" s="51"/>
       <c r="F787" s="51"/>
       <c r="G787" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H787" s="51"/>
       <c r="I787" s="51"/>
@@ -34831,7 +34848,7 @@
       <c r="E788" s="51"/>
       <c r="F788" s="51"/>
       <c r="G788" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H788" s="51"/>
       <c r="I788" s="51"/>
@@ -34863,7 +34880,7 @@
       <c r="E789" s="51"/>
       <c r="F789" s="51"/>
       <c r="G789" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H789" s="51"/>
       <c r="I789" s="51"/>
@@ -34895,7 +34912,7 @@
       <c r="E790" s="51"/>
       <c r="F790" s="51"/>
       <c r="G790" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H790" s="51"/>
       <c r="I790" s="51"/>
@@ -34927,7 +34944,7 @@
       <c r="E791" s="51"/>
       <c r="F791" s="51"/>
       <c r="G791" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H791" s="51"/>
       <c r="I791" s="51"/>
@@ -34959,7 +34976,7 @@
       <c r="E792" s="51"/>
       <c r="F792" s="51"/>
       <c r="G792" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H792" s="51"/>
       <c r="I792" s="51"/>
@@ -34991,7 +35008,7 @@
       <c r="E793" s="51"/>
       <c r="F793" s="51"/>
       <c r="G793" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H793" s="51"/>
       <c r="I793" s="51"/>
@@ -35023,7 +35040,7 @@
       <c r="E794" s="51"/>
       <c r="F794" s="51"/>
       <c r="G794" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H794" s="51"/>
       <c r="I794" s="51"/>
@@ -35055,7 +35072,7 @@
       <c r="E795" s="51"/>
       <c r="F795" s="51"/>
       <c r="G795" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H795" s="51"/>
       <c r="I795" s="51"/>
@@ -35087,7 +35104,7 @@
       <c r="E796" s="51"/>
       <c r="F796" s="51"/>
       <c r="G796" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H796" s="51"/>
       <c r="I796" s="51"/>
@@ -35119,7 +35136,7 @@
       <c r="E797" s="51"/>
       <c r="F797" s="51"/>
       <c r="G797" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H797" s="51"/>
       <c r="I797" s="51"/>
@@ -35151,7 +35168,7 @@
       <c r="E798" s="51"/>
       <c r="F798" s="51"/>
       <c r="G798" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H798" s="51"/>
       <c r="I798" s="51"/>
@@ -35183,7 +35200,7 @@
       <c r="E799" s="51"/>
       <c r="F799" s="51"/>
       <c r="G799" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H799" s="51"/>
       <c r="I799" s="51"/>
@@ -35215,7 +35232,7 @@
       <c r="E800" s="51"/>
       <c r="F800" s="51"/>
       <c r="G800" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H800" s="51"/>
       <c r="I800" s="51"/>
@@ -35247,7 +35264,7 @@
       <c r="E801" s="51"/>
       <c r="F801" s="51"/>
       <c r="G801" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H801" s="51"/>
       <c r="I801" s="51"/>
@@ -35279,7 +35296,7 @@
       <c r="E802" s="51"/>
       <c r="F802" s="51"/>
       <c r="G802" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H802" s="51"/>
       <c r="I802" s="51"/>
@@ -35311,7 +35328,7 @@
       <c r="E803" s="51"/>
       <c r="F803" s="51"/>
       <c r="G803" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H803" s="51"/>
       <c r="I803" s="51"/>
@@ -35343,7 +35360,7 @@
       <c r="E804" s="51"/>
       <c r="F804" s="51"/>
       <c r="G804" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H804" s="51"/>
       <c r="I804" s="51"/>
@@ -35375,7 +35392,7 @@
       <c r="E805" s="51"/>
       <c r="F805" s="51"/>
       <c r="G805" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H805" s="51"/>
       <c r="I805" s="51"/>
@@ -35407,7 +35424,7 @@
       <c r="E806" s="51"/>
       <c r="F806" s="51"/>
       <c r="G806" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H806" s="51"/>
       <c r="I806" s="51"/>
@@ -35439,7 +35456,7 @@
       <c r="E807" s="51"/>
       <c r="F807" s="51"/>
       <c r="G807" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H807" s="51"/>
       <c r="I807" s="51"/>
@@ -35471,7 +35488,7 @@
       <c r="E808" s="51"/>
       <c r="F808" s="51"/>
       <c r="G808" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H808" s="51"/>
       <c r="I808" s="51"/>
@@ -35503,7 +35520,7 @@
       <c r="E809" s="51"/>
       <c r="F809" s="51"/>
       <c r="G809" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H809" s="51"/>
       <c r="I809" s="51"/>
@@ -35535,7 +35552,7 @@
       <c r="E810" s="51"/>
       <c r="F810" s="51"/>
       <c r="G810" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H810" s="51"/>
       <c r="I810" s="51"/>
@@ -35567,7 +35584,7 @@
       <c r="E811" s="51"/>
       <c r="F811" s="51"/>
       <c r="G811" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H811" s="51"/>
       <c r="I811" s="51"/>
@@ -35599,7 +35616,7 @@
       <c r="E812" s="51"/>
       <c r="F812" s="51"/>
       <c r="G812" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H812" s="51"/>
       <c r="I812" s="51"/>
@@ -35631,7 +35648,7 @@
       <c r="E813" s="51"/>
       <c r="F813" s="51"/>
       <c r="G813" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H813" s="51"/>
       <c r="I813" s="51"/>
@@ -35663,7 +35680,7 @@
       <c r="E814" s="51"/>
       <c r="F814" s="51"/>
       <c r="G814" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H814" s="51"/>
       <c r="I814" s="51"/>
@@ -35695,7 +35712,7 @@
       <c r="E815" s="51"/>
       <c r="F815" s="51"/>
       <c r="G815" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H815" s="51"/>
       <c r="I815" s="51"/>
@@ -35727,7 +35744,7 @@
       <c r="E816" s="51"/>
       <c r="F816" s="51"/>
       <c r="G816" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H816" s="51"/>
       <c r="I816" s="51"/>
@@ -35759,7 +35776,7 @@
       <c r="E817" s="51"/>
       <c r="F817" s="51"/>
       <c r="G817" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H817" s="51"/>
       <c r="I817" s="51"/>
@@ -35791,7 +35808,7 @@
       <c r="E818" s="51"/>
       <c r="F818" s="51"/>
       <c r="G818" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H818" s="51"/>
       <c r="I818" s="51"/>
@@ -35823,7 +35840,7 @@
       <c r="E819" s="51"/>
       <c r="F819" s="51"/>
       <c r="G819" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H819" s="51"/>
       <c r="I819" s="51"/>
@@ -35855,7 +35872,7 @@
       <c r="E820" s="51"/>
       <c r="F820" s="51"/>
       <c r="G820" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H820" s="51"/>
       <c r="I820" s="51"/>
@@ -35887,7 +35904,7 @@
       <c r="E821" s="51"/>
       <c r="F821" s="51"/>
       <c r="G821" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H821" s="51"/>
       <c r="I821" s="51"/>
@@ -35919,7 +35936,7 @@
       <c r="E822" s="51"/>
       <c r="F822" s="51"/>
       <c r="G822" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H822" s="51"/>
       <c r="I822" s="51"/>
@@ -35951,7 +35968,7 @@
       <c r="E823" s="51"/>
       <c r="F823" s="51"/>
       <c r="G823" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H823" s="51"/>
       <c r="I823" s="51"/>
@@ -35983,7 +36000,7 @@
       <c r="E824" s="51"/>
       <c r="F824" s="51"/>
       <c r="G824" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H824" s="51"/>
       <c r="I824" s="51"/>
@@ -36015,7 +36032,7 @@
       <c r="E825" s="51"/>
       <c r="F825" s="51"/>
       <c r="G825" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H825" s="51"/>
       <c r="I825" s="51"/>
@@ -36047,7 +36064,7 @@
       <c r="E826" s="51"/>
       <c r="F826" s="51"/>
       <c r="G826" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H826" s="51"/>
       <c r="I826" s="51"/>
@@ -36079,7 +36096,7 @@
       <c r="E827" s="51"/>
       <c r="F827" s="51"/>
       <c r="G827" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H827" s="51"/>
       <c r="I827" s="51"/>
@@ -36111,7 +36128,7 @@
       <c r="E828" s="51"/>
       <c r="F828" s="51"/>
       <c r="G828" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H828" s="51"/>
       <c r="I828" s="51"/>
@@ -36143,7 +36160,7 @@
       <c r="E829" s="51"/>
       <c r="F829" s="51"/>
       <c r="G829" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H829" s="51"/>
       <c r="I829" s="51"/>
@@ -36175,7 +36192,7 @@
       <c r="E830" s="51"/>
       <c r="F830" s="51"/>
       <c r="G830" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H830" s="51"/>
       <c r="I830" s="51"/>
@@ -36207,7 +36224,7 @@
       <c r="E831" s="51"/>
       <c r="F831" s="51"/>
       <c r="G831" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H831" s="51"/>
       <c r="I831" s="51"/>
@@ -36239,7 +36256,7 @@
       <c r="E832" s="51"/>
       <c r="F832" s="51"/>
       <c r="G832" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H832" s="51"/>
       <c r="I832" s="51"/>
@@ -36271,7 +36288,7 @@
       <c r="E833" s="51"/>
       <c r="F833" s="51"/>
       <c r="G833" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H833" s="51"/>
       <c r="I833" s="51"/>
@@ -36303,7 +36320,7 @@
       <c r="E834" s="51"/>
       <c r="F834" s="51"/>
       <c r="G834" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H834" s="51"/>
       <c r="I834" s="51"/>
@@ -36335,7 +36352,7 @@
       <c r="E835" s="51"/>
       <c r="F835" s="51"/>
       <c r="G835" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H835" s="51"/>
       <c r="I835" s="51"/>
@@ -36367,7 +36384,7 @@
       <c r="E836" s="51"/>
       <c r="F836" s="51"/>
       <c r="G836" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H836" s="51"/>
       <c r="I836" s="51"/>
@@ -36399,7 +36416,7 @@
       <c r="E837" s="51"/>
       <c r="F837" s="51"/>
       <c r="G837" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H837" s="51"/>
       <c r="I837" s="51"/>
@@ -36431,7 +36448,7 @@
       <c r="E838" s="51"/>
       <c r="F838" s="51"/>
       <c r="G838" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H838" s="51"/>
       <c r="I838" s="51"/>
@@ -36463,7 +36480,7 @@
       <c r="E839" s="51"/>
       <c r="F839" s="51"/>
       <c r="G839" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H839" s="51"/>
       <c r="I839" s="51"/>
@@ -36495,7 +36512,7 @@
       <c r="E840" s="51"/>
       <c r="F840" s="51"/>
       <c r="G840" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H840" s="51"/>
       <c r="I840" s="51"/>
@@ -36527,7 +36544,7 @@
       <c r="E841" s="51"/>
       <c r="F841" s="51"/>
       <c r="G841" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H841" s="51"/>
       <c r="I841" s="51"/>
@@ -36559,7 +36576,7 @@
       <c r="E842" s="51"/>
       <c r="F842" s="51"/>
       <c r="G842" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H842" s="51"/>
       <c r="I842" s="51"/>
@@ -36591,7 +36608,7 @@
       <c r="E843" s="51"/>
       <c r="F843" s="51"/>
       <c r="G843" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H843" s="51"/>
       <c r="I843" s="51"/>
@@ -36623,7 +36640,7 @@
       <c r="E844" s="51"/>
       <c r="F844" s="51"/>
       <c r="G844" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H844" s="51"/>
       <c r="I844" s="51"/>
@@ -36655,7 +36672,7 @@
       <c r="E845" s="51"/>
       <c r="F845" s="51"/>
       <c r="G845" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H845" s="51"/>
       <c r="I845" s="51"/>
@@ -36687,7 +36704,7 @@
       <c r="E846" s="51"/>
       <c r="F846" s="51"/>
       <c r="G846" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H846" s="51"/>
       <c r="I846" s="51"/>
@@ -36719,7 +36736,7 @@
       <c r="E847" s="51"/>
       <c r="F847" s="51"/>
       <c r="G847" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H847" s="51"/>
       <c r="I847" s="51"/>
@@ -36751,7 +36768,7 @@
       <c r="E848" s="51"/>
       <c r="F848" s="51"/>
       <c r="G848" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H848" s="51"/>
       <c r="I848" s="51"/>
@@ -36783,7 +36800,7 @@
       <c r="E849" s="51"/>
       <c r="F849" s="51"/>
       <c r="G849" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H849" s="51"/>
       <c r="I849" s="51"/>
@@ -36815,7 +36832,7 @@
       <c r="E850" s="51"/>
       <c r="F850" s="51"/>
       <c r="G850" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H850" s="51"/>
       <c r="I850" s="51"/>
@@ -36847,7 +36864,7 @@
       <c r="E851" s="51"/>
       <c r="F851" s="51"/>
       <c r="G851" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H851" s="51"/>
       <c r="I851" s="51"/>
@@ -36879,7 +36896,7 @@
       <c r="E852" s="51"/>
       <c r="F852" s="51"/>
       <c r="G852" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H852" s="51"/>
       <c r="I852" s="51"/>
@@ -36911,7 +36928,7 @@
       <c r="E853" s="51"/>
       <c r="F853" s="51"/>
       <c r="G853" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H853" s="51"/>
       <c r="I853" s="51"/>
@@ -36943,7 +36960,7 @@
       <c r="E854" s="51"/>
       <c r="F854" s="51"/>
       <c r="G854" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H854" s="51"/>
       <c r="I854" s="51"/>
@@ -36975,7 +36992,7 @@
       <c r="E855" s="51"/>
       <c r="F855" s="51"/>
       <c r="G855" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H855" s="51"/>
       <c r="I855" s="51"/>
@@ -37007,7 +37024,7 @@
       <c r="E856" s="51"/>
       <c r="F856" s="51"/>
       <c r="G856" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H856" s="51"/>
       <c r="I856" s="51"/>
@@ -37039,7 +37056,7 @@
       <c r="E857" s="51"/>
       <c r="F857" s="51"/>
       <c r="G857" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H857" s="51"/>
       <c r="I857" s="51"/>
@@ -37071,7 +37088,7 @@
       <c r="E858" s="51"/>
       <c r="F858" s="51"/>
       <c r="G858" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H858" s="51"/>
       <c r="I858" s="51"/>
@@ -37103,7 +37120,7 @@
       <c r="E859" s="51"/>
       <c r="F859" s="51"/>
       <c r="G859" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H859" s="51"/>
       <c r="I859" s="51"/>
@@ -37135,7 +37152,7 @@
       <c r="E860" s="51"/>
       <c r="F860" s="51"/>
       <c r="G860" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H860" s="51"/>
       <c r="I860" s="51"/>
@@ -37167,7 +37184,7 @@
       <c r="E861" s="51"/>
       <c r="F861" s="51"/>
       <c r="G861" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H861" s="51"/>
       <c r="I861" s="51"/>
@@ -37199,7 +37216,7 @@
       <c r="E862" s="51"/>
       <c r="F862" s="51"/>
       <c r="G862" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H862" s="51"/>
       <c r="I862" s="51"/>
@@ -37231,7 +37248,7 @@
       <c r="E863" s="51"/>
       <c r="F863" s="51"/>
       <c r="G863" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H863" s="51"/>
       <c r="I863" s="51"/>
@@ -37263,7 +37280,7 @@
       <c r="E864" s="51"/>
       <c r="F864" s="51"/>
       <c r="G864" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H864" s="51"/>
       <c r="I864" s="51"/>
@@ -37295,7 +37312,7 @@
       <c r="E865" s="51"/>
       <c r="F865" s="51"/>
       <c r="G865" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H865" s="51"/>
       <c r="I865" s="51"/>
@@ -37327,7 +37344,7 @@
       <c r="E866" s="51"/>
       <c r="F866" s="51"/>
       <c r="G866" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H866" s="51"/>
       <c r="I866" s="51"/>
@@ -37359,7 +37376,7 @@
       <c r="E867" s="51"/>
       <c r="F867" s="51"/>
       <c r="G867" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H867" s="51"/>
       <c r="I867" s="51"/>
@@ -37391,7 +37408,7 @@
       <c r="E868" s="51"/>
       <c r="F868" s="51"/>
       <c r="G868" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H868" s="51"/>
       <c r="I868" s="51"/>
@@ -37423,7 +37440,7 @@
       <c r="E869" s="51"/>
       <c r="F869" s="51"/>
       <c r="G869" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H869" s="51"/>
       <c r="I869" s="51"/>
@@ -37455,7 +37472,7 @@
       <c r="E870" s="51"/>
       <c r="F870" s="51"/>
       <c r="G870" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H870" s="51"/>
       <c r="I870" s="51"/>
@@ -37487,7 +37504,7 @@
       <c r="E871" s="51"/>
       <c r="F871" s="51"/>
       <c r="G871" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H871" s="51"/>
       <c r="I871" s="51"/>
@@ -37519,7 +37536,7 @@
       <c r="E872" s="51"/>
       <c r="F872" s="51"/>
       <c r="G872" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H872" s="51"/>
       <c r="I872" s="51"/>
@@ -37551,7 +37568,7 @@
       <c r="E873" s="51"/>
       <c r="F873" s="51"/>
       <c r="G873" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H873" s="51"/>
       <c r="I873" s="51"/>
@@ -37583,7 +37600,7 @@
       <c r="E874" s="51"/>
       <c r="F874" s="51"/>
       <c r="G874" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H874" s="51"/>
       <c r="I874" s="51"/>
@@ -37615,7 +37632,7 @@
       <c r="E875" s="51"/>
       <c r="F875" s="51"/>
       <c r="G875" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H875" s="51"/>
       <c r="I875" s="51"/>
@@ -37647,7 +37664,7 @@
       <c r="E876" s="51"/>
       <c r="F876" s="51"/>
       <c r="G876" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H876" s="51"/>
       <c r="I876" s="51"/>
@@ -37679,7 +37696,7 @@
       <c r="E877" s="51"/>
       <c r="F877" s="51"/>
       <c r="G877" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H877" s="51"/>
       <c r="I877" s="51"/>
@@ -37711,7 +37728,7 @@
       <c r="E878" s="51"/>
       <c r="F878" s="51"/>
       <c r="G878" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H878" s="51"/>
       <c r="I878" s="51"/>
@@ -37743,7 +37760,7 @@
       <c r="E879" s="51"/>
       <c r="F879" s="51"/>
       <c r="G879" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H879" s="51"/>
       <c r="I879" s="51"/>
@@ -37775,7 +37792,7 @@
       <c r="E880" s="51"/>
       <c r="F880" s="51"/>
       <c r="G880" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H880" s="51"/>
       <c r="I880" s="51"/>
@@ -37807,7 +37824,7 @@
       <c r="E881" s="51"/>
       <c r="F881" s="51"/>
       <c r="G881" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H881" s="51"/>
       <c r="I881" s="51"/>
@@ -37839,7 +37856,7 @@
       <c r="E882" s="51"/>
       <c r="F882" s="51"/>
       <c r="G882" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H882" s="51"/>
       <c r="I882" s="51"/>
@@ -37871,7 +37888,7 @@
       <c r="E883" s="51"/>
       <c r="F883" s="51"/>
       <c r="G883" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H883" s="51"/>
       <c r="I883" s="51"/>
@@ -37903,7 +37920,7 @@
       <c r="E884" s="51"/>
       <c r="F884" s="51"/>
       <c r="G884" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H884" s="51"/>
       <c r="I884" s="51"/>
@@ -37935,7 +37952,7 @@
       <c r="E885" s="51"/>
       <c r="F885" s="51"/>
       <c r="G885" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H885" s="51"/>
       <c r="I885" s="51"/>
@@ -37967,7 +37984,7 @@
       <c r="E886" s="51"/>
       <c r="F886" s="51"/>
       <c r="G886" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H886" s="51"/>
       <c r="I886" s="51"/>
@@ -37999,7 +38016,7 @@
       <c r="E887" s="51"/>
       <c r="F887" s="51"/>
       <c r="G887" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H887" s="51"/>
       <c r="I887" s="51"/>
@@ -38031,7 +38048,7 @@
       <c r="E888" s="51"/>
       <c r="F888" s="51"/>
       <c r="G888" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H888" s="51"/>
       <c r="I888" s="51"/>
@@ -38063,7 +38080,7 @@
       <c r="E889" s="51"/>
       <c r="F889" s="51"/>
       <c r="G889" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H889" s="51"/>
       <c r="I889" s="51"/>
@@ -38095,7 +38112,7 @@
       <c r="E890" s="51"/>
       <c r="F890" s="51"/>
       <c r="G890" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H890" s="51"/>
       <c r="I890" s="51"/>
@@ -38127,7 +38144,7 @@
       <c r="E891" s="51"/>
       <c r="F891" s="51"/>
       <c r="G891" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H891" s="51"/>
       <c r="I891" s="51"/>
@@ -38159,7 +38176,7 @@
       <c r="E892" s="51"/>
       <c r="F892" s="51"/>
       <c r="G892" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H892" s="51"/>
       <c r="I892" s="51"/>
@@ -38191,7 +38208,7 @@
       <c r="E893" s="51"/>
       <c r="F893" s="51"/>
       <c r="G893" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H893" s="51"/>
       <c r="I893" s="51"/>
@@ -38223,7 +38240,7 @@
       <c r="E894" s="51"/>
       <c r="F894" s="51"/>
       <c r="G894" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H894" s="51"/>
       <c r="I894" s="51"/>
@@ -38255,7 +38272,7 @@
       <c r="E895" s="51"/>
       <c r="F895" s="51"/>
       <c r="G895" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H895" s="51"/>
       <c r="I895" s="51"/>
@@ -38287,7 +38304,7 @@
       <c r="E896" s="51"/>
       <c r="F896" s="51"/>
       <c r="G896" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H896" s="51"/>
       <c r="I896" s="51"/>
@@ -38319,7 +38336,7 @@
       <c r="E897" s="51"/>
       <c r="F897" s="51"/>
       <c r="G897" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H897" s="51"/>
       <c r="I897" s="51"/>
@@ -38351,7 +38368,7 @@
       <c r="E898" s="51"/>
       <c r="F898" s="51"/>
       <c r="G898" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H898" s="51"/>
       <c r="I898" s="51"/>
@@ -38383,7 +38400,7 @@
       <c r="E899" s="51"/>
       <c r="F899" s="51"/>
       <c r="G899" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H899" s="51"/>
       <c r="I899" s="51"/>
@@ -38415,7 +38432,7 @@
       <c r="E900" s="51"/>
       <c r="F900" s="51"/>
       <c r="G900" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H900" s="51"/>
       <c r="I900" s="51"/>
@@ -38447,7 +38464,7 @@
       <c r="E901" s="51"/>
       <c r="F901" s="51"/>
       <c r="G901" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H901" s="51"/>
       <c r="I901" s="51"/>
@@ -38479,7 +38496,7 @@
       <c r="E902" s="51"/>
       <c r="F902" s="51"/>
       <c r="G902" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H902" s="51"/>
       <c r="I902" s="51"/>
@@ -38511,7 +38528,7 @@
       <c r="E903" s="51"/>
       <c r="F903" s="51"/>
       <c r="G903" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H903" s="51"/>
       <c r="I903" s="51"/>
@@ -38543,7 +38560,7 @@
       <c r="E904" s="51"/>
       <c r="F904" s="51"/>
       <c r="G904" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H904" s="51"/>
       <c r="I904" s="51"/>
@@ -38575,7 +38592,7 @@
       <c r="E905" s="51"/>
       <c r="F905" s="51"/>
       <c r="G905" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H905" s="51"/>
       <c r="I905" s="51"/>
@@ -38607,7 +38624,7 @@
       <c r="E906" s="51"/>
       <c r="F906" s="51"/>
       <c r="G906" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H906" s="51"/>
       <c r="I906" s="51"/>
@@ -38639,7 +38656,7 @@
       <c r="E907" s="51"/>
       <c r="F907" s="51"/>
       <c r="G907" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H907" s="51"/>
       <c r="I907" s="51"/>
@@ -38671,7 +38688,7 @@
       <c r="E908" s="51"/>
       <c r="F908" s="51"/>
       <c r="G908" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H908" s="51"/>
       <c r="I908" s="51"/>
@@ -38703,7 +38720,7 @@
       <c r="E909" s="51"/>
       <c r="F909" s="51"/>
       <c r="G909" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H909" s="51"/>
       <c r="I909" s="51"/>
@@ -38735,7 +38752,7 @@
       <c r="E910" s="51"/>
       <c r="F910" s="51"/>
       <c r="G910" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H910" s="51"/>
       <c r="I910" s="51"/>
@@ -38767,7 +38784,7 @@
       <c r="E911" s="51"/>
       <c r="F911" s="51"/>
       <c r="G911" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H911" s="51"/>
       <c r="I911" s="51"/>
@@ -38799,7 +38816,7 @@
       <c r="E912" s="51"/>
       <c r="F912" s="51"/>
       <c r="G912" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H912" s="51"/>
       <c r="I912" s="51"/>
@@ -38831,7 +38848,7 @@
       <c r="E913" s="51"/>
       <c r="F913" s="51"/>
       <c r="G913" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H913" s="51"/>
       <c r="I913" s="51"/>
@@ -38863,7 +38880,7 @@
       <c r="E914" s="51"/>
       <c r="F914" s="51"/>
       <c r="G914" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H914" s="51"/>
       <c r="I914" s="51"/>
@@ -38895,7 +38912,7 @@
       <c r="E915" s="51"/>
       <c r="F915" s="51"/>
       <c r="G915" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H915" s="51"/>
       <c r="I915" s="51"/>
@@ -38927,7 +38944,7 @@
       <c r="E916" s="51"/>
       <c r="F916" s="51"/>
       <c r="G916" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H916" s="51"/>
       <c r="I916" s="51"/>
@@ -38959,7 +38976,7 @@
       <c r="E917" s="51"/>
       <c r="F917" s="51"/>
       <c r="G917" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H917" s="51"/>
       <c r="I917" s="51"/>
@@ -38991,7 +39008,7 @@
       <c r="E918" s="51"/>
       <c r="F918" s="51"/>
       <c r="G918" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H918" s="51"/>
       <c r="I918" s="51"/>
@@ -39023,7 +39040,7 @@
       <c r="E919" s="51"/>
       <c r="F919" s="51"/>
       <c r="G919" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H919" s="51"/>
       <c r="I919" s="51"/>
@@ -39055,7 +39072,7 @@
       <c r="E920" s="51"/>
       <c r="F920" s="51"/>
       <c r="G920" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H920" s="51"/>
       <c r="I920" s="51"/>
@@ -39087,7 +39104,7 @@
       <c r="E921" s="51"/>
       <c r="F921" s="51"/>
       <c r="G921" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H921" s="51"/>
       <c r="I921" s="51"/>
@@ -39119,7 +39136,7 @@
       <c r="E922" s="51"/>
       <c r="F922" s="51"/>
       <c r="G922" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H922" s="51"/>
       <c r="I922" s="51"/>
@@ -39151,7 +39168,7 @@
       <c r="E923" s="51"/>
       <c r="F923" s="51"/>
       <c r="G923" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H923" s="51"/>
       <c r="I923" s="51"/>
@@ -39183,7 +39200,7 @@
       <c r="E924" s="51"/>
       <c r="F924" s="51"/>
       <c r="G924" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H924" s="51"/>
       <c r="I924" s="51"/>
@@ -39215,7 +39232,7 @@
       <c r="E925" s="51"/>
       <c r="F925" s="51"/>
       <c r="G925" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H925" s="51"/>
       <c r="I925" s="51"/>
@@ -39247,7 +39264,7 @@
       <c r="E926" s="51"/>
       <c r="F926" s="51"/>
       <c r="G926" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H926" s="51"/>
       <c r="I926" s="51"/>
@@ -39279,7 +39296,7 @@
       <c r="E927" s="51"/>
       <c r="F927" s="51"/>
       <c r="G927" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H927" s="51"/>
       <c r="I927" s="51"/>
@@ -39311,7 +39328,7 @@
       <c r="E928" s="51"/>
       <c r="F928" s="51"/>
       <c r="G928" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H928" s="51"/>
       <c r="I928" s="51"/>
@@ -39343,7 +39360,7 @@
       <c r="E929" s="51"/>
       <c r="F929" s="51"/>
       <c r="G929" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H929" s="51"/>
       <c r="I929" s="51"/>
@@ -39375,7 +39392,7 @@
       <c r="E930" s="51"/>
       <c r="F930" s="51"/>
       <c r="G930" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H930" s="51"/>
       <c r="I930" s="51"/>
@@ -39407,7 +39424,7 @@
       <c r="E931" s="51"/>
       <c r="F931" s="51"/>
       <c r="G931" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H931" s="51"/>
       <c r="I931" s="51"/>
@@ -39439,7 +39456,7 @@
       <c r="E932" s="51"/>
       <c r="F932" s="51"/>
       <c r="G932" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H932" s="51"/>
       <c r="I932" s="51"/>
@@ -39471,7 +39488,7 @@
       <c r="E933" s="51"/>
       <c r="F933" s="51"/>
       <c r="G933" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H933" s="51"/>
       <c r="I933" s="51"/>
@@ -39503,7 +39520,7 @@
       <c r="E934" s="51"/>
       <c r="F934" s="51"/>
       <c r="G934" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H934" s="51"/>
       <c r="I934" s="51"/>
@@ -39535,7 +39552,7 @@
       <c r="E935" s="51"/>
       <c r="F935" s="51"/>
       <c r="G935" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H935" s="51"/>
       <c r="I935" s="51"/>
@@ -39567,7 +39584,7 @@
       <c r="E936" s="51"/>
       <c r="F936" s="51"/>
       <c r="G936" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H936" s="51"/>
       <c r="I936" s="51"/>
@@ -39599,7 +39616,7 @@
       <c r="E937" s="51"/>
       <c r="F937" s="51"/>
       <c r="G937" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H937" s="51"/>
       <c r="I937" s="51"/>
@@ -39631,7 +39648,7 @@
       <c r="E938" s="51"/>
       <c r="F938" s="51"/>
       <c r="G938" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H938" s="51"/>
       <c r="I938" s="51"/>
@@ -39663,7 +39680,7 @@
       <c r="E939" s="51"/>
       <c r="F939" s="51"/>
       <c r="G939" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H939" s="51"/>
       <c r="I939" s="51"/>
@@ -39695,7 +39712,7 @@
       <c r="E940" s="51"/>
       <c r="F940" s="51"/>
       <c r="G940" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H940" s="51"/>
       <c r="I940" s="51"/>
@@ -39727,7 +39744,7 @@
       <c r="E941" s="51"/>
       <c r="F941" s="51"/>
       <c r="G941" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H941" s="51"/>
       <c r="I941" s="51"/>
@@ -39759,7 +39776,7 @@
       <c r="E942" s="51"/>
       <c r="F942" s="51"/>
       <c r="G942" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H942" s="51"/>
       <c r="I942" s="51"/>
@@ -39791,7 +39808,7 @@
       <c r="E943" s="51"/>
       <c r="F943" s="51"/>
       <c r="G943" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H943" s="51"/>
       <c r="I943" s="51"/>
@@ -39823,7 +39840,7 @@
       <c r="E944" s="51"/>
       <c r="F944" s="51"/>
       <c r="G944" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H944" s="51"/>
       <c r="I944" s="51"/>
@@ -39855,7 +39872,7 @@
       <c r="E945" s="51"/>
       <c r="F945" s="51"/>
       <c r="G945" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H945" s="51"/>
       <c r="I945" s="51"/>
@@ -39887,7 +39904,7 @@
       <c r="E946" s="51"/>
       <c r="F946" s="51"/>
       <c r="G946" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H946" s="51"/>
       <c r="I946" s="51"/>
@@ -39919,7 +39936,7 @@
       <c r="E947" s="51"/>
       <c r="F947" s="51"/>
       <c r="G947" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H947" s="51"/>
       <c r="I947" s="51"/>
@@ -39951,7 +39968,7 @@
       <c r="E948" s="51"/>
       <c r="F948" s="51"/>
       <c r="G948" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H948" s="51"/>
       <c r="I948" s="51"/>
@@ -39983,7 +40000,7 @@
       <c r="E949" s="51"/>
       <c r="F949" s="51"/>
       <c r="G949" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H949" s="51"/>
       <c r="I949" s="51"/>
@@ -40015,7 +40032,7 @@
       <c r="E950" s="51"/>
       <c r="F950" s="51"/>
       <c r="G950" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H950" s="51"/>
       <c r="I950" s="51"/>
@@ -40047,7 +40064,7 @@
       <c r="E951" s="51"/>
       <c r="F951" s="51"/>
       <c r="G951" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H951" s="51"/>
       <c r="I951" s="51"/>
@@ -40079,7 +40096,7 @@
       <c r="E952" s="51"/>
       <c r="F952" s="51"/>
       <c r="G952" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H952" s="51"/>
       <c r="I952" s="51"/>
@@ -40111,7 +40128,7 @@
       <c r="E953" s="51"/>
       <c r="F953" s="51"/>
       <c r="G953" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H953" s="51"/>
       <c r="I953" s="51"/>
@@ -40143,7 +40160,7 @@
       <c r="E954" s="51"/>
       <c r="F954" s="51"/>
       <c r="G954" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H954" s="51"/>
       <c r="I954" s="51"/>
@@ -40175,7 +40192,7 @@
       <c r="E955" s="51"/>
       <c r="F955" s="51"/>
       <c r="G955" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H955" s="51"/>
       <c r="I955" s="51"/>
@@ -40207,7 +40224,7 @@
       <c r="E956" s="51"/>
       <c r="F956" s="51"/>
       <c r="G956" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H956" s="51"/>
       <c r="I956" s="51"/>
@@ -40239,7 +40256,7 @@
       <c r="E957" s="51"/>
       <c r="F957" s="51"/>
       <c r="G957" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H957" s="51"/>
       <c r="I957" s="51"/>
@@ -40271,7 +40288,7 @@
       <c r="E958" s="51"/>
       <c r="F958" s="51"/>
       <c r="G958" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H958" s="51"/>
       <c r="I958" s="51"/>
@@ -40303,7 +40320,7 @@
       <c r="E959" s="51"/>
       <c r="F959" s="51"/>
       <c r="G959" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H959" s="51"/>
       <c r="I959" s="51"/>
@@ -40335,7 +40352,7 @@
       <c r="E960" s="51"/>
       <c r="F960" s="51"/>
       <c r="G960" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H960" s="51"/>
       <c r="I960" s="51"/>
@@ -40367,7 +40384,7 @@
       <c r="E961" s="51"/>
       <c r="F961" s="51"/>
       <c r="G961" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H961" s="51"/>
       <c r="I961" s="51"/>
@@ -40399,7 +40416,7 @@
       <c r="E962" s="51"/>
       <c r="F962" s="51"/>
       <c r="G962" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H962" s="51"/>
       <c r="I962" s="51"/>
@@ -40431,7 +40448,7 @@
       <c r="E963" s="51"/>
       <c r="F963" s="51"/>
       <c r="G963" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H963" s="51"/>
       <c r="I963" s="51"/>
@@ -40463,7 +40480,7 @@
       <c r="E964" s="51"/>
       <c r="F964" s="51"/>
       <c r="G964" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H964" s="51"/>
       <c r="I964" s="51"/>
@@ -40495,7 +40512,7 @@
       <c r="E965" s="51"/>
       <c r="F965" s="51"/>
       <c r="G965" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H965" s="51"/>
       <c r="I965" s="51"/>
@@ -40527,7 +40544,7 @@
       <c r="E966" s="51"/>
       <c r="F966" s="51"/>
       <c r="G966" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H966" s="51"/>
       <c r="I966" s="51"/>
@@ -40559,7 +40576,7 @@
       <c r="E967" s="51"/>
       <c r="F967" s="51"/>
       <c r="G967" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H967" s="51"/>
       <c r="I967" s="51"/>
@@ -40591,7 +40608,7 @@
       <c r="E968" s="51"/>
       <c r="F968" s="51"/>
       <c r="G968" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H968" s="51"/>
       <c r="I968" s="51"/>
@@ -40623,7 +40640,7 @@
       <c r="E969" s="51"/>
       <c r="F969" s="51"/>
       <c r="G969" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H969" s="51"/>
       <c r="I969" s="51"/>
@@ -40655,7 +40672,7 @@
       <c r="E970" s="51"/>
       <c r="F970" s="51"/>
       <c r="G970" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H970" s="51"/>
       <c r="I970" s="51"/>
@@ -40687,7 +40704,7 @@
       <c r="E971" s="51"/>
       <c r="F971" s="51"/>
       <c r="G971" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H971" s="51"/>
       <c r="I971" s="51"/>
@@ -40719,7 +40736,7 @@
       <c r="E972" s="51"/>
       <c r="F972" s="51"/>
       <c r="G972" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H972" s="51"/>
       <c r="I972" s="51"/>
@@ -40751,7 +40768,7 @@
       <c r="E973" s="51"/>
       <c r="F973" s="51"/>
       <c r="G973" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H973" s="51"/>
       <c r="I973" s="51"/>
@@ -40783,7 +40800,7 @@
       <c r="E974" s="51"/>
       <c r="F974" s="51"/>
       <c r="G974" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H974" s="51"/>
       <c r="I974" s="51"/>
@@ -40815,7 +40832,7 @@
       <c r="E975" s="51"/>
       <c r="F975" s="51"/>
       <c r="G975" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H975" s="51"/>
       <c r="I975" s="51"/>
@@ -40847,7 +40864,7 @@
       <c r="E976" s="51"/>
       <c r="F976" s="51"/>
       <c r="G976" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H976" s="51"/>
       <c r="I976" s="51"/>
@@ -40879,7 +40896,7 @@
       <c r="E977" s="51"/>
       <c r="F977" s="51"/>
       <c r="G977" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H977" s="51"/>
       <c r="I977" s="51"/>
@@ -40911,7 +40928,7 @@
       <c r="E978" s="51"/>
       <c r="F978" s="51"/>
       <c r="G978" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H978" s="51"/>
       <c r="I978" s="51"/>
@@ -40943,7 +40960,7 @@
       <c r="E979" s="51"/>
       <c r="F979" s="51"/>
       <c r="G979" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H979" s="51"/>
       <c r="I979" s="51"/>
@@ -40975,7 +40992,7 @@
       <c r="E980" s="51"/>
       <c r="F980" s="51"/>
       <c r="G980" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H980" s="51"/>
       <c r="I980" s="51"/>
@@ -41007,7 +41024,7 @@
       <c r="E981" s="51"/>
       <c r="F981" s="51"/>
       <c r="G981" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H981" s="51"/>
       <c r="I981" s="51"/>
@@ -41039,7 +41056,7 @@
       <c r="E982" s="51"/>
       <c r="F982" s="51"/>
       <c r="G982" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H982" s="51"/>
       <c r="I982" s="51"/>
@@ -41071,7 +41088,7 @@
       <c r="E983" s="51"/>
       <c r="F983" s="51"/>
       <c r="G983" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H983" s="51"/>
       <c r="I983" s="51"/>
@@ -41103,7 +41120,7 @@
       <c r="E984" s="51"/>
       <c r="F984" s="51"/>
       <c r="G984" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H984" s="51"/>
       <c r="I984" s="51"/>
@@ -41135,7 +41152,7 @@
       <c r="E985" s="51"/>
       <c r="F985" s="51"/>
       <c r="G985" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H985" s="51"/>
       <c r="I985" s="51"/>
@@ -41167,7 +41184,7 @@
       <c r="E986" s="51"/>
       <c r="F986" s="51"/>
       <c r="G986" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H986" s="51"/>
       <c r="I986" s="51"/>
@@ -41199,7 +41216,7 @@
       <c r="E987" s="51"/>
       <c r="F987" s="51"/>
       <c r="G987" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H987" s="51"/>
       <c r="I987" s="51"/>
@@ -41231,7 +41248,7 @@
       <c r="E988" s="51"/>
       <c r="F988" s="51"/>
       <c r="G988" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H988" s="51"/>
       <c r="I988" s="51"/>
@@ -41263,7 +41280,7 @@
       <c r="E989" s="51"/>
       <c r="F989" s="51"/>
       <c r="G989" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H989" s="51"/>
       <c r="I989" s="51"/>
@@ -41295,7 +41312,7 @@
       <c r="E990" s="51"/>
       <c r="F990" s="51"/>
       <c r="G990" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H990" s="51"/>
       <c r="I990" s="51"/>
@@ -41327,7 +41344,7 @@
       <c r="E991" s="51"/>
       <c r="F991" s="51"/>
       <c r="G991" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H991" s="51"/>
       <c r="I991" s="51"/>
@@ -41359,7 +41376,7 @@
       <c r="E992" s="51"/>
       <c r="F992" s="51"/>
       <c r="G992" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H992" s="51"/>
       <c r="I992" s="51"/>
@@ -41391,7 +41408,7 @@
       <c r="E993" s="51"/>
       <c r="F993" s="51"/>
       <c r="G993" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H993" s="51"/>
       <c r="I993" s="51"/>
@@ -41423,7 +41440,7 @@
       <c r="E994" s="51"/>
       <c r="F994" s="51"/>
       <c r="G994" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H994" s="51"/>
       <c r="I994" s="51"/>
@@ -41455,7 +41472,7 @@
       <c r="E995" s="51"/>
       <c r="F995" s="51"/>
       <c r="G995" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H995" s="51"/>
       <c r="I995" s="51"/>
@@ -41487,7 +41504,7 @@
       <c r="E996" s="51"/>
       <c r="F996" s="51"/>
       <c r="G996" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H996" s="51"/>
       <c r="I996" s="51"/>
@@ -41519,7 +41536,7 @@
       <c r="E997" s="51"/>
       <c r="F997" s="51"/>
       <c r="G997" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H997" s="51"/>
       <c r="I997" s="51"/>
@@ -41551,7 +41568,7 @@
       <c r="E998" s="51"/>
       <c r="F998" s="51"/>
       <c r="G998" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H998" s="51"/>
       <c r="I998" s="51"/>
@@ -41583,7 +41600,7 @@
       <c r="E999" s="51"/>
       <c r="F999" s="51"/>
       <c r="G999" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H999" s="51"/>
       <c r="I999" s="51"/>
@@ -41615,7 +41632,7 @@
       <c r="E1000" s="51"/>
       <c r="F1000" s="51"/>
       <c r="G1000" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H1000" s="51"/>
       <c r="I1000" s="51"/>
@@ -41647,7 +41664,7 @@
       <c r="E1001" s="51"/>
       <c r="F1001" s="51"/>
       <c r="G1001" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H1001" s="51"/>
       <c r="I1001" s="51"/>
@@ -41679,7 +41696,7 @@
       <c r="E1002" s="51"/>
       <c r="F1002" s="51"/>
       <c r="G1002" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H1002" s="51"/>
       <c r="I1002" s="51"/>
@@ -41711,7 +41728,7 @@
       <c r="E1003" s="51"/>
       <c r="F1003" s="51"/>
       <c r="G1003" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H1003" s="51"/>
       <c r="I1003" s="51"/>
@@ -41743,7 +41760,7 @@
       <c r="E1004" s="51"/>
       <c r="F1004" s="51"/>
       <c r="G1004" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H1004" s="51"/>
       <c r="I1004" s="51"/>
@@ -41775,7 +41792,7 @@
       <c r="E1005" s="51"/>
       <c r="F1005" s="51"/>
       <c r="G1005" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H1005" s="51"/>
       <c r="I1005" s="51"/>
@@ -41807,7 +41824,7 @@
       <c r="E1006" s="51"/>
       <c r="F1006" s="51"/>
       <c r="G1006" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H1006" s="51"/>
       <c r="I1006" s="51"/>
@@ -41839,7 +41856,7 @@
       <c r="E1007" s="51"/>
       <c r="F1007" s="51"/>
       <c r="G1007" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H1007" s="51"/>
       <c r="I1007" s="51"/>
@@ -41871,7 +41888,7 @@
       <c r="E1008" s="51"/>
       <c r="F1008" s="51"/>
       <c r="G1008" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H1008" s="51"/>
       <c r="I1008" s="51"/>
@@ -41903,7 +41920,7 @@
       <c r="E1009" s="51"/>
       <c r="F1009" s="51"/>
       <c r="G1009" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H1009" s="51"/>
       <c r="I1009" s="51"/>
@@ -41935,7 +41952,7 @@
       <c r="E1010" s="51"/>
       <c r="F1010" s="51"/>
       <c r="G1010" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H1010" s="51"/>
       <c r="I1010" s="51"/>
@@ -41967,7 +41984,7 @@
       <c r="E1011" s="51"/>
       <c r="F1011" s="51"/>
       <c r="G1011" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H1011" s="51"/>
       <c r="I1011" s="51"/>
@@ -41999,7 +42016,7 @@
       <c r="E1012" s="51"/>
       <c r="F1012" s="51"/>
       <c r="G1012" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H1012" s="51"/>
       <c r="I1012" s="51"/>
@@ -42031,7 +42048,7 @@
       <c r="E1013" s="51"/>
       <c r="F1013" s="51"/>
       <c r="G1013" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H1013" s="51"/>
       <c r="I1013" s="51"/>
@@ -42063,7 +42080,7 @@
       <c r="E1014" s="51"/>
       <c r="F1014" s="51"/>
       <c r="G1014" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H1014" s="51"/>
       <c r="I1014" s="51"/>
@@ -42095,7 +42112,7 @@
       <c r="E1015" s="51"/>
       <c r="F1015" s="51"/>
       <c r="G1015" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H1015" s="51"/>
       <c r="I1015" s="51"/>
@@ -42127,7 +42144,7 @@
       <c r="E1016" s="51"/>
       <c r="F1016" s="51"/>
       <c r="G1016" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H1016" s="51"/>
       <c r="I1016" s="51"/>
@@ -42159,7 +42176,7 @@
       <c r="E1017" s="51"/>
       <c r="F1017" s="51"/>
       <c r="G1017" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H1017" s="51"/>
       <c r="I1017" s="51"/>
@@ -42191,7 +42208,7 @@
       <c r="E1018" s="51"/>
       <c r="F1018" s="51"/>
       <c r="G1018" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H1018" s="51"/>
       <c r="I1018" s="51"/>
@@ -42223,7 +42240,7 @@
       <c r="E1019" s="51"/>
       <c r="F1019" s="51"/>
       <c r="G1019" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H1019" s="51"/>
       <c r="I1019" s="51"/>
@@ -42255,7 +42272,7 @@
       <c r="E1020" s="51"/>
       <c r="F1020" s="51"/>
       <c r="G1020" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H1020" s="51"/>
       <c r="I1020" s="51"/>
@@ -42287,7 +42304,7 @@
       <c r="E1021" s="51"/>
       <c r="F1021" s="51"/>
       <c r="G1021" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H1021" s="51"/>
       <c r="I1021" s="51"/>
@@ -42319,7 +42336,7 @@
       <c r="E1022" s="51"/>
       <c r="F1022" s="51"/>
       <c r="G1022" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H1022" s="51"/>
       <c r="I1022" s="51"/>
@@ -42351,7 +42368,7 @@
       <c r="E1023" s="51"/>
       <c r="F1023" s="51"/>
       <c r="G1023" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H1023" s="51"/>
       <c r="I1023" s="51"/>
@@ -42383,7 +42400,7 @@
       <c r="E1024" s="51"/>
       <c r="F1024" s="51"/>
       <c r="G1024" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H1024" s="51"/>
       <c r="I1024" s="51"/>
@@ -42415,7 +42432,7 @@
       <c r="E1025" s="51"/>
       <c r="F1025" s="51"/>
       <c r="G1025" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H1025" s="51"/>
       <c r="I1025" s="51"/>
@@ -42447,7 +42464,7 @@
       <c r="E1026" s="51"/>
       <c r="F1026" s="51"/>
       <c r="G1026" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H1026" s="51"/>
       <c r="I1026" s="51"/>
@@ -42479,7 +42496,7 @@
       <c r="E1027" s="51"/>
       <c r="F1027" s="51"/>
       <c r="G1027" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H1027" s="51"/>
       <c r="I1027" s="51"/>
@@ -42511,7 +42528,7 @@
       <c r="E1028" s="51"/>
       <c r="F1028" s="51"/>
       <c r="G1028" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H1028" s="51"/>
       <c r="I1028" s="51"/>
@@ -42543,7 +42560,7 @@
       <c r="E1029" s="51"/>
       <c r="F1029" s="51"/>
       <c r="G1029" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H1029" s="51"/>
       <c r="I1029" s="51"/>
@@ -42575,7 +42592,7 @@
       <c r="E1030" s="51"/>
       <c r="F1030" s="51"/>
       <c r="G1030" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H1030" s="51"/>
       <c r="I1030" s="51"/>
@@ -42607,7 +42624,7 @@
       <c r="E1031" s="51"/>
       <c r="F1031" s="51"/>
       <c r="G1031" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H1031" s="51"/>
       <c r="I1031" s="51"/>
@@ -42639,7 +42656,7 @@
       <c r="E1032" s="51"/>
       <c r="F1032" s="51"/>
       <c r="G1032" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H1032" s="51"/>
       <c r="I1032" s="51"/>
@@ -42671,7 +42688,7 @@
       <c r="E1033" s="51"/>
       <c r="F1033" s="51"/>
       <c r="G1033" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H1033" s="51"/>
       <c r="I1033" s="51"/>
@@ -42703,7 +42720,7 @@
       <c r="E1034" s="51"/>
       <c r="F1034" s="51"/>
       <c r="G1034" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H1034" s="51"/>
       <c r="I1034" s="51"/>
@@ -42735,7 +42752,7 @@
       <c r="E1035" s="51"/>
       <c r="F1035" s="51"/>
       <c r="G1035" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H1035" s="51"/>
       <c r="I1035" s="51"/>
@@ -42767,7 +42784,7 @@
       <c r="E1036" s="51"/>
       <c r="F1036" s="51"/>
       <c r="G1036" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H1036" s="51"/>
       <c r="I1036" s="51"/>
@@ -42799,7 +42816,7 @@
       <c r="E1037" s="51"/>
       <c r="F1037" s="51"/>
       <c r="G1037" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H1037" s="51"/>
       <c r="I1037" s="51"/>
@@ -42831,7 +42848,7 @@
       <c r="E1038" s="51"/>
       <c r="F1038" s="51"/>
       <c r="G1038" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H1038" s="51"/>
       <c r="I1038" s="51"/>
@@ -42863,7 +42880,7 @@
       <c r="E1039" s="51"/>
       <c r="F1039" s="51"/>
       <c r="G1039" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H1039" s="51"/>
       <c r="I1039" s="51"/>
@@ -42895,7 +42912,7 @@
       <c r="E1040" s="51"/>
       <c r="F1040" s="51"/>
       <c r="G1040" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H1040" s="51"/>
       <c r="I1040" s="51"/>
@@ -42927,7 +42944,7 @@
       <c r="E1041" s="51"/>
       <c r="F1041" s="51"/>
       <c r="G1041" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H1041" s="51"/>
       <c r="I1041" s="51"/>
@@ -42959,7 +42976,7 @@
       <c r="E1042" s="51"/>
       <c r="F1042" s="51"/>
       <c r="G1042" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H1042" s="51"/>
       <c r="I1042" s="51"/>
@@ -42991,7 +43008,7 @@
       <c r="E1043" s="51"/>
       <c r="F1043" s="51"/>
       <c r="G1043" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H1043" s="51"/>
       <c r="I1043" s="51"/>
@@ -43023,7 +43040,7 @@
       <c r="E1044" s="51"/>
       <c r="F1044" s="51"/>
       <c r="G1044" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H1044" s="51"/>
       <c r="I1044" s="51"/>
@@ -43055,7 +43072,7 @@
       <c r="E1045" s="51"/>
       <c r="F1045" s="51"/>
       <c r="G1045" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H1045" s="51"/>
       <c r="I1045" s="51"/>
@@ -43087,7 +43104,7 @@
       <c r="E1046" s="51"/>
       <c r="F1046" s="51"/>
       <c r="G1046" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H1046" s="51"/>
       <c r="I1046" s="51"/>
@@ -43119,7 +43136,7 @@
       <c r="E1047" s="51"/>
       <c r="F1047" s="51"/>
       <c r="G1047" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H1047" s="51"/>
       <c r="I1047" s="51"/>
@@ -43151,7 +43168,7 @@
       <c r="E1048" s="51"/>
       <c r="F1048" s="51"/>
       <c r="G1048" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H1048" s="51"/>
       <c r="I1048" s="51"/>
@@ -43183,7 +43200,7 @@
       <c r="E1049" s="51"/>
       <c r="F1049" s="51"/>
       <c r="G1049" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H1049" s="51"/>
       <c r="I1049" s="51"/>
@@ -43215,7 +43232,7 @@
       <c r="E1050" s="51"/>
       <c r="F1050" s="51"/>
       <c r="G1050" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H1050" s="51"/>
       <c r="I1050" s="51"/>
@@ -43247,7 +43264,7 @@
       <c r="E1051" s="51"/>
       <c r="F1051" s="51"/>
       <c r="G1051" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H1051" s="51"/>
       <c r="I1051" s="51"/>
@@ -43279,7 +43296,7 @@
       <c r="E1052" s="51"/>
       <c r="F1052" s="51"/>
       <c r="G1052" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H1052" s="51"/>
       <c r="I1052" s="51"/>
@@ -43311,7 +43328,7 @@
       <c r="E1053" s="51"/>
       <c r="F1053" s="51"/>
       <c r="G1053" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H1053" s="51"/>
       <c r="I1053" s="51"/>
@@ -43343,7 +43360,7 @@
       <c r="E1054" s="51"/>
       <c r="F1054" s="51"/>
       <c r="G1054" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H1054" s="51"/>
       <c r="I1054" s="51"/>
@@ -43375,7 +43392,7 @@
       <c r="E1055" s="51"/>
       <c r="F1055" s="51"/>
       <c r="G1055" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H1055" s="51"/>
       <c r="I1055" s="51"/>
@@ -43407,7 +43424,7 @@
       <c r="E1056" s="51"/>
       <c r="F1056" s="51"/>
       <c r="G1056" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H1056" s="51"/>
       <c r="I1056" s="51"/>
@@ -43439,7 +43456,7 @@
       <c r="E1057" s="51"/>
       <c r="F1057" s="51"/>
       <c r="G1057" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H1057" s="51"/>
       <c r="I1057" s="51"/>
@@ -43471,7 +43488,7 @@
       <c r="E1058" s="51"/>
       <c r="F1058" s="51"/>
       <c r="G1058" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H1058" s="51"/>
       <c r="I1058" s="51"/>
@@ -43503,7 +43520,7 @@
       <c r="E1059" s="51"/>
       <c r="F1059" s="51"/>
       <c r="G1059" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H1059" s="51"/>
       <c r="I1059" s="51"/>
@@ -43535,7 +43552,7 @@
       <c r="E1060" s="51"/>
       <c r="F1060" s="51"/>
       <c r="G1060" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H1060" s="51"/>
       <c r="I1060" s="51"/>
@@ -43567,7 +43584,7 @@
       <c r="E1061" s="51"/>
       <c r="F1061" s="51"/>
       <c r="G1061" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H1061" s="51"/>
       <c r="I1061" s="51"/>
@@ -43599,7 +43616,7 @@
       <c r="E1062" s="51"/>
       <c r="F1062" s="51"/>
       <c r="G1062" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H1062" s="51"/>
       <c r="I1062" s="51"/>
@@ -43631,7 +43648,7 @@
       <c r="E1063" s="51"/>
       <c r="F1063" s="51"/>
       <c r="G1063" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H1063" s="51"/>
       <c r="I1063" s="51"/>
@@ -43663,7 +43680,7 @@
       <c r="E1064" s="51"/>
       <c r="F1064" s="51"/>
       <c r="G1064" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H1064" s="51"/>
       <c r="I1064" s="51"/>
@@ -43695,7 +43712,7 @@
       <c r="E1065" s="51"/>
       <c r="F1065" s="51"/>
       <c r="G1065" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H1065" s="51"/>
       <c r="I1065" s="51"/>
@@ -43727,7 +43744,7 @@
       <c r="E1066" s="51"/>
       <c r="F1066" s="51"/>
       <c r="G1066" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H1066" s="51"/>
       <c r="I1066" s="51"/>
@@ -43759,7 +43776,7 @@
       <c r="E1067" s="51"/>
       <c r="F1067" s="51"/>
       <c r="G1067" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H1067" s="51"/>
       <c r="I1067" s="51"/>
@@ -43791,7 +43808,7 @@
       <c r="E1068" s="51"/>
       <c r="F1068" s="51"/>
       <c r="G1068" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H1068" s="51"/>
       <c r="I1068" s="51"/>
@@ -43823,7 +43840,7 @@
       <c r="E1069" s="51"/>
       <c r="F1069" s="51"/>
       <c r="G1069" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H1069" s="51"/>
       <c r="I1069" s="51"/>
@@ -43855,7 +43872,7 @@
       <c r="E1070" s="51"/>
       <c r="F1070" s="51"/>
       <c r="G1070" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H1070" s="51"/>
       <c r="I1070" s="51"/>
@@ -43887,7 +43904,7 @@
       <c r="E1071" s="51"/>
       <c r="F1071" s="51"/>
       <c r="G1071" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H1071" s="51"/>
       <c r="I1071" s="51"/>
@@ -43919,7 +43936,7 @@
       <c r="E1072" s="51"/>
       <c r="F1072" s="51"/>
       <c r="G1072" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H1072" s="51"/>
       <c r="I1072" s="51"/>
@@ -43951,7 +43968,7 @@
       <c r="E1073" s="51"/>
       <c r="F1073" s="51"/>
       <c r="G1073" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H1073" s="51"/>
       <c r="I1073" s="51"/>
@@ -43983,7 +44000,7 @@
       <c r="E1074" s="51"/>
       <c r="F1074" s="51"/>
       <c r="G1074" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H1074" s="51"/>
       <c r="I1074" s="51"/>
@@ -44015,7 +44032,7 @@
       <c r="E1075" s="51"/>
       <c r="F1075" s="51"/>
       <c r="G1075" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H1075" s="51"/>
       <c r="I1075" s="51"/>
@@ -44047,7 +44064,7 @@
       <c r="E1076" s="51"/>
       <c r="F1076" s="51"/>
       <c r="G1076" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H1076" s="51"/>
       <c r="I1076" s="51"/>
@@ -44079,7 +44096,7 @@
       <c r="E1077" s="51"/>
       <c r="F1077" s="51"/>
       <c r="G1077" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H1077" s="51"/>
       <c r="I1077" s="51"/>
@@ -44111,7 +44128,7 @@
       <c r="E1078" s="51"/>
       <c r="F1078" s="51"/>
       <c r="G1078" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H1078" s="51"/>
       <c r="I1078" s="51"/>
@@ -44143,7 +44160,7 @@
       <c r="E1079" s="51"/>
       <c r="F1079" s="51"/>
       <c r="G1079" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H1079" s="51"/>
       <c r="I1079" s="51"/>
@@ -44175,7 +44192,7 @@
       <c r="E1080" s="51"/>
       <c r="F1080" s="51"/>
       <c r="G1080" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H1080" s="51"/>
       <c r="I1080" s="51"/>
@@ -44207,7 +44224,7 @@
       <c r="E1081" s="51"/>
       <c r="F1081" s="51"/>
       <c r="G1081" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H1081" s="51"/>
       <c r="I1081" s="51"/>
@@ -44239,7 +44256,7 @@
       <c r="E1082" s="51"/>
       <c r="F1082" s="51"/>
       <c r="G1082" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H1082" s="51"/>
       <c r="I1082" s="51"/>
@@ -44271,7 +44288,7 @@
       <c r="E1083" s="51"/>
       <c r="F1083" s="51"/>
       <c r="G1083" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H1083" s="51"/>
       <c r="I1083" s="51"/>
@@ -44303,7 +44320,7 @@
       <c r="E1084" s="51"/>
       <c r="F1084" s="51"/>
       <c r="G1084" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H1084" s="51"/>
       <c r="I1084" s="51"/>
@@ -44335,7 +44352,7 @@
       <c r="E1085" s="51"/>
       <c r="F1085" s="51"/>
       <c r="G1085" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H1085" s="51"/>
       <c r="I1085" s="51"/>
@@ -44367,7 +44384,7 @@
       <c r="E1086" s="51"/>
       <c r="F1086" s="51"/>
       <c r="G1086" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H1086" s="51"/>
       <c r="I1086" s="51"/>
@@ -44399,7 +44416,7 @@
       <c r="E1087" s="51"/>
       <c r="F1087" s="51"/>
       <c r="G1087" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H1087" s="51"/>
       <c r="I1087" s="51"/>
@@ -44431,7 +44448,7 @@
       <c r="E1088" s="51"/>
       <c r="F1088" s="51"/>
       <c r="G1088" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H1088" s="51"/>
       <c r="I1088" s="51"/>
@@ -44463,7 +44480,7 @@
       <c r="E1089" s="51"/>
       <c r="F1089" s="51"/>
       <c r="G1089" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H1089" s="51"/>
       <c r="I1089" s="51"/>
@@ -44495,7 +44512,7 @@
       <c r="E1090" s="51"/>
       <c r="F1090" s="51"/>
       <c r="G1090" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H1090" s="51"/>
       <c r="I1090" s="51"/>
@@ -44527,7 +44544,7 @@
       <c r="E1091" s="51"/>
       <c r="F1091" s="51"/>
       <c r="G1091" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H1091" s="51"/>
       <c r="I1091" s="51"/>
@@ -44559,7 +44576,7 @@
       <c r="E1092" s="51"/>
       <c r="F1092" s="51"/>
       <c r="G1092" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H1092" s="51"/>
       <c r="I1092" s="51"/>
@@ -44591,7 +44608,7 @@
       <c r="E1093" s="51"/>
       <c r="F1093" s="51"/>
       <c r="G1093" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H1093" s="51"/>
       <c r="I1093" s="51"/>
@@ -44623,7 +44640,7 @@
       <c r="E1094" s="51"/>
       <c r="F1094" s="51"/>
       <c r="G1094" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H1094" s="51"/>
       <c r="I1094" s="51"/>
@@ -44655,7 +44672,7 @@
       <c r="E1095" s="51"/>
       <c r="F1095" s="51"/>
       <c r="G1095" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H1095" s="51"/>
       <c r="I1095" s="51"/>
@@ -44687,7 +44704,7 @@
       <c r="E1096" s="51"/>
       <c r="F1096" s="51"/>
       <c r="G1096" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H1096" s="51"/>
       <c r="I1096" s="51"/>
@@ -44719,7 +44736,7 @@
       <c r="E1097" s="51"/>
       <c r="F1097" s="51"/>
       <c r="G1097" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H1097" s="51"/>
       <c r="I1097" s="51"/>
@@ -44751,7 +44768,7 @@
       <c r="E1098" s="51"/>
       <c r="F1098" s="51"/>
       <c r="G1098" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H1098" s="51"/>
       <c r="I1098" s="51"/>
@@ -44783,7 +44800,7 @@
       <c r="E1099" s="51"/>
       <c r="F1099" s="51"/>
       <c r="G1099" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H1099" s="51"/>
       <c r="I1099" s="51"/>
@@ -44815,7 +44832,7 @@
       <c r="E1100" s="51"/>
       <c r="F1100" s="51"/>
       <c r="G1100" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H1100" s="51"/>
       <c r="I1100" s="51"/>
@@ -44847,7 +44864,7 @@
       <c r="E1101" s="51"/>
       <c r="F1101" s="51"/>
       <c r="G1101" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H1101" s="51"/>
       <c r="I1101" s="51"/>
@@ -44879,7 +44896,7 @@
       <c r="E1102" s="51"/>
       <c r="F1102" s="51"/>
       <c r="G1102" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H1102" s="51"/>
       <c r="I1102" s="51"/>
@@ -44911,7 +44928,7 @@
       <c r="E1103" s="51"/>
       <c r="F1103" s="51"/>
       <c r="G1103" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H1103" s="51"/>
       <c r="I1103" s="51"/>
@@ -44943,7 +44960,7 @@
       <c r="E1104" s="51"/>
       <c r="F1104" s="51"/>
       <c r="G1104" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H1104" s="51"/>
       <c r="I1104" s="51"/>
@@ -44975,7 +44992,7 @@
       <c r="E1105" s="51"/>
       <c r="F1105" s="51"/>
       <c r="G1105" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H1105" s="51"/>
       <c r="I1105" s="51"/>
@@ -45007,7 +45024,7 @@
       <c r="E1106" s="51"/>
       <c r="F1106" s="51"/>
       <c r="G1106" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H1106" s="51"/>
       <c r="I1106" s="51"/>
@@ -45039,7 +45056,7 @@
       <c r="E1107" s="51"/>
       <c r="F1107" s="51"/>
       <c r="G1107" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H1107" s="51"/>
       <c r="I1107" s="51"/>
@@ -45071,7 +45088,7 @@
       <c r="E1108" s="51"/>
       <c r="F1108" s="51"/>
       <c r="G1108" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H1108" s="51"/>
       <c r="I1108" s="51"/>
@@ -45103,7 +45120,7 @@
       <c r="E1109" s="51"/>
       <c r="F1109" s="51"/>
       <c r="G1109" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H1109" s="51"/>
       <c r="I1109" s="51"/>
@@ -45135,7 +45152,7 @@
       <c r="E1110" s="51"/>
       <c r="F1110" s="51"/>
       <c r="G1110" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H1110" s="51"/>
       <c r="I1110" s="51"/>
@@ -45167,7 +45184,7 @@
       <c r="E1111" s="51"/>
       <c r="F1111" s="51"/>
       <c r="G1111" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H1111" s="51"/>
       <c r="I1111" s="51"/>
@@ -45199,7 +45216,7 @@
       <c r="E1112" s="51"/>
       <c r="F1112" s="51"/>
       <c r="G1112" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H1112" s="51"/>
       <c r="I1112" s="51"/>
@@ -45231,7 +45248,7 @@
       <c r="E1113" s="51"/>
       <c r="F1113" s="51"/>
       <c r="G1113" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H1113" s="51"/>
       <c r="I1113" s="51"/>
@@ -45263,7 +45280,7 @@
       <c r="E1114" s="51"/>
       <c r="F1114" s="51"/>
       <c r="G1114" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H1114" s="51"/>
       <c r="I1114" s="51"/>
@@ -45295,7 +45312,7 @@
       <c r="E1115" s="51"/>
       <c r="F1115" s="51"/>
       <c r="G1115" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H1115" s="51"/>
       <c r="I1115" s="51"/>
@@ -45327,7 +45344,7 @@
       <c r="E1116" s="51"/>
       <c r="F1116" s="51"/>
       <c r="G1116" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H1116" s="51"/>
       <c r="I1116" s="51"/>
@@ -45359,7 +45376,7 @@
       <c r="E1117" s="51"/>
       <c r="F1117" s="51"/>
       <c r="G1117" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H1117" s="51"/>
       <c r="I1117" s="51"/>
@@ -45391,7 +45408,7 @@
       <c r="E1118" s="51"/>
       <c r="F1118" s="51"/>
       <c r="G1118" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H1118" s="51"/>
       <c r="I1118" s="51"/>
@@ -45423,7 +45440,7 @@
       <c r="E1119" s="51"/>
       <c r="F1119" s="51"/>
       <c r="G1119" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H1119" s="51"/>
       <c r="I1119" s="51"/>
@@ -45455,7 +45472,7 @@
       <c r="E1120" s="51"/>
       <c r="F1120" s="51"/>
       <c r="G1120" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H1120" s="51"/>
       <c r="I1120" s="51"/>
@@ -45487,7 +45504,7 @@
       <c r="E1121" s="51"/>
       <c r="F1121" s="51"/>
       <c r="G1121" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H1121" s="51"/>
       <c r="I1121" s="51"/>
@@ -45519,7 +45536,7 @@
       <c r="E1122" s="51"/>
       <c r="F1122" s="51"/>
       <c r="G1122" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H1122" s="51"/>
       <c r="I1122" s="51"/>
@@ -45551,7 +45568,7 @@
       <c r="E1123" s="51"/>
       <c r="F1123" s="51"/>
       <c r="G1123" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H1123" s="51"/>
       <c r="I1123" s="51"/>
@@ -45583,7 +45600,7 @@
       <c r="E1124" s="51"/>
       <c r="F1124" s="51"/>
       <c r="G1124" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H1124" s="51"/>
       <c r="I1124" s="51"/>
@@ -45615,7 +45632,7 @@
       <c r="E1125" s="51"/>
       <c r="F1125" s="51"/>
       <c r="G1125" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H1125" s="51"/>
       <c r="I1125" s="51"/>
@@ -45647,7 +45664,7 @@
       <c r="E1126" s="51"/>
       <c r="F1126" s="51"/>
       <c r="G1126" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H1126" s="51"/>
       <c r="I1126" s="51"/>
@@ -45679,7 +45696,7 @@
       <c r="E1127" s="51"/>
       <c r="F1127" s="51"/>
       <c r="G1127" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H1127" s="51"/>
       <c r="I1127" s="51"/>
@@ -45711,7 +45728,7 @@
       <c r="E1128" s="51"/>
       <c r="F1128" s="51"/>
       <c r="G1128" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H1128" s="51"/>
       <c r="I1128" s="51"/>
@@ -45743,7 +45760,7 @@
       <c r="E1129" s="51"/>
       <c r="F1129" s="51"/>
       <c r="G1129" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H1129" s="51"/>
       <c r="I1129" s="51"/>
@@ -45775,7 +45792,7 @@
       <c r="E1130" s="51"/>
       <c r="F1130" s="51"/>
       <c r="G1130" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H1130" s="51"/>
       <c r="I1130" s="51"/>
@@ -45807,7 +45824,7 @@
       <c r="E1131" s="51"/>
       <c r="F1131" s="51"/>
       <c r="G1131" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H1131" s="51"/>
       <c r="I1131" s="51"/>
@@ -45839,7 +45856,7 @@
       <c r="E1132" s="51"/>
       <c r="F1132" s="51"/>
       <c r="G1132" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H1132" s="51"/>
       <c r="I1132" s="51"/>
@@ -45871,7 +45888,7 @@
       <c r="E1133" s="51"/>
       <c r="F1133" s="51"/>
       <c r="G1133" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H1133" s="51"/>
       <c r="I1133" s="51"/>
@@ -45903,7 +45920,7 @@
       <c r="E1134" s="51"/>
       <c r="F1134" s="51"/>
       <c r="G1134" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H1134" s="51"/>
       <c r="I1134" s="51"/>
@@ -45935,7 +45952,7 @@
       <c r="E1135" s="51"/>
       <c r="F1135" s="51"/>
       <c r="G1135" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H1135" s="51"/>
       <c r="I1135" s="51"/>
@@ -45967,7 +45984,7 @@
       <c r="E1136" s="51"/>
       <c r="F1136" s="51"/>
       <c r="G1136" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H1136" s="51"/>
       <c r="I1136" s="51"/>
@@ -45999,7 +46016,7 @@
       <c r="E1137" s="51"/>
       <c r="F1137" s="51"/>
       <c r="G1137" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H1137" s="51"/>
       <c r="I1137" s="51"/>
@@ -46031,7 +46048,7 @@
       <c r="E1138" s="51"/>
       <c r="F1138" s="51"/>
       <c r="G1138" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H1138" s="51"/>
       <c r="I1138" s="51"/>
@@ -46063,7 +46080,7 @@
       <c r="E1139" s="51"/>
       <c r="F1139" s="51"/>
       <c r="G1139" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H1139" s="51"/>
       <c r="I1139" s="51"/>
@@ -46095,7 +46112,7 @@
       <c r="E1140" s="51"/>
       <c r="F1140" s="51"/>
       <c r="G1140" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H1140" s="51"/>
       <c r="I1140" s="51"/>
@@ -46127,7 +46144,7 @@
       <c r="E1141" s="51"/>
       <c r="F1141" s="51"/>
       <c r="G1141" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H1141" s="51"/>
       <c r="I1141" s="51"/>
@@ -46159,7 +46176,7 @@
       <c r="E1142" s="51"/>
       <c r="F1142" s="51"/>
       <c r="G1142" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H1142" s="51"/>
       <c r="I1142" s="51"/>
@@ -46191,7 +46208,7 @@
       <c r="E1143" s="51"/>
       <c r="F1143" s="51"/>
       <c r="G1143" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H1143" s="51"/>
       <c r="I1143" s="51"/>
@@ -46223,7 +46240,7 @@
       <c r="E1144" s="51"/>
       <c r="F1144" s="51"/>
       <c r="G1144" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H1144" s="51"/>
       <c r="I1144" s="51"/>
@@ -46255,7 +46272,7 @@
       <c r="E1145" s="51"/>
       <c r="F1145" s="51"/>
       <c r="G1145" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H1145" s="51"/>
       <c r="I1145" s="51"/>
@@ -46287,7 +46304,7 @@
       <c r="E1146" s="51"/>
       <c r="F1146" s="51"/>
       <c r="G1146" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H1146" s="51"/>
       <c r="I1146" s="51"/>
@@ -46319,7 +46336,7 @@
       <c r="E1147" s="51"/>
       <c r="F1147" s="51"/>
       <c r="G1147" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H1147" s="51"/>
       <c r="I1147" s="51"/>
@@ -46351,7 +46368,7 @@
       <c r="E1148" s="51"/>
       <c r="F1148" s="51"/>
       <c r="G1148" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H1148" s="51"/>
       <c r="I1148" s="51"/>
@@ -46383,7 +46400,7 @@
       <c r="E1149" s="51"/>
       <c r="F1149" s="51"/>
       <c r="G1149" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H1149" s="51"/>
       <c r="I1149" s="51"/>
@@ -46415,7 +46432,7 @@
       <c r="E1150" s="51"/>
       <c r="F1150" s="51"/>
       <c r="G1150" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H1150" s="51"/>
       <c r="I1150" s="51"/>
@@ -46447,7 +46464,7 @@
       <c r="E1151" s="51"/>
       <c r="F1151" s="51"/>
       <c r="G1151" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H1151" s="51"/>
       <c r="I1151" s="51"/>
@@ -46479,7 +46496,7 @@
       <c r="E1152" s="51"/>
       <c r="F1152" s="51"/>
       <c r="G1152" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H1152" s="51"/>
       <c r="I1152" s="51"/>
@@ -46511,7 +46528,7 @@
       <c r="E1153" s="51"/>
       <c r="F1153" s="51"/>
       <c r="G1153" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H1153" s="51"/>
       <c r="I1153" s="51"/>
@@ -46543,7 +46560,7 @@
       <c r="E1154" s="51"/>
       <c r="F1154" s="51"/>
       <c r="G1154" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H1154" s="51"/>
       <c r="I1154" s="51"/>
@@ -46575,7 +46592,7 @@
       <c r="E1155" s="51"/>
       <c r="F1155" s="51"/>
       <c r="G1155" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H1155" s="51"/>
       <c r="I1155" s="51"/>
@@ -46607,7 +46624,7 @@
       <c r="E1156" s="51"/>
       <c r="F1156" s="51"/>
       <c r="G1156" s="51" t="s">
-        <v>447</v>
+        <v>2282</v>
       </c>
       <c r="H1156" s="51"/>
       <c r="I1156" s="51"/>

--- a/ontology/dataset-voc.xlsx
+++ b/ontology/dataset-voc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jgraybeal/Documents/GitHub/fair-data-collective/generic-dataset-metadata-template/ontology/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75CA2940-922A-9C49-820A-3DADE7F1D514}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BA1C53D-6646-D84C-BE82-94DAD55ABE00}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3440" yWindow="460" windowWidth="47040" windowHeight="28340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3557" uniqueCount="2386">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3558" uniqueCount="2387">
   <si>
     <t>ConceptScheme URI</t>
   </si>
@@ -7297,9 +7297,6 @@
     <t>gdmt:MIMEType</t>
   </si>
   <si>
-    <t>2020-12-13T23:15:00-08:00</t>
-  </si>
-  <si>
     <t>Identifier Scheme</t>
   </si>
   <si>
@@ -7373,6 +7370,12 @@
   </si>
   <si>
     <t>application/x-bytecode.python</t>
+  </si>
+  <si>
+    <t>0.3.1</t>
+  </si>
+  <si>
+    <t>2020-12-13T23:45:00-08:00</t>
   </si>
 </sst>
 </file>
@@ -9354,8 +9357,8 @@
   <dimension ref="A1:W1157"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="180" zoomScaleNormal="187" workbookViewId="0">
-      <pane ySplit="16" topLeftCell="A999" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
+      <pane ySplit="16" topLeftCell="A687" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
@@ -9706,8 +9709,8 @@
       <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="2">
-        <v>0.3</v>
+      <c r="B12" s="2" t="s">
+        <v>2385</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -9765,7 +9768,7 @@
         <v>11</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>2375</v>
+        <v>2386</v>
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
@@ -13175,7 +13178,7 @@
       <c r="C150" s="42"/>
       <c r="D150" s="42"/>
       <c r="E150" s="41" t="s">
-        <v>2377</v>
+        <v>2376</v>
       </c>
       <c r="F150" s="42"/>
       <c r="G150" s="42"/>
@@ -14596,7 +14599,7 @@
       <c r="C202" s="47"/>
       <c r="D202" s="47"/>
       <c r="E202" s="48" t="s">
-        <v>2378</v>
+        <v>2377</v>
       </c>
       <c r="F202" s="49"/>
       <c r="G202" s="49"/>
@@ -15104,7 +15107,7 @@
       <c r="C217" s="44"/>
       <c r="D217" s="44"/>
       <c r="E217" s="44" t="s">
-        <v>2379</v>
+        <v>2378</v>
       </c>
       <c r="F217" s="46"/>
       <c r="G217" s="46" t="s">
@@ -15172,7 +15175,7 @@
       <c r="C219" s="44"/>
       <c r="D219" s="44"/>
       <c r="E219" s="44" t="s">
-        <v>2380</v>
+        <v>2379</v>
       </c>
       <c r="F219" s="44"/>
       <c r="G219" s="46" t="s">
@@ -15342,7 +15345,7 @@
       <c r="C224" s="47"/>
       <c r="D224" s="47"/>
       <c r="E224" s="48" t="s">
-        <v>2381</v>
+        <v>2380</v>
       </c>
       <c r="F224" s="49"/>
       <c r="G224" s="49"/>
@@ -16627,7 +16630,7 @@
         <v>gdmt:IdentifierScheme</v>
       </c>
       <c r="B262" s="47" t="s">
-        <v>2376</v>
+        <v>2375</v>
       </c>
       <c r="C262" s="47"/>
       <c r="D262" s="47"/>
@@ -32241,7 +32244,7 @@
       <c r="C697" s="47"/>
       <c r="D697" s="47"/>
       <c r="E697" s="48" t="s">
-        <v>2382</v>
+        <v>2381</v>
       </c>
       <c r="F697" s="49"/>
       <c r="G697" s="49"/>
@@ -32307,7 +32310,7 @@
       <c r="C699" s="47"/>
       <c r="D699" s="47"/>
       <c r="E699" s="48" t="s">
-        <v>2383</v>
+        <v>2382</v>
       </c>
       <c r="F699" s="49"/>
       <c r="G699" s="49"/>
@@ -32372,7 +32375,7 @@
       <c r="C701" s="47"/>
       <c r="D701" s="47"/>
       <c r="E701" s="48" t="s">
-        <v>2384</v>
+        <v>2383</v>
       </c>
       <c r="F701" s="49"/>
       <c r="G701" s="49"/>
@@ -32399,7 +32402,7 @@
         <v>gdmt:application-x-bytecode.python</v>
       </c>
       <c r="B702" s="51" t="s">
-        <v>2385</v>
+        <v>2384</v>
       </c>
       <c r="C702" s="51"/>
       <c r="D702" s="51"/>

--- a/ontology/dataset-voc.xlsx
+++ b/ontology/dataset-voc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Secondary_Drive/work/repos/FAIR-data/generic-dataset-metadata-template/ontology/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{370EAC1C-0B36-304B-A5AC-5DB5C1D44981}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69113204-EDBA-2149-BBEF-E235BE6D41EC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="34400" yWindow="460" windowWidth="34400" windowHeight="28340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6487,9 +6487,6 @@
     <t>gdmt:ResourceCreatorType</t>
   </si>
   <si>
-    <t>gdmt:ResourceIdentifierType</t>
-  </si>
-  <si>
     <t xml:space="preserve">The type of internet identifier used for the resource. Note many of these identifier types are *not* IRIs. </t>
   </si>
   <si>
@@ -7061,6 +7058,9 @@
   </si>
   <si>
     <t>http://vocab.fairdatacollective.org/gdmt/</t>
+  </si>
+  <si>
+    <t>gdmt:IdentifierType</t>
   </si>
 </sst>
 </file>
@@ -9041,9 +9041,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W1147"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="180" zoomScaleNormal="187" workbookViewId="0">
-      <pane ySplit="16" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="180" zoomScaleNormal="187" workbookViewId="0">
+      <pane ySplit="16" topLeftCell="A212" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E217" sqref="E217"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
@@ -9066,7 +9066,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>2281</v>
+        <v>2280</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -9098,7 +9098,7 @@
         <v>31</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>2281</v>
+        <v>2280</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="5"/>
@@ -9453,7 +9453,7 @@
         <v>11</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>2146</v>
+        <v>2145</v>
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
@@ -9533,13 +9533,13 @@
         <v>gdmt:hasResourceType</v>
       </c>
       <c r="B17" s="36" t="s">
-        <v>2148</v>
+        <v>2147</v>
       </c>
       <c r="C17" s="15" t="s">
         <v>2041</v>
       </c>
       <c r="D17" s="36" t="s">
-        <v>2148</v>
+        <v>2147</v>
       </c>
       <c r="E17" s="36" t="s">
         <v>32</v>
@@ -9558,13 +9558,13 @@
         <v>gdmt:hasDatasetIdentifier</v>
       </c>
       <c r="B18" s="36" t="s">
-        <v>2149</v>
+        <v>2148</v>
       </c>
       <c r="C18" s="15" t="s">
         <v>2041</v>
       </c>
       <c r="D18" s="36" t="s">
-        <v>2149</v>
+        <v>2148</v>
       </c>
       <c r="E18" s="36" t="s">
         <v>33</v>
@@ -9583,13 +9583,13 @@
         <v>gdmt:hasRelatedResources</v>
       </c>
       <c r="B19" s="36" t="s">
-        <v>2150</v>
+        <v>2149</v>
       </c>
       <c r="C19" s="15" t="s">
         <v>2041</v>
       </c>
       <c r="D19" s="36" t="s">
-        <v>2150</v>
+        <v>2149</v>
       </c>
       <c r="E19" s="36" t="s">
         <v>34</v>
@@ -9608,13 +9608,13 @@
         <v>gdmt:hasVersion</v>
       </c>
       <c r="B20" s="36" t="s">
-        <v>2151</v>
+        <v>2150</v>
       </c>
       <c r="C20" s="15" t="s">
         <v>2041</v>
       </c>
       <c r="D20" s="36" t="s">
-        <v>2151</v>
+        <v>2150</v>
       </c>
       <c r="E20" s="36" t="s">
         <v>2042</v>
@@ -9633,13 +9633,13 @@
         <v>gdmt:hasLanguage</v>
       </c>
       <c r="B21" s="36" t="s">
-        <v>2152</v>
+        <v>2151</v>
       </c>
       <c r="C21" s="15" t="s">
         <v>2041</v>
       </c>
       <c r="D21" s="36" t="s">
-        <v>2152</v>
+        <v>2151</v>
       </c>
       <c r="E21" s="36" t="s">
         <v>2044</v>
@@ -9658,13 +9658,13 @@
         <v>gdmt:hasTitle</v>
       </c>
       <c r="B22" s="36" t="s">
-        <v>2153</v>
+        <v>2152</v>
       </c>
       <c r="C22" s="15" t="s">
         <v>2041</v>
       </c>
       <c r="D22" s="36" t="s">
-        <v>2153</v>
+        <v>2152</v>
       </c>
       <c r="E22" s="36" t="s">
         <v>2043</v>
@@ -9683,13 +9683,13 @@
         <v>gdmt:hasDescription</v>
       </c>
       <c r="B23" s="36" t="s">
-        <v>2154</v>
+        <v>2153</v>
       </c>
       <c r="C23" s="15" t="s">
         <v>2041</v>
       </c>
       <c r="D23" s="36" t="s">
-        <v>2154</v>
+        <v>2153</v>
       </c>
       <c r="E23" s="36" t="s">
         <v>35</v>
@@ -9708,13 +9708,13 @@
         <v>gdmt:hasSubject</v>
       </c>
       <c r="B24" s="36" t="s">
-        <v>2155</v>
+        <v>2154</v>
       </c>
       <c r="C24" s="15" t="s">
         <v>2041</v>
       </c>
       <c r="D24" s="36" t="s">
-        <v>2155</v>
+        <v>2154</v>
       </c>
       <c r="E24" s="36" t="s">
         <v>2045</v>
@@ -9733,13 +9733,13 @@
         <v>gdmt:hasControlledTerms</v>
       </c>
       <c r="B25" s="36" t="s">
-        <v>2156</v>
+        <v>2155</v>
       </c>
       <c r="C25" s="15" t="s">
         <v>2041</v>
       </c>
       <c r="D25" s="36" t="s">
-        <v>2156</v>
+        <v>2155</v>
       </c>
       <c r="E25" s="36" t="s">
         <v>2046</v>
@@ -9758,13 +9758,13 @@
         <v>gdmt:hasCreator</v>
       </c>
       <c r="B26" s="36" t="s">
-        <v>2157</v>
+        <v>2156</v>
       </c>
       <c r="C26" s="15" t="s">
         <v>2041</v>
       </c>
       <c r="D26" s="36" t="s">
-        <v>2157</v>
+        <v>2156</v>
       </c>
       <c r="E26" s="36" t="s">
         <v>2047</v>
@@ -9783,13 +9783,13 @@
         <v>gdmt:hasCreatorName</v>
       </c>
       <c r="B27" s="36" t="s">
-        <v>2158</v>
+        <v>2157</v>
       </c>
       <c r="C27" s="15" t="s">
         <v>2041</v>
       </c>
       <c r="D27" s="36" t="s">
-        <v>2158</v>
+        <v>2157</v>
       </c>
       <c r="E27" s="36" t="s">
         <v>36</v>
@@ -9808,13 +9808,13 @@
         <v>gdmt:hasCreatorIdentifier</v>
       </c>
       <c r="B28" s="36" t="s">
-        <v>2159</v>
+        <v>2158</v>
       </c>
       <c r="C28" s="15" t="s">
         <v>2041</v>
       </c>
       <c r="D28" s="36" t="s">
-        <v>2159</v>
+        <v>2158</v>
       </c>
       <c r="E28" s="36" t="s">
         <v>37</v>
@@ -9833,13 +9833,13 @@
         <v>gdmt:hasCreatorAffiliation</v>
       </c>
       <c r="B29" s="36" t="s">
-        <v>2160</v>
+        <v>2159</v>
       </c>
       <c r="C29" s="15" t="s">
         <v>2041</v>
       </c>
       <c r="D29" s="36" t="s">
-        <v>2160</v>
+        <v>2159</v>
       </c>
       <c r="E29" s="36" t="s">
         <v>38</v>
@@ -9858,13 +9858,13 @@
         <v>gdmt:hasContributor</v>
       </c>
       <c r="B30" s="36" t="s">
-        <v>2161</v>
+        <v>2160</v>
       </c>
       <c r="C30" s="15" t="s">
         <v>2041</v>
       </c>
       <c r="D30" s="36" t="s">
-        <v>2161</v>
+        <v>2160</v>
       </c>
       <c r="E30" s="36" t="s">
         <v>2048</v>
@@ -9883,13 +9883,13 @@
         <v>gdmt:hasContributorName</v>
       </c>
       <c r="B31" s="36" t="s">
-        <v>2162</v>
+        <v>2161</v>
       </c>
       <c r="C31" s="15" t="s">
         <v>2041</v>
       </c>
       <c r="D31" s="36" t="s">
-        <v>2162</v>
+        <v>2161</v>
       </c>
       <c r="E31" s="36" t="s">
         <v>2063</v>
@@ -9908,13 +9908,13 @@
         <v>gdmt:hasContributorIdentifier</v>
       </c>
       <c r="B32" s="36" t="s">
-        <v>2163</v>
+        <v>2162</v>
       </c>
       <c r="C32" s="15" t="s">
         <v>2041</v>
       </c>
       <c r="D32" s="36" t="s">
-        <v>2163</v>
+        <v>2162</v>
       </c>
       <c r="E32" s="36" t="s">
         <v>2064</v>
@@ -9933,13 +9933,13 @@
         <v>gdmt:hasContributorAffiliation</v>
       </c>
       <c r="B33" s="36" t="s">
-        <v>2164</v>
+        <v>2163</v>
       </c>
       <c r="C33" s="15" t="s">
         <v>2041</v>
       </c>
       <c r="D33" s="36" t="s">
-        <v>2164</v>
+        <v>2163</v>
       </c>
       <c r="E33" s="36" t="s">
         <v>2065</v>
@@ -9958,13 +9958,13 @@
         <v>gdmt:hasPublisher</v>
       </c>
       <c r="B34" s="36" t="s">
-        <v>2165</v>
+        <v>2164</v>
       </c>
       <c r="C34" s="15" t="s">
         <v>2041</v>
       </c>
       <c r="D34" s="36" t="s">
-        <v>2165</v>
+        <v>2164</v>
       </c>
       <c r="E34" s="36" t="s">
         <v>2049</v>
@@ -9983,13 +9983,13 @@
         <v>gdmt:hasPublisherIdentifier</v>
       </c>
       <c r="B35" s="36" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="C35" s="15" t="s">
         <v>2041</v>
       </c>
       <c r="D35" s="36" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="E35" s="36" t="s">
         <v>39</v>
@@ -10008,13 +10008,13 @@
         <v>gdmt:hasRights</v>
       </c>
       <c r="B36" s="36" t="s">
-        <v>2167</v>
+        <v>2166</v>
       </c>
       <c r="C36" s="15" t="s">
         <v>2041</v>
       </c>
       <c r="D36" s="36" t="s">
-        <v>2167</v>
+        <v>2166</v>
       </c>
       <c r="E36" s="36" t="s">
         <v>2050</v>
@@ -10033,13 +10033,13 @@
         <v>gdmt:hasLicenseIdentifier</v>
       </c>
       <c r="B37" s="36" t="s">
-        <v>2168</v>
+        <v>2167</v>
       </c>
       <c r="C37" s="15" t="s">
         <v>2041</v>
       </c>
       <c r="D37" s="36" t="s">
-        <v>2168</v>
+        <v>2167</v>
       </c>
       <c r="E37" s="36" t="s">
         <v>40</v>
@@ -10058,13 +10058,13 @@
         <v>gdmt:hasDate</v>
       </c>
       <c r="B38" s="36" t="s">
-        <v>2169</v>
+        <v>2168</v>
       </c>
       <c r="C38" s="15" t="s">
         <v>2041</v>
       </c>
       <c r="D38" s="36" t="s">
-        <v>2169</v>
+        <v>2168</v>
       </c>
       <c r="E38" s="36" t="s">
         <v>2051</v>
@@ -10083,13 +10083,13 @@
         <v>gdmt:hasDistribution</v>
       </c>
       <c r="B39" s="36" t="s">
-        <v>2170</v>
+        <v>2169</v>
       </c>
       <c r="C39" s="15" t="s">
         <v>2041</v>
       </c>
       <c r="D39" s="36" t="s">
-        <v>2170</v>
+        <v>2169</v>
       </c>
       <c r="E39" s="36" t="s">
         <v>41</v>
@@ -10108,13 +10108,13 @@
         <v>gdmt:hasDistributionAccess</v>
       </c>
       <c r="B40" s="36" t="s">
-        <v>2171</v>
+        <v>2170</v>
       </c>
       <c r="C40" s="15" t="s">
         <v>2041</v>
       </c>
       <c r="D40" s="36" t="s">
-        <v>2171</v>
+        <v>2170</v>
       </c>
       <c r="E40" s="36" t="s">
         <v>42</v>
@@ -10133,13 +10133,13 @@
         <v>gdmt:hasDistributor</v>
       </c>
       <c r="B41" s="36" t="s">
-        <v>2172</v>
+        <v>2171</v>
       </c>
       <c r="C41" s="15" t="s">
         <v>2041</v>
       </c>
       <c r="D41" s="36" t="s">
-        <v>2172</v>
+        <v>2171</v>
       </c>
       <c r="E41" s="36" t="s">
         <v>44</v>
@@ -10158,13 +10158,13 @@
         <v>gdmt:hasDistributorName</v>
       </c>
       <c r="B42" s="36" t="s">
-        <v>2173</v>
+        <v>2172</v>
       </c>
       <c r="C42" s="15" t="s">
         <v>2041</v>
       </c>
       <c r="D42" s="36" t="s">
-        <v>2173</v>
+        <v>2172</v>
       </c>
       <c r="E42" s="36" t="s">
         <v>45</v>
@@ -10183,13 +10183,13 @@
         <v>gdmt:hasDistributorIdentifier</v>
       </c>
       <c r="B43" s="36" t="s">
-        <v>2174</v>
+        <v>2173</v>
       </c>
       <c r="C43" s="15" t="s">
         <v>2041</v>
       </c>
       <c r="D43" s="36" t="s">
-        <v>2174</v>
+        <v>2173</v>
       </c>
       <c r="E43" s="36" t="s">
         <v>46</v>
@@ -10208,13 +10208,13 @@
         <v>gdmt:hasDistributorAffiliation</v>
       </c>
       <c r="B44" s="36" t="s">
-        <v>2175</v>
+        <v>2174</v>
       </c>
       <c r="C44" s="15" t="s">
         <v>2041</v>
       </c>
       <c r="D44" s="36" t="s">
-        <v>2175</v>
+        <v>2174</v>
       </c>
       <c r="E44" s="36" t="s">
         <v>47</v>
@@ -10233,13 +10233,13 @@
         <v>gdmt:hasContent</v>
       </c>
       <c r="B45" s="36" t="s">
-        <v>2176</v>
+        <v>2175</v>
       </c>
       <c r="C45" s="15" t="s">
         <v>2041</v>
       </c>
       <c r="D45" s="36" t="s">
-        <v>2176</v>
+        <v>2175</v>
       </c>
       <c r="E45" s="36" t="s">
         <v>2052</v>
@@ -10258,13 +10258,13 @@
         <v>gdmt:hasDataStream</v>
       </c>
       <c r="B46" s="36" t="s">
-        <v>2177</v>
+        <v>2176</v>
       </c>
       <c r="C46" s="15" t="s">
         <v>2041</v>
       </c>
       <c r="D46" s="36" t="s">
-        <v>2177</v>
+        <v>2176</v>
       </c>
       <c r="E46" s="36" t="s">
         <v>2053</v>
@@ -10283,13 +10283,13 @@
         <v>gdmt:hasDataSource</v>
       </c>
       <c r="B47" s="36" t="s">
-        <v>2178</v>
+        <v>2177</v>
       </c>
       <c r="C47" s="15" t="s">
         <v>2041</v>
       </c>
       <c r="D47" s="36" t="s">
-        <v>2178</v>
+        <v>2177</v>
       </c>
       <c r="E47" s="36" t="s">
         <v>2054</v>
@@ -10308,13 +10308,13 @@
         <v>gdmt:hasVariable</v>
       </c>
       <c r="B48" s="36" t="s">
-        <v>2179</v>
+        <v>2178</v>
       </c>
       <c r="C48" s="15" t="s">
         <v>2041</v>
       </c>
       <c r="D48" s="36" t="s">
-        <v>2179</v>
+        <v>2178</v>
       </c>
       <c r="E48" s="36" t="s">
         <v>2055</v>
@@ -10333,13 +10333,13 @@
         <v>gdmt:hasSpatialCoverage</v>
       </c>
       <c r="B49" s="36" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
       <c r="C49" s="15" t="s">
         <v>2041</v>
       </c>
       <c r="D49" s="36" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
       <c r="E49" s="36" t="s">
         <v>2056</v>
@@ -10358,13 +10358,13 @@
         <v>gdmt:hasSpatialCoveragePoint</v>
       </c>
       <c r="B50" s="36" t="s">
-        <v>2181</v>
+        <v>2180</v>
       </c>
       <c r="C50" s="15" t="s">
         <v>2041</v>
       </c>
       <c r="D50" s="36" t="s">
-        <v>2181</v>
+        <v>2180</v>
       </c>
       <c r="E50" s="36" t="s">
         <v>2058</v>
@@ -10383,13 +10383,13 @@
         <v>gdmt:hasSpatialCoverageBoundingBox</v>
       </c>
       <c r="B51" s="36" t="s">
-        <v>2182</v>
+        <v>2181</v>
       </c>
       <c r="C51" s="15" t="s">
         <v>2041</v>
       </c>
       <c r="D51" s="36" t="s">
-        <v>2182</v>
+        <v>2181</v>
       </c>
       <c r="E51" s="36" t="s">
         <v>2057</v>
@@ -10408,13 +10408,13 @@
         <v>gdmt:hasSpatialCoveragePolygon</v>
       </c>
       <c r="B52" s="36" t="s">
-        <v>2183</v>
+        <v>2182</v>
       </c>
       <c r="C52" s="15" t="s">
         <v>2041</v>
       </c>
       <c r="D52" s="36" t="s">
-        <v>2183</v>
+        <v>2182</v>
       </c>
       <c r="E52" s="36" t="s">
         <v>2059</v>
@@ -10433,13 +10433,13 @@
         <v>gdmt:hasVerticalCoverage</v>
       </c>
       <c r="B53" s="36" t="s">
-        <v>2184</v>
+        <v>2183</v>
       </c>
       <c r="C53" s="15" t="s">
         <v>2041</v>
       </c>
       <c r="D53" s="36" t="s">
-        <v>2184</v>
+        <v>2183</v>
       </c>
       <c r="E53" s="36" t="s">
         <v>2060</v>
@@ -10458,13 +10458,13 @@
         <v>gdmt:hasTemporalCoverage</v>
       </c>
       <c r="B54" s="36" t="s">
-        <v>2185</v>
+        <v>2184</v>
       </c>
       <c r="C54" s="15" t="s">
         <v>2041</v>
       </c>
       <c r="D54" s="36" t="s">
-        <v>2185</v>
+        <v>2184</v>
       </c>
       <c r="E54" s="36" t="s">
         <v>2061</v>
@@ -10483,13 +10483,13 @@
         <v>gdmt:hasFunding</v>
       </c>
       <c r="B55" s="36" t="s">
-        <v>2186</v>
+        <v>2185</v>
       </c>
       <c r="C55" s="15" t="s">
         <v>2041</v>
       </c>
       <c r="D55" s="36" t="s">
-        <v>2186</v>
+        <v>2185</v>
       </c>
       <c r="E55" s="36" t="s">
         <v>2062</v>
@@ -10508,13 +10508,13 @@
         <v>gdmt:hasAward</v>
       </c>
       <c r="B56" s="36" t="s">
-        <v>2187</v>
+        <v>2186</v>
       </c>
       <c r="C56" s="15" t="s">
         <v>2041</v>
       </c>
       <c r="D56" s="36" t="s">
-        <v>2187</v>
+        <v>2186</v>
       </c>
       <c r="E56" s="36" t="s">
         <v>48</v>
@@ -10533,13 +10533,13 @@
         <v>gdmt:hasFunder</v>
       </c>
       <c r="B57" s="36" t="s">
-        <v>2188</v>
+        <v>2187</v>
       </c>
       <c r="C57" s="15" t="s">
         <v>2041</v>
       </c>
       <c r="D57" s="36" t="s">
-        <v>2188</v>
+        <v>2187</v>
       </c>
       <c r="E57" s="36" t="s">
         <v>49</v>
@@ -10558,13 +10558,13 @@
         <v>gdmt:hasDatasetIdentifierSubType</v>
       </c>
       <c r="B58" s="16" t="s">
-        <v>2189</v>
+        <v>2188</v>
       </c>
       <c r="C58" s="15" t="s">
         <v>2041</v>
       </c>
       <c r="D58" s="16" t="s">
-        <v>2189</v>
+        <v>2188</v>
       </c>
       <c r="E58" s="16" t="s">
         <v>2066</v>
@@ -10583,13 +10583,13 @@
         <v>gdmt:hasRelatedResourceIdentifierSubType</v>
       </c>
       <c r="B59" s="17" t="s">
-        <v>2190</v>
+        <v>2189</v>
       </c>
       <c r="C59" s="15" t="s">
         <v>2041</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>2190</v>
+        <v>2189</v>
       </c>
       <c r="E59" s="17" t="s">
         <v>51</v>
@@ -10608,13 +10608,13 @@
         <v>gdmt:hasPrimaryLanguage</v>
       </c>
       <c r="B60" s="18" t="s">
-        <v>2191</v>
+        <v>2190</v>
       </c>
       <c r="C60" s="15" t="s">
         <v>2041</v>
       </c>
       <c r="D60" s="18" t="s">
-        <v>2191</v>
+        <v>2190</v>
       </c>
       <c r="E60" s="19" t="s">
         <v>52</v>
@@ -10633,13 +10633,13 @@
         <v>gdmt:hasSubjectIRI</v>
       </c>
       <c r="B61" s="20" t="s">
-        <v>2192</v>
+        <v>2191</v>
       </c>
       <c r="C61" s="15" t="s">
         <v>2041</v>
       </c>
       <c r="D61" s="20" t="s">
-        <v>2192</v>
+        <v>2191</v>
       </c>
       <c r="E61" s="20" t="s">
         <v>53</v>
@@ -10658,13 +10658,13 @@
         <v>gdmt:hasSubjectScheme</v>
       </c>
       <c r="B62" s="20" t="s">
-        <v>2193</v>
+        <v>2192</v>
       </c>
       <c r="C62" s="15" t="s">
         <v>2067</v>
       </c>
       <c r="D62" s="20" t="s">
-        <v>2193</v>
+        <v>2192</v>
       </c>
       <c r="E62" s="20" t="s">
         <v>54</v>
@@ -10683,13 +10683,13 @@
         <v>gdmt:hasSubjectSchemeIRI</v>
       </c>
       <c r="B63" s="20" t="s">
-        <v>2194</v>
+        <v>2193</v>
       </c>
       <c r="C63" s="15" t="s">
         <v>2041</v>
       </c>
       <c r="D63" s="20" t="s">
-        <v>2194</v>
+        <v>2193</v>
       </c>
       <c r="E63" s="20" t="s">
         <v>55</v>
@@ -10708,13 +10708,13 @@
         <v>gdmt:hasKeyword</v>
       </c>
       <c r="B64" s="20" t="s">
-        <v>2195</v>
+        <v>2194</v>
       </c>
       <c r="C64" s="15" t="s">
         <v>2067</v>
       </c>
       <c r="D64" s="20" t="s">
-        <v>2195</v>
+        <v>2194</v>
       </c>
       <c r="E64" s="20" t="s">
         <v>56</v>
@@ -10733,13 +10733,13 @@
         <v>gdmt:hasCreatorIdentifier</v>
       </c>
       <c r="B65" s="21" t="s">
-        <v>2196</v>
+        <v>2195</v>
       </c>
       <c r="C65" s="15" t="s">
         <v>2067</v>
       </c>
       <c r="D65" s="21" t="s">
-        <v>2196</v>
+        <v>2195</v>
       </c>
       <c r="E65" s="21" t="s">
         <v>57</v>
@@ -10758,13 +10758,13 @@
         <v>gdmt:hasCreatorIdentifierScheme</v>
       </c>
       <c r="B66" s="21" t="s">
-        <v>2197</v>
+        <v>2196</v>
       </c>
       <c r="C66" s="15" t="s">
         <v>2067</v>
       </c>
       <c r="D66" s="21" t="s">
-        <v>2197</v>
+        <v>2196</v>
       </c>
       <c r="E66" s="21" t="s">
         <v>58</v>
@@ -10783,13 +10783,13 @@
         <v>gdmt:hasCreatorIdentifierSchemeIRI</v>
       </c>
       <c r="B67" s="21" t="s">
-        <v>2198</v>
+        <v>2197</v>
       </c>
       <c r="C67" s="15" t="s">
         <v>2041</v>
       </c>
       <c r="D67" s="21" t="s">
-        <v>2198</v>
+        <v>2197</v>
       </c>
       <c r="E67" s="21" t="s">
         <v>59</v>
@@ -10808,13 +10808,13 @@
         <v>gdmt:hasCreatorAffiliation</v>
       </c>
       <c r="B68" s="21" t="s">
-        <v>2199</v>
+        <v>2198</v>
       </c>
       <c r="C68" s="15" t="s">
         <v>2041</v>
       </c>
       <c r="D68" s="21" t="s">
-        <v>2199</v>
+        <v>2198</v>
       </c>
       <c r="E68" s="21" t="s">
         <v>60</v>
@@ -10833,13 +10833,13 @@
         <v>gdmt:hasCreatorAffiliationIdentifier</v>
       </c>
       <c r="B69" s="21" t="s">
-        <v>2200</v>
+        <v>2199</v>
       </c>
       <c r="C69" s="15" t="s">
         <v>2067</v>
       </c>
       <c r="D69" s="21" t="s">
-        <v>2200</v>
+        <v>2199</v>
       </c>
       <c r="E69" s="21" t="s">
         <v>61</v>
@@ -10858,13 +10858,13 @@
         <v>gdmt:hasCreatorAffiliationIdentifierScheme</v>
       </c>
       <c r="B70" s="21" t="s">
-        <v>2201</v>
+        <v>2200</v>
       </c>
       <c r="C70" s="15" t="s">
         <v>2067</v>
       </c>
       <c r="D70" s="21" t="s">
-        <v>2201</v>
+        <v>2200</v>
       </c>
       <c r="E70" s="21" t="s">
         <v>62</v>
@@ -10883,13 +10883,13 @@
         <v>gdmt:hasCreatorAffiliationIdentifierSchemeIRI</v>
       </c>
       <c r="B71" s="21" t="s">
-        <v>2202</v>
+        <v>2201</v>
       </c>
       <c r="C71" s="15" t="s">
         <v>2041</v>
       </c>
       <c r="D71" s="21" t="s">
-        <v>2202</v>
+        <v>2201</v>
       </c>
       <c r="E71" s="21" t="s">
         <v>63</v>
@@ -10908,13 +10908,13 @@
         <v>gdmt:hasCreatorRole</v>
       </c>
       <c r="B72" s="21" t="s">
-        <v>2203</v>
+        <v>2202</v>
       </c>
       <c r="C72" s="15" t="s">
         <v>2041</v>
       </c>
       <c r="D72" s="21" t="s">
-        <v>2203</v>
+        <v>2202</v>
       </c>
       <c r="E72" s="21" t="s">
         <v>64</v>
@@ -10933,13 +10933,13 @@
         <v>gdmt:hasCreatorType</v>
       </c>
       <c r="B73" s="21" t="s">
-        <v>2204</v>
+        <v>2203</v>
       </c>
       <c r="C73" s="15" t="s">
         <v>2041</v>
       </c>
       <c r="D73" s="21" t="s">
-        <v>2204</v>
+        <v>2203</v>
       </c>
       <c r="E73" s="21" t="s">
         <v>65</v>
@@ -10958,13 +10958,13 @@
         <v>gdmt:hasContributorIdentifier</v>
       </c>
       <c r="B74" s="21" t="s">
-        <v>2205</v>
+        <v>2204</v>
       </c>
       <c r="C74" s="15" t="s">
         <v>2041</v>
       </c>
       <c r="D74" s="21" t="s">
-        <v>2205</v>
+        <v>2204</v>
       </c>
       <c r="E74" s="21" t="s">
         <v>66</v>
@@ -10983,13 +10983,13 @@
         <v>gdmt:hasContributorIdentifierScheme</v>
       </c>
       <c r="B75" s="21" t="s">
-        <v>2206</v>
+        <v>2205</v>
       </c>
       <c r="C75" s="15" t="s">
         <v>2067</v>
       </c>
       <c r="D75" s="21" t="s">
-        <v>2206</v>
+        <v>2205</v>
       </c>
       <c r="E75" s="21" t="s">
         <v>67</v>
@@ -11008,13 +11008,13 @@
         <v>gdmt:hasContributorIdentifierSchemeIRI</v>
       </c>
       <c r="B76" s="21" t="s">
-        <v>2207</v>
+        <v>2206</v>
       </c>
       <c r="C76" s="15" t="s">
         <v>2041</v>
       </c>
       <c r="D76" s="21" t="s">
-        <v>2207</v>
+        <v>2206</v>
       </c>
       <c r="E76" s="21" t="s">
         <v>68</v>
@@ -11033,13 +11033,13 @@
         <v>gdmt:hasContributorAffiliation</v>
       </c>
       <c r="B77" s="21" t="s">
-        <v>2208</v>
+        <v>2207</v>
       </c>
       <c r="C77" s="15" t="s">
         <v>2041</v>
       </c>
       <c r="D77" s="21" t="s">
-        <v>2208</v>
+        <v>2207</v>
       </c>
       <c r="E77" s="21" t="s">
         <v>69</v>
@@ -11058,13 +11058,13 @@
         <v>gdmt:hasContributorAffiliationIdentifier</v>
       </c>
       <c r="B78" s="21" t="s">
-        <v>2209</v>
+        <v>2208</v>
       </c>
       <c r="C78" s="15" t="s">
         <v>2041</v>
       </c>
       <c r="D78" s="21" t="s">
-        <v>2209</v>
+        <v>2208</v>
       </c>
       <c r="E78" s="21" t="s">
         <v>70</v>
@@ -11083,13 +11083,13 @@
         <v>gdmt:hasContributorAffiliationIdentifierScheme</v>
       </c>
       <c r="B79" s="21" t="s">
-        <v>2210</v>
+        <v>2209</v>
       </c>
       <c r="C79" s="15" t="s">
         <v>2067</v>
       </c>
       <c r="D79" s="21" t="s">
-        <v>2210</v>
+        <v>2209</v>
       </c>
       <c r="E79" s="21" t="s">
         <v>71</v>
@@ -11108,13 +11108,13 @@
         <v>gdmt:hasContributorAffiliationIdentifierSchemeIRI</v>
       </c>
       <c r="B80" s="21" t="s">
-        <v>2211</v>
+        <v>2210</v>
       </c>
       <c r="C80" s="15" t="s">
         <v>2041</v>
       </c>
       <c r="D80" s="21" t="s">
-        <v>2211</v>
+        <v>2210</v>
       </c>
       <c r="E80" s="21" t="s">
         <v>72</v>
@@ -11133,13 +11133,13 @@
         <v>gdmt:hasContributorRole</v>
       </c>
       <c r="B81" s="21" t="s">
-        <v>2212</v>
+        <v>2211</v>
       </c>
       <c r="C81" s="15" t="s">
         <v>2041</v>
       </c>
       <c r="D81" s="21" t="s">
-        <v>2212</v>
+        <v>2211</v>
       </c>
       <c r="E81" s="21" t="s">
         <v>73</v>
@@ -11158,13 +11158,13 @@
         <v>gdmt:hasContributorType</v>
       </c>
       <c r="B82" s="21" t="s">
-        <v>2213</v>
+        <v>2212</v>
       </c>
       <c r="C82" s="15" t="s">
         <v>2041</v>
       </c>
       <c r="D82" s="21" t="s">
-        <v>2213</v>
+        <v>2212</v>
       </c>
       <c r="E82" s="21" t="s">
         <v>74</v>
@@ -11183,13 +11183,13 @@
         <v>gdmt:hasPublisherIdentifier</v>
       </c>
       <c r="B83" s="22" t="s">
-        <v>2214</v>
+        <v>2213</v>
       </c>
       <c r="C83" s="15" t="s">
         <v>2041</v>
       </c>
       <c r="D83" s="22" t="s">
-        <v>2214</v>
+        <v>2213</v>
       </c>
       <c r="E83" s="22" t="s">
         <v>75</v>
@@ -11208,13 +11208,13 @@
         <v>gdmt:hasPublisherIdentifierScheme</v>
       </c>
       <c r="B84" s="22" t="s">
-        <v>2215</v>
+        <v>2214</v>
       </c>
       <c r="C84" s="15" t="s">
         <v>2067</v>
       </c>
       <c r="D84" s="22" t="s">
-        <v>2215</v>
+        <v>2214</v>
       </c>
       <c r="E84" s="22" t="s">
         <v>76</v>
@@ -11233,13 +11233,13 @@
         <v>gdmt:hasPublisherIdentifierSchemeIRI</v>
       </c>
       <c r="B85" s="22" t="s">
-        <v>2216</v>
+        <v>2215</v>
       </c>
       <c r="C85" s="15" t="s">
         <v>2041</v>
       </c>
       <c r="D85" s="22" t="s">
-        <v>2216</v>
+        <v>2215</v>
       </c>
       <c r="E85" s="22" t="s">
         <v>77</v>
@@ -11258,13 +11258,13 @@
         <v>gdmt:hasPublisherAddress</v>
       </c>
       <c r="B86" s="22" t="s">
-        <v>2217</v>
+        <v>2216</v>
       </c>
       <c r="C86" s="15" t="s">
         <v>2067</v>
       </c>
       <c r="D86" s="22" t="s">
-        <v>2217</v>
+        <v>2216</v>
       </c>
       <c r="E86" s="22" t="s">
         <v>78</v>
@@ -11283,13 +11283,13 @@
         <v>gdmt:hasLicenseName</v>
       </c>
       <c r="B87" s="23" t="s">
-        <v>2218</v>
+        <v>2217</v>
       </c>
       <c r="C87" s="15" t="s">
         <v>2067</v>
       </c>
       <c r="D87" s="23" t="s">
-        <v>2218</v>
+        <v>2217</v>
       </c>
       <c r="E87" s="23" t="s">
         <v>79</v>
@@ -11308,13 +11308,13 @@
         <v>gdmt:hasLicenseIdentifier</v>
       </c>
       <c r="B88" s="23" t="s">
-        <v>2219</v>
+        <v>2218</v>
       </c>
       <c r="C88" s="15" t="s">
         <v>2041</v>
       </c>
       <c r="D88" s="23" t="s">
-        <v>2219</v>
+        <v>2218</v>
       </c>
       <c r="E88" s="23" t="s">
         <v>80</v>
@@ -11333,13 +11333,13 @@
         <v>gdmt:hasLicenseIdentifierScheme</v>
       </c>
       <c r="B89" s="23" t="s">
-        <v>2220</v>
+        <v>2219</v>
       </c>
       <c r="C89" s="15" t="s">
         <v>2067</v>
       </c>
       <c r="D89" s="23" t="s">
-        <v>2220</v>
+        <v>2219</v>
       </c>
       <c r="E89" s="23" t="s">
         <v>81</v>
@@ -11358,13 +11358,13 @@
         <v>gdmt:hasLicenseIdentifierSchemeIRI</v>
       </c>
       <c r="B90" s="23" t="s">
-        <v>2221</v>
+        <v>2220</v>
       </c>
       <c r="C90" s="15" t="s">
         <v>2041</v>
       </c>
       <c r="D90" s="23" t="s">
-        <v>2221</v>
+        <v>2220</v>
       </c>
       <c r="E90" s="23" t="s">
         <v>82</v>
@@ -11383,13 +11383,13 @@
         <v>gdmt:hasDatasetDate</v>
       </c>
       <c r="B91" s="24" t="s">
-        <v>2222</v>
+        <v>2221</v>
       </c>
       <c r="C91" s="15" t="s">
         <v>2067</v>
       </c>
       <c r="D91" s="24" t="s">
-        <v>2222</v>
+        <v>2221</v>
       </c>
       <c r="E91" s="24" t="s">
         <v>83</v>
@@ -11408,13 +11408,13 @@
         <v>gdmt:hasDatasetDateType</v>
       </c>
       <c r="B92" s="24" t="s">
-        <v>2223</v>
+        <v>2222</v>
       </c>
       <c r="C92" s="15" t="s">
         <v>2041</v>
       </c>
       <c r="D92" s="24" t="s">
-        <v>2223</v>
+        <v>2222</v>
       </c>
       <c r="E92" s="24" t="s">
         <v>84</v>
@@ -11433,13 +11433,13 @@
         <v>gdmt:hasDistributionIdentifier</v>
       </c>
       <c r="B93" s="25" t="s">
-        <v>2224</v>
+        <v>2223</v>
       </c>
       <c r="C93" s="15" t="s">
         <v>2041</v>
       </c>
       <c r="D93" s="25" t="s">
-        <v>2224</v>
+        <v>2223</v>
       </c>
       <c r="E93" s="25" t="s">
         <v>85</v>
@@ -11458,13 +11458,13 @@
         <v>gdmt:hasDistributionIdentifierType</v>
       </c>
       <c r="B94" s="25" t="s">
-        <v>2225</v>
+        <v>2224</v>
       </c>
       <c r="C94" s="15" t="s">
         <v>2041</v>
       </c>
       <c r="D94" s="25" t="s">
-        <v>2225</v>
+        <v>2224</v>
       </c>
       <c r="E94" s="25" t="s">
         <v>86</v>
@@ -11483,13 +11483,13 @@
         <v>gdmt:hasDistributionMediaType</v>
       </c>
       <c r="B95" s="26" t="s">
-        <v>2226</v>
+        <v>2225</v>
       </c>
       <c r="C95" s="15" t="s">
         <v>2041</v>
       </c>
       <c r="D95" s="26" t="s">
-        <v>2226</v>
+        <v>2225</v>
       </c>
       <c r="E95" s="26" t="s">
         <v>87</v>
@@ -11508,13 +11508,13 @@
         <v>gdmt:hasDistributionSize</v>
       </c>
       <c r="B96" s="26" t="s">
-        <v>2227</v>
+        <v>2226</v>
       </c>
       <c r="C96" s="15" t="s">
         <v>2067</v>
       </c>
       <c r="D96" s="26" t="s">
-        <v>2227</v>
+        <v>2226</v>
       </c>
       <c r="E96" s="26" t="s">
         <v>88</v>
@@ -11533,13 +11533,13 @@
         <v>gdmt:hasDistributionAccessProtocol</v>
       </c>
       <c r="B97" s="26" t="s">
-        <v>2228</v>
+        <v>2227</v>
       </c>
       <c r="C97" s="15" t="s">
         <v>2067</v>
       </c>
       <c r="D97" s="26" t="s">
-        <v>2228</v>
+        <v>2227</v>
       </c>
       <c r="E97" s="26" t="s">
         <v>89</v>
@@ -11558,13 +11558,13 @@
         <v>gdmt:hasDistributionAccessConfiguration</v>
       </c>
       <c r="B98" s="26" t="s">
-        <v>2229</v>
+        <v>2228</v>
       </c>
       <c r="C98" s="15" t="s">
         <v>2067</v>
       </c>
       <c r="D98" s="26" t="s">
-        <v>2229</v>
+        <v>2228</v>
       </c>
       <c r="E98" s="26" t="s">
         <v>90</v>
@@ -11583,13 +11583,13 @@
         <v>gdmt:hasDistributionQueryStatement</v>
       </c>
       <c r="B99" s="26" t="s">
-        <v>2230</v>
+        <v>2229</v>
       </c>
       <c r="C99" s="15" t="s">
         <v>2067</v>
       </c>
       <c r="D99" s="26" t="s">
-        <v>2230</v>
+        <v>2229</v>
       </c>
       <c r="E99" s="26" t="s">
         <v>91</v>
@@ -11608,13 +11608,13 @@
         <v>gdmt:hasDistributionDate</v>
       </c>
       <c r="B100" s="27" t="s">
-        <v>2231</v>
+        <v>2230</v>
       </c>
       <c r="C100" s="15" t="s">
         <v>2067</v>
       </c>
       <c r="D100" s="27" t="s">
-        <v>2231</v>
+        <v>2230</v>
       </c>
       <c r="E100" s="26" t="s">
         <v>92</v>
@@ -11633,13 +11633,13 @@
         <v>gdmt:hasDistributorIdentifier</v>
       </c>
       <c r="B101" s="21" t="s">
-        <v>2232</v>
+        <v>2231</v>
       </c>
       <c r="C101" s="15" t="s">
         <v>2041</v>
       </c>
       <c r="D101" s="21" t="s">
-        <v>2232</v>
+        <v>2231</v>
       </c>
       <c r="E101" s="21" t="s">
         <v>93</v>
@@ -11658,13 +11658,13 @@
         <v>gdmt:hasDistributorIdentifierScheme</v>
       </c>
       <c r="B102" s="21" t="s">
-        <v>2233</v>
+        <v>2232</v>
       </c>
       <c r="C102" s="15" t="s">
         <v>2067</v>
       </c>
       <c r="D102" s="21" t="s">
-        <v>2233</v>
+        <v>2232</v>
       </c>
       <c r="E102" s="21" t="s">
         <v>94</v>
@@ -11683,13 +11683,13 @@
         <v>gdmt:hasDistributorIdentifierSchemeIRI</v>
       </c>
       <c r="B103" s="21" t="s">
-        <v>2234</v>
+        <v>2233</v>
       </c>
       <c r="C103" s="15" t="s">
         <v>2041</v>
       </c>
       <c r="D103" s="21" t="s">
-        <v>2234</v>
+        <v>2233</v>
       </c>
       <c r="E103" s="21" t="s">
         <v>95</v>
@@ -11708,13 +11708,13 @@
         <v>gdmt:hasDistributorAffiliation</v>
       </c>
       <c r="B104" s="21" t="s">
-        <v>2235</v>
+        <v>2234</v>
       </c>
       <c r="C104" s="15" t="s">
         <v>2041</v>
       </c>
       <c r="D104" s="21" t="s">
-        <v>2235</v>
+        <v>2234</v>
       </c>
       <c r="E104" s="21" t="s">
         <v>96</v>
@@ -11733,13 +11733,13 @@
         <v>gdmt:hasDistributorAffiliationIdentifier</v>
       </c>
       <c r="B105" s="21" t="s">
-        <v>2236</v>
+        <v>2235</v>
       </c>
       <c r="C105" s="15" t="s">
         <v>2041</v>
       </c>
       <c r="D105" s="21" t="s">
-        <v>2236</v>
+        <v>2235</v>
       </c>
       <c r="E105" s="21" t="s">
         <v>97</v>
@@ -11758,13 +11758,13 @@
         <v>gdmt:hasDistributorAffiliationIdentifierScheme</v>
       </c>
       <c r="B106" s="21" t="s">
-        <v>2237</v>
+        <v>2236</v>
       </c>
       <c r="C106" s="15" t="s">
         <v>2067</v>
       </c>
       <c r="D106" s="21" t="s">
-        <v>2237</v>
+        <v>2236</v>
       </c>
       <c r="E106" s="21" t="s">
         <v>98</v>
@@ -11783,13 +11783,13 @@
         <v>gdmt:hasDistributorAffiliationIdentifierSchemeIRI</v>
       </c>
       <c r="B107" s="21" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="C107" s="15" t="s">
         <v>2041</v>
       </c>
       <c r="D107" s="21" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="E107" s="21" t="s">
         <v>99</v>
@@ -11808,13 +11808,13 @@
         <v>gdmt:hasDistributorRole</v>
       </c>
       <c r="B108" s="21" t="s">
-        <v>2239</v>
+        <v>2238</v>
       </c>
       <c r="C108" s="15" t="s">
         <v>2041</v>
       </c>
       <c r="D108" s="21" t="s">
-        <v>2239</v>
+        <v>2238</v>
       </c>
       <c r="E108" s="21" t="s">
         <v>100</v>
@@ -11833,13 +11833,13 @@
         <v>gdmt:hasDistributorType</v>
       </c>
       <c r="B109" s="21" t="s">
-        <v>2240</v>
+        <v>2239</v>
       </c>
       <c r="C109" s="15" t="s">
         <v>2041</v>
       </c>
       <c r="D109" s="21" t="s">
-        <v>2240</v>
+        <v>2239</v>
       </c>
       <c r="E109" s="21" t="s">
         <v>101</v>
@@ -11858,13 +11858,13 @@
         <v>gdmt:hasDataStream</v>
       </c>
       <c r="B110" s="28" t="s">
-        <v>2241</v>
+        <v>2240</v>
       </c>
       <c r="C110" s="15" t="s">
         <v>2067</v>
       </c>
       <c r="D110" s="28" t="s">
-        <v>2241</v>
+        <v>2240</v>
       </c>
       <c r="E110" s="28" t="s">
         <v>102</v>
@@ -11883,13 +11883,13 @@
         <v>gdmt:hasDataStreamIRI</v>
       </c>
       <c r="B111" s="28" t="s">
-        <v>2242</v>
+        <v>2241</v>
       </c>
       <c r="C111" s="15" t="s">
         <v>2041</v>
       </c>
       <c r="D111" s="28" t="s">
-        <v>2242</v>
+        <v>2241</v>
       </c>
       <c r="E111" s="28" t="s">
         <v>103</v>
@@ -11908,13 +11908,13 @@
         <v>gdmt:hasDataStreamScheme</v>
       </c>
       <c r="B112" s="28" t="s">
-        <v>2243</v>
+        <v>2242</v>
       </c>
       <c r="C112" s="15" t="s">
         <v>2067</v>
       </c>
       <c r="D112" s="28" t="s">
-        <v>2243</v>
+        <v>2242</v>
       </c>
       <c r="E112" s="28" t="s">
         <v>104</v>
@@ -11933,13 +11933,13 @@
         <v>gdmt:hasDataStreamSchemeIRI</v>
       </c>
       <c r="B113" s="28" t="s">
-        <v>2244</v>
+        <v>2243</v>
       </c>
       <c r="C113" s="15" t="s">
         <v>2041</v>
       </c>
       <c r="D113" s="28" t="s">
-        <v>2244</v>
+        <v>2243</v>
       </c>
       <c r="E113" s="28" t="s">
         <v>105</v>
@@ -11958,13 +11958,13 @@
         <v>gdmt:hasDataSource</v>
       </c>
       <c r="B114" s="28" t="s">
-        <v>2245</v>
+        <v>2244</v>
       </c>
       <c r="C114" s="15" t="s">
         <v>2067</v>
       </c>
       <c r="D114" s="28" t="s">
-        <v>2245</v>
+        <v>2244</v>
       </c>
       <c r="E114" s="28" t="s">
         <v>106</v>
@@ -11983,13 +11983,13 @@
         <v>gdmt:hasDataSourceIRI</v>
       </c>
       <c r="B115" s="28" t="s">
-        <v>2246</v>
+        <v>2245</v>
       </c>
       <c r="C115" s="15" t="s">
         <v>2041</v>
       </c>
       <c r="D115" s="28" t="s">
-        <v>2246</v>
+        <v>2245</v>
       </c>
       <c r="E115" s="28" t="s">
         <v>107</v>
@@ -12008,13 +12008,13 @@
         <v>gdmt:hasDataSourceScheme</v>
       </c>
       <c r="B116" s="28" t="s">
-        <v>2247</v>
+        <v>2246</v>
       </c>
       <c r="C116" s="15" t="s">
         <v>2067</v>
       </c>
       <c r="D116" s="28" t="s">
-        <v>2247</v>
+        <v>2246</v>
       </c>
       <c r="E116" s="28" t="s">
         <v>108</v>
@@ -12033,13 +12033,13 @@
         <v>gdmt:hasDataSourceSchemeIRI</v>
       </c>
       <c r="B117" s="28" t="s">
-        <v>2248</v>
+        <v>2247</v>
       </c>
       <c r="C117" s="15" t="s">
         <v>2041</v>
       </c>
       <c r="D117" s="28" t="s">
-        <v>2248</v>
+        <v>2247</v>
       </c>
       <c r="E117" s="28" t="s">
         <v>109</v>
@@ -12058,13 +12058,13 @@
         <v>gdmt:hasVariable</v>
       </c>
       <c r="B118" s="28" t="s">
-        <v>2249</v>
+        <v>2248</v>
       </c>
       <c r="C118" s="15" t="s">
         <v>2067</v>
       </c>
       <c r="D118" s="28" t="s">
-        <v>2249</v>
+        <v>2248</v>
       </c>
       <c r="E118" s="28" t="s">
         <v>110</v>
@@ -12083,13 +12083,13 @@
         <v>gdmt:hasVariableIRI</v>
       </c>
       <c r="B119" s="28" t="s">
-        <v>2250</v>
+        <v>2249</v>
       </c>
       <c r="C119" s="15" t="s">
         <v>2041</v>
       </c>
       <c r="D119" s="28" t="s">
-        <v>2250</v>
+        <v>2249</v>
       </c>
       <c r="E119" s="28" t="s">
         <v>111</v>
@@ -12108,13 +12108,13 @@
         <v>gdmt:hasVariableScheme</v>
       </c>
       <c r="B120" s="28" t="s">
-        <v>2251</v>
+        <v>2250</v>
       </c>
       <c r="C120" s="15" t="s">
         <v>2067</v>
       </c>
       <c r="D120" s="28" t="s">
-        <v>2251</v>
+        <v>2250</v>
       </c>
       <c r="E120" s="28" t="s">
         <v>112</v>
@@ -12133,13 +12133,13 @@
         <v>gdmt:hasVariableSchemeIRI</v>
       </c>
       <c r="B121" s="28" t="s">
-        <v>2252</v>
+        <v>2251</v>
       </c>
       <c r="C121" s="15" t="s">
         <v>2041</v>
       </c>
       <c r="D121" s="28" t="s">
-        <v>2252</v>
+        <v>2251</v>
       </c>
       <c r="E121" s="28" t="s">
         <v>113</v>
@@ -12154,17 +12154,17 @@
     </row>
     <row r="122" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A122" s="14" t="str">
-        <f t="shared" ref="A122:A153" si="3">"gdmt:"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B122," ",""),"-",""),"&amp;","")</f>
+        <f t="shared" ref="A122:A149" si="3">"gdmt:"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B122," ",""),"-",""),"&amp;","")</f>
         <v>gdmt:hasPointLatitude</v>
       </c>
       <c r="B122" s="29" t="s">
-        <v>2253</v>
+        <v>2252</v>
       </c>
       <c r="C122" s="15" t="s">
         <v>2067</v>
       </c>
       <c r="D122" s="29" t="s">
-        <v>2253</v>
+        <v>2252</v>
       </c>
       <c r="E122" s="29" t="s">
         <v>114</v>
@@ -12183,13 +12183,13 @@
         <v>gdmt:hasPointLongitude</v>
       </c>
       <c r="B123" s="29" t="s">
-        <v>2254</v>
+        <v>2253</v>
       </c>
       <c r="C123" s="15" t="s">
         <v>2067</v>
       </c>
       <c r="D123" s="29" t="s">
-        <v>2254</v>
+        <v>2253</v>
       </c>
       <c r="E123" s="29" t="s">
         <v>115</v>
@@ -12208,13 +12208,13 @@
         <v>gdmt:hasWestBoundLongitude</v>
       </c>
       <c r="B124" s="25" t="s">
-        <v>2255</v>
+        <v>2254</v>
       </c>
       <c r="C124" s="15" t="s">
         <v>2067</v>
       </c>
       <c r="D124" s="25" t="s">
-        <v>2255</v>
+        <v>2254</v>
       </c>
       <c r="E124" s="25" t="s">
         <v>116</v>
@@ -12233,13 +12233,13 @@
         <v>gdmt:hasEastBoundLongitude</v>
       </c>
       <c r="B125" s="25" t="s">
-        <v>2256</v>
+        <v>2255</v>
       </c>
       <c r="C125" s="15" t="s">
         <v>2067</v>
       </c>
       <c r="D125" s="25" t="s">
-        <v>2256</v>
+        <v>2255</v>
       </c>
       <c r="E125" s="25" t="s">
         <v>117</v>
@@ -12258,13 +12258,13 @@
         <v>gdmt:hasSouthBoundLatitude</v>
       </c>
       <c r="B126" s="25" t="s">
-        <v>2257</v>
+        <v>2256</v>
       </c>
       <c r="C126" s="15" t="s">
         <v>2067</v>
       </c>
       <c r="D126" s="25" t="s">
-        <v>2257</v>
+        <v>2256</v>
       </c>
       <c r="E126" s="25" t="s">
         <v>118</v>
@@ -12283,13 +12283,13 @@
         <v>gdmt:hasNorthBoundLatitude</v>
       </c>
       <c r="B127" s="25" t="s">
-        <v>2258</v>
+        <v>2257</v>
       </c>
       <c r="C127" s="15" t="s">
         <v>2067</v>
       </c>
       <c r="D127" s="25" t="s">
-        <v>2258</v>
+        <v>2257</v>
       </c>
       <c r="E127" s="25" t="s">
         <v>119</v>
@@ -12308,13 +12308,13 @@
         <v>gdmt:hasPolygonPointLatitude</v>
       </c>
       <c r="B128" s="29" t="s">
-        <v>2259</v>
+        <v>2258</v>
       </c>
       <c r="C128" s="15" t="s">
         <v>2067</v>
       </c>
       <c r="D128" s="29" t="s">
-        <v>2259</v>
+        <v>2258</v>
       </c>
       <c r="E128" s="25" t="s">
         <v>120</v>
@@ -12333,13 +12333,13 @@
         <v>gdmt:hasPolygonPointLongitude</v>
       </c>
       <c r="B129" s="29" t="s">
-        <v>2260</v>
+        <v>2259</v>
       </c>
       <c r="C129" s="15" t="s">
         <v>2067</v>
       </c>
       <c r="D129" s="29" t="s">
-        <v>2260</v>
+        <v>2259</v>
       </c>
       <c r="E129" s="25" t="s">
         <v>121</v>
@@ -12358,13 +12358,13 @@
         <v>gdmt:hasGeoLocationDescription</v>
       </c>
       <c r="B130" s="25" t="s">
-        <v>2261</v>
+        <v>2260</v>
       </c>
       <c r="C130" s="15" t="s">
         <v>2067</v>
       </c>
       <c r="D130" s="25" t="s">
-        <v>2261</v>
+        <v>2260</v>
       </c>
       <c r="E130" s="25" t="s">
         <v>122</v>
@@ -12383,13 +12383,13 @@
         <v>gdmt:hasVerticalExtentMaximumValue</v>
       </c>
       <c r="B131" s="30" t="s">
-        <v>2262</v>
+        <v>2261</v>
       </c>
       <c r="C131" s="15" t="s">
         <v>2067</v>
       </c>
       <c r="D131" s="30" t="s">
-        <v>2262</v>
+        <v>2261</v>
       </c>
       <c r="E131" s="30" t="s">
         <v>123</v>
@@ -12408,13 +12408,13 @@
         <v>gdmt:hasVerticalExtentMinimumValue</v>
       </c>
       <c r="B132" s="30" t="s">
-        <v>2263</v>
+        <v>2262</v>
       </c>
       <c r="C132" s="15" t="s">
         <v>2067</v>
       </c>
       <c r="D132" s="30" t="s">
-        <v>2263</v>
+        <v>2262</v>
       </c>
       <c r="E132" s="30" t="s">
         <v>124</v>
@@ -12433,13 +12433,13 @@
         <v>gdmt:hasVerticalExtentUnit</v>
       </c>
       <c r="B133" s="30" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="C133" s="15" t="s">
         <v>2041</v>
       </c>
       <c r="D133" s="30" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="E133" s="30" t="s">
         <v>125</v>
@@ -12458,13 +12458,13 @@
         <v>gdmt:hasVerticalExtentUnitIRI</v>
       </c>
       <c r="B134" s="30" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
       <c r="C134" s="15" t="s">
         <v>2041</v>
       </c>
       <c r="D134" s="30" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
       <c r="E134" s="30" t="s">
         <v>2068</v>
@@ -12483,13 +12483,13 @@
         <v>gdmt:hasVerticalExtentUnitScheme</v>
       </c>
       <c r="B135" s="30" t="s">
-        <v>2266</v>
+        <v>2265</v>
       </c>
       <c r="C135" s="54" t="s">
         <v>2067</v>
       </c>
       <c r="D135" s="30" t="s">
-        <v>2266</v>
+        <v>2265</v>
       </c>
       <c r="E135" s="30" t="s">
         <v>126</v>
@@ -12508,13 +12508,13 @@
         <v>gdmt:hasVerticalExtentUnitSchemeIRI</v>
       </c>
       <c r="B136" s="30" t="s">
-        <v>2267</v>
+        <v>2266</v>
       </c>
       <c r="C136" s="15" t="s">
         <v>2041</v>
       </c>
       <c r="D136" s="30" t="s">
-        <v>2267</v>
+        <v>2266</v>
       </c>
       <c r="E136" s="30" t="s">
         <v>127</v>
@@ -12533,13 +12533,13 @@
         <v>gdmt:hasVerticalExtentDatum</v>
       </c>
       <c r="B137" s="30" t="s">
-        <v>2268</v>
+        <v>2267</v>
       </c>
       <c r="C137" s="54" t="s">
         <v>2067</v>
       </c>
       <c r="D137" s="30" t="s">
-        <v>2268</v>
+        <v>2267</v>
       </c>
       <c r="E137" s="30" t="s">
         <v>128</v>
@@ -12558,13 +12558,13 @@
         <v>gdmt:hasVerticalExtentDatumIRI</v>
       </c>
       <c r="B138" s="30" t="s">
-        <v>2269</v>
+        <v>2268</v>
       </c>
       <c r="C138" s="15" t="s">
         <v>2041</v>
       </c>
       <c r="D138" s="30" t="s">
-        <v>2269</v>
+        <v>2268</v>
       </c>
       <c r="E138" s="30" t="s">
         <v>129</v>
@@ -12583,13 +12583,13 @@
         <v>gdmt:hasTemporalExtentMinimumValue</v>
       </c>
       <c r="B139" s="31" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C139" s="54" t="s">
         <v>2067</v>
       </c>
       <c r="D139" s="31" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="E139" s="31" t="s">
         <v>130</v>
@@ -12608,13 +12608,13 @@
         <v>gdmt:hasTemporalExtentMaximumValue</v>
       </c>
       <c r="B140" s="31" t="s">
-        <v>2271</v>
+        <v>2270</v>
       </c>
       <c r="C140" s="54" t="s">
         <v>2067</v>
       </c>
       <c r="D140" s="31" t="s">
-        <v>2271</v>
+        <v>2270</v>
       </c>
       <c r="E140" s="31" t="s">
         <v>131</v>
@@ -12633,13 +12633,13 @@
         <v>gdmt:hasTemporalResolution</v>
       </c>
       <c r="B141" s="31" t="s">
-        <v>2272</v>
+        <v>2271</v>
       </c>
       <c r="C141" s="15" t="s">
         <v>2041</v>
       </c>
       <c r="D141" s="31" t="s">
-        <v>2272</v>
+        <v>2271</v>
       </c>
       <c r="E141" s="31" t="s">
         <v>132</v>
@@ -12658,13 +12658,13 @@
         <v>gdmt:hasDuration</v>
       </c>
       <c r="B142" s="31" t="s">
-        <v>2273</v>
+        <v>2272</v>
       </c>
       <c r="C142" s="54" t="s">
         <v>2067</v>
       </c>
       <c r="D142" s="31" t="s">
-        <v>2273</v>
+        <v>2272</v>
       </c>
       <c r="E142" s="31" t="s">
         <v>133</v>
@@ -12683,13 +12683,13 @@
         <v>gdmt:hasAwardTitle</v>
       </c>
       <c r="B143" s="32" t="s">
-        <v>2274</v>
+        <v>2273</v>
       </c>
       <c r="C143" s="54" t="s">
         <v>2067</v>
       </c>
       <c r="D143" s="32" t="s">
-        <v>2274</v>
+        <v>2273</v>
       </c>
       <c r="E143" s="32" t="s">
         <v>134</v>
@@ -12708,13 +12708,13 @@
         <v>gdmt:hasAwardPageIRI</v>
       </c>
       <c r="B144" s="32" t="s">
-        <v>2275</v>
+        <v>2274</v>
       </c>
       <c r="C144" s="54" t="s">
         <v>2067</v>
       </c>
       <c r="D144" s="32" t="s">
-        <v>2275</v>
+        <v>2274</v>
       </c>
       <c r="E144" s="32" t="s">
         <v>135</v>
@@ -12733,13 +12733,13 @@
         <v>gdmt:hasAwardLocalIdentifier</v>
       </c>
       <c r="B145" s="32" t="s">
-        <v>2276</v>
+        <v>2275</v>
       </c>
       <c r="C145" s="54" t="s">
         <v>2067</v>
       </c>
       <c r="D145" s="32" t="s">
-        <v>2276</v>
+        <v>2275</v>
       </c>
       <c r="E145" s="32" t="s">
         <v>136</v>
@@ -12758,13 +12758,13 @@
         <v>gdmt:hasFunderName</v>
       </c>
       <c r="B146" s="32" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="C146" s="54" t="s">
         <v>2067</v>
       </c>
       <c r="D146" s="32" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="E146" s="32" t="s">
         <v>137</v>
@@ -12783,13 +12783,13 @@
         <v>gdmt:hasFunderIdentifier</v>
       </c>
       <c r="B147" s="32" t="s">
-        <v>2278</v>
+        <v>2277</v>
       </c>
       <c r="C147" s="15" t="s">
         <v>2041</v>
       </c>
       <c r="D147" s="32" t="s">
-        <v>2278</v>
+        <v>2277</v>
       </c>
       <c r="E147" s="32" t="s">
         <v>138</v>
@@ -12808,13 +12808,13 @@
         <v>gdmt:hasFunderIdentifierScheme</v>
       </c>
       <c r="B148" s="32" t="s">
-        <v>2279</v>
+        <v>2278</v>
       </c>
       <c r="C148" s="54" t="s">
         <v>2067</v>
       </c>
       <c r="D148" s="32" t="s">
-        <v>2279</v>
+        <v>2278</v>
       </c>
       <c r="E148" s="32" t="s">
         <v>139</v>
@@ -12833,13 +12833,13 @@
         <v>gdmt:hasFunderIdentifierSchemeIRI</v>
       </c>
       <c r="B149" s="32" t="s">
-        <v>2280</v>
+        <v>2279</v>
       </c>
       <c r="C149" s="15" t="s">
         <v>2041</v>
       </c>
       <c r="D149" s="32" t="s">
-        <v>2280</v>
+        <v>2279</v>
       </c>
       <c r="E149" s="32" t="s">
         <v>140</v>
@@ -12858,7 +12858,7 @@
         <v>gdmt:ResourceTypeCategory</v>
       </c>
       <c r="B150" s="41" t="s">
-        <v>2092</v>
+        <v>2091</v>
       </c>
       <c r="C150" s="42"/>
       <c r="D150" s="42"/>
@@ -12925,7 +12925,7 @@
         <v>gdmt:DataPaper</v>
       </c>
       <c r="B153" s="35" t="s">
-        <v>2093</v>
+        <v>2092</v>
       </c>
       <c r="C153" s="37"/>
       <c r="D153" s="37"/>
@@ -12948,7 +12948,7 @@
         <v>gdmt:DataCatalog</v>
       </c>
       <c r="B154" s="35" t="s">
-        <v>2094</v>
+        <v>2093</v>
       </c>
       <c r="C154" s="37"/>
       <c r="D154" s="37"/>
@@ -12994,7 +12994,7 @@
         <v>gdmt:DataStream</v>
       </c>
       <c r="B156" s="35" t="s">
-        <v>2095</v>
+        <v>2094</v>
       </c>
       <c r="C156" s="37"/>
       <c r="D156" s="37"/>
@@ -13063,7 +13063,7 @@
         <v>gdmt:InteractiveResource</v>
       </c>
       <c r="B159" s="35" t="s">
-        <v>2096</v>
+        <v>2095</v>
       </c>
       <c r="C159" s="37"/>
       <c r="D159" s="37"/>
@@ -13109,7 +13109,7 @@
         <v>gdmt:PhysicalObject</v>
       </c>
       <c r="B161" s="35" t="s">
-        <v>2097</v>
+        <v>2096</v>
       </c>
       <c r="C161" s="37"/>
       <c r="D161" s="37"/>
@@ -13247,7 +13247,7 @@
         <v>gdmt:OtherResource</v>
       </c>
       <c r="B167" s="35" t="s">
-        <v>2098</v>
+        <v>2097</v>
       </c>
       <c r="C167" s="37"/>
       <c r="D167" s="37"/>
@@ -13270,7 +13270,7 @@
         <v>gdmt:ContributorRole</v>
       </c>
       <c r="B168" s="41" t="s">
-        <v>2099</v>
+        <v>2098</v>
       </c>
       <c r="C168" s="42"/>
       <c r="D168" s="42"/>
@@ -13291,7 +13291,7 @@
         <v>gdmt:ContactPerson</v>
       </c>
       <c r="B169" s="37" t="s">
-        <v>2100</v>
+        <v>2099</v>
       </c>
       <c r="C169" s="37"/>
       <c r="D169" s="37"/>
@@ -13314,7 +13314,7 @@
         <v>gdmt:DataCollector</v>
       </c>
       <c r="B170" s="37" t="s">
-        <v>2101</v>
+        <v>2100</v>
       </c>
       <c r="C170" s="37"/>
       <c r="D170" s="37"/>
@@ -13337,7 +13337,7 @@
         <v>gdmt:DataCurator</v>
       </c>
       <c r="B171" s="37" t="s">
-        <v>2102</v>
+        <v>2101</v>
       </c>
       <c r="C171" s="37"/>
       <c r="D171" s="37"/>
@@ -13360,7 +13360,7 @@
         <v>gdmt:DataManager</v>
       </c>
       <c r="B172" s="37" t="s">
-        <v>2103</v>
+        <v>2102</v>
       </c>
       <c r="C172" s="37"/>
       <c r="D172" s="37"/>
@@ -13440,7 +13440,7 @@
         <v>gdmt:HostingInstitution</v>
       </c>
       <c r="B175" s="38" t="s">
-        <v>2104</v>
+        <v>2103</v>
       </c>
       <c r="C175" s="38"/>
       <c r="D175" s="38"/>
@@ -13508,7 +13508,7 @@
         <v>gdmt:ProjectLeader</v>
       </c>
       <c r="B177" s="38" t="s">
-        <v>2105</v>
+        <v>2104</v>
       </c>
       <c r="C177" s="38"/>
       <c r="D177" s="38"/>
@@ -13542,7 +13542,7 @@
         <v>gdmt:ProjectManager</v>
       </c>
       <c r="B178" s="37" t="s">
-        <v>2106</v>
+        <v>2105</v>
       </c>
       <c r="C178" s="37"/>
       <c r="D178" s="37"/>
@@ -13565,7 +13565,7 @@
         <v>gdmt:ProjectMember</v>
       </c>
       <c r="B179" s="37" t="s">
-        <v>2107</v>
+        <v>2106</v>
       </c>
       <c r="C179" s="37"/>
       <c r="D179" s="37"/>
@@ -13588,7 +13588,7 @@
         <v>gdmt:RegistrationAgency</v>
       </c>
       <c r="B180" s="37" t="s">
-        <v>2108</v>
+        <v>2107</v>
       </c>
       <c r="C180" s="37"/>
       <c r="D180" s="37"/>
@@ -13611,7 +13611,7 @@
         <v>gdmt:RegistrationAuthority</v>
       </c>
       <c r="B181" s="37" t="s">
-        <v>2109</v>
+        <v>2108</v>
       </c>
       <c r="C181" s="37"/>
       <c r="D181" s="37"/>
@@ -13634,7 +13634,7 @@
         <v>gdmt:RelatedPerson</v>
       </c>
       <c r="B182" s="37" t="s">
-        <v>2110</v>
+        <v>2109</v>
       </c>
       <c r="C182" s="37"/>
       <c r="D182" s="37"/>
@@ -13691,7 +13691,7 @@
         <v>gdmt:ResearchGroup</v>
       </c>
       <c r="B184" s="38" t="s">
-        <v>2111</v>
+        <v>2110</v>
       </c>
       <c r="C184" s="38"/>
       <c r="D184" s="38"/>
@@ -13725,7 +13725,7 @@
         <v>gdmt:RightsHolder</v>
       </c>
       <c r="B185" s="38" t="s">
-        <v>2112</v>
+        <v>2111</v>
       </c>
       <c r="C185" s="38"/>
       <c r="D185" s="38"/>
@@ -13827,7 +13827,7 @@
         <v>gdmt:WorkPackageLeader</v>
       </c>
       <c r="B188" s="38" t="s">
-        <v>2113</v>
+        <v>2112</v>
       </c>
       <c r="C188" s="38"/>
       <c r="D188" s="38"/>
@@ -13861,7 +13861,7 @@
         <v>gdmt:OtherRole</v>
       </c>
       <c r="B189" s="38" t="s">
-        <v>2114</v>
+        <v>2113</v>
       </c>
       <c r="C189" s="38"/>
       <c r="D189" s="38"/>
@@ -13895,7 +13895,7 @@
         <v>gdmt:DateType</v>
       </c>
       <c r="B190" s="41" t="s">
-        <v>2115</v>
+        <v>2114</v>
       </c>
       <c r="C190" s="42"/>
       <c r="D190" s="42"/>
@@ -14279,12 +14279,12 @@
         <v>gdmt:IdentifierType</v>
       </c>
       <c r="B202" s="47" t="s">
-        <v>2147</v>
+        <v>2146</v>
       </c>
       <c r="C202" s="47"/>
       <c r="D202" s="47"/>
       <c r="E202" s="48" t="s">
-        <v>2091</v>
+        <v>2090</v>
       </c>
       <c r="F202" s="49"/>
       <c r="G202" s="49"/>
@@ -14320,7 +14320,7 @@
       </c>
       <c r="F203" s="46"/>
       <c r="G203" s="46" t="s">
-        <v>2090</v>
+        <v>2281</v>
       </c>
       <c r="H203" s="46"/>
       <c r="I203" s="46"/>
@@ -14354,7 +14354,7 @@
       </c>
       <c r="F204" s="44"/>
       <c r="G204" s="46" t="s">
-        <v>2090</v>
+        <v>2281</v>
       </c>
       <c r="H204" s="44"/>
       <c r="I204" s="44"/>
@@ -14388,7 +14388,7 @@
       </c>
       <c r="F205" s="46"/>
       <c r="G205" s="46" t="s">
-        <v>2090</v>
+        <v>2281</v>
       </c>
       <c r="H205" s="46"/>
       <c r="I205" s="46"/>
@@ -14422,7 +14422,7 @@
       </c>
       <c r="F206" s="44"/>
       <c r="G206" s="46" t="s">
-        <v>2090</v>
+        <v>2281</v>
       </c>
       <c r="H206" s="44"/>
       <c r="I206" s="44"/>
@@ -14456,7 +14456,7 @@
       </c>
       <c r="F207" s="44"/>
       <c r="G207" s="46" t="s">
-        <v>2090</v>
+        <v>2281</v>
       </c>
       <c r="H207" s="44"/>
       <c r="I207" s="44"/>
@@ -14490,7 +14490,7 @@
       </c>
       <c r="F208" s="44"/>
       <c r="G208" s="46" t="s">
-        <v>2090</v>
+        <v>2281</v>
       </c>
       <c r="H208" s="44"/>
       <c r="I208" s="44"/>
@@ -14524,7 +14524,7 @@
       </c>
       <c r="F209" s="44"/>
       <c r="G209" s="46" t="s">
-        <v>2090</v>
+        <v>2281</v>
       </c>
       <c r="H209" s="44"/>
       <c r="I209" s="44"/>
@@ -14558,7 +14558,7 @@
       </c>
       <c r="F210" s="44"/>
       <c r="G210" s="46" t="s">
-        <v>2090</v>
+        <v>2281</v>
       </c>
       <c r="H210" s="44"/>
       <c r="I210" s="44"/>
@@ -14592,7 +14592,7 @@
       </c>
       <c r="F211" s="44"/>
       <c r="G211" s="46" t="s">
-        <v>2090</v>
+        <v>2281</v>
       </c>
       <c r="H211" s="44"/>
       <c r="I211" s="44"/>
@@ -14626,7 +14626,7 @@
       </c>
       <c r="F212" s="44"/>
       <c r="G212" s="46" t="s">
-        <v>2090</v>
+        <v>2281</v>
       </c>
       <c r="H212" s="44"/>
       <c r="I212" s="44"/>
@@ -14660,7 +14660,7 @@
       </c>
       <c r="F213" s="44"/>
       <c r="G213" s="46" t="s">
-        <v>2090</v>
+        <v>2281</v>
       </c>
       <c r="H213" s="44"/>
       <c r="I213" s="44"/>
@@ -14694,7 +14694,7 @@
       </c>
       <c r="F214" s="44"/>
       <c r="G214" s="46" t="s">
-        <v>2090</v>
+        <v>2281</v>
       </c>
       <c r="H214" s="44"/>
       <c r="I214" s="44"/>
@@ -14728,7 +14728,7 @@
       </c>
       <c r="F215" s="44"/>
       <c r="G215" s="46" t="s">
-        <v>2090</v>
+        <v>2281</v>
       </c>
       <c r="H215" s="44"/>
       <c r="I215" s="44"/>
@@ -14762,7 +14762,7 @@
       </c>
       <c r="F216" s="44"/>
       <c r="G216" s="46" t="s">
-        <v>2090</v>
+        <v>2281</v>
       </c>
       <c r="H216" s="44"/>
       <c r="I216" s="44"/>
@@ -14796,7 +14796,7 @@
       </c>
       <c r="F217" s="46"/>
       <c r="G217" s="46" t="s">
-        <v>2090</v>
+        <v>2281</v>
       </c>
       <c r="H217" s="46"/>
       <c r="I217" s="46"/>
@@ -14830,7 +14830,7 @@
       </c>
       <c r="F218" s="44"/>
       <c r="G218" s="46" t="s">
-        <v>2090</v>
+        <v>2281</v>
       </c>
       <c r="H218" s="44"/>
       <c r="I218" s="44"/>
@@ -14864,7 +14864,7 @@
       </c>
       <c r="F219" s="44"/>
       <c r="G219" s="46" t="s">
-        <v>2090</v>
+        <v>2281</v>
       </c>
       <c r="H219" s="44"/>
       <c r="I219" s="44"/>
@@ -14898,7 +14898,7 @@
       </c>
       <c r="F220" s="44"/>
       <c r="G220" s="46" t="s">
-        <v>2090</v>
+        <v>2281</v>
       </c>
       <c r="H220" s="44"/>
       <c r="I220" s="44"/>
@@ -14932,7 +14932,7 @@
       </c>
       <c r="F221" s="46"/>
       <c r="G221" s="46" t="s">
-        <v>2090</v>
+        <v>2281</v>
       </c>
       <c r="H221" s="46"/>
       <c r="I221" s="46"/>
@@ -14966,7 +14966,7 @@
       </c>
       <c r="F222" s="44"/>
       <c r="G222" s="46" t="s">
-        <v>2090</v>
+        <v>2281</v>
       </c>
       <c r="H222" s="44"/>
       <c r="I222" s="44"/>
@@ -15000,7 +15000,7 @@
       </c>
       <c r="F223" s="51"/>
       <c r="G223" s="46" t="s">
-        <v>2090</v>
+        <v>2281</v>
       </c>
       <c r="H223" s="51"/>
       <c r="I223" s="51"/>
@@ -15025,7 +15025,7 @@
         <v>gdmt:RelationType</v>
       </c>
       <c r="B224" s="47" t="s">
-        <v>2116</v>
+        <v>2115</v>
       </c>
       <c r="C224" s="47"/>
       <c r="D224" s="47"/>
@@ -15057,7 +15057,7 @@
         <v>gdmt:IsCitedBy</v>
       </c>
       <c r="B225" s="51" t="s">
-        <v>2117</v>
+        <v>2116</v>
       </c>
       <c r="C225" s="51"/>
       <c r="D225" s="51"/>
@@ -15125,7 +15125,7 @@
         <v>gdmt:IsSupplementTo</v>
       </c>
       <c r="B227" s="51" t="s">
-        <v>2118</v>
+        <v>2117</v>
       </c>
       <c r="C227" s="51"/>
       <c r="D227" s="51"/>
@@ -15159,7 +15159,7 @@
         <v>gdmt:IsSupplementedBy</v>
       </c>
       <c r="B228" s="51" t="s">
-        <v>2119</v>
+        <v>2118</v>
       </c>
       <c r="C228" s="51"/>
       <c r="D228" s="51"/>
@@ -15193,7 +15193,7 @@
         <v>gdmt:IsContinuedBy</v>
       </c>
       <c r="B229" s="51" t="s">
-        <v>2120</v>
+        <v>2119</v>
       </c>
       <c r="C229" s="51"/>
       <c r="D229" s="51"/>
@@ -15295,7 +15295,7 @@
         <v>gdmt:IsDescribedBy</v>
       </c>
       <c r="B232" s="51" t="s">
-        <v>2121</v>
+        <v>2120</v>
       </c>
       <c r="C232" s="51"/>
       <c r="D232" s="51"/>
@@ -15329,7 +15329,7 @@
         <v>gdmt:HasMetadata</v>
       </c>
       <c r="B233" s="51" t="s">
-        <v>2122</v>
+        <v>2121</v>
       </c>
       <c r="C233" s="51"/>
       <c r="D233" s="51"/>
@@ -15363,7 +15363,7 @@
         <v>gdmt:IsMetadataFor</v>
       </c>
       <c r="B234" s="51" t="s">
-        <v>2123</v>
+        <v>2122</v>
       </c>
       <c r="C234" s="51"/>
       <c r="D234" s="51"/>
@@ -15397,7 +15397,7 @@
         <v>gdmt:HasVersion</v>
       </c>
       <c r="B235" s="51" t="s">
-        <v>2124</v>
+        <v>2123</v>
       </c>
       <c r="C235" s="51"/>
       <c r="D235" s="51"/>
@@ -15431,7 +15431,7 @@
         <v>gdmt:IsVersionOf</v>
       </c>
       <c r="B236" s="51" t="s">
-        <v>2125</v>
+        <v>2124</v>
       </c>
       <c r="C236" s="51"/>
       <c r="D236" s="51"/>
@@ -15465,7 +15465,7 @@
         <v>gdmt:IsNewVersionOf</v>
       </c>
       <c r="B237" s="51" t="s">
-        <v>2126</v>
+        <v>2125</v>
       </c>
       <c r="C237" s="51"/>
       <c r="D237" s="51"/>
@@ -15499,7 +15499,7 @@
         <v>gdmt:IsPreviousVersionOf</v>
       </c>
       <c r="B238" s="51" t="s">
-        <v>2127</v>
+        <v>2126</v>
       </c>
       <c r="C238" s="51"/>
       <c r="D238" s="51"/>
@@ -15533,7 +15533,7 @@
         <v>gdmt:IsPartOf</v>
       </c>
       <c r="B239" s="51" t="s">
-        <v>2128</v>
+        <v>2127</v>
       </c>
       <c r="C239" s="51"/>
       <c r="D239" s="51"/>
@@ -15567,7 +15567,7 @@
         <v>gdmt:HasPart</v>
       </c>
       <c r="B240" s="51" t="s">
-        <v>2129</v>
+        <v>2128</v>
       </c>
       <c r="C240" s="51"/>
       <c r="D240" s="51"/>
@@ -15601,7 +15601,7 @@
         <v>gdmt:IsReferencedBy</v>
       </c>
       <c r="B241" s="51" t="s">
-        <v>2130</v>
+        <v>2129</v>
       </c>
       <c r="C241" s="51"/>
       <c r="D241" s="51"/>
@@ -15669,7 +15669,7 @@
         <v>gdmt:IsDocumentedBy</v>
       </c>
       <c r="B243" s="51" t="s">
-        <v>2131</v>
+        <v>2130</v>
       </c>
       <c r="C243" s="51"/>
       <c r="D243" s="51"/>
@@ -15737,7 +15737,7 @@
         <v>gdmt:IsCompiledBy</v>
       </c>
       <c r="B245" s="51" t="s">
-        <v>2132</v>
+        <v>2131</v>
       </c>
       <c r="C245" s="51"/>
       <c r="D245" s="51"/>
@@ -15805,7 +15805,7 @@
         <v>gdmt:IsVariantFormOf</v>
       </c>
       <c r="B247" s="51" t="s">
-        <v>2133</v>
+        <v>2132</v>
       </c>
       <c r="C247" s="51"/>
       <c r="D247" s="51"/>
@@ -15839,7 +15839,7 @@
         <v>gdmt:IsOriginalFormOf</v>
       </c>
       <c r="B248" s="51" t="s">
-        <v>2134</v>
+        <v>2133</v>
       </c>
       <c r="C248" s="51"/>
       <c r="D248" s="51"/>
@@ -15873,7 +15873,7 @@
         <v>gdmt:IsIdenticalTo</v>
       </c>
       <c r="B249" s="51" t="s">
-        <v>2135</v>
+        <v>2134</v>
       </c>
       <c r="C249" s="51"/>
       <c r="D249" s="51"/>
@@ -15907,7 +15907,7 @@
         <v>gdmt:IsReviewedBy</v>
       </c>
       <c r="B250" s="51" t="s">
-        <v>2136</v>
+        <v>2135</v>
       </c>
       <c r="C250" s="51"/>
       <c r="D250" s="51"/>
@@ -15975,7 +15975,7 @@
         <v>gdmt:IsDerivedFrom</v>
       </c>
       <c r="B252" s="51" t="s">
-        <v>2137</v>
+        <v>2136</v>
       </c>
       <c r="C252" s="51"/>
       <c r="D252" s="51"/>
@@ -16009,7 +16009,7 @@
         <v>gdmt:IsSourceOf</v>
       </c>
       <c r="B253" s="51" t="s">
-        <v>2138</v>
+        <v>2137</v>
       </c>
       <c r="C253" s="51"/>
       <c r="D253" s="51"/>
@@ -16043,7 +16043,7 @@
         <v>gdmt:IsRequiredBy</v>
       </c>
       <c r="B254" s="51" t="s">
-        <v>2139</v>
+        <v>2138</v>
       </c>
       <c r="C254" s="51"/>
       <c r="D254" s="51"/>
@@ -16145,7 +16145,7 @@
         <v>gdmt:IsObsoletedBy</v>
       </c>
       <c r="B257" s="51" t="s">
-        <v>2140</v>
+        <v>2139</v>
       </c>
       <c r="C257" s="51"/>
       <c r="D257" s="51"/>
@@ -16179,7 +16179,7 @@
         <v>gdmt:ResourceCreatorType</v>
       </c>
       <c r="B258" s="47" t="s">
-        <v>2141</v>
+        <v>2140</v>
       </c>
       <c r="C258" s="47"/>
       <c r="D258" s="47"/>
@@ -16317,7 +16317,7 @@
         <v>gdmt:IdentifierScheme</v>
       </c>
       <c r="B262" s="47" t="s">
-        <v>2142</v>
+        <v>2141</v>
       </c>
       <c r="C262" s="47"/>
       <c r="D262" s="47"/>
@@ -16582,7 +16582,7 @@
         <v>gdmt:LicenseIdentifier</v>
       </c>
       <c r="B270" s="47" t="s">
-        <v>2143</v>
+        <v>2142</v>
       </c>
       <c r="C270" s="47"/>
       <c r="D270" s="47"/>
@@ -31662,7 +31662,7 @@
         <v>gdmt:LicenseIdentifierScheme</v>
       </c>
       <c r="B689" s="47" t="s">
-        <v>2144</v>
+        <v>2143</v>
       </c>
       <c r="C689" s="47"/>
       <c r="D689" s="47"/>
@@ -31727,7 +31727,7 @@
         <v>gdmt:MIMEType</v>
       </c>
       <c r="B691" s="47" t="s">
-        <v>2145</v>
+        <v>2144</v>
       </c>
       <c r="C691" s="47"/>
       <c r="D691" s="47"/>

--- a/ontology/dataset-voc.xlsx
+++ b/ontology/dataset-voc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Secondary_Drive/work/repos/FAIR-data/generic-dataset-metadata-template/ontology/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69113204-EDBA-2149-BBEF-E235BE6D41EC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8167BF41-D023-DC45-9D54-34E1B7DDDD06}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="34400" yWindow="460" windowWidth="34400" windowHeight="28340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -9041,9 +9041,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W1147"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="180" zoomScaleNormal="187" workbookViewId="0">
-      <pane ySplit="16" topLeftCell="A212" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E217" sqref="E217"/>
+    <sheetView tabSelected="1" zoomScale="180" zoomScaleNormal="187" workbookViewId="0">
+      <pane ySplit="16" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
@@ -9529,8 +9529,8 @@
     </row>
     <row r="17" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A17" s="14" t="str">
-        <f t="shared" ref="A17:A57" si="0">"gdmt:"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B17," Info","")," ",""),"-",""),"&amp;","")</f>
-        <v>gdmt:hasResourceType</v>
+        <f t="shared" ref="A17:A80" si="0">"gdmt:"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B17," ",""),"-",""),"&amp;","")</f>
+        <v>gdmt:hasResourceTypeInfo</v>
       </c>
       <c r="B17" s="36" t="s">
         <v>2147</v>
@@ -9555,7 +9555,7 @@
     <row r="18" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A18" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>gdmt:hasDatasetIdentifier</v>
+        <v>gdmt:hasDatasetIdentifierInfo</v>
       </c>
       <c r="B18" s="36" t="s">
         <v>2148</v>
@@ -9580,7 +9580,7 @@
     <row r="19" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A19" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>gdmt:hasRelatedResources</v>
+        <v>gdmt:hasRelatedResourcesInfo</v>
       </c>
       <c r="B19" s="36" t="s">
         <v>2149</v>
@@ -9605,7 +9605,7 @@
     <row r="20" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A20" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>gdmt:hasVersion</v>
+        <v>gdmt:hasVersionInfo</v>
       </c>
       <c r="B20" s="36" t="s">
         <v>2150</v>
@@ -9630,7 +9630,7 @@
     <row r="21" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A21" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>gdmt:hasLanguage</v>
+        <v>gdmt:hasLanguageInfo</v>
       </c>
       <c r="B21" s="36" t="s">
         <v>2151</v>
@@ -9655,7 +9655,7 @@
     <row r="22" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A22" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>gdmt:hasTitle</v>
+        <v>gdmt:hasTitleInfo</v>
       </c>
       <c r="B22" s="36" t="s">
         <v>2152</v>
@@ -9680,7 +9680,7 @@
     <row r="23" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A23" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>gdmt:hasDescription</v>
+        <v>gdmt:hasDescriptionInfo</v>
       </c>
       <c r="B23" s="36" t="s">
         <v>2153</v>
@@ -9705,7 +9705,7 @@
     <row r="24" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A24" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>gdmt:hasSubject</v>
+        <v>gdmt:hasSubjectInfo</v>
       </c>
       <c r="B24" s="36" t="s">
         <v>2154</v>
@@ -9730,7 +9730,7 @@
     <row r="25" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A25" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>gdmt:hasControlledTerms</v>
+        <v>gdmt:hasControlledTermsInfo</v>
       </c>
       <c r="B25" s="36" t="s">
         <v>2155</v>
@@ -9755,7 +9755,7 @@
     <row r="26" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A26" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>gdmt:hasCreator</v>
+        <v>gdmt:hasCreatorInfo</v>
       </c>
       <c r="B26" s="36" t="s">
         <v>2156</v>
@@ -9780,7 +9780,7 @@
     <row r="27" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A27" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>gdmt:hasCreatorName</v>
+        <v>gdmt:hasCreatorNameInfo</v>
       </c>
       <c r="B27" s="36" t="s">
         <v>2157</v>
@@ -9805,7 +9805,7 @@
     <row r="28" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A28" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>gdmt:hasCreatorIdentifier</v>
+        <v>gdmt:hasCreatorIdentifierInfo</v>
       </c>
       <c r="B28" s="36" t="s">
         <v>2158</v>
@@ -9830,7 +9830,7 @@
     <row r="29" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A29" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>gdmt:hasCreatorAffiliation</v>
+        <v>gdmt:hasCreatorAffiliationInfo</v>
       </c>
       <c r="B29" s="36" t="s">
         <v>2159</v>
@@ -9855,7 +9855,7 @@
     <row r="30" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A30" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>gdmt:hasContributor</v>
+        <v>gdmt:hasContributorInfo</v>
       </c>
       <c r="B30" s="36" t="s">
         <v>2160</v>
@@ -9880,7 +9880,7 @@
     <row r="31" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A31" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>gdmt:hasContributorName</v>
+        <v>gdmt:hasContributorNameInfo</v>
       </c>
       <c r="B31" s="36" t="s">
         <v>2161</v>
@@ -9905,7 +9905,7 @@
     <row r="32" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A32" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>gdmt:hasContributorIdentifier</v>
+        <v>gdmt:hasContributorIdentifierInfo</v>
       </c>
       <c r="B32" s="36" t="s">
         <v>2162</v>
@@ -9930,7 +9930,7 @@
     <row r="33" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A33" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>gdmt:hasContributorAffiliation</v>
+        <v>gdmt:hasContributorAffiliationInfo</v>
       </c>
       <c r="B33" s="36" t="s">
         <v>2163</v>
@@ -9955,7 +9955,7 @@
     <row r="34" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A34" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>gdmt:hasPublisher</v>
+        <v>gdmt:hasPublisherInfo</v>
       </c>
       <c r="B34" s="36" t="s">
         <v>2164</v>
@@ -9980,7 +9980,7 @@
     <row r="35" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A35" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>gdmt:hasPublisherIdentifier</v>
+        <v>gdmt:hasPublisherIdentifierInfo</v>
       </c>
       <c r="B35" s="36" t="s">
         <v>2165</v>
@@ -10005,7 +10005,7 @@
     <row r="36" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A36" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>gdmt:hasRights</v>
+        <v>gdmt:hasRightsInfo</v>
       </c>
       <c r="B36" s="36" t="s">
         <v>2166</v>
@@ -10030,7 +10030,7 @@
     <row r="37" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A37" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>gdmt:hasLicenseIdentifier</v>
+        <v>gdmt:hasLicenseIdentifierInfo</v>
       </c>
       <c r="B37" s="36" t="s">
         <v>2167</v>
@@ -10055,7 +10055,7 @@
     <row r="38" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A38" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>gdmt:hasDate</v>
+        <v>gdmt:hasDateInfo</v>
       </c>
       <c r="B38" s="36" t="s">
         <v>2168</v>
@@ -10080,7 +10080,7 @@
     <row r="39" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A39" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>gdmt:hasDistribution</v>
+        <v>gdmt:hasDistributionInfo</v>
       </c>
       <c r="B39" s="36" t="s">
         <v>2169</v>
@@ -10105,7 +10105,7 @@
     <row r="40" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A40" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>gdmt:hasDistributionAccess</v>
+        <v>gdmt:hasDistributionAccessInfo</v>
       </c>
       <c r="B40" s="36" t="s">
         <v>2170</v>
@@ -10130,7 +10130,7 @@
     <row r="41" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A41" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>gdmt:hasDistributor</v>
+        <v>gdmt:hasDistributorInfo</v>
       </c>
       <c r="B41" s="36" t="s">
         <v>2171</v>
@@ -10155,7 +10155,7 @@
     <row r="42" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A42" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>gdmt:hasDistributorName</v>
+        <v>gdmt:hasDistributorNameInfo</v>
       </c>
       <c r="B42" s="36" t="s">
         <v>2172</v>
@@ -10180,7 +10180,7 @@
     <row r="43" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A43" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>gdmt:hasDistributorIdentifier</v>
+        <v>gdmt:hasDistributorIdentifierInfo</v>
       </c>
       <c r="B43" s="36" t="s">
         <v>2173</v>
@@ -10205,7 +10205,7 @@
     <row r="44" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A44" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>gdmt:hasDistributorAffiliation</v>
+        <v>gdmt:hasDistributorAffiliationInfo</v>
       </c>
       <c r="B44" s="36" t="s">
         <v>2174</v>
@@ -10230,7 +10230,7 @@
     <row r="45" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A45" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>gdmt:hasContent</v>
+        <v>gdmt:hasContentInfo</v>
       </c>
       <c r="B45" s="36" t="s">
         <v>2175</v>
@@ -10255,7 +10255,7 @@
     <row r="46" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A46" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>gdmt:hasDataStream</v>
+        <v>gdmt:hasDataStreamInfo</v>
       </c>
       <c r="B46" s="36" t="s">
         <v>2176</v>
@@ -10280,7 +10280,7 @@
     <row r="47" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A47" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>gdmt:hasDataSource</v>
+        <v>gdmt:hasDataSourceInfo</v>
       </c>
       <c r="B47" s="36" t="s">
         <v>2177</v>
@@ -10305,7 +10305,7 @@
     <row r="48" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A48" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>gdmt:hasVariable</v>
+        <v>gdmt:hasVariableInfo</v>
       </c>
       <c r="B48" s="36" t="s">
         <v>2178</v>
@@ -10330,7 +10330,7 @@
     <row r="49" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A49" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>gdmt:hasSpatialCoverage</v>
+        <v>gdmt:hasSpatialCoverageInfo</v>
       </c>
       <c r="B49" s="36" t="s">
         <v>2179</v>
@@ -10355,7 +10355,7 @@
     <row r="50" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A50" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>gdmt:hasSpatialCoveragePoint</v>
+        <v>gdmt:hasSpatialCoveragePointInfo</v>
       </c>
       <c r="B50" s="36" t="s">
         <v>2180</v>
@@ -10380,7 +10380,7 @@
     <row r="51" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A51" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>gdmt:hasSpatialCoverageBoundingBox</v>
+        <v>gdmt:hasSpatialCoverageBoundingBoxInfo</v>
       </c>
       <c r="B51" s="36" t="s">
         <v>2181</v>
@@ -10405,7 +10405,7 @@
     <row r="52" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A52" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>gdmt:hasSpatialCoveragePolygon</v>
+        <v>gdmt:hasSpatialCoveragePolygonInfo</v>
       </c>
       <c r="B52" s="36" t="s">
         <v>2182</v>
@@ -10430,7 +10430,7 @@
     <row r="53" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A53" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>gdmt:hasVerticalCoverage</v>
+        <v>gdmt:hasVerticalCoverageInfo</v>
       </c>
       <c r="B53" s="36" t="s">
         <v>2183</v>
@@ -10455,7 +10455,7 @@
     <row r="54" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A54" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>gdmt:hasTemporalCoverage</v>
+        <v>gdmt:hasTemporalCoverageInfo</v>
       </c>
       <c r="B54" s="36" t="s">
         <v>2184</v>
@@ -10480,7 +10480,7 @@
     <row r="55" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A55" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>gdmt:hasFunding</v>
+        <v>gdmt:hasFundingInfo</v>
       </c>
       <c r="B55" s="36" t="s">
         <v>2185</v>
@@ -10505,7 +10505,7 @@
     <row r="56" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A56" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>gdmt:hasAward</v>
+        <v>gdmt:hasAwardInfo</v>
       </c>
       <c r="B56" s="36" t="s">
         <v>2186</v>
@@ -10530,7 +10530,7 @@
     <row r="57" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A57" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>gdmt:hasFunder</v>
+        <v>gdmt:hasFunderInfo</v>
       </c>
       <c r="B57" s="36" t="s">
         <v>2187</v>
@@ -10554,7 +10554,7 @@
     </row>
     <row r="58" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A58" s="14" t="str">
-        <f t="shared" ref="A58:A89" si="1">"gdmt:"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B58," ",""),"-",""),"&amp;","")</f>
+        <f t="shared" si="0"/>
         <v>gdmt:hasDatasetIdentifierSubType</v>
       </c>
       <c r="B58" s="16" t="s">
@@ -10579,7 +10579,7 @@
     </row>
     <row r="59" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A59" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>gdmt:hasRelatedResourceIdentifierSubType</v>
       </c>
       <c r="B59" s="17" t="s">
@@ -10604,7 +10604,7 @@
     </row>
     <row r="60" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A60" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>gdmt:hasPrimaryLanguage</v>
       </c>
       <c r="B60" s="18" t="s">
@@ -10629,7 +10629,7 @@
     </row>
     <row r="61" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A61" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>gdmt:hasSubjectIRI</v>
       </c>
       <c r="B61" s="20" t="s">
@@ -10654,7 +10654,7 @@
     </row>
     <row r="62" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A62" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>gdmt:hasSubjectScheme</v>
       </c>
       <c r="B62" s="20" t="s">
@@ -10679,7 +10679,7 @@
     </row>
     <row r="63" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A63" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>gdmt:hasSubjectSchemeIRI</v>
       </c>
       <c r="B63" s="20" t="s">
@@ -10704,7 +10704,7 @@
     </row>
     <row r="64" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A64" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>gdmt:hasKeyword</v>
       </c>
       <c r="B64" s="20" t="s">
@@ -10729,7 +10729,7 @@
     </row>
     <row r="65" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A65" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>gdmt:hasCreatorIdentifier</v>
       </c>
       <c r="B65" s="21" t="s">
@@ -10754,7 +10754,7 @@
     </row>
     <row r="66" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A66" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>gdmt:hasCreatorIdentifierScheme</v>
       </c>
       <c r="B66" s="21" t="s">
@@ -10779,7 +10779,7 @@
     </row>
     <row r="67" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A67" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>gdmt:hasCreatorIdentifierSchemeIRI</v>
       </c>
       <c r="B67" s="21" t="s">
@@ -10804,7 +10804,7 @@
     </row>
     <row r="68" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A68" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>gdmt:hasCreatorAffiliation</v>
       </c>
       <c r="B68" s="21" t="s">
@@ -10829,7 +10829,7 @@
     </row>
     <row r="69" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A69" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>gdmt:hasCreatorAffiliationIdentifier</v>
       </c>
       <c r="B69" s="21" t="s">
@@ -10854,7 +10854,7 @@
     </row>
     <row r="70" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A70" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>gdmt:hasCreatorAffiliationIdentifierScheme</v>
       </c>
       <c r="B70" s="21" t="s">
@@ -10879,7 +10879,7 @@
     </row>
     <row r="71" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A71" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>gdmt:hasCreatorAffiliationIdentifierSchemeIRI</v>
       </c>
       <c r="B71" s="21" t="s">
@@ -10904,7 +10904,7 @@
     </row>
     <row r="72" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A72" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>gdmt:hasCreatorRole</v>
       </c>
       <c r="B72" s="21" t="s">
@@ -10929,7 +10929,7 @@
     </row>
     <row r="73" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A73" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>gdmt:hasCreatorType</v>
       </c>
       <c r="B73" s="21" t="s">
@@ -10954,7 +10954,7 @@
     </row>
     <row r="74" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A74" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>gdmt:hasContributorIdentifier</v>
       </c>
       <c r="B74" s="21" t="s">
@@ -10979,7 +10979,7 @@
     </row>
     <row r="75" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A75" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>gdmt:hasContributorIdentifierScheme</v>
       </c>
       <c r="B75" s="21" t="s">
@@ -11004,7 +11004,7 @@
     </row>
     <row r="76" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A76" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>gdmt:hasContributorIdentifierSchemeIRI</v>
       </c>
       <c r="B76" s="21" t="s">
@@ -11029,7 +11029,7 @@
     </row>
     <row r="77" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A77" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>gdmt:hasContributorAffiliation</v>
       </c>
       <c r="B77" s="21" t="s">
@@ -11054,7 +11054,7 @@
     </row>
     <row r="78" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A78" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>gdmt:hasContributorAffiliationIdentifier</v>
       </c>
       <c r="B78" s="21" t="s">
@@ -11079,7 +11079,7 @@
     </row>
     <row r="79" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A79" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>gdmt:hasContributorAffiliationIdentifierScheme</v>
       </c>
       <c r="B79" s="21" t="s">
@@ -11104,7 +11104,7 @@
     </row>
     <row r="80" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A80" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>gdmt:hasContributorAffiliationIdentifierSchemeIRI</v>
       </c>
       <c r="B80" s="21" t="s">
@@ -11129,7 +11129,7 @@
     </row>
     <row r="81" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A81" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="A81:A144" si="1">"gdmt:"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B81," ",""),"-",""),"&amp;","")</f>
         <v>gdmt:hasContributorRole</v>
       </c>
       <c r="B81" s="21" t="s">
@@ -11354,7 +11354,7 @@
     </row>
     <row r="90" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A90" s="14" t="str">
-        <f t="shared" ref="A90:A121" si="2">"gdmt:"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B90," ",""),"-",""),"&amp;","")</f>
+        <f t="shared" si="1"/>
         <v>gdmt:hasLicenseIdentifierSchemeIRI</v>
       </c>
       <c r="B90" s="23" t="s">
@@ -11379,7 +11379,7 @@
     </row>
     <row r="91" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A91" s="14" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>gdmt:hasDatasetDate</v>
       </c>
       <c r="B91" s="24" t="s">
@@ -11404,7 +11404,7 @@
     </row>
     <row r="92" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A92" s="14" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="A90:A121" si="2">"gdmt:"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B92," ",""),"-",""),"&amp;","")</f>
         <v>gdmt:hasDatasetDateType</v>
       </c>
       <c r="B92" s="24" t="s">
@@ -11429,7 +11429,7 @@
     </row>
     <row r="93" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A93" s="14" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>gdmt:hasDistributionIdentifier</v>
       </c>
       <c r="B93" s="25" t="s">
@@ -11454,7 +11454,7 @@
     </row>
     <row r="94" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A94" s="14" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>gdmt:hasDistributionIdentifierType</v>
       </c>
       <c r="B94" s="25" t="s">
@@ -11479,7 +11479,7 @@
     </row>
     <row r="95" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A95" s="14" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>gdmt:hasDistributionMediaType</v>
       </c>
       <c r="B95" s="26" t="s">
@@ -11504,7 +11504,7 @@
     </row>
     <row r="96" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A96" s="14" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>gdmt:hasDistributionSize</v>
       </c>
       <c r="B96" s="26" t="s">
@@ -11529,7 +11529,7 @@
     </row>
     <row r="97" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A97" s="14" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>gdmt:hasDistributionAccessProtocol</v>
       </c>
       <c r="B97" s="26" t="s">
@@ -11554,7 +11554,7 @@
     </row>
     <row r="98" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A98" s="14" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>gdmt:hasDistributionAccessConfiguration</v>
       </c>
       <c r="B98" s="26" t="s">
@@ -11579,7 +11579,7 @@
     </row>
     <row r="99" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A99" s="14" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>gdmt:hasDistributionQueryStatement</v>
       </c>
       <c r="B99" s="26" t="s">
@@ -11604,7 +11604,7 @@
     </row>
     <row r="100" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A100" s="14" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>gdmt:hasDistributionDate</v>
       </c>
       <c r="B100" s="27" t="s">
@@ -11629,7 +11629,7 @@
     </row>
     <row r="101" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A101" s="14" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>gdmt:hasDistributorIdentifier</v>
       </c>
       <c r="B101" s="21" t="s">
@@ -11654,7 +11654,7 @@
     </row>
     <row r="102" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A102" s="14" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>gdmt:hasDistributorIdentifierScheme</v>
       </c>
       <c r="B102" s="21" t="s">
@@ -11679,7 +11679,7 @@
     </row>
     <row r="103" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A103" s="14" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>gdmt:hasDistributorIdentifierSchemeIRI</v>
       </c>
       <c r="B103" s="21" t="s">
@@ -11704,7 +11704,7 @@
     </row>
     <row r="104" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A104" s="14" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>gdmt:hasDistributorAffiliation</v>
       </c>
       <c r="B104" s="21" t="s">
@@ -11729,7 +11729,7 @@
     </row>
     <row r="105" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A105" s="14" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>gdmt:hasDistributorAffiliationIdentifier</v>
       </c>
       <c r="B105" s="21" t="s">
@@ -11754,7 +11754,7 @@
     </row>
     <row r="106" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A106" s="14" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>gdmt:hasDistributorAffiliationIdentifierScheme</v>
       </c>
       <c r="B106" s="21" t="s">
@@ -11779,7 +11779,7 @@
     </row>
     <row r="107" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A107" s="14" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>gdmt:hasDistributorAffiliationIdentifierSchemeIRI</v>
       </c>
       <c r="B107" s="21" t="s">
@@ -11804,7 +11804,7 @@
     </row>
     <row r="108" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A108" s="14" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>gdmt:hasDistributorRole</v>
       </c>
       <c r="B108" s="21" t="s">
@@ -11829,7 +11829,7 @@
     </row>
     <row r="109" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A109" s="14" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>gdmt:hasDistributorType</v>
       </c>
       <c r="B109" s="21" t="s">
@@ -11854,7 +11854,7 @@
     </row>
     <row r="110" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A110" s="14" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>gdmt:hasDataStream</v>
       </c>
       <c r="B110" s="28" t="s">
@@ -11879,7 +11879,7 @@
     </row>
     <row r="111" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A111" s="14" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>gdmt:hasDataStreamIRI</v>
       </c>
       <c r="B111" s="28" t="s">
@@ -11904,7 +11904,7 @@
     </row>
     <row r="112" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A112" s="14" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>gdmt:hasDataStreamScheme</v>
       </c>
       <c r="B112" s="28" t="s">
@@ -11929,7 +11929,7 @@
     </row>
     <row r="113" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A113" s="14" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>gdmt:hasDataStreamSchemeIRI</v>
       </c>
       <c r="B113" s="28" t="s">
@@ -11954,7 +11954,7 @@
     </row>
     <row r="114" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A114" s="14" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>gdmt:hasDataSource</v>
       </c>
       <c r="B114" s="28" t="s">
@@ -11979,7 +11979,7 @@
     </row>
     <row r="115" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A115" s="14" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>gdmt:hasDataSourceIRI</v>
       </c>
       <c r="B115" s="28" t="s">
@@ -12004,7 +12004,7 @@
     </row>
     <row r="116" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A116" s="14" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>gdmt:hasDataSourceScheme</v>
       </c>
       <c r="B116" s="28" t="s">
@@ -12029,7 +12029,7 @@
     </row>
     <row r="117" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A117" s="14" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>gdmt:hasDataSourceSchemeIRI</v>
       </c>
       <c r="B117" s="28" t="s">
@@ -12054,7 +12054,7 @@
     </row>
     <row r="118" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A118" s="14" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>gdmt:hasVariable</v>
       </c>
       <c r="B118" s="28" t="s">
@@ -12079,7 +12079,7 @@
     </row>
     <row r="119" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A119" s="14" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>gdmt:hasVariableIRI</v>
       </c>
       <c r="B119" s="28" t="s">
@@ -12104,7 +12104,7 @@
     </row>
     <row r="120" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A120" s="14" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>gdmt:hasVariableScheme</v>
       </c>
       <c r="B120" s="28" t="s">
@@ -12129,7 +12129,7 @@
     </row>
     <row r="121" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A121" s="14" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>gdmt:hasVariableSchemeIRI</v>
       </c>
       <c r="B121" s="28" t="s">
@@ -12154,7 +12154,7 @@
     </row>
     <row r="122" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A122" s="14" t="str">
-        <f t="shared" ref="A122:A149" si="3">"gdmt:"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B122," ",""),"-",""),"&amp;","")</f>
+        <f t="shared" si="1"/>
         <v>gdmt:hasPointLatitude</v>
       </c>
       <c r="B122" s="29" t="s">
@@ -12179,7 +12179,7 @@
     </row>
     <row r="123" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A123" s="14" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>gdmt:hasPointLongitude</v>
       </c>
       <c r="B123" s="29" t="s">
@@ -12204,7 +12204,7 @@
     </row>
     <row r="124" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A124" s="14" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>gdmt:hasWestBoundLongitude</v>
       </c>
       <c r="B124" s="25" t="s">
@@ -12229,7 +12229,7 @@
     </row>
     <row r="125" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A125" s="14" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>gdmt:hasEastBoundLongitude</v>
       </c>
       <c r="B125" s="25" t="s">
@@ -12254,7 +12254,7 @@
     </row>
     <row r="126" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A126" s="14" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>gdmt:hasSouthBoundLatitude</v>
       </c>
       <c r="B126" s="25" t="s">
@@ -12279,7 +12279,7 @@
     </row>
     <row r="127" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A127" s="14" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>gdmt:hasNorthBoundLatitude</v>
       </c>
       <c r="B127" s="25" t="s">
@@ -12304,7 +12304,7 @@
     </row>
     <row r="128" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A128" s="14" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>gdmt:hasPolygonPointLatitude</v>
       </c>
       <c r="B128" s="29" t="s">
@@ -12329,7 +12329,7 @@
     </row>
     <row r="129" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A129" s="14" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>gdmt:hasPolygonPointLongitude</v>
       </c>
       <c r="B129" s="29" t="s">
@@ -12354,7 +12354,7 @@
     </row>
     <row r="130" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A130" s="14" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>gdmt:hasGeoLocationDescription</v>
       </c>
       <c r="B130" s="25" t="s">
@@ -12379,7 +12379,7 @@
     </row>
     <row r="131" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A131" s="14" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>gdmt:hasVerticalExtentMaximumValue</v>
       </c>
       <c r="B131" s="30" t="s">
@@ -12404,7 +12404,7 @@
     </row>
     <row r="132" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A132" s="14" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>gdmt:hasVerticalExtentMinimumValue</v>
       </c>
       <c r="B132" s="30" t="s">
@@ -12429,7 +12429,7 @@
     </row>
     <row r="133" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A133" s="14" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>gdmt:hasVerticalExtentUnit</v>
       </c>
       <c r="B133" s="30" t="s">
@@ -12454,7 +12454,7 @@
     </row>
     <row r="134" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A134" s="14" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>gdmt:hasVerticalExtentUnitIRI</v>
       </c>
       <c r="B134" s="30" t="s">
@@ -12479,7 +12479,7 @@
     </row>
     <row r="135" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A135" s="14" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>gdmt:hasVerticalExtentUnitScheme</v>
       </c>
       <c r="B135" s="30" t="s">
@@ -12504,7 +12504,7 @@
     </row>
     <row r="136" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A136" s="14" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>gdmt:hasVerticalExtentUnitSchemeIRI</v>
       </c>
       <c r="B136" s="30" t="s">
@@ -12529,7 +12529,7 @@
     </row>
     <row r="137" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A137" s="14" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>gdmt:hasVerticalExtentDatum</v>
       </c>
       <c r="B137" s="30" t="s">
@@ -12554,7 +12554,7 @@
     </row>
     <row r="138" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A138" s="14" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>gdmt:hasVerticalExtentDatumIRI</v>
       </c>
       <c r="B138" s="30" t="s">
@@ -12579,7 +12579,7 @@
     </row>
     <row r="139" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A139" s="14" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>gdmt:hasTemporalExtentMinimumValue</v>
       </c>
       <c r="B139" s="31" t="s">
@@ -12604,7 +12604,7 @@
     </row>
     <row r="140" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A140" s="14" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>gdmt:hasTemporalExtentMaximumValue</v>
       </c>
       <c r="B140" s="31" t="s">
@@ -12629,7 +12629,7 @@
     </row>
     <row r="141" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A141" s="14" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>gdmt:hasTemporalResolution</v>
       </c>
       <c r="B141" s="31" t="s">
@@ -12654,7 +12654,7 @@
     </row>
     <row r="142" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A142" s="14" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>gdmt:hasDuration</v>
       </c>
       <c r="B142" s="31" t="s">
@@ -12679,7 +12679,7 @@
     </row>
     <row r="143" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A143" s="14" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>gdmt:hasAwardTitle</v>
       </c>
       <c r="B143" s="32" t="s">
@@ -12704,7 +12704,7 @@
     </row>
     <row r="144" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A144" s="14" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>gdmt:hasAwardPageIRI</v>
       </c>
       <c r="B144" s="32" t="s">
@@ -12729,7 +12729,7 @@
     </row>
     <row r="145" spans="1:12" s="9" customFormat="1" ht="16">
       <c r="A145" s="14" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="A145:A149" si="3">"gdmt:"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B145," ",""),"-",""),"&amp;","")</f>
         <v>gdmt:hasAwardLocalIdentifier</v>
       </c>
       <c r="B145" s="32" t="s">

--- a/ontology/dataset-voc.xlsx
+++ b/ontology/dataset-voc.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Secondary_Drive/work/repos/FAIR-data/generic-dataset-metadata-template/ontology/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jgraybeal/Documents/GitHub/fair-data-collective/generic-dataset-metadata-template/ontology/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEBEFC53-DF34-7C48-A563-7A411389EA61}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B00DC0E-75E4-8E43-8BFB-0AB6752C4513}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34400" yWindow="460" windowWidth="34400" windowHeight="28340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3340" yWindow="500" windowWidth="51200" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="gdmt ontology" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3534" uniqueCount="2281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3534" uniqueCount="2282">
   <si>
     <t>ConceptScheme URI</t>
   </si>
@@ -7057,7 +7057,10 @@
     <t>0.3.3</t>
   </si>
   <si>
-    <t>2021-01-19T12:33:00+01:00</t>
+    <t>owl:DatatypeProperty</t>
+  </si>
+  <si>
+    <t>2021-01-19T20:29:00-08:00</t>
   </si>
 </sst>
 </file>
@@ -7361,7 +7364,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -7451,9 +7454,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="30" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -9039,8 +9039,8 @@
   <dimension ref="A1:W1147"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="180" zoomScaleNormal="187" workbookViewId="0">
-      <pane ySplit="16" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B15" sqref="B15"/>
+      <pane ySplit="16" topLeftCell="A101" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
@@ -9450,7 +9450,7 @@
         <v>11</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>2280</v>
+        <v>2281</v>
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
@@ -10633,7 +10633,7 @@
         <v>2188</v>
       </c>
       <c r="C61" s="15" t="s">
-        <v>2041</v>
+        <v>2280</v>
       </c>
       <c r="D61" s="20" t="s">
         <v>2188</v>
@@ -10658,7 +10658,7 @@
         <v>2189</v>
       </c>
       <c r="C62" s="15" t="s">
-        <v>2041</v>
+        <v>2280</v>
       </c>
       <c r="D62" s="20" t="s">
         <v>2189</v>
@@ -10683,7 +10683,7 @@
         <v>2190</v>
       </c>
       <c r="C63" s="15" t="s">
-        <v>2041</v>
+        <v>2280</v>
       </c>
       <c r="D63" s="20" t="s">
         <v>2190</v>
@@ -10708,7 +10708,7 @@
         <v>2191</v>
       </c>
       <c r="C64" s="15" t="s">
-        <v>2041</v>
+        <v>2280</v>
       </c>
       <c r="D64" s="20" t="s">
         <v>2191</v>
@@ -10733,7 +10733,7 @@
         <v>2192</v>
       </c>
       <c r="C65" s="15" t="s">
-        <v>2041</v>
+        <v>2280</v>
       </c>
       <c r="D65" s="21" t="s">
         <v>2192</v>
@@ -10758,7 +10758,7 @@
         <v>2193</v>
       </c>
       <c r="C66" s="15" t="s">
-        <v>2041</v>
+        <v>2280</v>
       </c>
       <c r="D66" s="21" t="s">
         <v>2193</v>
@@ -10783,7 +10783,7 @@
         <v>2194</v>
       </c>
       <c r="C67" s="15" t="s">
-        <v>2041</v>
+        <v>2280</v>
       </c>
       <c r="D67" s="21" t="s">
         <v>2194</v>
@@ -10833,7 +10833,7 @@
         <v>2196</v>
       </c>
       <c r="C69" s="15" t="s">
-        <v>2041</v>
+        <v>2280</v>
       </c>
       <c r="D69" s="21" t="s">
         <v>2196</v>
@@ -10858,7 +10858,7 @@
         <v>2197</v>
       </c>
       <c r="C70" s="15" t="s">
-        <v>2041</v>
+        <v>2280</v>
       </c>
       <c r="D70" s="21" t="s">
         <v>2197</v>
@@ -10958,7 +10958,7 @@
         <v>2201</v>
       </c>
       <c r="C74" s="15" t="s">
-        <v>2041</v>
+        <v>2280</v>
       </c>
       <c r="D74" s="21" t="s">
         <v>2201</v>
@@ -10983,7 +10983,7 @@
         <v>2202</v>
       </c>
       <c r="C75" s="15" t="s">
-        <v>2041</v>
+        <v>2280</v>
       </c>
       <c r="D75" s="21" t="s">
         <v>2202</v>
@@ -11008,7 +11008,7 @@
         <v>2203</v>
       </c>
       <c r="C76" s="15" t="s">
-        <v>2041</v>
+        <v>2280</v>
       </c>
       <c r="D76" s="21" t="s">
         <v>2203</v>
@@ -11058,7 +11058,7 @@
         <v>2205</v>
       </c>
       <c r="C78" s="15" t="s">
-        <v>2041</v>
+        <v>2280</v>
       </c>
       <c r="D78" s="21" t="s">
         <v>2205</v>
@@ -11083,7 +11083,7 @@
         <v>2206</v>
       </c>
       <c r="C79" s="15" t="s">
-        <v>2041</v>
+        <v>2280</v>
       </c>
       <c r="D79" s="21" t="s">
         <v>2206</v>
@@ -11108,7 +11108,7 @@
         <v>2207</v>
       </c>
       <c r="C80" s="15" t="s">
-        <v>2041</v>
+        <v>2280</v>
       </c>
       <c r="D80" s="21" t="s">
         <v>2207</v>
@@ -11183,7 +11183,7 @@
         <v>2210</v>
       </c>
       <c r="C83" s="15" t="s">
-        <v>2041</v>
+        <v>2280</v>
       </c>
       <c r="D83" s="22" t="s">
         <v>2210</v>
@@ -11208,7 +11208,7 @@
         <v>2211</v>
       </c>
       <c r="C84" s="15" t="s">
-        <v>2041</v>
+        <v>2280</v>
       </c>
       <c r="D84" s="22" t="s">
         <v>2211</v>
@@ -11233,7 +11233,7 @@
         <v>2212</v>
       </c>
       <c r="C85" s="15" t="s">
-        <v>2041</v>
+        <v>2280</v>
       </c>
       <c r="D85" s="22" t="s">
         <v>2212</v>
@@ -11258,7 +11258,7 @@
         <v>2213</v>
       </c>
       <c r="C86" s="15" t="s">
-        <v>2041</v>
+        <v>2280</v>
       </c>
       <c r="D86" s="22" t="s">
         <v>2213</v>
@@ -11283,7 +11283,7 @@
         <v>2214</v>
       </c>
       <c r="C87" s="15" t="s">
-        <v>2041</v>
+        <v>2280</v>
       </c>
       <c r="D87" s="23" t="s">
         <v>2214</v>
@@ -11308,7 +11308,7 @@
         <v>2215</v>
       </c>
       <c r="C88" s="15" t="s">
-        <v>2041</v>
+        <v>2280</v>
       </c>
       <c r="D88" s="23" t="s">
         <v>2215</v>
@@ -11333,7 +11333,7 @@
         <v>2216</v>
       </c>
       <c r="C89" s="15" t="s">
-        <v>2041</v>
+        <v>2280</v>
       </c>
       <c r="D89" s="23" t="s">
         <v>2216</v>
@@ -11358,7 +11358,7 @@
         <v>2217</v>
       </c>
       <c r="C90" s="15" t="s">
-        <v>2041</v>
+        <v>2280</v>
       </c>
       <c r="D90" s="23" t="s">
         <v>2217</v>
@@ -11383,7 +11383,7 @@
         <v>2218</v>
       </c>
       <c r="C91" s="15" t="s">
-        <v>2041</v>
+        <v>2280</v>
       </c>
       <c r="D91" s="24" t="s">
         <v>2218</v>
@@ -11433,7 +11433,7 @@
         <v>2220</v>
       </c>
       <c r="C93" s="15" t="s">
-        <v>2041</v>
+        <v>2280</v>
       </c>
       <c r="D93" s="25" t="s">
         <v>2220</v>
@@ -11508,7 +11508,7 @@
         <v>2223</v>
       </c>
       <c r="C96" s="15" t="s">
-        <v>2041</v>
+        <v>2280</v>
       </c>
       <c r="D96" s="26" t="s">
         <v>2223</v>
@@ -11533,7 +11533,7 @@
         <v>2224</v>
       </c>
       <c r="C97" s="15" t="s">
-        <v>2041</v>
+        <v>2280</v>
       </c>
       <c r="D97" s="26" t="s">
         <v>2224</v>
@@ -11558,7 +11558,7 @@
         <v>2225</v>
       </c>
       <c r="C98" s="15" t="s">
-        <v>2041</v>
+        <v>2280</v>
       </c>
       <c r="D98" s="26" t="s">
         <v>2225</v>
@@ -11583,7 +11583,7 @@
         <v>2226</v>
       </c>
       <c r="C99" s="15" t="s">
-        <v>2041</v>
+        <v>2280</v>
       </c>
       <c r="D99" s="26" t="s">
         <v>2226</v>
@@ -11608,7 +11608,7 @@
         <v>2227</v>
       </c>
       <c r="C100" s="15" t="s">
-        <v>2041</v>
+        <v>2280</v>
       </c>
       <c r="D100" s="27" t="s">
         <v>2227</v>
@@ -11633,7 +11633,7 @@
         <v>2228</v>
       </c>
       <c r="C101" s="15" t="s">
-        <v>2041</v>
+        <v>2280</v>
       </c>
       <c r="D101" s="21" t="s">
         <v>2228</v>
@@ -11658,7 +11658,7 @@
         <v>2229</v>
       </c>
       <c r="C102" s="15" t="s">
-        <v>2041</v>
+        <v>2280</v>
       </c>
       <c r="D102" s="21" t="s">
         <v>2229</v>
@@ -11683,7 +11683,7 @@
         <v>2230</v>
       </c>
       <c r="C103" s="15" t="s">
-        <v>2041</v>
+        <v>2280</v>
       </c>
       <c r="D103" s="21" t="s">
         <v>2230</v>
@@ -11708,7 +11708,7 @@
         <v>2231</v>
       </c>
       <c r="C104" s="15" t="s">
-        <v>2041</v>
+        <v>2280</v>
       </c>
       <c r="D104" s="21" t="s">
         <v>2231</v>
@@ -11733,7 +11733,7 @@
         <v>2232</v>
       </c>
       <c r="C105" s="15" t="s">
-        <v>2041</v>
+        <v>2280</v>
       </c>
       <c r="D105" s="21" t="s">
         <v>2232</v>
@@ -11758,7 +11758,7 @@
         <v>2233</v>
       </c>
       <c r="C106" s="15" t="s">
-        <v>2041</v>
+        <v>2280</v>
       </c>
       <c r="D106" s="21" t="s">
         <v>2233</v>
@@ -11783,7 +11783,7 @@
         <v>2234</v>
       </c>
       <c r="C107" s="15" t="s">
-        <v>2041</v>
+        <v>2280</v>
       </c>
       <c r="D107" s="21" t="s">
         <v>2234</v>
@@ -11858,7 +11858,7 @@
         <v>2237</v>
       </c>
       <c r="C110" s="15" t="s">
-        <v>2041</v>
+        <v>2280</v>
       </c>
       <c r="D110" s="28" t="s">
         <v>2237</v>
@@ -11883,7 +11883,7 @@
         <v>2238</v>
       </c>
       <c r="C111" s="15" t="s">
-        <v>2041</v>
+        <v>2280</v>
       </c>
       <c r="D111" s="28" t="s">
         <v>2238</v>
@@ -11908,7 +11908,7 @@
         <v>2239</v>
       </c>
       <c r="C112" s="15" t="s">
-        <v>2041</v>
+        <v>2280</v>
       </c>
       <c r="D112" s="28" t="s">
         <v>2239</v>
@@ -11933,7 +11933,7 @@
         <v>2240</v>
       </c>
       <c r="C113" s="15" t="s">
-        <v>2041</v>
+        <v>2280</v>
       </c>
       <c r="D113" s="28" t="s">
         <v>2240</v>
@@ -11958,7 +11958,7 @@
         <v>2241</v>
       </c>
       <c r="C114" s="15" t="s">
-        <v>2041</v>
+        <v>2280</v>
       </c>
       <c r="D114" s="28" t="s">
         <v>2241</v>
@@ -11983,7 +11983,7 @@
         <v>2242</v>
       </c>
       <c r="C115" s="15" t="s">
-        <v>2041</v>
+        <v>2280</v>
       </c>
       <c r="D115" s="28" t="s">
         <v>2242</v>
@@ -12008,7 +12008,7 @@
         <v>2243</v>
       </c>
       <c r="C116" s="15" t="s">
-        <v>2041</v>
+        <v>2280</v>
       </c>
       <c r="D116" s="28" t="s">
         <v>2243</v>
@@ -12033,7 +12033,7 @@
         <v>2244</v>
       </c>
       <c r="C117" s="15" t="s">
-        <v>2041</v>
+        <v>2280</v>
       </c>
       <c r="D117" s="28" t="s">
         <v>2244</v>
@@ -12058,7 +12058,7 @@
         <v>2245</v>
       </c>
       <c r="C118" s="15" t="s">
-        <v>2041</v>
+        <v>2280</v>
       </c>
       <c r="D118" s="28" t="s">
         <v>2245</v>
@@ -12083,7 +12083,7 @@
         <v>2246</v>
       </c>
       <c r="C119" s="15" t="s">
-        <v>2041</v>
+        <v>2280</v>
       </c>
       <c r="D119" s="28" t="s">
         <v>2246</v>
@@ -12108,7 +12108,7 @@
         <v>2247</v>
       </c>
       <c r="C120" s="15" t="s">
-        <v>2041</v>
+        <v>2280</v>
       </c>
       <c r="D120" s="28" t="s">
         <v>2247</v>
@@ -12133,7 +12133,7 @@
         <v>2248</v>
       </c>
       <c r="C121" s="15" t="s">
-        <v>2041</v>
+        <v>2280</v>
       </c>
       <c r="D121" s="28" t="s">
         <v>2248</v>
@@ -12158,7 +12158,7 @@
         <v>2249</v>
       </c>
       <c r="C122" s="15" t="s">
-        <v>2041</v>
+        <v>2280</v>
       </c>
       <c r="D122" s="29" t="s">
         <v>2249</v>
@@ -12183,7 +12183,7 @@
         <v>2250</v>
       </c>
       <c r="C123" s="15" t="s">
-        <v>2041</v>
+        <v>2280</v>
       </c>
       <c r="D123" s="29" t="s">
         <v>2250</v>
@@ -12208,7 +12208,7 @@
         <v>2251</v>
       </c>
       <c r="C124" s="15" t="s">
-        <v>2041</v>
+        <v>2280</v>
       </c>
       <c r="D124" s="25" t="s">
         <v>2251</v>
@@ -12233,7 +12233,7 @@
         <v>2252</v>
       </c>
       <c r="C125" s="15" t="s">
-        <v>2041</v>
+        <v>2280</v>
       </c>
       <c r="D125" s="25" t="s">
         <v>2252</v>
@@ -12258,7 +12258,7 @@
         <v>2253</v>
       </c>
       <c r="C126" s="15" t="s">
-        <v>2041</v>
+        <v>2280</v>
       </c>
       <c r="D126" s="25" t="s">
         <v>2253</v>
@@ -12283,7 +12283,7 @@
         <v>2254</v>
       </c>
       <c r="C127" s="15" t="s">
-        <v>2041</v>
+        <v>2280</v>
       </c>
       <c r="D127" s="25" t="s">
         <v>2254</v>
@@ -12308,7 +12308,7 @@
         <v>2255</v>
       </c>
       <c r="C128" s="15" t="s">
-        <v>2041</v>
+        <v>2280</v>
       </c>
       <c r="D128" s="29" t="s">
         <v>2255</v>
@@ -12333,7 +12333,7 @@
         <v>2256</v>
       </c>
       <c r="C129" s="15" t="s">
-        <v>2041</v>
+        <v>2280</v>
       </c>
       <c r="D129" s="29" t="s">
         <v>2256</v>
@@ -12358,7 +12358,7 @@
         <v>2257</v>
       </c>
       <c r="C130" s="15" t="s">
-        <v>2041</v>
+        <v>2280</v>
       </c>
       <c r="D130" s="25" t="s">
         <v>2257</v>
@@ -12383,7 +12383,7 @@
         <v>2258</v>
       </c>
       <c r="C131" s="15" t="s">
-        <v>2041</v>
+        <v>2280</v>
       </c>
       <c r="D131" s="30" t="s">
         <v>2258</v>
@@ -12408,7 +12408,7 @@
         <v>2259</v>
       </c>
       <c r="C132" s="15" t="s">
-        <v>2041</v>
+        <v>2280</v>
       </c>
       <c r="D132" s="30" t="s">
         <v>2259</v>
@@ -12458,7 +12458,7 @@
         <v>2261</v>
       </c>
       <c r="C134" s="15" t="s">
-        <v>2041</v>
+        <v>2280</v>
       </c>
       <c r="D134" s="30" t="s">
         <v>2261</v>
@@ -12482,8 +12482,8 @@
       <c r="B135" s="30" t="s">
         <v>2262</v>
       </c>
-      <c r="C135" s="54" t="s">
-        <v>2041</v>
+      <c r="C135" s="15" t="s">
+        <v>2280</v>
       </c>
       <c r="D135" s="30" t="s">
         <v>2262</v>
@@ -12508,7 +12508,7 @@
         <v>2263</v>
       </c>
       <c r="C136" s="15" t="s">
-        <v>2041</v>
+        <v>2280</v>
       </c>
       <c r="D136" s="30" t="s">
         <v>2263</v>
@@ -12532,8 +12532,8 @@
       <c r="B137" s="30" t="s">
         <v>2264</v>
       </c>
-      <c r="C137" s="54" t="s">
-        <v>2041</v>
+      <c r="C137" s="15" t="s">
+        <v>2280</v>
       </c>
       <c r="D137" s="30" t="s">
         <v>2264</v>
@@ -12558,7 +12558,7 @@
         <v>2265</v>
       </c>
       <c r="C138" s="15" t="s">
-        <v>2041</v>
+        <v>2280</v>
       </c>
       <c r="D138" s="30" t="s">
         <v>2265</v>
@@ -12582,8 +12582,8 @@
       <c r="B139" s="31" t="s">
         <v>2266</v>
       </c>
-      <c r="C139" s="54" t="s">
-        <v>2041</v>
+      <c r="C139" s="15" t="s">
+        <v>2280</v>
       </c>
       <c r="D139" s="31" t="s">
         <v>2266</v>
@@ -12607,8 +12607,8 @@
       <c r="B140" s="31" t="s">
         <v>2267</v>
       </c>
-      <c r="C140" s="54" t="s">
-        <v>2041</v>
+      <c r="C140" s="15" t="s">
+        <v>2280</v>
       </c>
       <c r="D140" s="31" t="s">
         <v>2267</v>
@@ -12633,7 +12633,7 @@
         <v>2268</v>
       </c>
       <c r="C141" s="15" t="s">
-        <v>2041</v>
+        <v>2280</v>
       </c>
       <c r="D141" s="31" t="s">
         <v>2268</v>
@@ -12657,8 +12657,8 @@
       <c r="B142" s="31" t="s">
         <v>2269</v>
       </c>
-      <c r="C142" s="54" t="s">
-        <v>2041</v>
+      <c r="C142" s="15" t="s">
+        <v>2280</v>
       </c>
       <c r="D142" s="31" t="s">
         <v>2269</v>
@@ -12682,8 +12682,8 @@
       <c r="B143" s="32" t="s">
         <v>2270</v>
       </c>
-      <c r="C143" s="54" t="s">
-        <v>2041</v>
+      <c r="C143" s="15" t="s">
+        <v>2280</v>
       </c>
       <c r="D143" s="32" t="s">
         <v>2270</v>
@@ -12707,8 +12707,8 @@
       <c r="B144" s="32" t="s">
         <v>2271</v>
       </c>
-      <c r="C144" s="54" t="s">
-        <v>2041</v>
+      <c r="C144" s="15" t="s">
+        <v>2280</v>
       </c>
       <c r="D144" s="32" t="s">
         <v>2271</v>
@@ -12732,8 +12732,8 @@
       <c r="B145" s="32" t="s">
         <v>2272</v>
       </c>
-      <c r="C145" s="54" t="s">
-        <v>2041</v>
+      <c r="C145" s="15" t="s">
+        <v>2280</v>
       </c>
       <c r="D145" s="32" t="s">
         <v>2272</v>
@@ -12757,8 +12757,8 @@
       <c r="B146" s="32" t="s">
         <v>2273</v>
       </c>
-      <c r="C146" s="54" t="s">
-        <v>2041</v>
+      <c r="C146" s="15" t="s">
+        <v>2280</v>
       </c>
       <c r="D146" s="32" t="s">
         <v>2273</v>
@@ -12783,7 +12783,7 @@
         <v>2274</v>
       </c>
       <c r="C147" s="15" t="s">
-        <v>2041</v>
+        <v>2280</v>
       </c>
       <c r="D147" s="32" t="s">
         <v>2274</v>
@@ -12807,8 +12807,8 @@
       <c r="B148" s="32" t="s">
         <v>2275</v>
       </c>
-      <c r="C148" s="54" t="s">
-        <v>2041</v>
+      <c r="C148" s="15" t="s">
+        <v>2280</v>
       </c>
       <c r="D148" s="32" t="s">
         <v>2275</v>
@@ -12833,7 +12833,7 @@
         <v>2276</v>
       </c>
       <c r="C149" s="15" t="s">
-        <v>2041</v>
+        <v>2280</v>
       </c>
       <c r="D149" s="32" t="s">
         <v>2276</v>

--- a/ontology/dataset-voc.xlsx
+++ b/ontology/dataset-voc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Secondary_Drive/work/repos/FAIR-data/generic-dataset-metadata-template/ontology/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CFA0A27-0E3C-DD45-A787-3090C9A17196}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E07945E0-4891-2649-A207-E673970F6F91}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="23540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7033,9 +7033,6 @@
     <t>0.3.4</t>
   </si>
   <si>
-    <t>2021-01-16T14:30:00+01:00</t>
-  </si>
-  <si>
     <t>Information about the distributor of this dataset distribution. The Distributor includes persons or legal entities that responsible for distributing the dataset distribution.</t>
   </si>
   <si>
@@ -7055,6 +7052,9 @@
   </si>
   <si>
     <t>The type of the distributor of the described dataset (organization, or person).</t>
+  </si>
+  <si>
+    <t>2021-02-16T14:30:00+01:00</t>
   </si>
 </sst>
 </file>
@@ -9032,9 +9032,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W1146"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="180" zoomScaleNormal="187" workbookViewId="0">
-      <pane ySplit="16" topLeftCell="A154" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" zoomScale="180" zoomScaleNormal="187" workbookViewId="0">
+      <pane ySplit="16" topLeftCell="A218" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
@@ -9444,7 +9444,7 @@
         <v>11</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>2272</v>
+        <v>2279</v>
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
@@ -10133,7 +10133,7 @@
         <v>2159</v>
       </c>
       <c r="E41" s="36" t="s">
-        <v>2273</v>
+        <v>2272</v>
       </c>
       <c r="F41" s="36"/>
       <c r="G41" s="36"/>
@@ -10733,7 +10733,7 @@
         <v>2183</v>
       </c>
       <c r="E65" s="21" t="s">
-        <v>2274</v>
+        <v>2273</v>
       </c>
       <c r="F65" s="36"/>
       <c r="G65" s="36"/>
@@ -10933,7 +10933,7 @@
         <v>2191</v>
       </c>
       <c r="E73" s="21" t="s">
-        <v>2275</v>
+        <v>2274</v>
       </c>
       <c r="F73" s="36"/>
       <c r="G73" s="36"/>
@@ -10958,7 +10958,7 @@
         <v>2192</v>
       </c>
       <c r="E74" s="21" t="s">
-        <v>2278</v>
+        <v>2277</v>
       </c>
       <c r="F74" s="36"/>
       <c r="G74" s="36"/>
@@ -11158,7 +11158,7 @@
         <v>2200</v>
       </c>
       <c r="E82" s="21" t="s">
-        <v>2276</v>
+        <v>2275</v>
       </c>
       <c r="F82" s="36"/>
       <c r="G82" s="36"/>
@@ -11633,7 +11633,7 @@
         <v>2219</v>
       </c>
       <c r="E101" s="21" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="F101" s="36"/>
       <c r="G101" s="36"/>
@@ -11833,7 +11833,7 @@
         <v>2227</v>
       </c>
       <c r="E109" s="21" t="s">
-        <v>2279</v>
+        <v>2278</v>
       </c>
       <c r="F109" s="36"/>
       <c r="G109" s="36"/>
